--- a/Tabulados/pea-entidad.xlsx
+++ b/Tabulados/pea-entidad.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>Aguascalientes</t>
   </si>
@@ -181,27 +181,39 @@
     <t>IV Trim 2020</t>
   </si>
   <si>
-    <t>Nota: La información del primer trimestre de 2005, y hasta el primer trimestre de 2020, proviene de la Encuesta Nacional de Ocupación y Empleo (ENOE); a partir del tercer trimestre de 2020, la información procede de la Encuesta Nacional de Ocupación y Empleo, Nueva edición (ENOEN).</t>
-  </si>
-  <si>
     <t>I Tim 2021</t>
   </si>
   <si>
-    <t>Rank I trim 2021</t>
+    <t>2008 -2021</t>
+  </si>
+  <si>
+    <t>II Tim 2021</t>
+  </si>
+  <si>
+    <t>Rank II trim 2021</t>
   </si>
   <si>
     <t>% Partic Nal
- I Trim 2021</t>
-  </si>
-  <si>
-    <t>2008 -2021</t>
+ II Trim 2021</t>
+  </si>
+  <si>
+    <t>En cumplimiento a lo ordenado por el Ministro instructor de la Suprema Corte de Justicia de la Nación en el acuerdo de fecha 9 de julio de 2021 dictado en el incidente de suspensión derivado de la Controversia Constitucional 78/2021, las cifras poblacionales correspondientes al Estado de México se construyen aplicando las proyecciones de población empleadas con anterioridad a la concesión de la suspensión.</t>
+  </si>
+  <si>
+    <t>Notas:</t>
+  </si>
+  <si>
+    <t>La información del primer trimestre de 2005, y hasta el primer trimestre de 2020, proviene de la Encuesta Nacional de Ocupación y Empleo (ENOE); a partir del tercer trimestre de 2020, la información procede de la Encuesta Nacional de Ocupación y Empleo, Nueva edición (ENOEN).</t>
+  </si>
+  <si>
+    <t>Debido a lo anterior la suma no coincide con el total.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -398,8 +410,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="40">
+  <fills count="42">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -621,8 +648,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="8"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="19">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -819,8 +858,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </left>
       <right/>
       <top style="thin">
@@ -830,12 +878,71 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -901,7 +1008,7 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -924,18 +1031,6 @@
     <xf numFmtId="0" fontId="22" fillId="36" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="22" fillId="36" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="22" fillId="36" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="37" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="37" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="37" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="37" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="23" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -966,11 +1061,72 @@
     <xf numFmtId="10" fontId="22" fillId="36" borderId="6" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="18" xfId="45" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="17" xfId="45" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="40" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="40" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="41" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="41" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="23" fillId="35" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="23" fillId="35" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="22" fillId="39" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="22" fillId="39" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="22" fillId="36" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="45" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="34" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="29" fillId="34" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="29" fillId="34" borderId="17" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="60">
     <cellStyle name="20% - Énfasis1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -1334,10 +1490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q48"/>
+  <dimension ref="A1:R49"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="T7" sqref="T7"/>
+      <selection activeCell="A42" sqref="A42:R42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1355,13 +1511,14 @@
     <col min="12" max="12" width="9.5703125" style="3" customWidth="1"/>
     <col min="13" max="13" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.28515625" style="3" customWidth="1"/>
-    <col min="15" max="15" width="11" style="3" customWidth="1"/>
-    <col min="16" max="16" width="12.85546875" style="3" customWidth="1"/>
-    <col min="17" max="17" width="12.140625" style="3" customWidth="1"/>
-    <col min="18" max="16384" width="11.42578125" style="3"/>
+    <col min="15" max="15" width="10.85546875" style="3" customWidth="1"/>
+    <col min="16" max="16" width="10.140625" style="3" customWidth="1"/>
+    <col min="17" max="17" width="12.85546875" style="3" customWidth="1"/>
+    <col min="18" max="18" width="12.140625" style="3" customWidth="1"/>
+    <col min="19" max="16384" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>30</v>
       </c>
@@ -1380,8 +1537,9 @@
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q1" s="2"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>31</v>
       </c>
@@ -1400,10 +1558,11 @@
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q2" s="2"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1420,8 +1579,9 @@
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q3" s="2"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1438,1956 +1598,2091 @@
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
-    </row>
-    <row r="5" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="12" t="s">
+      <c r="Q4" s="2"/>
+    </row>
+    <row r="5" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="H5" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="I5" s="15" t="s">
+      <c r="I5" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="J5" s="15" t="s">
+      <c r="J5" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="K5" s="15" t="s">
+      <c r="K5" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="L5" s="15" t="s">
+      <c r="L5" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="M5" s="15" t="s">
+      <c r="M5" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="N5" s="15" t="s">
+      <c r="N5" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="O5" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="P5" s="15" t="s">
+      <c r="O5" s="31">
+        <v>2021</v>
+      </c>
+      <c r="P5" s="32"/>
+      <c r="Q5" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="R5" s="27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="26"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="29"/>
+      <c r="O6" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="P6" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="Q5" s="14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+      <c r="Q6" s="29"/>
+      <c r="R6" s="30"/>
+    </row>
+    <row r="7" spans="1:18" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="21">
+      <c r="B7" s="17">
         <v>472190</v>
       </c>
-      <c r="C6" s="22">
+      <c r="C7" s="18">
         <v>487416</v>
       </c>
-      <c r="D6" s="22">
+      <c r="D7" s="18">
         <v>491955</v>
       </c>
-      <c r="E6" s="22">
+      <c r="E7" s="18">
         <v>515998</v>
       </c>
-      <c r="F6" s="22">
+      <c r="F7" s="18">
         <v>520994</v>
       </c>
-      <c r="G6" s="22">
+      <c r="G7" s="18">
         <v>539578</v>
       </c>
-      <c r="H6" s="22">
+      <c r="H7" s="18">
         <v>536639</v>
       </c>
-      <c r="I6" s="16">
+      <c r="I7" s="12">
         <v>548262</v>
       </c>
-      <c r="J6" s="16">
+      <c r="J7" s="12">
         <v>566914</v>
       </c>
-      <c r="K6" s="16">
+      <c r="K7" s="12">
         <v>568031</v>
       </c>
-      <c r="L6" s="16">
+      <c r="L7" s="12">
         <v>584160</v>
       </c>
-      <c r="M6" s="16">
+      <c r="M7" s="12">
         <v>605419</v>
       </c>
-      <c r="N6" s="16">
+      <c r="N7" s="12">
         <v>591245</v>
       </c>
-      <c r="O6" s="16">
+      <c r="O7" s="35">
         <v>618289</v>
       </c>
-      <c r="P6" s="5">
-        <f>_xlfn.RANK.EQ(O6,$O$6:$O$37)</f>
-        <v>28</v>
-      </c>
-      <c r="Q6" s="6">
-        <f>O6/$O$38</f>
-        <v>1.1163447057173268E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
+      <c r="P7" s="36">
+        <v>631864</v>
+      </c>
+      <c r="Q7" s="5">
+        <f>_xlfn.RANK.EQ(P7,$P$7:$P$38)</f>
+        <v>27</v>
+      </c>
+      <c r="R7" s="6">
+        <f>P7/$P$39</f>
+        <v>1.095687759161219E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="21">
+      <c r="B8" s="17">
         <v>1373116</v>
       </c>
-      <c r="C7" s="22">
+      <c r="C8" s="18">
         <v>1423103</v>
       </c>
-      <c r="D7" s="22">
+      <c r="D8" s="18">
         <v>1411439</v>
       </c>
-      <c r="E7" s="22">
+      <c r="E8" s="18">
         <v>1507177</v>
       </c>
-      <c r="F7" s="22">
+      <c r="F8" s="18">
         <v>1512675</v>
       </c>
-      <c r="G7" s="22">
+      <c r="G8" s="18">
         <v>1555422</v>
       </c>
-      <c r="H7" s="22">
+      <c r="H8" s="18">
         <v>1571047</v>
       </c>
-      <c r="I7" s="16">
+      <c r="I8" s="12">
         <v>1597427</v>
       </c>
-      <c r="J7" s="16">
+      <c r="J8" s="12">
         <v>1636376</v>
       </c>
-      <c r="K7" s="16">
+      <c r="K8" s="12">
         <v>1677618</v>
       </c>
-      <c r="L7" s="16">
+      <c r="L8" s="12">
         <v>1741615</v>
       </c>
-      <c r="M7" s="16">
+      <c r="M8" s="12">
         <v>1766564</v>
       </c>
-      <c r="N7" s="16">
+      <c r="N8" s="12">
         <v>1705014</v>
       </c>
-      <c r="O7" s="16">
+      <c r="O8" s="35">
         <v>1731982</v>
       </c>
-      <c r="P7" s="5">
-        <f t="shared" ref="P7:P37" si="0">_xlfn.RANK.EQ(O7,$O$6:$O$37)</f>
+      <c r="P8" s="36">
+        <v>1808741</v>
+      </c>
+      <c r="Q8" s="5">
+        <f t="shared" ref="Q8:Q38" si="0">_xlfn.RANK.EQ(P8,$P$7:$P$38)</f>
         <v>11</v>
       </c>
-      <c r="Q7" s="6">
-        <f t="shared" ref="Q7:Q37" si="1">O7/$O$38</f>
-        <v>3.127160496301417E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
+      <c r="R8" s="6">
+        <f t="shared" ref="R8:R38" si="1">P8/$P$39</f>
+        <v>3.1364587525053216E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="21">
+      <c r="B9" s="17">
         <v>297472</v>
       </c>
-      <c r="C8" s="22">
+      <c r="C9" s="18">
         <v>291671</v>
       </c>
-      <c r="D8" s="22">
+      <c r="D9" s="18">
         <v>308752</v>
       </c>
-      <c r="E8" s="22">
+      <c r="E9" s="18">
         <v>338791</v>
       </c>
-      <c r="F8" s="22">
+      <c r="F9" s="18">
         <v>343753</v>
       </c>
-      <c r="G8" s="22">
+      <c r="G9" s="18">
         <v>355413</v>
       </c>
-      <c r="H8" s="22">
+      <c r="H9" s="18">
         <v>368237</v>
       </c>
-      <c r="I8" s="16">
+      <c r="I9" s="12">
         <v>375914</v>
       </c>
-      <c r="J8" s="16">
+      <c r="J9" s="12">
         <v>394690</v>
       </c>
-      <c r="K8" s="16">
+      <c r="K9" s="12">
         <v>402255</v>
       </c>
-      <c r="L8" s="16">
+      <c r="L9" s="12">
         <v>425517</v>
       </c>
-      <c r="M8" s="16">
+      <c r="M9" s="12">
         <v>453332</v>
       </c>
-      <c r="N8" s="16">
+      <c r="N9" s="12">
         <v>424557</v>
       </c>
-      <c r="O8" s="16">
+      <c r="O9" s="35">
         <v>403452</v>
       </c>
-      <c r="P8" s="5">
+      <c r="P9" s="36">
+        <v>426715</v>
+      </c>
+      <c r="Q9" s="5">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="Q8" s="6">
+      <c r="R9" s="6">
         <f t="shared" si="1"/>
-        <v>7.2844819204460516E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
+        <v>7.3994784027967969E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="21">
+      <c r="B10" s="17">
         <v>351242</v>
       </c>
-      <c r="C9" s="22">
+      <c r="C10" s="18">
         <v>373925</v>
       </c>
-      <c r="D9" s="22">
+      <c r="D10" s="18">
         <v>372630</v>
       </c>
-      <c r="E9" s="22">
+      <c r="E10" s="18">
         <v>383579</v>
       </c>
-      <c r="F9" s="22">
+      <c r="F10" s="18">
         <v>404822</v>
       </c>
-      <c r="G9" s="22">
+      <c r="G10" s="18">
         <v>401356</v>
       </c>
-      <c r="H9" s="22">
+      <c r="H10" s="18">
         <v>400431</v>
       </c>
-      <c r="I9" s="16">
+      <c r="I10" s="12">
         <v>411969</v>
       </c>
-      <c r="J9" s="16">
+      <c r="J10" s="12">
         <v>413636</v>
       </c>
-      <c r="K9" s="16">
+      <c r="K10" s="12">
         <v>418346</v>
       </c>
-      <c r="L9" s="16">
+      <c r="L10" s="12">
         <v>433649</v>
       </c>
-      <c r="M9" s="16">
+      <c r="M10" s="12">
         <v>448380</v>
       </c>
-      <c r="N9" s="16">
+      <c r="N10" s="12">
         <v>436711</v>
       </c>
-      <c r="O9" s="16">
+      <c r="O10" s="35">
         <v>438863</v>
       </c>
-      <c r="P9" s="5">
+      <c r="P10" s="36">
+        <v>443205</v>
+      </c>
+      <c r="Q10" s="5">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="Q9" s="6">
+      <c r="R10" s="6">
         <f t="shared" si="1"/>
-        <v>7.9238412228783486E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
+        <v>7.6854242890724593E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="21">
+      <c r="B11" s="17">
         <v>1159856</v>
       </c>
-      <c r="C10" s="22">
+      <c r="C11" s="18">
         <v>1203049</v>
       </c>
-      <c r="D10" s="22">
+      <c r="D11" s="18">
         <v>1176391</v>
       </c>
-      <c r="E10" s="22">
+      <c r="E11" s="18">
         <v>1272864</v>
       </c>
-      <c r="F10" s="22">
+      <c r="F11" s="18">
         <v>1282325</v>
       </c>
-      <c r="G10" s="22">
+      <c r="G11" s="18">
         <v>1319979</v>
       </c>
-      <c r="H10" s="22">
+      <c r="H11" s="18">
         <v>1314365</v>
       </c>
-      <c r="I10" s="16">
+      <c r="I11" s="12">
         <v>1313758</v>
       </c>
-      <c r="J10" s="16">
+      <c r="J11" s="12">
         <v>1366191</v>
       </c>
-      <c r="K10" s="16">
+      <c r="K11" s="12">
         <v>1350875</v>
       </c>
-      <c r="L10" s="16">
+      <c r="L11" s="12">
         <v>1391498</v>
       </c>
-      <c r="M10" s="16">
+      <c r="M11" s="12">
         <v>1402895</v>
       </c>
-      <c r="N10" s="16">
+      <c r="N11" s="12">
         <v>1410380</v>
       </c>
-      <c r="O10" s="16">
+      <c r="O11" s="35">
         <v>1419362</v>
       </c>
-      <c r="P10" s="5">
+      <c r="P11" s="36">
+        <v>1467284</v>
+      </c>
+      <c r="Q11" s="5">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="R11" s="6">
+        <f t="shared" si="1"/>
+        <v>2.5443530854948375E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="17">
+        <v>307366</v>
+      </c>
+      <c r="C12" s="18">
+        <v>310981</v>
+      </c>
+      <c r="D12" s="18">
+        <v>315677</v>
+      </c>
+      <c r="E12" s="18">
+        <v>331644</v>
+      </c>
+      <c r="F12" s="18">
+        <v>344603</v>
+      </c>
+      <c r="G12" s="18">
+        <v>357271</v>
+      </c>
+      <c r="H12" s="18">
+        <v>356667</v>
+      </c>
+      <c r="I12" s="12">
+        <v>359330</v>
+      </c>
+      <c r="J12" s="12">
+        <v>365409</v>
+      </c>
+      <c r="K12" s="12">
+        <v>380332</v>
+      </c>
+      <c r="L12" s="12">
+        <v>396857</v>
+      </c>
+      <c r="M12" s="12">
+        <v>396074</v>
+      </c>
+      <c r="N12" s="12">
+        <v>371574</v>
+      </c>
+      <c r="O12" s="35">
+        <v>365263</v>
+      </c>
+      <c r="P12" s="36">
+        <v>381094</v>
+      </c>
+      <c r="Q12" s="5">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="R12" s="6">
+        <f t="shared" si="1"/>
+        <v>6.6083845715183259E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="17">
+        <v>1709199</v>
+      </c>
+      <c r="C13" s="18">
+        <v>1865899</v>
+      </c>
+      <c r="D13" s="18">
+        <v>1821266</v>
+      </c>
+      <c r="E13" s="18">
+        <v>1912096</v>
+      </c>
+      <c r="F13" s="18">
+        <v>1897400</v>
+      </c>
+      <c r="G13" s="18">
+        <v>1956349</v>
+      </c>
+      <c r="H13" s="18">
+        <v>1865624</v>
+      </c>
+      <c r="I13" s="12">
+        <v>2014866</v>
+      </c>
+      <c r="J13" s="12">
+        <v>1964597</v>
+      </c>
+      <c r="K13" s="12">
+        <v>1906694</v>
+      </c>
+      <c r="L13" s="12">
+        <v>1969051</v>
+      </c>
+      <c r="M13" s="12">
+        <v>2166019</v>
+      </c>
+      <c r="N13" s="12">
+        <v>2108289</v>
+      </c>
+      <c r="O13" s="35">
+        <v>2131275</v>
+      </c>
+      <c r="P13" s="36">
+        <v>2263306</v>
+      </c>
+      <c r="Q13" s="5">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="R13" s="6">
+        <f t="shared" si="1"/>
+        <v>3.924700061146294E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="17">
+        <v>1487165</v>
+      </c>
+      <c r="C14" s="18">
+        <v>1500752</v>
+      </c>
+      <c r="D14" s="18">
+        <v>1348916</v>
+      </c>
+      <c r="E14" s="18">
+        <v>1437635</v>
+      </c>
+      <c r="F14" s="18">
+        <v>1517276</v>
+      </c>
+      <c r="G14" s="18">
+        <v>1532475</v>
+      </c>
+      <c r="H14" s="18">
+        <v>1593911</v>
+      </c>
+      <c r="I14" s="12">
+        <v>1627360</v>
+      </c>
+      <c r="J14" s="12">
+        <v>1674505</v>
+      </c>
+      <c r="K14" s="12">
+        <v>1676051</v>
+      </c>
+      <c r="L14" s="12">
+        <v>1772618</v>
+      </c>
+      <c r="M14" s="12">
+        <v>1785404</v>
+      </c>
+      <c r="N14" s="12">
+        <v>1763997</v>
+      </c>
+      <c r="O14" s="35">
+        <v>1671214</v>
+      </c>
+      <c r="P14" s="36">
+        <v>1740632</v>
+      </c>
+      <c r="Q14" s="5">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="R14" s="6">
+        <f t="shared" si="1"/>
+        <v>3.0183539109750055E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="17">
+        <v>4154767</v>
+      </c>
+      <c r="C15" s="18">
+        <v>4235853</v>
+      </c>
+      <c r="D15" s="18">
+        <v>4205116</v>
+      </c>
+      <c r="E15" s="18">
+        <v>4393420</v>
+      </c>
+      <c r="F15" s="18">
+        <v>4470040</v>
+      </c>
+      <c r="G15" s="18">
+        <v>4429488</v>
+      </c>
+      <c r="H15" s="18">
+        <v>4314435</v>
+      </c>
+      <c r="I15" s="12">
+        <v>4403287</v>
+      </c>
+      <c r="J15" s="12">
+        <v>4350772</v>
+      </c>
+      <c r="K15" s="12">
+        <v>4335159</v>
+      </c>
+      <c r="L15" s="12">
+        <v>4440317</v>
+      </c>
+      <c r="M15" s="12">
+        <v>4514470</v>
+      </c>
+      <c r="N15" s="12">
+        <v>3935752</v>
+      </c>
+      <c r="O15" s="35">
+        <v>4175657</v>
+      </c>
+      <c r="P15" s="36">
+        <v>4439594</v>
+      </c>
+      <c r="Q15" s="5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="R15" s="6">
+        <f t="shared" si="1"/>
+        <v>7.6985060099097155E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="17">
+        <v>636799</v>
+      </c>
+      <c r="C16" s="18">
+        <v>638272</v>
+      </c>
+      <c r="D16" s="18">
+        <v>653642</v>
+      </c>
+      <c r="E16" s="18">
+        <v>707317</v>
+      </c>
+      <c r="F16" s="18">
+        <v>718467</v>
+      </c>
+      <c r="G16" s="18">
+        <v>732490</v>
+      </c>
+      <c r="H16" s="18">
+        <v>744530</v>
+      </c>
+      <c r="I16" s="12">
+        <v>779604</v>
+      </c>
+      <c r="J16" s="12">
+        <v>783889</v>
+      </c>
+      <c r="K16" s="12">
+        <v>778302</v>
+      </c>
+      <c r="L16" s="12">
+        <v>804613</v>
+      </c>
+      <c r="M16" s="12">
+        <v>810077</v>
+      </c>
+      <c r="N16" s="12">
+        <v>798476</v>
+      </c>
+      <c r="O16" s="35">
+        <v>803577</v>
+      </c>
+      <c r="P16" s="36">
+        <v>843167</v>
+      </c>
+      <c r="Q16" s="5">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="R16" s="6">
+        <f t="shared" si="1"/>
+        <v>1.4620990606027364E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="17">
+        <v>2149708</v>
+      </c>
+      <c r="C17" s="18">
+        <v>2262407</v>
+      </c>
+      <c r="D17" s="18">
+        <v>2279071</v>
+      </c>
+      <c r="E17" s="18">
+        <v>2397360</v>
+      </c>
+      <c r="F17" s="18">
+        <v>2473548</v>
+      </c>
+      <c r="G17" s="18">
+        <v>2517481</v>
+      </c>
+      <c r="H17" s="18">
+        <v>2457663</v>
+      </c>
+      <c r="I17" s="12">
+        <v>2536929</v>
+      </c>
+      <c r="J17" s="12">
+        <v>2583592</v>
+      </c>
+      <c r="K17" s="12">
+        <v>2633796</v>
+      </c>
+      <c r="L17" s="12">
+        <v>2659163</v>
+      </c>
+      <c r="M17" s="12">
+        <v>2682748</v>
+      </c>
+      <c r="N17" s="12">
+        <v>2656883</v>
+      </c>
+      <c r="O17" s="35">
+        <v>2684322</v>
+      </c>
+      <c r="P17" s="36">
+        <v>2800508</v>
+      </c>
+      <c r="Q17" s="5">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="R17" s="6">
+        <f t="shared" si="1"/>
+        <v>4.8562385814559253E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="17">
+        <v>1353231</v>
+      </c>
+      <c r="C18" s="18">
+        <v>1426814</v>
+      </c>
+      <c r="D18" s="18">
+        <v>1422289</v>
+      </c>
+      <c r="E18" s="18">
+        <v>1474825</v>
+      </c>
+      <c r="F18" s="18">
+        <v>1391164</v>
+      </c>
+      <c r="G18" s="18">
+        <v>1413436</v>
+      </c>
+      <c r="H18" s="18">
+        <v>1438315</v>
+      </c>
+      <c r="I18" s="12">
+        <v>1456709</v>
+      </c>
+      <c r="J18" s="12">
+        <v>1421962</v>
+      </c>
+      <c r="K18" s="12">
+        <v>1496749</v>
+      </c>
+      <c r="L18" s="12">
+        <v>1559635</v>
+      </c>
+      <c r="M18" s="12">
+        <v>1541546</v>
+      </c>
+      <c r="N18" s="12">
+        <v>1564536</v>
+      </c>
+      <c r="O18" s="35">
+        <v>1415941</v>
+      </c>
+      <c r="P18" s="36">
+        <v>1531375</v>
+      </c>
+      <c r="Q18" s="5">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="Q10" s="6">
+      <c r="R18" s="6">
         <f t="shared" si="1"/>
-        <v>2.5627129937559237E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="21">
-        <v>307366</v>
-      </c>
-      <c r="C11" s="22">
-        <v>310981</v>
-      </c>
-      <c r="D11" s="22">
-        <v>315677</v>
-      </c>
-      <c r="E11" s="22">
-        <v>331644</v>
-      </c>
-      <c r="F11" s="22">
-        <v>344603</v>
-      </c>
-      <c r="G11" s="22">
-        <v>357271</v>
-      </c>
-      <c r="H11" s="22">
-        <v>356667</v>
-      </c>
-      <c r="I11" s="16">
-        <v>359330</v>
-      </c>
-      <c r="J11" s="16">
-        <v>365409</v>
-      </c>
-      <c r="K11" s="16">
-        <v>380332</v>
-      </c>
-      <c r="L11" s="16">
-        <v>396857</v>
-      </c>
-      <c r="M11" s="16">
-        <v>396074</v>
-      </c>
-      <c r="N11" s="16">
-        <v>371574</v>
-      </c>
-      <c r="O11" s="16">
-        <v>365263</v>
-      </c>
-      <c r="P11" s="5">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="Q11" s="6">
-        <f t="shared" si="1"/>
-        <v>6.5949647534474642E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="21">
-        <v>1709199</v>
-      </c>
-      <c r="C12" s="22">
-        <v>1865899</v>
-      </c>
-      <c r="D12" s="22">
-        <v>1821266</v>
-      </c>
-      <c r="E12" s="22">
-        <v>1912096</v>
-      </c>
-      <c r="F12" s="22">
-        <v>1897400</v>
-      </c>
-      <c r="G12" s="22">
-        <v>1956349</v>
-      </c>
-      <c r="H12" s="22">
-        <v>1865624</v>
-      </c>
-      <c r="I12" s="16">
-        <v>2014866</v>
-      </c>
-      <c r="J12" s="16">
-        <v>1964597</v>
-      </c>
-      <c r="K12" s="16">
-        <v>1906694</v>
-      </c>
-      <c r="L12" s="16">
-        <v>1969051</v>
-      </c>
-      <c r="M12" s="16">
-        <v>2166019</v>
-      </c>
-      <c r="N12" s="16">
-        <v>2108289</v>
-      </c>
-      <c r="O12" s="16">
-        <v>2131275</v>
-      </c>
-      <c r="P12" s="5">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="Q12" s="6">
-        <f t="shared" si="1"/>
-        <v>3.8480994529705291E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="21">
-        <v>1487165</v>
-      </c>
-      <c r="C13" s="22">
-        <v>1500752</v>
-      </c>
-      <c r="D13" s="22">
-        <v>1348916</v>
-      </c>
-      <c r="E13" s="22">
-        <v>1437635</v>
-      </c>
-      <c r="F13" s="22">
-        <v>1517276</v>
-      </c>
-      <c r="G13" s="22">
-        <v>1532475</v>
-      </c>
-      <c r="H13" s="22">
-        <v>1593911</v>
-      </c>
-      <c r="I13" s="16">
-        <v>1627360</v>
-      </c>
-      <c r="J13" s="16">
-        <v>1674505</v>
-      </c>
-      <c r="K13" s="16">
-        <v>1676051</v>
-      </c>
-      <c r="L13" s="16">
-        <v>1772618</v>
-      </c>
-      <c r="M13" s="16">
-        <v>1785404</v>
-      </c>
-      <c r="N13" s="16">
-        <v>1763997</v>
-      </c>
-      <c r="O13" s="16">
-        <v>1671214</v>
-      </c>
-      <c r="P13" s="5">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="Q13" s="6">
-        <f t="shared" si="1"/>
-        <v>3.0174415217166673E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B14" s="21">
-        <v>4154767</v>
-      </c>
-      <c r="C14" s="22">
-        <v>4235853</v>
-      </c>
-      <c r="D14" s="22">
-        <v>4205116</v>
-      </c>
-      <c r="E14" s="22">
-        <v>4393420</v>
-      </c>
-      <c r="F14" s="22">
-        <v>4470040</v>
-      </c>
-      <c r="G14" s="22">
-        <v>4429488</v>
-      </c>
-      <c r="H14" s="22">
-        <v>4314435</v>
-      </c>
-      <c r="I14" s="16">
-        <v>4403287</v>
-      </c>
-      <c r="J14" s="16">
-        <v>4350772</v>
-      </c>
-      <c r="K14" s="16">
-        <v>4335159</v>
-      </c>
-      <c r="L14" s="16">
-        <v>4440317</v>
-      </c>
-      <c r="M14" s="16">
-        <v>4514470</v>
-      </c>
-      <c r="N14" s="16">
-        <v>3935752</v>
-      </c>
-      <c r="O14" s="16">
-        <v>4175657</v>
-      </c>
-      <c r="P14" s="5">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="Q14" s="6">
-        <f t="shared" si="1"/>
-        <v>7.5393102333075557E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" s="21">
-        <v>636799</v>
-      </c>
-      <c r="C15" s="22">
-        <v>638272</v>
-      </c>
-      <c r="D15" s="22">
-        <v>653642</v>
-      </c>
-      <c r="E15" s="22">
-        <v>707317</v>
-      </c>
-      <c r="F15" s="22">
-        <v>718467</v>
-      </c>
-      <c r="G15" s="22">
-        <v>732490</v>
-      </c>
-      <c r="H15" s="22">
-        <v>744530</v>
-      </c>
-      <c r="I15" s="16">
-        <v>779604</v>
-      </c>
-      <c r="J15" s="16">
-        <v>783889</v>
-      </c>
-      <c r="K15" s="16">
-        <v>778302</v>
-      </c>
-      <c r="L15" s="16">
-        <v>804613</v>
-      </c>
-      <c r="M15" s="16">
-        <v>810077</v>
-      </c>
-      <c r="N15" s="16">
-        <v>798476</v>
-      </c>
-      <c r="O15" s="16">
-        <v>803577</v>
-      </c>
-      <c r="P15" s="5">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="Q15" s="6">
-        <f t="shared" si="1"/>
-        <v>1.4508893568965521E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" s="21">
-        <v>2149708</v>
-      </c>
-      <c r="C16" s="22">
-        <v>2262407</v>
-      </c>
-      <c r="D16" s="22">
-        <v>2279071</v>
-      </c>
-      <c r="E16" s="22">
-        <v>2397360</v>
-      </c>
-      <c r="F16" s="22">
-        <v>2473548</v>
-      </c>
-      <c r="G16" s="22">
-        <v>2517481</v>
-      </c>
-      <c r="H16" s="22">
-        <v>2457663</v>
-      </c>
-      <c r="I16" s="16">
-        <v>2536929</v>
-      </c>
-      <c r="J16" s="16">
-        <v>2583592</v>
-      </c>
-      <c r="K16" s="16">
-        <v>2633796</v>
-      </c>
-      <c r="L16" s="16">
-        <v>2659163</v>
-      </c>
-      <c r="M16" s="16">
-        <v>2682748</v>
-      </c>
-      <c r="N16" s="16">
-        <v>2656883</v>
-      </c>
-      <c r="O16" s="16">
-        <v>2684322</v>
-      </c>
-      <c r="P16" s="5">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="Q16" s="6">
-        <f t="shared" si="1"/>
-        <v>4.8466472040430059E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" s="21">
-        <v>1353231</v>
-      </c>
-      <c r="C17" s="22">
-        <v>1426814</v>
-      </c>
-      <c r="D17" s="22">
-        <v>1422289</v>
-      </c>
-      <c r="E17" s="22">
-        <v>1474825</v>
-      </c>
-      <c r="F17" s="22">
-        <v>1391164</v>
-      </c>
-      <c r="G17" s="22">
-        <v>1413436</v>
-      </c>
-      <c r="H17" s="22">
-        <v>1438315</v>
-      </c>
-      <c r="I17" s="16">
-        <v>1456709</v>
-      </c>
-      <c r="J17" s="16">
-        <v>1421962</v>
-      </c>
-      <c r="K17" s="16">
-        <v>1496749</v>
-      </c>
-      <c r="L17" s="16">
-        <v>1559635</v>
-      </c>
-      <c r="M17" s="16">
-        <v>1541546</v>
-      </c>
-      <c r="N17" s="16">
-        <v>1564536</v>
-      </c>
-      <c r="O17" s="16">
-        <v>1415941</v>
-      </c>
-      <c r="P17" s="5">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="Q17" s="6">
-        <f t="shared" si="1"/>
-        <v>2.5565362459272239E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
+        <v>2.6554904887531362E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="21">
+      <c r="B19" s="17">
         <v>1028269</v>
       </c>
-      <c r="C18" s="22">
+      <c r="C19" s="18">
         <v>1071419</v>
       </c>
-      <c r="D18" s="22">
+      <c r="D19" s="18">
         <v>1092969</v>
       </c>
-      <c r="E18" s="22">
+      <c r="E19" s="18">
         <v>1118479</v>
       </c>
-      <c r="F18" s="22">
+      <c r="F19" s="18">
         <v>1174639</v>
       </c>
-      <c r="G18" s="22">
+      <c r="G19" s="18">
         <v>1205244</v>
       </c>
-      <c r="H18" s="22">
+      <c r="H19" s="18">
         <v>1220081</v>
       </c>
-      <c r="I18" s="16">
+      <c r="I19" s="12">
         <v>1295452</v>
       </c>
-      <c r="J18" s="16">
+      <c r="J19" s="12">
         <v>1230173</v>
       </c>
-      <c r="K18" s="16">
+      <c r="K19" s="12">
         <v>1237664</v>
       </c>
-      <c r="L18" s="16">
+      <c r="L19" s="12">
         <v>1302465</v>
       </c>
-      <c r="M18" s="16">
+      <c r="M19" s="12">
         <v>1315532</v>
       </c>
-      <c r="N18" s="16">
+      <c r="N19" s="12">
         <v>1269809</v>
       </c>
-      <c r="O18" s="16">
+      <c r="O19" s="35">
         <v>1280514</v>
       </c>
-      <c r="P18" s="5">
+      <c r="P19" s="36">
+        <v>1326174</v>
+      </c>
+      <c r="Q19" s="5">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="Q18" s="6">
+      <c r="R19" s="6">
         <f t="shared" si="1"/>
-        <v>2.3120175589358971E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="17" t="s">
+        <v>2.2996603989432384E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="23">
+      <c r="B20" s="19">
         <v>3164862</v>
       </c>
-      <c r="C19" s="24">
+      <c r="C20" s="20">
         <v>3363966</v>
       </c>
-      <c r="D19" s="24">
+      <c r="D20" s="20">
         <v>3398249</v>
       </c>
-      <c r="E19" s="24">
+      <c r="E20" s="20">
         <v>3469069</v>
       </c>
-      <c r="F19" s="24">
+      <c r="F20" s="20">
         <v>3454205</v>
       </c>
-      <c r="G19" s="24">
+      <c r="G20" s="20">
         <v>3525624</v>
       </c>
-      <c r="H19" s="24">
+      <c r="H20" s="20">
         <v>3517378</v>
       </c>
-      <c r="I19" s="18">
+      <c r="I20" s="14">
         <v>3714858</v>
       </c>
-      <c r="J19" s="18">
+      <c r="J20" s="14">
         <v>3694536</v>
       </c>
-      <c r="K19" s="18">
+      <c r="K20" s="14">
         <v>3757723</v>
       </c>
-      <c r="L19" s="18">
+      <c r="L20" s="14">
         <v>3797311</v>
       </c>
-      <c r="M19" s="18">
+      <c r="M20" s="14">
         <v>3895568</v>
       </c>
-      <c r="N19" s="18">
+      <c r="N20" s="14">
         <v>3810866</v>
       </c>
-      <c r="O19" s="18">
+      <c r="O20" s="37">
         <v>3879906</v>
       </c>
-      <c r="P19" s="19">
-        <f>_xlfn.RANK.EQ(O19,$O$6:$O$37)</f>
+      <c r="P20" s="38">
+        <v>3957119</v>
+      </c>
+      <c r="Q20" s="15">
+        <f>_xlfn.RANK.EQ(P20,$P$7:$P$38)</f>
         <v>3</v>
       </c>
-      <c r="Q19" s="20">
+      <c r="R20" s="16">
         <f t="shared" si="1"/>
-        <v>7.0053203627767763E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
+        <v>6.8618671895285754E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="21">
+      <c r="B21" s="17">
         <v>6285658</v>
       </c>
-      <c r="C20" s="22">
+      <c r="C21" s="18">
         <v>6648026</v>
       </c>
-      <c r="D20" s="22">
+      <c r="D21" s="18">
         <v>6627998</v>
       </c>
-      <c r="E20" s="22">
+      <c r="E21" s="18">
         <v>6969793</v>
       </c>
-      <c r="F20" s="22">
+      <c r="F21" s="18">
         <v>7099226</v>
       </c>
-      <c r="G20" s="22">
+      <c r="G21" s="18">
         <v>7295121</v>
       </c>
-      <c r="H20" s="22">
+      <c r="H21" s="18">
         <v>7265129</v>
       </c>
-      <c r="I20" s="16">
+      <c r="I21" s="12">
         <v>7655997</v>
       </c>
-      <c r="J20" s="16">
+      <c r="J21" s="12">
         <v>7508735</v>
       </c>
-      <c r="K20" s="16">
+      <c r="K21" s="12">
         <v>7761047</v>
       </c>
-      <c r="L20" s="16">
+      <c r="L21" s="12">
         <v>7924199</v>
       </c>
-      <c r="M20" s="16">
+      <c r="M21" s="12">
         <v>8195649</v>
       </c>
-      <c r="N20" s="16">
+      <c r="N21" s="12">
         <v>7817888</v>
       </c>
-      <c r="O20" s="16">
+      <c r="O21" s="35">
         <v>7256647</v>
       </c>
-      <c r="P20" s="5">
+      <c r="P21" s="36">
+        <v>8291602</v>
+      </c>
+      <c r="Q21" s="5">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="Q20" s="6">
+      <c r="R21" s="6">
         <f t="shared" si="1"/>
-        <v>0.13102156854981281</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
+        <v>0.14378104806155567</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="21">
+      <c r="B22" s="17">
         <v>1727031</v>
       </c>
-      <c r="C21" s="22">
+      <c r="C22" s="18">
         <v>1829268</v>
       </c>
-      <c r="D21" s="22">
+      <c r="D22" s="18">
         <v>1730846</v>
       </c>
-      <c r="E21" s="22">
+      <c r="E22" s="18">
         <v>1853718</v>
       </c>
-      <c r="F21" s="22">
+      <c r="F22" s="18">
         <v>1885496</v>
       </c>
-      <c r="G21" s="22">
+      <c r="G22" s="18">
         <v>1937004</v>
       </c>
-      <c r="H21" s="22">
+      <c r="H22" s="18">
         <v>1944386</v>
       </c>
-      <c r="I21" s="16">
+      <c r="I22" s="12">
         <v>1955573</v>
       </c>
-      <c r="J21" s="16">
+      <c r="J22" s="12">
         <v>2002116</v>
       </c>
-      <c r="K21" s="16">
+      <c r="K22" s="12">
         <v>1996173</v>
       </c>
-      <c r="L21" s="16">
+      <c r="L22" s="12">
         <v>2014164</v>
       </c>
-      <c r="M21" s="16">
+      <c r="M22" s="12">
         <v>2092495</v>
       </c>
-      <c r="N21" s="16">
+      <c r="N22" s="12">
         <v>1937391</v>
       </c>
-      <c r="O21" s="16">
+      <c r="O22" s="35">
         <v>1989700</v>
       </c>
-      <c r="P21" s="5">
+      <c r="P22" s="36">
+        <v>2041844</v>
+      </c>
+      <c r="Q22" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="Q21" s="6">
+      <c r="R22" s="6">
         <f t="shared" si="1"/>
-        <v>3.5924803141666191E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
+        <v>3.5406724816048708E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="21">
+      <c r="B23" s="17">
         <v>762382</v>
       </c>
-      <c r="C22" s="22">
+      <c r="C23" s="18">
         <v>783133</v>
       </c>
-      <c r="D22" s="22">
+      <c r="D23" s="18">
         <v>784089</v>
       </c>
-      <c r="E22" s="22">
+      <c r="E23" s="18">
         <v>800395</v>
       </c>
-      <c r="F22" s="22">
+      <c r="F23" s="18">
         <v>803846</v>
       </c>
-      <c r="G22" s="22">
+      <c r="G23" s="18">
         <v>826041</v>
       </c>
-      <c r="H22" s="22">
+      <c r="H23" s="18">
         <v>810715</v>
       </c>
-      <c r="I22" s="16">
+      <c r="I23" s="12">
         <v>788902</v>
       </c>
-      <c r="J22" s="16">
+      <c r="J23" s="12">
         <v>819646</v>
       </c>
-      <c r="K22" s="16">
+      <c r="K23" s="12">
         <v>846148</v>
       </c>
-      <c r="L22" s="16">
+      <c r="L23" s="12">
         <v>838342</v>
       </c>
-      <c r="M22" s="16">
+      <c r="M23" s="12">
         <v>871346</v>
       </c>
-      <c r="N22" s="16">
+      <c r="N23" s="12">
         <v>879639</v>
       </c>
-      <c r="O22" s="16">
+      <c r="O23" s="35">
         <v>823186</v>
       </c>
-      <c r="P22" s="5">
+      <c r="P23" s="36">
+        <v>855311</v>
+      </c>
+      <c r="Q23" s="5">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="Q22" s="6">
+      <c r="R23" s="6">
         <f t="shared" si="1"/>
-        <v>1.4862941648980062E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
+        <v>1.4831574404871007E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="21">
+      <c r="B24" s="17">
         <v>474633</v>
       </c>
-      <c r="C23" s="22">
+      <c r="C24" s="18">
         <v>505283</v>
       </c>
-      <c r="D23" s="22">
+      <c r="D24" s="18">
         <v>513252</v>
       </c>
-      <c r="E23" s="22">
+      <c r="E24" s="18">
         <v>511957</v>
       </c>
-      <c r="F23" s="22">
+      <c r="F24" s="18">
         <v>540494</v>
       </c>
-      <c r="G23" s="22">
+      <c r="G24" s="18">
         <v>554195</v>
       </c>
-      <c r="H23" s="22">
+      <c r="H24" s="18">
         <v>555305</v>
       </c>
-      <c r="I23" s="16">
+      <c r="I24" s="12">
         <v>585739</v>
       </c>
-      <c r="J23" s="16">
+      <c r="J24" s="12">
         <v>591315</v>
       </c>
-      <c r="K23" s="16">
+      <c r="K24" s="12">
         <v>614098</v>
       </c>
-      <c r="L23" s="16">
+      <c r="L24" s="12">
         <v>620909</v>
       </c>
-      <c r="M23" s="16">
+      <c r="M24" s="12">
         <v>624047</v>
       </c>
-      <c r="N23" s="16">
+      <c r="N24" s="12">
         <v>683387</v>
       </c>
-      <c r="O23" s="16">
+      <c r="O24" s="35">
         <v>651580</v>
       </c>
-      <c r="P23" s="5">
+      <c r="P24" s="36">
+        <v>627135</v>
+      </c>
+      <c r="Q24" s="5">
         <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="Q23" s="6">
+        <v>28</v>
+      </c>
+      <c r="R24" s="6">
         <f t="shared" si="1"/>
-        <v>1.1764528939562174E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
+        <v>1.0874874068495294E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="21">
+      <c r="B25" s="17">
         <v>2105926</v>
       </c>
-      <c r="C24" s="22">
+      <c r="C25" s="18">
         <v>2207659</v>
       </c>
-      <c r="D24" s="22">
+      <c r="D25" s="18">
         <v>2228480</v>
       </c>
-      <c r="E24" s="22">
+      <c r="E25" s="18">
         <v>2264278</v>
       </c>
-      <c r="F24" s="22">
+      <c r="F25" s="18">
         <v>2308619</v>
       </c>
-      <c r="G24" s="22">
+      <c r="G25" s="18">
         <v>2298389</v>
       </c>
-      <c r="H24" s="22">
+      <c r="H25" s="18">
         <v>2302251</v>
       </c>
-      <c r="I24" s="16">
+      <c r="I25" s="12">
         <v>2370447</v>
       </c>
-      <c r="J24" s="16">
+      <c r="J25" s="12">
         <v>2466545</v>
       </c>
-      <c r="K24" s="16">
+      <c r="K25" s="12">
         <v>2473654</v>
       </c>
-      <c r="L24" s="16">
+      <c r="L25" s="12">
         <v>2508932</v>
       </c>
-      <c r="M24" s="16">
+      <c r="M25" s="12">
         <v>2604667</v>
       </c>
-      <c r="N24" s="16">
+      <c r="N25" s="12">
         <v>2575825</v>
       </c>
-      <c r="O24" s="16">
+      <c r="O25" s="35">
         <v>2785180</v>
       </c>
-      <c r="P24" s="5">
+      <c r="P25" s="36">
+        <v>2903038</v>
+      </c>
+      <c r="Q25" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="Q24" s="6">
+      <c r="R25" s="6">
         <f t="shared" si="1"/>
-        <v>5.0287502243607507E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="4" t="s">
+        <v>5.0340313753906962E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B25" s="21">
+      <c r="B26" s="17">
         <v>1519011</v>
       </c>
-      <c r="C25" s="22">
+      <c r="C26" s="18">
         <v>1617915</v>
       </c>
-      <c r="D25" s="22">
+      <c r="D26" s="18">
         <v>1599129</v>
       </c>
-      <c r="E25" s="22">
+      <c r="E26" s="18">
         <v>1695676</v>
       </c>
-      <c r="F25" s="22">
+      <c r="F26" s="18">
         <v>1672753</v>
       </c>
-      <c r="G25" s="22">
+      <c r="G26" s="18">
         <v>1630893</v>
       </c>
-      <c r="H25" s="22">
+      <c r="H26" s="18">
         <v>1664270</v>
       </c>
-      <c r="I25" s="16">
+      <c r="I26" s="12">
         <v>1711751</v>
       </c>
-      <c r="J25" s="16">
+      <c r="J26" s="12">
         <v>1716346</v>
       </c>
-      <c r="K25" s="16">
+      <c r="K26" s="12">
         <v>1696053</v>
       </c>
-      <c r="L25" s="16">
+      <c r="L26" s="12">
         <v>1766964</v>
       </c>
-      <c r="M25" s="16">
+      <c r="M26" s="12">
         <v>1885014</v>
       </c>
-      <c r="N25" s="16">
+      <c r="N26" s="12">
         <v>1880398</v>
       </c>
-      <c r="O25" s="16">
+      <c r="O26" s="35">
         <v>1851937</v>
       </c>
-      <c r="P25" s="5">
+      <c r="P26" s="36">
+        <v>1844235</v>
+      </c>
+      <c r="Q26" s="5">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="Q25" s="6">
+      <c r="R26" s="6">
         <f t="shared" si="1"/>
-        <v>3.343743888815795E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="4" t="s">
+        <v>3.1980073473353292E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="21">
+      <c r="B27" s="17">
         <v>2358209</v>
       </c>
-      <c r="C26" s="22">
+      <c r="C27" s="18">
         <v>2423138</v>
       </c>
-      <c r="D26" s="22">
+      <c r="D27" s="18">
         <v>2435395</v>
       </c>
-      <c r="E26" s="22">
+      <c r="E27" s="18">
         <v>2608697</v>
       </c>
-      <c r="F26" s="22">
+      <c r="F27" s="18">
         <v>2603161</v>
       </c>
-      <c r="G26" s="22">
+      <c r="G27" s="18">
         <v>2651019</v>
       </c>
-      <c r="H26" s="22">
+      <c r="H27" s="18">
         <v>2631791</v>
       </c>
-      <c r="I26" s="16">
+      <c r="I27" s="12">
         <v>2710296</v>
       </c>
-      <c r="J26" s="16">
+      <c r="J27" s="12">
         <v>2789480</v>
       </c>
-      <c r="K26" s="16">
+      <c r="K27" s="12">
         <v>2851683</v>
       </c>
-      <c r="L26" s="16">
+      <c r="L27" s="12">
         <v>2849781</v>
       </c>
-      <c r="M26" s="16">
+      <c r="M27" s="12">
         <v>2953254</v>
       </c>
-      <c r="N26" s="16">
+      <c r="N27" s="12">
         <v>2899694</v>
       </c>
-      <c r="O26" s="16">
+      <c r="O27" s="35">
         <v>2877269</v>
       </c>
-      <c r="P26" s="5">
+      <c r="P27" s="36">
+        <v>3024303</v>
+      </c>
+      <c r="Q27" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="Q26" s="6">
+      <c r="R27" s="6">
         <f t="shared" si="1"/>
-        <v>5.1950204759822462E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="4" t="s">
+        <v>5.2443117143792836E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B27" s="21">
+      <c r="B28" s="17">
         <v>728072</v>
       </c>
-      <c r="C27" s="22">
+      <c r="C28" s="18">
         <v>741546</v>
       </c>
-      <c r="D27" s="22">
+      <c r="D28" s="18">
         <v>732591</v>
       </c>
-      <c r="E27" s="22">
+      <c r="E28" s="18">
         <v>773975</v>
       </c>
-      <c r="F27" s="22">
+      <c r="F28" s="18">
         <v>754137</v>
       </c>
-      <c r="G27" s="22">
+      <c r="G28" s="18">
         <v>764035</v>
       </c>
-      <c r="H27" s="22">
+      <c r="H28" s="18">
         <v>772029</v>
       </c>
-      <c r="I27" s="16">
+      <c r="I28" s="12">
         <v>842023</v>
       </c>
-      <c r="J27" s="16">
+      <c r="J28" s="12">
         <v>807243</v>
       </c>
-      <c r="K27" s="16">
+      <c r="K28" s="12">
         <v>837024</v>
       </c>
-      <c r="L27" s="16">
+      <c r="L28" s="12">
         <v>861125</v>
       </c>
-      <c r="M27" s="16">
+      <c r="M28" s="12">
         <v>888116</v>
       </c>
-      <c r="N27" s="16">
+      <c r="N28" s="12">
         <v>949571</v>
       </c>
-      <c r="O27" s="16">
+      <c r="O28" s="35">
         <v>1010295</v>
       </c>
-      <c r="P27" s="5">
+      <c r="P28" s="36">
+        <v>1052926</v>
+      </c>
+      <c r="Q28" s="5">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="Q27" s="6">
+      <c r="R28" s="6">
         <f t="shared" si="1"/>
-        <v>1.8241267020158641E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="4" t="s">
+        <v>1.8258329790945292E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B28" s="21">
+      <c r="B29" s="17">
         <v>651673</v>
       </c>
-      <c r="C28" s="22">
+      <c r="C29" s="18">
         <v>653638</v>
       </c>
-      <c r="D28" s="22">
+      <c r="D29" s="18">
         <v>692620</v>
       </c>
-      <c r="E28" s="22">
+      <c r="E29" s="18">
         <v>707912</v>
       </c>
-      <c r="F28" s="22">
+      <c r="F29" s="18">
         <v>713671</v>
       </c>
-      <c r="G28" s="22">
+      <c r="G29" s="18">
         <v>732583</v>
       </c>
-      <c r="H28" s="22">
+      <c r="H29" s="18">
         <v>748707</v>
       </c>
-      <c r="I28" s="16">
+      <c r="I29" s="12">
         <v>790255</v>
       </c>
-      <c r="J28" s="16">
+      <c r="J29" s="12">
         <v>806043</v>
       </c>
-      <c r="K28" s="16">
+      <c r="K29" s="12">
         <v>821059</v>
       </c>
-      <c r="L28" s="16">
+      <c r="L29" s="12">
         <v>872731</v>
       </c>
-      <c r="M28" s="16">
+      <c r="M29" s="12">
         <v>878561</v>
       </c>
-      <c r="N28" s="16">
+      <c r="N29" s="12">
         <v>845007</v>
       </c>
-      <c r="O28" s="16">
+      <c r="O29" s="35">
         <v>919059</v>
       </c>
-      <c r="P28" s="5">
+      <c r="P29" s="36">
+        <v>920651</v>
+      </c>
+      <c r="Q29" s="5">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="Q28" s="6">
+      <c r="R29" s="6">
         <f t="shared" si="1"/>
-        <v>1.6593965748895104E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="4" t="s">
+        <v>1.5964606800823206E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B29" s="21">
+      <c r="B30" s="17">
         <v>1031211</v>
       </c>
-      <c r="C29" s="22">
+      <c r="C30" s="18">
         <v>1052375</v>
       </c>
-      <c r="D29" s="22">
+      <c r="D30" s="18">
         <v>1058129</v>
       </c>
-      <c r="E29" s="22">
+      <c r="E30" s="18">
         <v>1044239</v>
       </c>
-      <c r="F29" s="22">
+      <c r="F30" s="18">
         <v>1105769</v>
       </c>
-      <c r="G29" s="22">
+      <c r="G30" s="18">
         <v>1150039</v>
       </c>
-      <c r="H29" s="22">
+      <c r="H30" s="18">
         <v>1138630</v>
       </c>
-      <c r="I29" s="16">
+      <c r="I30" s="12">
         <v>1174432</v>
       </c>
-      <c r="J29" s="16">
+      <c r="J30" s="12">
         <v>1190841</v>
       </c>
-      <c r="K29" s="16">
+      <c r="K30" s="12">
         <v>1218530</v>
       </c>
-      <c r="L29" s="16">
+      <c r="L30" s="12">
         <v>1221282</v>
       </c>
-      <c r="M29" s="16">
+      <c r="M30" s="12">
         <v>1253123</v>
       </c>
-      <c r="N29" s="16">
+      <c r="N30" s="12">
         <v>1259897</v>
       </c>
-      <c r="O29" s="16">
+      <c r="O30" s="35">
         <v>1233830</v>
       </c>
-      <c r="P29" s="5">
+      <c r="P30" s="36">
+        <v>1282326</v>
+      </c>
+      <c r="Q30" s="5">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="Q29" s="6">
+      <c r="R30" s="6">
         <f t="shared" si="1"/>
-        <v>2.2277277911384633E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="4" t="s">
+        <v>2.223625497661157E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B30" s="21">
+      <c r="B31" s="17">
         <v>1216850</v>
       </c>
-      <c r="C30" s="22">
+      <c r="C31" s="18">
         <v>1292218</v>
       </c>
-      <c r="D30" s="22">
+      <c r="D31" s="18">
         <v>1254281</v>
       </c>
-      <c r="E30" s="22">
+      <c r="E31" s="18">
         <v>1294791</v>
       </c>
-      <c r="F30" s="22">
+      <c r="F31" s="18">
         <v>1324241</v>
       </c>
-      <c r="G30" s="22">
+      <c r="G31" s="18">
         <v>1326518</v>
       </c>
-      <c r="H30" s="22">
+      <c r="H31" s="18">
         <v>1371707</v>
       </c>
-      <c r="I30" s="16">
+      <c r="I31" s="12">
         <v>1358096</v>
       </c>
-      <c r="J30" s="16">
+      <c r="J31" s="12">
         <v>1381104</v>
       </c>
-      <c r="K30" s="16">
+      <c r="K31" s="12">
         <v>1381394</v>
       </c>
-      <c r="L30" s="16">
+      <c r="L31" s="12">
         <v>1389771</v>
       </c>
-      <c r="M30" s="16">
+      <c r="M31" s="12">
         <v>1440347</v>
       </c>
-      <c r="N30" s="16">
+      <c r="N31" s="12">
         <v>1321037</v>
       </c>
-      <c r="O30" s="16">
+      <c r="O31" s="35">
         <v>1348508</v>
       </c>
-      <c r="P30" s="5">
+      <c r="P31" s="36">
+        <v>1368104</v>
+      </c>
+      <c r="Q31" s="5">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="Q30" s="6">
+      <c r="R31" s="6">
         <f t="shared" si="1"/>
-        <v>2.4347833560316629E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="4" t="s">
+        <v>2.372369380213939E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B31" s="21">
+      <c r="B32" s="17">
         <v>1088356</v>
       </c>
-      <c r="C31" s="22">
+      <c r="C32" s="18">
         <v>1167245</v>
       </c>
-      <c r="D31" s="22">
+      <c r="D32" s="18">
         <v>1148109</v>
       </c>
-      <c r="E31" s="22">
+      <c r="E32" s="18">
         <v>1263018</v>
       </c>
-      <c r="F31" s="22">
+      <c r="F32" s="18">
         <v>1253737</v>
       </c>
-      <c r="G31" s="22">
+      <c r="G32" s="18">
         <v>1356891</v>
       </c>
-      <c r="H31" s="22">
+      <c r="H32" s="18">
         <v>1372652</v>
       </c>
-      <c r="I31" s="16">
+      <c r="I32" s="12">
         <v>1386422</v>
       </c>
-      <c r="J31" s="16">
+      <c r="J32" s="12">
         <v>1412624</v>
       </c>
-      <c r="K31" s="16">
+      <c r="K32" s="12">
         <v>1422873</v>
       </c>
-      <c r="L31" s="16">
+      <c r="L32" s="12">
         <v>1464617</v>
       </c>
-      <c r="M31" s="16">
+      <c r="M32" s="12">
         <v>1512652</v>
       </c>
-      <c r="N31" s="16">
+      <c r="N32" s="12">
         <v>1478717</v>
       </c>
-      <c r="O31" s="16">
+      <c r="O32" s="35">
         <v>1357424</v>
       </c>
-      <c r="P31" s="5">
+      <c r="P32" s="36">
+        <v>1402025</v>
+      </c>
+      <c r="Q32" s="5">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="Q31" s="6">
+      <c r="R32" s="6">
         <f t="shared" si="1"/>
-        <v>2.4508815389140619E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="4" t="s">
+        <v>2.4311903044610991E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B32" s="21">
+      <c r="B33" s="17">
         <v>867887</v>
       </c>
-      <c r="C32" s="22">
+      <c r="C33" s="18">
         <v>898706</v>
       </c>
-      <c r="D32" s="22">
+      <c r="D33" s="18">
         <v>904727</v>
       </c>
-      <c r="E32" s="22">
+      <c r="E33" s="18">
         <v>956138</v>
       </c>
-      <c r="F32" s="22">
+      <c r="F33" s="18">
         <v>919467</v>
       </c>
-      <c r="G32" s="22">
+      <c r="G33" s="18">
         <v>979766</v>
       </c>
-      <c r="H32" s="22">
+      <c r="H33" s="18">
         <v>988823</v>
       </c>
-      <c r="I32" s="16">
+      <c r="I33" s="12">
         <v>988960</v>
       </c>
-      <c r="J32" s="16">
+      <c r="J33" s="12">
         <v>1026527</v>
       </c>
-      <c r="K32" s="16">
+      <c r="K33" s="12">
         <v>990981</v>
       </c>
-      <c r="L32" s="16">
+      <c r="L33" s="12">
         <v>1019337</v>
       </c>
-      <c r="M32" s="16">
+      <c r="M33" s="12">
         <v>1076973</v>
       </c>
-      <c r="N32" s="16">
+      <c r="N33" s="12">
         <v>979646</v>
       </c>
-      <c r="O32" s="16">
+      <c r="O33" s="35">
         <v>967637</v>
       </c>
-      <c r="P32" s="5">
+      <c r="P33" s="36">
+        <v>998364</v>
+      </c>
+      <c r="Q33" s="5">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="Q32" s="6">
+      <c r="R33" s="6">
         <f t="shared" si="1"/>
-        <v>1.7471060329493113E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="4" t="s">
+        <v>1.7312193984579453E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B33" s="21">
+      <c r="B34" s="17">
         <v>1404400</v>
       </c>
-      <c r="C33" s="22">
+      <c r="C34" s="18">
         <v>1446730</v>
       </c>
-      <c r="D33" s="22">
+      <c r="D34" s="18">
         <v>1443793</v>
       </c>
-      <c r="E33" s="22">
+      <c r="E34" s="18">
         <v>1529566</v>
       </c>
-      <c r="F33" s="22">
+      <c r="F34" s="18">
         <v>1510118</v>
       </c>
-      <c r="G33" s="22">
+      <c r="G34" s="18">
         <v>1608390</v>
       </c>
-      <c r="H33" s="22">
+      <c r="H34" s="18">
         <v>1537566</v>
       </c>
-      <c r="I33" s="16">
+      <c r="I34" s="12">
         <v>1600479</v>
       </c>
-      <c r="J33" s="16">
+      <c r="J34" s="12">
         <v>1633550</v>
       </c>
-      <c r="K33" s="16">
+      <c r="K34" s="12">
         <v>1647462</v>
       </c>
-      <c r="L33" s="16">
+      <c r="L34" s="12">
         <v>1697868</v>
       </c>
-      <c r="M33" s="16">
+      <c r="M34" s="12">
         <v>1719792</v>
       </c>
-      <c r="N33" s="16">
+      <c r="N34" s="12">
         <v>1685454</v>
       </c>
-      <c r="O33" s="16">
+      <c r="O34" s="35">
         <v>1586439</v>
       </c>
-      <c r="P33" s="5">
+      <c r="P34" s="36">
+        <v>1645758</v>
+      </c>
+      <c r="Q34" s="5">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="Q33" s="6">
+      <c r="R34" s="6">
         <f t="shared" si="1"/>
-        <v>2.8643769800101408E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="4" t="s">
+        <v>2.8538370521847253E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B34" s="21">
+      <c r="B35" s="17">
         <v>463396</v>
       </c>
-      <c r="C34" s="22">
+      <c r="C35" s="18">
         <v>490935</v>
       </c>
-      <c r="D34" s="22">
+      <c r="D35" s="18">
         <v>484627</v>
       </c>
-      <c r="E34" s="22">
+      <c r="E35" s="18">
         <v>511982</v>
       </c>
-      <c r="F34" s="22">
+      <c r="F35" s="18">
         <v>529415</v>
       </c>
-      <c r="G34" s="22">
+      <c r="G35" s="18">
         <v>539756</v>
       </c>
-      <c r="H34" s="22">
+      <c r="H35" s="18">
         <v>544945</v>
       </c>
-      <c r="I34" s="16">
+      <c r="I35" s="12">
         <v>566621</v>
       </c>
-      <c r="J34" s="16">
+      <c r="J35" s="12">
         <v>580978</v>
       </c>
-      <c r="K34" s="16">
+      <c r="K35" s="12">
         <v>585404</v>
       </c>
-      <c r="L34" s="16">
+      <c r="L35" s="12">
         <v>603336</v>
       </c>
-      <c r="M34" s="16">
+      <c r="M35" s="12">
         <v>623082</v>
       </c>
-      <c r="N34" s="16">
+      <c r="N35" s="12">
         <v>612523</v>
       </c>
-      <c r="O34" s="16">
+      <c r="O35" s="35">
         <v>585720</v>
       </c>
-      <c r="P34" s="5">
-        <f>_xlfn.RANK.EQ(O34,$O$6:$O$37)</f>
+      <c r="P35" s="36">
+        <v>619259</v>
+      </c>
+      <c r="Q35" s="5">
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="Q34" s="6">
+      <c r="R35" s="6">
         <f t="shared" si="1"/>
-        <v>1.0575401164063287E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="4" t="s">
+        <v>1.0738299793158294E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B35" s="21">
+      <c r="B36" s="17">
         <v>2945142</v>
       </c>
-      <c r="C35" s="22">
+      <c r="C36" s="18">
         <v>3142258</v>
       </c>
-      <c r="D35" s="22">
+      <c r="D36" s="18">
         <v>3023168</v>
       </c>
-      <c r="E35" s="22">
+      <c r="E36" s="18">
         <v>3142520</v>
       </c>
-      <c r="F35" s="22">
+      <c r="F36" s="18">
         <v>3209734</v>
       </c>
-      <c r="G35" s="22">
+      <c r="G36" s="18">
         <v>3249207</v>
       </c>
-      <c r="H35" s="22">
+      <c r="H36" s="18">
         <v>3131139</v>
       </c>
-      <c r="I35" s="16">
+      <c r="I36" s="12">
         <v>3235550</v>
       </c>
-      <c r="J35" s="16">
+      <c r="J36" s="12">
         <v>3162476</v>
       </c>
-      <c r="K35" s="16">
+      <c r="K36" s="12">
         <v>3236584</v>
       </c>
-      <c r="L35" s="16">
+      <c r="L36" s="12">
         <v>3330020</v>
       </c>
-      <c r="M35" s="16">
+      <c r="M36" s="12">
         <v>3425529</v>
       </c>
-      <c r="N35" s="16">
+      <c r="N36" s="12">
         <v>3401418</v>
       </c>
-      <c r="O35" s="16">
+      <c r="O36" s="35">
         <v>3255349</v>
       </c>
-      <c r="P35" s="5">
+      <c r="P36" s="36">
+        <v>3399361</v>
+      </c>
+      <c r="Q36" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="Q35" s="6">
+      <c r="R36" s="6">
         <f t="shared" si="1"/>
-        <v>5.8776585406051116E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="4" t="s">
+        <v>5.8946834076162601E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B36" s="21">
+      <c r="B37" s="17">
         <v>896170</v>
       </c>
-      <c r="C36" s="22">
+      <c r="C37" s="18">
         <v>939507</v>
       </c>
-      <c r="D36" s="22">
+      <c r="D37" s="18">
         <v>904821</v>
       </c>
-      <c r="E36" s="22">
+      <c r="E37" s="18">
         <v>961324</v>
       </c>
-      <c r="F36" s="22">
+      <c r="F37" s="18">
         <v>963909</v>
       </c>
-      <c r="G36" s="22">
+      <c r="G37" s="18">
         <v>1002360</v>
       </c>
-      <c r="H36" s="22">
+      <c r="H37" s="18">
         <v>993185</v>
       </c>
-      <c r="I36" s="16">
+      <c r="I37" s="12">
         <v>1010211</v>
       </c>
-      <c r="J36" s="16">
+      <c r="J37" s="12">
         <v>1050904</v>
       </c>
-      <c r="K36" s="16">
+      <c r="K37" s="12">
         <v>1043167</v>
       </c>
-      <c r="L36" s="16">
+      <c r="L37" s="12">
         <v>1100165</v>
       </c>
-      <c r="M36" s="16">
+      <c r="M37" s="12">
         <v>1111355</v>
       </c>
-      <c r="N36" s="16">
+      <c r="N37" s="12">
         <v>1121208</v>
       </c>
-      <c r="O36" s="16">
+      <c r="O37" s="35">
         <v>1183719</v>
       </c>
-      <c r="P36" s="5">
+      <c r="P37" s="36">
+        <v>1189011</v>
+      </c>
+      <c r="Q37" s="5">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="Q36" s="6">
+      <c r="R37" s="6">
         <f t="shared" si="1"/>
-        <v>2.1372504422802415E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="4" t="s">
+        <v>2.0618120326653205E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B37" s="21">
+      <c r="B38" s="17">
         <v>582408</v>
       </c>
-      <c r="C37" s="22">
+      <c r="C38" s="18">
         <v>608685</v>
       </c>
-      <c r="D37" s="22">
+      <c r="D38" s="18">
         <v>614301</v>
       </c>
-      <c r="E37" s="22">
+      <c r="E38" s="18">
         <v>622263</v>
       </c>
-      <c r="F37" s="22">
+      <c r="F38" s="18">
         <v>614295</v>
       </c>
-      <c r="G37" s="22">
+      <c r="G38" s="18">
         <v>627073</v>
       </c>
-      <c r="H37" s="22">
+      <c r="H38" s="18">
         <v>635847</v>
       </c>
-      <c r="I37" s="16">
+      <c r="I38" s="12">
         <v>641538</v>
       </c>
-      <c r="J37" s="16">
+      <c r="J38" s="12">
         <v>641085</v>
       </c>
-      <c r="K37" s="16">
+      <c r="K38" s="12">
         <v>653709</v>
       </c>
-      <c r="L37" s="16">
+      <c r="L38" s="12">
         <v>661187</v>
       </c>
-      <c r="M37" s="16">
+      <c r="M38" s="12">
         <v>685491</v>
       </c>
-      <c r="N37" s="16">
+      <c r="N38" s="12">
         <v>704127</v>
       </c>
-      <c r="O37" s="16">
+      <c r="O38" s="35">
         <v>682037</v>
       </c>
-      <c r="P37" s="5">
+      <c r="P38" s="36">
+        <v>681082</v>
+      </c>
+      <c r="Q38" s="5">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="Q37" s="6">
+      <c r="R38" s="6">
         <f t="shared" si="1"/>
-        <v>1.2314441855723267E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" s="2" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="9" t="s">
+        <v>1.1810345428526412E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" s="2" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B38" s="10">
+      <c r="B39" s="10">
         <v>46753657</v>
       </c>
-      <c r="C38" s="11">
+      <c r="C39" s="11">
         <v>48903792</v>
       </c>
-      <c r="D38" s="11">
+      <c r="D39" s="11">
         <v>48478718</v>
       </c>
-      <c r="E38" s="11">
+      <c r="E39" s="11">
         <v>50772496</v>
       </c>
-      <c r="F38" s="11">
+      <c r="F39" s="11">
         <v>51317999</v>
       </c>
-      <c r="G38" s="11">
+      <c r="G39" s="11">
         <v>52370886</v>
       </c>
-      <c r="H38" s="11">
+      <c r="H39" s="11">
         <v>52108400</v>
       </c>
-      <c r="I38" s="11">
+      <c r="I39" s="11">
         <v>53809017</v>
       </c>
-      <c r="J38" s="11">
+      <c r="J39" s="11">
         <v>54034800</v>
       </c>
-      <c r="K38" s="11">
+      <c r="K39" s="11">
         <v>54696638</v>
       </c>
-      <c r="L38" s="11">
+      <c r="L39" s="11">
         <v>56023199</v>
       </c>
-      <c r="M38" s="11">
+      <c r="M39" s="11">
         <v>57625521</v>
       </c>
-      <c r="N38" s="11">
-        <f>SUM(N6:N37)</f>
+      <c r="N39" s="11">
+        <f>SUM(N7:N38)</f>
         <v>55880916</v>
       </c>
-      <c r="O38" s="11">
+      <c r="O39" s="10">
         <v>55385133</v>
       </c>
-      <c r="P38" s="11"/>
-      <c r="Q38" s="25">
-        <f>SUM(Q6:Q37)</f>
-        <v>1.0000000000000002</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="B39" s="26"/>
-      <c r="C39" s="26"/>
-      <c r="D39" s="26"/>
-      <c r="E39" s="26"/>
-      <c r="F39" s="26"/>
-      <c r="G39" s="26"/>
-      <c r="H39" s="26"/>
-      <c r="I39" s="26"/>
-      <c r="J39" s="26"/>
-      <c r="K39" s="26"/>
-      <c r="L39" s="26"/>
-      <c r="M39" s="26"/>
-      <c r="N39" s="26"/>
-      <c r="O39" s="26"/>
-      <c r="P39" s="26"/>
-      <c r="Q39" s="26"/>
-    </row>
-    <row r="40" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="28" t="s">
+      <c r="P39" s="39">
+        <v>57668254</v>
+      </c>
+      <c r="Q39" s="11"/>
+      <c r="R39" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" s="46" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="B40" s="44"/>
+      <c r="C40" s="44"/>
+      <c r="D40" s="44"/>
+      <c r="E40" s="44"/>
+      <c r="F40" s="44"/>
+      <c r="G40" s="44"/>
+      <c r="H40" s="44"/>
+      <c r="I40" s="44"/>
+      <c r="J40" s="44"/>
+      <c r="K40" s="44"/>
+      <c r="L40" s="44"/>
+      <c r="M40" s="44"/>
+      <c r="N40" s="44"/>
+      <c r="O40" s="44"/>
+      <c r="P40" s="44"/>
+      <c r="Q40" s="44"/>
+      <c r="R40" s="45"/>
+    </row>
+    <row r="41" spans="1:18" s="47" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="B41" s="40"/>
+      <c r="C41" s="40"/>
+      <c r="D41" s="40"/>
+      <c r="E41" s="40"/>
+      <c r="F41" s="40"/>
+      <c r="G41" s="40"/>
+      <c r="H41" s="40"/>
+      <c r="I41" s="40"/>
+      <c r="J41" s="40"/>
+      <c r="K41" s="40"/>
+      <c r="L41" s="40"/>
+      <c r="M41" s="40"/>
+      <c r="N41" s="40"/>
+      <c r="O41" s="40"/>
+      <c r="P41" s="40"/>
+      <c r="Q41" s="40"/>
+      <c r="R41" s="40"/>
+    </row>
+    <row r="42" spans="1:18" s="49" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="B42" s="48"/>
+      <c r="C42" s="48"/>
+      <c r="D42" s="48"/>
+      <c r="E42" s="48"/>
+      <c r="F42" s="48"/>
+      <c r="G42" s="48"/>
+      <c r="H42" s="48"/>
+      <c r="I42" s="48"/>
+      <c r="J42" s="48"/>
+      <c r="K42" s="48"/>
+      <c r="L42" s="48"/>
+      <c r="M42" s="48"/>
+      <c r="N42" s="48"/>
+      <c r="O42" s="48"/>
+      <c r="P42" s="48"/>
+      <c r="Q42" s="48"/>
+      <c r="R42" s="48"/>
+    </row>
+    <row r="43" spans="1:18" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="42" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A44" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="B40" s="28"/>
-      <c r="C40" s="28"/>
-      <c r="D40" s="28"/>
-      <c r="E40" s="28"/>
-      <c r="F40" s="28"/>
-      <c r="G40" s="28"/>
-      <c r="H40" s="28"/>
-      <c r="I40" s="28"/>
-      <c r="J40" s="28"/>
-      <c r="K40" s="28"/>
-      <c r="L40" s="28"/>
-      <c r="M40" s="28"/>
-      <c r="N40" s="28"/>
-      <c r="O40" s="28"/>
-      <c r="P40" s="28"/>
-      <c r="Q40" s="28"/>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A41" s="8"/>
-      <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="8"/>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A42" s="8"/>
-      <c r="B42" s="8"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="8"/>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A43" s="8"/>
-      <c r="B43" s="8"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A44" s="8"/>
-      <c r="B44" s="8"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="8"/>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B44" s="22"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="22"/>
+      <c r="F44" s="22"/>
+      <c r="G44" s="22"/>
+      <c r="H44" s="22"/>
+      <c r="I44" s="22"/>
+      <c r="J44" s="22"/>
+      <c r="K44" s="22"/>
+      <c r="L44" s="22"/>
+      <c r="M44" s="22"/>
+      <c r="N44" s="22"/>
+      <c r="O44" s="22"/>
+      <c r="P44" s="22"/>
+      <c r="Q44" s="22"/>
+      <c r="R44" s="22"/>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A45" s="8"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
@@ -3397,7 +3692,7 @@
       <c r="G45" s="8"/>
       <c r="H45" s="8"/>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A46" s="8"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
@@ -3407,7 +3702,7 @@
       <c r="G46" s="8"/>
       <c r="H46" s="8"/>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A47" s="8"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
@@ -3417,7 +3712,7 @@
       <c r="G47" s="8"/>
       <c r="H47" s="8"/>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A48" s="8"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
@@ -3427,9 +3722,37 @@
       <c r="G48" s="8"/>
       <c r="H48" s="8"/>
     </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" s="8"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A40:Q40"/>
+  <mergeCells count="19">
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="A42:R42"/>
+    <mergeCell ref="A44:R44"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="O5:P5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.79" right="0.79" top="0.98" bottom="0.98" header="0" footer="0"/>

--- a/Tabulados/pea-entidad.xlsx
+++ b/Tabulados/pea-entidad.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\UEF\Actualizaciones pagina\Tabulados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\susana.galindo\Documents\GitHub\SIE\Tabulados\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1061,39 +1061,6 @@
     <xf numFmtId="10" fontId="22" fillId="36" borderId="6" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="37" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="37" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="37" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="37" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="37" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="37" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="37" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="37" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="40" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="40" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="41" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1123,10 +1090,43 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="40" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="40" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="60">
     <cellStyle name="20% - Énfasis1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -1601,82 +1601,82 @@
       <c r="Q4" s="2"/>
     </row>
     <row r="5" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="24" t="s">
+      <c r="E5" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="24" t="s">
+      <c r="F5" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="G5" s="24" t="s">
+      <c r="G5" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="H5" s="24" t="s">
+      <c r="H5" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="I5" s="24" t="s">
+      <c r="I5" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="J5" s="24" t="s">
+      <c r="J5" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="K5" s="24" t="s">
+      <c r="K5" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="L5" s="24" t="s">
+      <c r="L5" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="M5" s="24" t="s">
+      <c r="M5" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="N5" s="24" t="s">
+      <c r="N5" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="O5" s="31">
+      <c r="O5" s="48">
         <v>2021</v>
       </c>
-      <c r="P5" s="32"/>
-      <c r="Q5" s="24" t="s">
+      <c r="P5" s="49"/>
+      <c r="Q5" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="R5" s="27" t="s">
+      <c r="R5" s="40" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="26"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="29"/>
-      <c r="N6" s="29"/>
-      <c r="O6" s="33" t="s">
+      <c r="A6" s="47"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="39"/>
+      <c r="M6" s="39"/>
+      <c r="N6" s="39"/>
+      <c r="O6" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="P6" s="34" t="s">
+      <c r="P6" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="Q6" s="29"/>
-      <c r="R6" s="30"/>
+      <c r="Q6" s="39"/>
+      <c r="R6" s="41"/>
     </row>
     <row r="7" spans="1:18" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
@@ -1721,10 +1721,10 @@
       <c r="N7" s="12">
         <v>591245</v>
       </c>
-      <c r="O7" s="35">
+      <c r="O7" s="24">
         <v>618289</v>
       </c>
-      <c r="P7" s="36">
+      <c r="P7" s="25">
         <v>631864</v>
       </c>
       <c r="Q7" s="5">
@@ -1779,10 +1779,10 @@
       <c r="N8" s="12">
         <v>1705014</v>
       </c>
-      <c r="O8" s="35">
+      <c r="O8" s="24">
         <v>1731982</v>
       </c>
-      <c r="P8" s="36">
+      <c r="P8" s="25">
         <v>1808741</v>
       </c>
       <c r="Q8" s="5">
@@ -1837,10 +1837,10 @@
       <c r="N9" s="12">
         <v>424557</v>
       </c>
-      <c r="O9" s="35">
+      <c r="O9" s="24">
         <v>403452</v>
       </c>
-      <c r="P9" s="36">
+      <c r="P9" s="25">
         <v>426715</v>
       </c>
       <c r="Q9" s="5">
@@ -1895,10 +1895,10 @@
       <c r="N10" s="12">
         <v>436711</v>
       </c>
-      <c r="O10" s="35">
+      <c r="O10" s="24">
         <v>438863</v>
       </c>
-      <c r="P10" s="36">
+      <c r="P10" s="25">
         <v>443205</v>
       </c>
       <c r="Q10" s="5">
@@ -1953,10 +1953,10 @@
       <c r="N11" s="12">
         <v>1410380</v>
       </c>
-      <c r="O11" s="35">
+      <c r="O11" s="24">
         <v>1419362</v>
       </c>
-      <c r="P11" s="36">
+      <c r="P11" s="25">
         <v>1467284</v>
       </c>
       <c r="Q11" s="5">
@@ -2011,10 +2011,10 @@
       <c r="N12" s="12">
         <v>371574</v>
       </c>
-      <c r="O12" s="35">
+      <c r="O12" s="24">
         <v>365263</v>
       </c>
-      <c r="P12" s="36">
+      <c r="P12" s="25">
         <v>381094</v>
       </c>
       <c r="Q12" s="5">
@@ -2069,10 +2069,10 @@
       <c r="N13" s="12">
         <v>2108289</v>
       </c>
-      <c r="O13" s="35">
+      <c r="O13" s="24">
         <v>2131275</v>
       </c>
-      <c r="P13" s="36">
+      <c r="P13" s="25">
         <v>2263306</v>
       </c>
       <c r="Q13" s="5">
@@ -2127,10 +2127,10 @@
       <c r="N14" s="12">
         <v>1763997</v>
       </c>
-      <c r="O14" s="35">
+      <c r="O14" s="24">
         <v>1671214</v>
       </c>
-      <c r="P14" s="36">
+      <c r="P14" s="25">
         <v>1740632</v>
       </c>
       <c r="Q14" s="5">
@@ -2185,10 +2185,10 @@
       <c r="N15" s="12">
         <v>3935752</v>
       </c>
-      <c r="O15" s="35">
+      <c r="O15" s="24">
         <v>4175657</v>
       </c>
-      <c r="P15" s="36">
+      <c r="P15" s="25">
         <v>4439594</v>
       </c>
       <c r="Q15" s="5">
@@ -2243,10 +2243,10 @@
       <c r="N16" s="12">
         <v>798476</v>
       </c>
-      <c r="O16" s="35">
+      <c r="O16" s="24">
         <v>803577</v>
       </c>
-      <c r="P16" s="36">
+      <c r="P16" s="25">
         <v>843167</v>
       </c>
       <c r="Q16" s="5">
@@ -2301,10 +2301,10 @@
       <c r="N17" s="12">
         <v>2656883</v>
       </c>
-      <c r="O17" s="35">
+      <c r="O17" s="24">
         <v>2684322</v>
       </c>
-      <c r="P17" s="36">
+      <c r="P17" s="25">
         <v>2800508</v>
       </c>
       <c r="Q17" s="5">
@@ -2359,10 +2359,10 @@
       <c r="N18" s="12">
         <v>1564536</v>
       </c>
-      <c r="O18" s="35">
+      <c r="O18" s="24">
         <v>1415941</v>
       </c>
-      <c r="P18" s="36">
+      <c r="P18" s="25">
         <v>1531375</v>
       </c>
       <c r="Q18" s="5">
@@ -2417,10 +2417,10 @@
       <c r="N19" s="12">
         <v>1269809</v>
       </c>
-      <c r="O19" s="35">
+      <c r="O19" s="24">
         <v>1280514</v>
       </c>
-      <c r="P19" s="36">
+      <c r="P19" s="25">
         <v>1326174</v>
       </c>
       <c r="Q19" s="5">
@@ -2475,10 +2475,10 @@
       <c r="N20" s="14">
         <v>3810866</v>
       </c>
-      <c r="O20" s="37">
+      <c r="O20" s="26">
         <v>3879906</v>
       </c>
-      <c r="P20" s="38">
+      <c r="P20" s="27">
         <v>3957119</v>
       </c>
       <c r="Q20" s="15">
@@ -2533,10 +2533,10 @@
       <c r="N21" s="12">
         <v>7817888</v>
       </c>
-      <c r="O21" s="35">
+      <c r="O21" s="24">
         <v>7256647</v>
       </c>
-      <c r="P21" s="36">
+      <c r="P21" s="25">
         <v>8291602</v>
       </c>
       <c r="Q21" s="5">
@@ -2591,10 +2591,10 @@
       <c r="N22" s="12">
         <v>1937391</v>
       </c>
-      <c r="O22" s="35">
+      <c r="O22" s="24">
         <v>1989700</v>
       </c>
-      <c r="P22" s="36">
+      <c r="P22" s="25">
         <v>2041844</v>
       </c>
       <c r="Q22" s="5">
@@ -2649,10 +2649,10 @@
       <c r="N23" s="12">
         <v>879639</v>
       </c>
-      <c r="O23" s="35">
+      <c r="O23" s="24">
         <v>823186</v>
       </c>
-      <c r="P23" s="36">
+      <c r="P23" s="25">
         <v>855311</v>
       </c>
       <c r="Q23" s="5">
@@ -2707,10 +2707,10 @@
       <c r="N24" s="12">
         <v>683387</v>
       </c>
-      <c r="O24" s="35">
+      <c r="O24" s="24">
         <v>651580</v>
       </c>
-      <c r="P24" s="36">
+      <c r="P24" s="25">
         <v>627135</v>
       </c>
       <c r="Q24" s="5">
@@ -2765,10 +2765,10 @@
       <c r="N25" s="12">
         <v>2575825</v>
       </c>
-      <c r="O25" s="35">
+      <c r="O25" s="24">
         <v>2785180</v>
       </c>
-      <c r="P25" s="36">
+      <c r="P25" s="25">
         <v>2903038</v>
       </c>
       <c r="Q25" s="5">
@@ -2823,10 +2823,10 @@
       <c r="N26" s="12">
         <v>1880398</v>
       </c>
-      <c r="O26" s="35">
+      <c r="O26" s="24">
         <v>1851937</v>
       </c>
-      <c r="P26" s="36">
+      <c r="P26" s="25">
         <v>1844235</v>
       </c>
       <c r="Q26" s="5">
@@ -2881,10 +2881,10 @@
       <c r="N27" s="12">
         <v>2899694</v>
       </c>
-      <c r="O27" s="35">
+      <c r="O27" s="24">
         <v>2877269</v>
       </c>
-      <c r="P27" s="36">
+      <c r="P27" s="25">
         <v>3024303</v>
       </c>
       <c r="Q27" s="5">
@@ -2939,10 +2939,10 @@
       <c r="N28" s="12">
         <v>949571</v>
       </c>
-      <c r="O28" s="35">
+      <c r="O28" s="24">
         <v>1010295</v>
       </c>
-      <c r="P28" s="36">
+      <c r="P28" s="25">
         <v>1052926</v>
       </c>
       <c r="Q28" s="5">
@@ -2997,10 +2997,10 @@
       <c r="N29" s="12">
         <v>845007</v>
       </c>
-      <c r="O29" s="35">
+      <c r="O29" s="24">
         <v>919059</v>
       </c>
-      <c r="P29" s="36">
+      <c r="P29" s="25">
         <v>920651</v>
       </c>
       <c r="Q29" s="5">
@@ -3055,10 +3055,10 @@
       <c r="N30" s="12">
         <v>1259897</v>
       </c>
-      <c r="O30" s="35">
+      <c r="O30" s="24">
         <v>1233830</v>
       </c>
-      <c r="P30" s="36">
+      <c r="P30" s="25">
         <v>1282326</v>
       </c>
       <c r="Q30" s="5">
@@ -3113,10 +3113,10 @@
       <c r="N31" s="12">
         <v>1321037</v>
       </c>
-      <c r="O31" s="35">
+      <c r="O31" s="24">
         <v>1348508</v>
       </c>
-      <c r="P31" s="36">
+      <c r="P31" s="25">
         <v>1368104</v>
       </c>
       <c r="Q31" s="5">
@@ -3171,10 +3171,10 @@
       <c r="N32" s="12">
         <v>1478717</v>
       </c>
-      <c r="O32" s="35">
+      <c r="O32" s="24">
         <v>1357424</v>
       </c>
-      <c r="P32" s="36">
+      <c r="P32" s="25">
         <v>1402025</v>
       </c>
       <c r="Q32" s="5">
@@ -3229,10 +3229,10 @@
       <c r="N33" s="12">
         <v>979646</v>
       </c>
-      <c r="O33" s="35">
+      <c r="O33" s="24">
         <v>967637</v>
       </c>
-      <c r="P33" s="36">
+      <c r="P33" s="25">
         <v>998364</v>
       </c>
       <c r="Q33" s="5">
@@ -3287,10 +3287,10 @@
       <c r="N34" s="12">
         <v>1685454</v>
       </c>
-      <c r="O34" s="35">
+      <c r="O34" s="24">
         <v>1586439</v>
       </c>
-      <c r="P34" s="36">
+      <c r="P34" s="25">
         <v>1645758</v>
       </c>
       <c r="Q34" s="5">
@@ -3345,10 +3345,10 @@
       <c r="N35" s="12">
         <v>612523</v>
       </c>
-      <c r="O35" s="35">
+      <c r="O35" s="24">
         <v>585720</v>
       </c>
-      <c r="P35" s="36">
+      <c r="P35" s="25">
         <v>619259</v>
       </c>
       <c r="Q35" s="5">
@@ -3403,10 +3403,10 @@
       <c r="N36" s="12">
         <v>3401418</v>
       </c>
-      <c r="O36" s="35">
+      <c r="O36" s="24">
         <v>3255349</v>
       </c>
-      <c r="P36" s="36">
+      <c r="P36" s="25">
         <v>3399361</v>
       </c>
       <c r="Q36" s="5">
@@ -3461,10 +3461,10 @@
       <c r="N37" s="12">
         <v>1121208</v>
       </c>
-      <c r="O37" s="35">
+      <c r="O37" s="24">
         <v>1183719</v>
       </c>
-      <c r="P37" s="36">
+      <c r="P37" s="25">
         <v>1189011</v>
       </c>
       <c r="Q37" s="5">
@@ -3519,10 +3519,10 @@
       <c r="N38" s="12">
         <v>704127</v>
       </c>
-      <c r="O38" s="35">
+      <c r="O38" s="24">
         <v>682037</v>
       </c>
-      <c r="P38" s="36">
+      <c r="P38" s="25">
         <v>681082</v>
       </c>
       <c r="Q38" s="5">
@@ -3581,7 +3581,7 @@
       <c r="O39" s="10">
         <v>55385133</v>
       </c>
-      <c r="P39" s="39">
+      <c r="P39" s="28">
         <v>57668254</v>
       </c>
       <c r="Q39" s="11"/>
@@ -3589,98 +3589,98 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:18" s="46" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="43" t="s">
+    <row r="40" spans="1:18" s="35" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="B40" s="44"/>
-      <c r="C40" s="44"/>
-      <c r="D40" s="44"/>
-      <c r="E40" s="44"/>
-      <c r="F40" s="44"/>
-      <c r="G40" s="44"/>
-      <c r="H40" s="44"/>
-      <c r="I40" s="44"/>
-      <c r="J40" s="44"/>
-      <c r="K40" s="44"/>
-      <c r="L40" s="44"/>
-      <c r="M40" s="44"/>
-      <c r="N40" s="44"/>
-      <c r="O40" s="44"/>
-      <c r="P40" s="44"/>
-      <c r="Q40" s="44"/>
-      <c r="R40" s="45"/>
-    </row>
-    <row r="41" spans="1:18" s="47" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="40" t="s">
+      <c r="B40" s="33"/>
+      <c r="C40" s="33"/>
+      <c r="D40" s="33"/>
+      <c r="E40" s="33"/>
+      <c r="F40" s="33"/>
+      <c r="G40" s="33"/>
+      <c r="H40" s="33"/>
+      <c r="I40" s="33"/>
+      <c r="J40" s="33"/>
+      <c r="K40" s="33"/>
+      <c r="L40" s="33"/>
+      <c r="M40" s="33"/>
+      <c r="N40" s="33"/>
+      <c r="O40" s="33"/>
+      <c r="P40" s="33"/>
+      <c r="Q40" s="33"/>
+      <c r="R40" s="34"/>
+    </row>
+    <row r="41" spans="1:18" s="36" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="B41" s="40"/>
-      <c r="C41" s="40"/>
-      <c r="D41" s="40"/>
-      <c r="E41" s="40"/>
-      <c r="F41" s="40"/>
-      <c r="G41" s="40"/>
-      <c r="H41" s="40"/>
-      <c r="I41" s="40"/>
-      <c r="J41" s="40"/>
-      <c r="K41" s="40"/>
-      <c r="L41" s="40"/>
-      <c r="M41" s="40"/>
-      <c r="N41" s="40"/>
-      <c r="O41" s="40"/>
-      <c r="P41" s="40"/>
-      <c r="Q41" s="40"/>
-      <c r="R41" s="40"/>
-    </row>
-    <row r="42" spans="1:18" s="49" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="48" t="s">
+      <c r="B41" s="29"/>
+      <c r="C41" s="29"/>
+      <c r="D41" s="29"/>
+      <c r="E41" s="29"/>
+      <c r="F41" s="29"/>
+      <c r="G41" s="29"/>
+      <c r="H41" s="29"/>
+      <c r="I41" s="29"/>
+      <c r="J41" s="29"/>
+      <c r="K41" s="29"/>
+      <c r="L41" s="29"/>
+      <c r="M41" s="29"/>
+      <c r="N41" s="29"/>
+      <c r="O41" s="29"/>
+      <c r="P41" s="29"/>
+      <c r="Q41" s="29"/>
+      <c r="R41" s="29"/>
+    </row>
+    <row r="42" spans="1:18" s="37" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="B42" s="48"/>
-      <c r="C42" s="48"/>
-      <c r="D42" s="48"/>
-      <c r="E42" s="48"/>
-      <c r="F42" s="48"/>
-      <c r="G42" s="48"/>
-      <c r="H42" s="48"/>
-      <c r="I42" s="48"/>
-      <c r="J42" s="48"/>
-      <c r="K42" s="48"/>
-      <c r="L42" s="48"/>
-      <c r="M42" s="48"/>
-      <c r="N42" s="48"/>
-      <c r="O42" s="48"/>
-      <c r="P42" s="48"/>
-      <c r="Q42" s="48"/>
-      <c r="R42" s="48"/>
-    </row>
-    <row r="43" spans="1:18" s="41" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="42" t="s">
+      <c r="B42" s="42"/>
+      <c r="C42" s="42"/>
+      <c r="D42" s="42"/>
+      <c r="E42" s="42"/>
+      <c r="F42" s="42"/>
+      <c r="G42" s="42"/>
+      <c r="H42" s="42"/>
+      <c r="I42" s="42"/>
+      <c r="J42" s="42"/>
+      <c r="K42" s="42"/>
+      <c r="L42" s="42"/>
+      <c r="M42" s="42"/>
+      <c r="N42" s="42"/>
+      <c r="O42" s="42"/>
+      <c r="P42" s="42"/>
+      <c r="Q42" s="42"/>
+      <c r="R42" s="42"/>
+    </row>
+    <row r="43" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="31" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A44" s="22" t="s">
+      <c r="A44" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="B44" s="22"/>
-      <c r="C44" s="22"/>
-      <c r="D44" s="22"/>
-      <c r="E44" s="22"/>
-      <c r="F44" s="22"/>
-      <c r="G44" s="22"/>
-      <c r="H44" s="22"/>
-      <c r="I44" s="22"/>
-      <c r="J44" s="22"/>
-      <c r="K44" s="22"/>
-      <c r="L44" s="22"/>
-      <c r="M44" s="22"/>
-      <c r="N44" s="22"/>
-      <c r="O44" s="22"/>
-      <c r="P44" s="22"/>
-      <c r="Q44" s="22"/>
-      <c r="R44" s="22"/>
+      <c r="B44" s="43"/>
+      <c r="C44" s="43"/>
+      <c r="D44" s="43"/>
+      <c r="E44" s="43"/>
+      <c r="F44" s="43"/>
+      <c r="G44" s="43"/>
+      <c r="H44" s="43"/>
+      <c r="I44" s="43"/>
+      <c r="J44" s="43"/>
+      <c r="K44" s="43"/>
+      <c r="L44" s="43"/>
+      <c r="M44" s="43"/>
+      <c r="N44" s="43"/>
+      <c r="O44" s="43"/>
+      <c r="P44" s="43"/>
+      <c r="Q44" s="43"/>
+      <c r="R44" s="43"/>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A45" s="8"/>
@@ -3734,6 +3734,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="O5:P5"/>
     <mergeCell ref="Q5:Q6"/>
     <mergeCell ref="R5:R6"/>
     <mergeCell ref="A42:R42"/>
@@ -3750,9 +3753,6 @@
     <mergeCell ref="K5:K6"/>
     <mergeCell ref="L5:L6"/>
     <mergeCell ref="M5:M6"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="O5:P5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.79" right="0.79" top="0.98" bottom="0.98" header="0" footer="0"/>

--- a/Tabulados/pea-entidad.xlsx
+++ b/Tabulados/pea-entidad.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\susana.galindo\Documents\GitHub\SIE\Tabulados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\UEF\Actualizaciones pagina\Tabulados\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="48">
   <si>
     <t>Aguascalientes</t>
   </si>
@@ -133,39 +133,6 @@
     </r>
   </si>
   <si>
-    <t>IV Trim 2016</t>
-  </si>
-  <si>
-    <t>IV Trim 2015</t>
-  </si>
-  <si>
-    <t>IV Trim 2017</t>
-  </si>
-  <si>
-    <t>IV Trim 2018</t>
-  </si>
-  <si>
-    <t>IV Trim 2012</t>
-  </si>
-  <si>
-    <t>IV Trim 2008</t>
-  </si>
-  <si>
-    <t>IV Trim 2009</t>
-  </si>
-  <si>
-    <t>IV Trim 2010</t>
-  </si>
-  <si>
-    <t>IV Trim 2011</t>
-  </si>
-  <si>
-    <t>IV Trim 2013</t>
-  </si>
-  <si>
-    <t>IV Trim 2014</t>
-  </si>
-  <si>
     <t>Ciudad de México</t>
   </si>
   <si>
@@ -175,38 +142,38 @@
     <t>Nacional</t>
   </si>
   <si>
-    <t>IV Trim 2019</t>
-  </si>
-  <si>
-    <t>IV Trim 2020</t>
-  </si>
-  <si>
-    <t>I Tim 2021</t>
-  </si>
-  <si>
     <t>2008 -2021</t>
   </si>
   <si>
-    <t>II Tim 2021</t>
-  </si>
-  <si>
-    <t>Rank II trim 2021</t>
+    <t>En cumplimiento a lo ordenado por el Ministro instructor de la Suprema Corte de Justicia de la Nación en el acuerdo de fecha 9 de julio de 2021 dictado en el incidente de suspensión derivado de la Controversia Constitucional 78/2021, las cifras poblacionales correspondientes al Estado de México se construyen aplicando las proyecciones de población empleadas con anterioridad a la concesión de la suspensión.</t>
+  </si>
+  <si>
+    <t>Notas:</t>
+  </si>
+  <si>
+    <t>La información del primer trimestre de 2005, y hasta el primer trimestre de 2020, proviene de la Encuesta Nacional de Ocupación y Empleo (ENOE); a partir del tercer trimestre de 2020, la información procede de la Encuesta Nacional de Ocupación y Empleo, Nueva edición (ENOEN).</t>
+  </si>
+  <si>
+    <t>Debido a lo anterior la suma no coincide con el total.</t>
+  </si>
+  <si>
+    <t>Rank III trim 2021</t>
   </si>
   <si>
     <t>% Partic Nal
- II Trim 2021</t>
-  </si>
-  <si>
-    <t>En cumplimiento a lo ordenado por el Ministro instructor de la Suprema Corte de Justicia de la Nación en el acuerdo de fecha 9 de julio de 2021 dictado en el incidente de suspensión derivado de la Controversia Constitucional 78/2021, las cifras poblacionales correspondientes al Estado de México se construyen aplicando las proyecciones de población empleadas con anterioridad a la concesión de la suspensión.</t>
-  </si>
-  <si>
-    <t>Notas:</t>
-  </si>
-  <si>
-    <t>La información del primer trimestre de 2005, y hasta el primer trimestre de 2020, proviene de la Encuesta Nacional de Ocupación y Empleo (ENOE); a partir del tercer trimestre de 2020, la información procede de la Encuesta Nacional de Ocupación y Empleo, Nueva edición (ENOEN).</t>
-  </si>
-  <si>
-    <t>Debido a lo anterior la suma no coincide con el total.</t>
+ III Trim 2021</t>
+  </si>
+  <si>
+    <t>IV Trim</t>
+  </si>
+  <si>
+    <t>I Trim</t>
+  </si>
+  <si>
+    <t>II Trim</t>
+  </si>
+  <si>
+    <t>III Trim</t>
   </si>
 </sst>
 </file>
@@ -426,7 +393,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="42">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -648,20 +615,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="8"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="25">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -878,32 +833,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -1008,7 +937,7 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1061,10 +990,22 @@
     <xf numFmtId="10" fontId="22" fillId="36" borderId="6" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="41" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="41" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="23" fillId="35" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1094,13 +1035,13 @@
     <xf numFmtId="0" fontId="24" fillId="37" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="37" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="37" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="37" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1112,20 +1053,26 @@
     <xf numFmtId="0" fontId="24" fillId="37" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="37" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="37" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="37" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="40" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="40" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="60">
@@ -1490,10 +1437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R49"/>
+  <dimension ref="A1:S49"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42:R42"/>
+      <selection activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1511,14 +1458,14 @@
     <col min="12" max="12" width="9.5703125" style="3" customWidth="1"/>
     <col min="13" max="13" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.28515625" style="3" customWidth="1"/>
-    <col min="15" max="15" width="10.85546875" style="3" customWidth="1"/>
-    <col min="16" max="16" width="10.140625" style="3" customWidth="1"/>
-    <col min="17" max="17" width="12.85546875" style="3" customWidth="1"/>
-    <col min="18" max="18" width="12.140625" style="3" customWidth="1"/>
-    <col min="19" max="16384" width="11.42578125" style="3"/>
+    <col min="15" max="16" width="10.85546875" style="3" customWidth="1"/>
+    <col min="17" max="17" width="10.140625" style="3" customWidth="1"/>
+    <col min="18" max="18" width="12.85546875" style="3" customWidth="1"/>
+    <col min="19" max="19" width="12.140625" style="3" customWidth="1"/>
+    <col min="20" max="16384" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>30</v>
       </c>
@@ -1538,8 +1485,9 @@
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R1" s="2"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>31</v>
       </c>
@@ -1559,10 +1507,11 @@
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R2" s="2"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1580,8 +1529,9 @@
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R3" s="2"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1599,86 +1549,117 @@
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
-    </row>
-    <row r="5" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="46" t="s">
+      <c r="R4" s="2"/>
+    </row>
+    <row r="5" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" s="38" t="s">
-        <v>41</v>
-      </c>
-      <c r="E5" s="38" t="s">
+      <c r="B5" s="22">
+        <v>2008</v>
+      </c>
+      <c r="C5" s="23">
+        <v>2009</v>
+      </c>
+      <c r="D5" s="23">
+        <v>2010</v>
+      </c>
+      <c r="E5" s="23">
+        <v>2011</v>
+      </c>
+      <c r="F5" s="23">
+        <v>2012</v>
+      </c>
+      <c r="G5" s="23">
+        <v>2013</v>
+      </c>
+      <c r="H5" s="23">
+        <v>2014</v>
+      </c>
+      <c r="I5" s="23">
+        <v>2015</v>
+      </c>
+      <c r="J5" s="23">
+        <v>2016</v>
+      </c>
+      <c r="K5" s="23">
+        <v>2017</v>
+      </c>
+      <c r="L5" s="23">
+        <v>2018</v>
+      </c>
+      <c r="M5" s="23">
+        <v>2019</v>
+      </c>
+      <c r="N5" s="24">
+        <v>2020</v>
+      </c>
+      <c r="O5" s="50">
+        <v>2021</v>
+      </c>
+      <c r="P5" s="51"/>
+      <c r="Q5" s="52"/>
+      <c r="R5" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="38" t="s">
+      <c r="S5" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="H5" s="38" t="s">
+    </row>
+    <row r="6" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="49"/>
+      <c r="B6" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="I5" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="J5" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="K5" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="L5" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="M5" s="38" t="s">
-        <v>48</v>
-      </c>
-      <c r="N5" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="O5" s="48">
-        <v>2021</v>
-      </c>
-      <c r="P5" s="49"/>
-      <c r="Q5" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="R5" s="40" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="47"/>
-      <c r="B6" s="45"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="39"/>
-      <c r="K6" s="39"/>
-      <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
-      <c r="N6" s="39"/>
-      <c r="O6" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="P6" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q6" s="39"/>
-      <c r="R6" s="41"/>
-    </row>
-    <row r="7" spans="1:18" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C6" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="I6" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="J6" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="K6" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="L6" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="M6" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="N6" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O6" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="P6" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q6" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="R6" s="43"/>
+      <c r="S6" s="45"/>
+    </row>
+    <row r="7" spans="1:19" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>0</v>
       </c>
@@ -1721,22 +1702,25 @@
       <c r="N7" s="12">
         <v>591245</v>
       </c>
-      <c r="O7" s="24">
+      <c r="O7" s="28">
         <v>618289</v>
       </c>
-      <c r="P7" s="25">
+      <c r="P7" s="12">
         <v>631864</v>
       </c>
-      <c r="Q7" s="5">
-        <f>_xlfn.RANK.EQ(P7,$P$7:$P$38)</f>
+      <c r="Q7" s="29">
+        <v>650144</v>
+      </c>
+      <c r="R7" s="5">
+        <f>_xlfn.RANK.EQ(Q7,$Q$7:$Q$38)</f>
         <v>27</v>
       </c>
-      <c r="R7" s="6">
-        <f>P7/$P$39</f>
-        <v>1.095687759161219E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S7" s="6">
+        <f>Q7/$Q$39</f>
+        <v>1.1150274014745904E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>1</v>
       </c>
@@ -1779,22 +1763,25 @@
       <c r="N8" s="12">
         <v>1705014</v>
       </c>
-      <c r="O8" s="24">
+      <c r="O8" s="28">
         <v>1731982</v>
       </c>
-      <c r="P8" s="25">
+      <c r="P8" s="12">
         <v>1808741</v>
       </c>
-      <c r="Q8" s="5">
-        <f t="shared" ref="Q8:Q38" si="0">_xlfn.RANK.EQ(P8,$P$7:$P$38)</f>
-        <v>11</v>
-      </c>
-      <c r="R8" s="6">
-        <f t="shared" ref="R8:R38" si="1">P8/$P$39</f>
-        <v>3.1364587525053216E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q8" s="29">
+        <v>1813625</v>
+      </c>
+      <c r="R8" s="5">
+        <f t="shared" ref="R8:R38" si="0">_xlfn.RANK.EQ(Q8,$Q$7:$Q$38)</f>
+        <v>10</v>
+      </c>
+      <c r="S8" s="6">
+        <f t="shared" ref="S8:S38" si="1">Q8/$Q$39</f>
+        <v>3.1104517937554664E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>2</v>
       </c>
@@ -1837,22 +1824,25 @@
       <c r="N9" s="12">
         <v>424557</v>
       </c>
-      <c r="O9" s="24">
+      <c r="O9" s="28">
         <v>403452</v>
       </c>
-      <c r="P9" s="25">
+      <c r="P9" s="12">
         <v>426715</v>
       </c>
-      <c r="Q9" s="5">
+      <c r="Q9" s="29">
+        <v>424389</v>
+      </c>
+      <c r="R9" s="5">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="R9" s="6">
+      <c r="S9" s="6">
         <f t="shared" si="1"/>
-        <v>7.3994784027967969E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>7.2784700602389618E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>3</v>
       </c>
@@ -1895,22 +1885,25 @@
       <c r="N10" s="12">
         <v>436711</v>
       </c>
-      <c r="O10" s="24">
+      <c r="O10" s="28">
         <v>438863</v>
       </c>
-      <c r="P10" s="25">
+      <c r="P10" s="12">
         <v>443205</v>
       </c>
-      <c r="Q10" s="5">
+      <c r="Q10" s="29">
+        <v>431338</v>
+      </c>
+      <c r="R10" s="5">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="R10" s="6">
+      <c r="S10" s="6">
         <f t="shared" si="1"/>
-        <v>7.6854242890724593E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>7.3976486639459396E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>27</v>
       </c>
@@ -1953,22 +1946,25 @@
       <c r="N11" s="12">
         <v>1410380</v>
       </c>
-      <c r="O11" s="24">
+      <c r="O11" s="28">
         <v>1419362</v>
       </c>
-      <c r="P11" s="25">
+      <c r="P11" s="12">
         <v>1467284</v>
       </c>
-      <c r="Q11" s="5">
+      <c r="Q11" s="29">
+        <v>1488846</v>
+      </c>
+      <c r="R11" s="5">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="R11" s="6">
+      <c r="S11" s="6">
         <f t="shared" si="1"/>
-        <v>2.5443530854948375E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>2.553440601737212E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>4</v>
       </c>
@@ -2011,22 +2007,25 @@
       <c r="N12" s="12">
         <v>371574</v>
       </c>
-      <c r="O12" s="24">
+      <c r="O12" s="28">
         <v>365263</v>
       </c>
-      <c r="P12" s="25">
+      <c r="P12" s="12">
         <v>381094</v>
       </c>
-      <c r="Q12" s="5">
+      <c r="Q12" s="29">
+        <v>394648</v>
+      </c>
+      <c r="R12" s="5">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="R12" s="6">
+      <c r="S12" s="6">
         <f t="shared" si="1"/>
-        <v>6.6083845715183259E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>6.7683979847102203E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>5</v>
       </c>
@@ -2069,1298 +2068,1367 @@
       <c r="N13" s="12">
         <v>2108289</v>
       </c>
-      <c r="O13" s="24">
+      <c r="O13" s="28">
         <v>2131275</v>
       </c>
-      <c r="P13" s="25">
+      <c r="P13" s="12">
         <v>2263306</v>
       </c>
-      <c r="Q13" s="5">
+      <c r="Q13" s="29">
+        <v>2170044</v>
+      </c>
+      <c r="R13" s="5">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="S13" s="6">
+        <f t="shared" si="1"/>
+        <v>3.7217270672428353E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="17">
+        <v>1487165</v>
+      </c>
+      <c r="C14" s="18">
+        <v>1500752</v>
+      </c>
+      <c r="D14" s="18">
+        <v>1348916</v>
+      </c>
+      <c r="E14" s="18">
+        <v>1437635</v>
+      </c>
+      <c r="F14" s="18">
+        <v>1517276</v>
+      </c>
+      <c r="G14" s="18">
+        <v>1532475</v>
+      </c>
+      <c r="H14" s="18">
+        <v>1593911</v>
+      </c>
+      <c r="I14" s="12">
+        <v>1627360</v>
+      </c>
+      <c r="J14" s="12">
+        <v>1674505</v>
+      </c>
+      <c r="K14" s="12">
+        <v>1676051</v>
+      </c>
+      <c r="L14" s="12">
+        <v>1772618</v>
+      </c>
+      <c r="M14" s="12">
+        <v>1785404</v>
+      </c>
+      <c r="N14" s="12">
+        <v>1763997</v>
+      </c>
+      <c r="O14" s="28">
+        <v>1671214</v>
+      </c>
+      <c r="P14" s="12">
+        <v>1740632</v>
+      </c>
+      <c r="Q14" s="29">
+        <v>1774805</v>
+      </c>
+      <c r="R14" s="5">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="S14" s="6">
+        <f t="shared" si="1"/>
+        <v>3.0438736760996187E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="17">
+        <v>4154767</v>
+      </c>
+      <c r="C15" s="18">
+        <v>4235853</v>
+      </c>
+      <c r="D15" s="18">
+        <v>4205116</v>
+      </c>
+      <c r="E15" s="18">
+        <v>4393420</v>
+      </c>
+      <c r="F15" s="18">
+        <v>4470040</v>
+      </c>
+      <c r="G15" s="18">
+        <v>4429488</v>
+      </c>
+      <c r="H15" s="18">
+        <v>4314435</v>
+      </c>
+      <c r="I15" s="12">
+        <v>4403287</v>
+      </c>
+      <c r="J15" s="12">
+        <v>4350772</v>
+      </c>
+      <c r="K15" s="12">
+        <v>4335159</v>
+      </c>
+      <c r="L15" s="12">
+        <v>4440317</v>
+      </c>
+      <c r="M15" s="12">
+        <v>4514470</v>
+      </c>
+      <c r="N15" s="12">
+        <v>3935752</v>
+      </c>
+      <c r="O15" s="28">
+        <v>4175657</v>
+      </c>
+      <c r="P15" s="12">
+        <v>4439594</v>
+      </c>
+      <c r="Q15" s="29">
+        <v>4724127</v>
+      </c>
+      <c r="R15" s="5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="S15" s="6">
+        <f t="shared" si="1"/>
+        <v>8.1020990012150421E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="17">
+        <v>636799</v>
+      </c>
+      <c r="C16" s="18">
+        <v>638272</v>
+      </c>
+      <c r="D16" s="18">
+        <v>653642</v>
+      </c>
+      <c r="E16" s="18">
+        <v>707317</v>
+      </c>
+      <c r="F16" s="18">
+        <v>718467</v>
+      </c>
+      <c r="G16" s="18">
+        <v>732490</v>
+      </c>
+      <c r="H16" s="18">
+        <v>744530</v>
+      </c>
+      <c r="I16" s="12">
+        <v>779604</v>
+      </c>
+      <c r="J16" s="12">
+        <v>783889</v>
+      </c>
+      <c r="K16" s="12">
+        <v>778302</v>
+      </c>
+      <c r="L16" s="12">
+        <v>804613</v>
+      </c>
+      <c r="M16" s="12">
+        <v>810077</v>
+      </c>
+      <c r="N16" s="12">
+        <v>798476</v>
+      </c>
+      <c r="O16" s="28">
+        <v>803577</v>
+      </c>
+      <c r="P16" s="12">
+        <v>843167</v>
+      </c>
+      <c r="Q16" s="29">
+        <v>842334</v>
+      </c>
+      <c r="R16" s="5">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="S16" s="6">
+        <f t="shared" si="1"/>
+        <v>1.4446422503225403E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="17">
+        <v>2149708</v>
+      </c>
+      <c r="C17" s="18">
+        <v>2262407</v>
+      </c>
+      <c r="D17" s="18">
+        <v>2279071</v>
+      </c>
+      <c r="E17" s="18">
+        <v>2397360</v>
+      </c>
+      <c r="F17" s="18">
+        <v>2473548</v>
+      </c>
+      <c r="G17" s="18">
+        <v>2517481</v>
+      </c>
+      <c r="H17" s="18">
+        <v>2457663</v>
+      </c>
+      <c r="I17" s="12">
+        <v>2536929</v>
+      </c>
+      <c r="J17" s="12">
+        <v>2583592</v>
+      </c>
+      <c r="K17" s="12">
+        <v>2633796</v>
+      </c>
+      <c r="L17" s="12">
+        <v>2659163</v>
+      </c>
+      <c r="M17" s="12">
+        <v>2682748</v>
+      </c>
+      <c r="N17" s="12">
+        <v>2656883</v>
+      </c>
+      <c r="O17" s="28">
+        <v>2684322</v>
+      </c>
+      <c r="P17" s="12">
+        <v>2800508</v>
+      </c>
+      <c r="Q17" s="29">
+        <v>2830259</v>
+      </c>
+      <c r="R17" s="5">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="S17" s="6">
+        <f t="shared" si="1"/>
+        <v>4.8540267052684834E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="17">
+        <v>1353231</v>
+      </c>
+      <c r="C18" s="18">
+        <v>1426814</v>
+      </c>
+      <c r="D18" s="18">
+        <v>1422289</v>
+      </c>
+      <c r="E18" s="18">
+        <v>1474825</v>
+      </c>
+      <c r="F18" s="18">
+        <v>1391164</v>
+      </c>
+      <c r="G18" s="18">
+        <v>1413436</v>
+      </c>
+      <c r="H18" s="18">
+        <v>1438315</v>
+      </c>
+      <c r="I18" s="12">
+        <v>1456709</v>
+      </c>
+      <c r="J18" s="12">
+        <v>1421962</v>
+      </c>
+      <c r="K18" s="12">
+        <v>1496749</v>
+      </c>
+      <c r="L18" s="12">
+        <v>1559635</v>
+      </c>
+      <c r="M18" s="12">
+        <v>1541546</v>
+      </c>
+      <c r="N18" s="12">
+        <v>1564536</v>
+      </c>
+      <c r="O18" s="28">
+        <v>1415941</v>
+      </c>
+      <c r="P18" s="12">
+        <v>1531375</v>
+      </c>
+      <c r="Q18" s="29">
+        <v>1526815</v>
+      </c>
+      <c r="R18" s="5">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="S18" s="6">
+        <f t="shared" si="1"/>
+        <v>2.6185592145469724E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="17">
+        <v>1028269</v>
+      </c>
+      <c r="C19" s="18">
+        <v>1071419</v>
+      </c>
+      <c r="D19" s="18">
+        <v>1092969</v>
+      </c>
+      <c r="E19" s="18">
+        <v>1118479</v>
+      </c>
+      <c r="F19" s="18">
+        <v>1174639</v>
+      </c>
+      <c r="G19" s="18">
+        <v>1205244</v>
+      </c>
+      <c r="H19" s="18">
+        <v>1220081</v>
+      </c>
+      <c r="I19" s="12">
+        <v>1295452</v>
+      </c>
+      <c r="J19" s="12">
+        <v>1230173</v>
+      </c>
+      <c r="K19" s="12">
+        <v>1237664</v>
+      </c>
+      <c r="L19" s="12">
+        <v>1302465</v>
+      </c>
+      <c r="M19" s="12">
+        <v>1315532</v>
+      </c>
+      <c r="N19" s="12">
+        <v>1269809</v>
+      </c>
+      <c r="O19" s="28">
+        <v>1280514</v>
+      </c>
+      <c r="P19" s="12">
+        <v>1326174</v>
+      </c>
+      <c r="Q19" s="29">
+        <v>1377006</v>
+      </c>
+      <c r="R19" s="5">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="S19" s="6">
+        <f t="shared" si="1"/>
+        <v>2.3616297650903798E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="19">
+        <v>3164862</v>
+      </c>
+      <c r="C20" s="20">
+        <v>3363966</v>
+      </c>
+      <c r="D20" s="20">
+        <v>3398249</v>
+      </c>
+      <c r="E20" s="20">
+        <v>3469069</v>
+      </c>
+      <c r="F20" s="20">
+        <v>3454205</v>
+      </c>
+      <c r="G20" s="20">
+        <v>3525624</v>
+      </c>
+      <c r="H20" s="20">
+        <v>3517378</v>
+      </c>
+      <c r="I20" s="14">
+        <v>3714858</v>
+      </c>
+      <c r="J20" s="14">
+        <v>3694536</v>
+      </c>
+      <c r="K20" s="14">
+        <v>3757723</v>
+      </c>
+      <c r="L20" s="14">
+        <v>3797311</v>
+      </c>
+      <c r="M20" s="14">
+        <v>3895568</v>
+      </c>
+      <c r="N20" s="14">
+        <v>3810866</v>
+      </c>
+      <c r="O20" s="30">
+        <v>3879906</v>
+      </c>
+      <c r="P20" s="14">
+        <v>3957119</v>
+      </c>
+      <c r="Q20" s="31">
+        <v>3959500</v>
+      </c>
+      <c r="R20" s="15">
+        <f>_xlfn.RANK.EQ(Q20,$Q$7:$Q$38)</f>
+        <v>3</v>
+      </c>
+      <c r="S20" s="16">
+        <f t="shared" si="1"/>
+        <v>6.7907278943413169E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="17">
+        <v>6285658</v>
+      </c>
+      <c r="C21" s="18">
+        <v>6648026</v>
+      </c>
+      <c r="D21" s="18">
+        <v>6627998</v>
+      </c>
+      <c r="E21" s="18">
+        <v>6969793</v>
+      </c>
+      <c r="F21" s="18">
+        <v>7099226</v>
+      </c>
+      <c r="G21" s="18">
+        <v>7295121</v>
+      </c>
+      <c r="H21" s="18">
+        <v>7265129</v>
+      </c>
+      <c r="I21" s="12">
+        <v>7655997</v>
+      </c>
+      <c r="J21" s="12">
+        <v>7508735</v>
+      </c>
+      <c r="K21" s="12">
+        <v>7761047</v>
+      </c>
+      <c r="L21" s="12">
+        <v>7924199</v>
+      </c>
+      <c r="M21" s="12">
+        <v>8195649</v>
+      </c>
+      <c r="N21" s="12">
+        <v>7817888</v>
+      </c>
+      <c r="O21" s="28">
+        <v>7256647</v>
+      </c>
+      <c r="P21" s="12">
+        <v>8291602</v>
+      </c>
+      <c r="Q21" s="29">
+        <v>8531411</v>
+      </c>
+      <c r="R21" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="S21" s="6">
+        <f t="shared" si="1"/>
+        <v>0.14631769328397612</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="17">
+        <v>1727031</v>
+      </c>
+      <c r="C22" s="18">
+        <v>1829268</v>
+      </c>
+      <c r="D22" s="18">
+        <v>1730846</v>
+      </c>
+      <c r="E22" s="18">
+        <v>1853718</v>
+      </c>
+      <c r="F22" s="18">
+        <v>1885496</v>
+      </c>
+      <c r="G22" s="18">
+        <v>1937004</v>
+      </c>
+      <c r="H22" s="18">
+        <v>1944386</v>
+      </c>
+      <c r="I22" s="12">
+        <v>1955573</v>
+      </c>
+      <c r="J22" s="12">
+        <v>2002116</v>
+      </c>
+      <c r="K22" s="12">
+        <v>1996173</v>
+      </c>
+      <c r="L22" s="12">
+        <v>2014164</v>
+      </c>
+      <c r="M22" s="12">
+        <v>2092495</v>
+      </c>
+      <c r="N22" s="12">
+        <v>1937391</v>
+      </c>
+      <c r="O22" s="28">
+        <v>1989700</v>
+      </c>
+      <c r="P22" s="12">
+        <v>2041844</v>
+      </c>
+      <c r="Q22" s="29">
+        <v>2173381</v>
+      </c>
+      <c r="R22" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="R13" s="6">
+      <c r="S22" s="6">
         <f t="shared" si="1"/>
-        <v>3.924700061146294E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
+        <v>3.7274501784900681E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="17">
+        <v>762382</v>
+      </c>
+      <c r="C23" s="18">
+        <v>783133</v>
+      </c>
+      <c r="D23" s="18">
+        <v>784089</v>
+      </c>
+      <c r="E23" s="18">
+        <v>800395</v>
+      </c>
+      <c r="F23" s="18">
+        <v>803846</v>
+      </c>
+      <c r="G23" s="18">
+        <v>826041</v>
+      </c>
+      <c r="H23" s="18">
+        <v>810715</v>
+      </c>
+      <c r="I23" s="12">
+        <v>788902</v>
+      </c>
+      <c r="J23" s="12">
+        <v>819646</v>
+      </c>
+      <c r="K23" s="12">
+        <v>846148</v>
+      </c>
+      <c r="L23" s="12">
+        <v>838342</v>
+      </c>
+      <c r="M23" s="12">
+        <v>871346</v>
+      </c>
+      <c r="N23" s="12">
+        <v>879639</v>
+      </c>
+      <c r="O23" s="28">
+        <v>823186</v>
+      </c>
+      <c r="P23" s="12">
+        <v>855311</v>
+      </c>
+      <c r="Q23" s="29">
+        <v>857820</v>
+      </c>
+      <c r="R23" s="5">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="S23" s="6">
+        <f t="shared" si="1"/>
+        <v>1.4712014654183276E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="17">
+        <v>474633</v>
+      </c>
+      <c r="C24" s="18">
+        <v>505283</v>
+      </c>
+      <c r="D24" s="18">
+        <v>513252</v>
+      </c>
+      <c r="E24" s="18">
+        <v>511957</v>
+      </c>
+      <c r="F24" s="18">
+        <v>540494</v>
+      </c>
+      <c r="G24" s="18">
+        <v>554195</v>
+      </c>
+      <c r="H24" s="18">
+        <v>555305</v>
+      </c>
+      <c r="I24" s="12">
+        <v>585739</v>
+      </c>
+      <c r="J24" s="12">
+        <v>591315</v>
+      </c>
+      <c r="K24" s="12">
+        <v>614098</v>
+      </c>
+      <c r="L24" s="12">
+        <v>620909</v>
+      </c>
+      <c r="M24" s="12">
+        <v>624047</v>
+      </c>
+      <c r="N24" s="12">
+        <v>683387</v>
+      </c>
+      <c r="O24" s="28">
+        <v>651580</v>
+      </c>
+      <c r="P24" s="12">
+        <v>627135</v>
+      </c>
+      <c r="Q24" s="29">
+        <v>600692</v>
+      </c>
+      <c r="R24" s="5">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="S24" s="6">
+        <f t="shared" si="1"/>
+        <v>1.0302149060001702E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" s="17">
+        <v>2105926</v>
+      </c>
+      <c r="C25" s="18">
+        <v>2207659</v>
+      </c>
+      <c r="D25" s="18">
+        <v>2228480</v>
+      </c>
+      <c r="E25" s="18">
+        <v>2264278</v>
+      </c>
+      <c r="F25" s="18">
+        <v>2308619</v>
+      </c>
+      <c r="G25" s="18">
+        <v>2298389</v>
+      </c>
+      <c r="H25" s="18">
+        <v>2302251</v>
+      </c>
+      <c r="I25" s="12">
+        <v>2370447</v>
+      </c>
+      <c r="J25" s="12">
+        <v>2466545</v>
+      </c>
+      <c r="K25" s="12">
+        <v>2473654</v>
+      </c>
+      <c r="L25" s="12">
+        <v>2508932</v>
+      </c>
+      <c r="M25" s="12">
+        <v>2604667</v>
+      </c>
+      <c r="N25" s="12">
+        <v>2575825</v>
+      </c>
+      <c r="O25" s="28">
+        <v>2785180</v>
+      </c>
+      <c r="P25" s="12">
+        <v>2903038</v>
+      </c>
+      <c r="Q25" s="29">
+        <v>2866655</v>
+      </c>
+      <c r="R25" s="5">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B14" s="17">
-        <v>1487165</v>
-      </c>
-      <c r="C14" s="18">
-        <v>1500752</v>
-      </c>
-      <c r="D14" s="18">
-        <v>1348916</v>
-      </c>
-      <c r="E14" s="18">
-        <v>1437635</v>
-      </c>
-      <c r="F14" s="18">
-        <v>1517276</v>
-      </c>
-      <c r="G14" s="18">
-        <v>1532475</v>
-      </c>
-      <c r="H14" s="18">
-        <v>1593911</v>
-      </c>
-      <c r="I14" s="12">
-        <v>1627360</v>
-      </c>
-      <c r="J14" s="12">
-        <v>1674505</v>
-      </c>
-      <c r="K14" s="12">
-        <v>1676051</v>
-      </c>
-      <c r="L14" s="12">
-        <v>1772618</v>
-      </c>
-      <c r="M14" s="12">
-        <v>1785404</v>
-      </c>
-      <c r="N14" s="12">
-        <v>1763997</v>
-      </c>
-      <c r="O14" s="24">
-        <v>1671214</v>
-      </c>
-      <c r="P14" s="25">
-        <v>1740632</v>
-      </c>
-      <c r="Q14" s="5">
+      <c r="S25" s="6">
+        <f t="shared" si="1"/>
+        <v>4.9164475494261915E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" s="17">
+        <v>1519011</v>
+      </c>
+      <c r="C26" s="18">
+        <v>1617915</v>
+      </c>
+      <c r="D26" s="18">
+        <v>1599129</v>
+      </c>
+      <c r="E26" s="18">
+        <v>1695676</v>
+      </c>
+      <c r="F26" s="18">
+        <v>1672753</v>
+      </c>
+      <c r="G26" s="18">
+        <v>1630893</v>
+      </c>
+      <c r="H26" s="18">
+        <v>1664270</v>
+      </c>
+      <c r="I26" s="12">
+        <v>1711751</v>
+      </c>
+      <c r="J26" s="12">
+        <v>1716346</v>
+      </c>
+      <c r="K26" s="12">
+        <v>1696053</v>
+      </c>
+      <c r="L26" s="12">
+        <v>1766964</v>
+      </c>
+      <c r="M26" s="12">
+        <v>1885014</v>
+      </c>
+      <c r="N26" s="12">
+        <v>1880398</v>
+      </c>
+      <c r="O26" s="28">
+        <v>1851937</v>
+      </c>
+      <c r="P26" s="12">
+        <v>1844235</v>
+      </c>
+      <c r="Q26" s="29">
+        <v>1783913</v>
+      </c>
+      <c r="R26" s="5">
         <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="R14" s="6">
+        <v>11</v>
+      </c>
+      <c r="S26" s="6">
         <f t="shared" si="1"/>
-        <v>3.0183539109750055E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B15" s="17">
-        <v>4154767</v>
-      </c>
-      <c r="C15" s="18">
-        <v>4235853</v>
-      </c>
-      <c r="D15" s="18">
-        <v>4205116</v>
-      </c>
-      <c r="E15" s="18">
-        <v>4393420</v>
-      </c>
-      <c r="F15" s="18">
-        <v>4470040</v>
-      </c>
-      <c r="G15" s="18">
-        <v>4429488</v>
-      </c>
-      <c r="H15" s="18">
-        <v>4314435</v>
-      </c>
-      <c r="I15" s="12">
-        <v>4403287</v>
-      </c>
-      <c r="J15" s="12">
-        <v>4350772</v>
-      </c>
-      <c r="K15" s="12">
-        <v>4335159</v>
-      </c>
-      <c r="L15" s="12">
-        <v>4440317</v>
-      </c>
-      <c r="M15" s="12">
-        <v>4514470</v>
-      </c>
-      <c r="N15" s="12">
-        <v>3935752</v>
-      </c>
-      <c r="O15" s="24">
-        <v>4175657</v>
-      </c>
-      <c r="P15" s="25">
-        <v>4439594</v>
-      </c>
-      <c r="Q15" s="5">
+        <v>3.0594943225604496E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" s="17">
+        <v>2358209</v>
+      </c>
+      <c r="C27" s="18">
+        <v>2423138</v>
+      </c>
+      <c r="D27" s="18">
+        <v>2435395</v>
+      </c>
+      <c r="E27" s="18">
+        <v>2608697</v>
+      </c>
+      <c r="F27" s="18">
+        <v>2603161</v>
+      </c>
+      <c r="G27" s="18">
+        <v>2651019</v>
+      </c>
+      <c r="H27" s="18">
+        <v>2631791</v>
+      </c>
+      <c r="I27" s="12">
+        <v>2710296</v>
+      </c>
+      <c r="J27" s="12">
+        <v>2789480</v>
+      </c>
+      <c r="K27" s="12">
+        <v>2851683</v>
+      </c>
+      <c r="L27" s="12">
+        <v>2849781</v>
+      </c>
+      <c r="M27" s="12">
+        <v>2953254</v>
+      </c>
+      <c r="N27" s="12">
+        <v>2899694</v>
+      </c>
+      <c r="O27" s="28">
+        <v>2877269</v>
+      </c>
+      <c r="P27" s="12">
+        <v>3024303</v>
+      </c>
+      <c r="Q27" s="29">
+        <v>2999739</v>
+      </c>
+      <c r="R27" s="5">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="R15" s="6">
+        <v>5</v>
+      </c>
+      <c r="S27" s="6">
         <f t="shared" si="1"/>
-        <v>7.6985060099097155E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" s="17">
-        <v>636799</v>
-      </c>
-      <c r="C16" s="18">
-        <v>638272</v>
-      </c>
-      <c r="D16" s="18">
-        <v>653642</v>
-      </c>
-      <c r="E16" s="18">
-        <v>707317</v>
-      </c>
-      <c r="F16" s="18">
-        <v>718467</v>
-      </c>
-      <c r="G16" s="18">
-        <v>732490</v>
-      </c>
-      <c r="H16" s="18">
-        <v>744530</v>
-      </c>
-      <c r="I16" s="12">
-        <v>779604</v>
-      </c>
-      <c r="J16" s="12">
-        <v>783889</v>
-      </c>
-      <c r="K16" s="12">
-        <v>778302</v>
-      </c>
-      <c r="L16" s="12">
-        <v>804613</v>
-      </c>
-      <c r="M16" s="12">
-        <v>810077</v>
-      </c>
-      <c r="N16" s="12">
-        <v>798476</v>
-      </c>
-      <c r="O16" s="24">
-        <v>803577</v>
-      </c>
-      <c r="P16" s="25">
-        <v>843167</v>
-      </c>
-      <c r="Q16" s="5">
+        <v>5.1446928407737152E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28" s="17">
+        <v>728072</v>
+      </c>
+      <c r="C28" s="18">
+        <v>741546</v>
+      </c>
+      <c r="D28" s="18">
+        <v>732591</v>
+      </c>
+      <c r="E28" s="18">
+        <v>773975</v>
+      </c>
+      <c r="F28" s="18">
+        <v>754137</v>
+      </c>
+      <c r="G28" s="18">
+        <v>764035</v>
+      </c>
+      <c r="H28" s="18">
+        <v>772029</v>
+      </c>
+      <c r="I28" s="12">
+        <v>842023</v>
+      </c>
+      <c r="J28" s="12">
+        <v>807243</v>
+      </c>
+      <c r="K28" s="12">
+        <v>837024</v>
+      </c>
+      <c r="L28" s="12">
+        <v>861125</v>
+      </c>
+      <c r="M28" s="12">
+        <v>888116</v>
+      </c>
+      <c r="N28" s="12">
+        <v>949571</v>
+      </c>
+      <c r="O28" s="28">
+        <v>1010295</v>
+      </c>
+      <c r="P28" s="12">
+        <v>1052926</v>
+      </c>
+      <c r="Q28" s="29">
+        <v>1087188</v>
+      </c>
+      <c r="R28" s="5">
         <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="R16" s="6">
+        <v>21</v>
+      </c>
+      <c r="S28" s="6">
         <f t="shared" si="1"/>
-        <v>1.4620990606027364E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" s="17">
-        <v>2149708</v>
-      </c>
-      <c r="C17" s="18">
-        <v>2262407</v>
-      </c>
-      <c r="D17" s="18">
-        <v>2279071</v>
-      </c>
-      <c r="E17" s="18">
-        <v>2397360</v>
-      </c>
-      <c r="F17" s="18">
-        <v>2473548</v>
-      </c>
-      <c r="G17" s="18">
-        <v>2517481</v>
-      </c>
-      <c r="H17" s="18">
-        <v>2457663</v>
-      </c>
-      <c r="I17" s="12">
-        <v>2536929</v>
-      </c>
-      <c r="J17" s="12">
-        <v>2583592</v>
-      </c>
-      <c r="K17" s="12">
-        <v>2633796</v>
-      </c>
-      <c r="L17" s="12">
-        <v>2659163</v>
-      </c>
-      <c r="M17" s="12">
-        <v>2682748</v>
-      </c>
-      <c r="N17" s="12">
-        <v>2656883</v>
-      </c>
-      <c r="O17" s="24">
-        <v>2684322</v>
-      </c>
-      <c r="P17" s="25">
-        <v>2800508</v>
-      </c>
-      <c r="Q17" s="5">
+        <v>1.8645783250393098E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29" s="17">
+        <v>651673</v>
+      </c>
+      <c r="C29" s="18">
+        <v>653638</v>
+      </c>
+      <c r="D29" s="18">
+        <v>692620</v>
+      </c>
+      <c r="E29" s="18">
+        <v>707912</v>
+      </c>
+      <c r="F29" s="18">
+        <v>713671</v>
+      </c>
+      <c r="G29" s="18">
+        <v>732583</v>
+      </c>
+      <c r="H29" s="18">
+        <v>748707</v>
+      </c>
+      <c r="I29" s="12">
+        <v>790255</v>
+      </c>
+      <c r="J29" s="12">
+        <v>806043</v>
+      </c>
+      <c r="K29" s="12">
+        <v>821059</v>
+      </c>
+      <c r="L29" s="12">
+        <v>872731</v>
+      </c>
+      <c r="M29" s="12">
+        <v>878561</v>
+      </c>
+      <c r="N29" s="12">
+        <v>845007</v>
+      </c>
+      <c r="O29" s="28">
+        <v>919059</v>
+      </c>
+      <c r="P29" s="12">
+        <v>920651</v>
+      </c>
+      <c r="Q29" s="29">
+        <v>930444</v>
+      </c>
+      <c r="R29" s="5">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="R17" s="6">
+        <v>23</v>
+      </c>
+      <c r="S29" s="6">
         <f t="shared" si="1"/>
-        <v>4.8562385814559253E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" s="17">
-        <v>1353231</v>
-      </c>
-      <c r="C18" s="18">
-        <v>1426814</v>
-      </c>
-      <c r="D18" s="18">
-        <v>1422289</v>
-      </c>
-      <c r="E18" s="18">
-        <v>1474825</v>
-      </c>
-      <c r="F18" s="18">
-        <v>1391164</v>
-      </c>
-      <c r="G18" s="18">
-        <v>1413436</v>
-      </c>
-      <c r="H18" s="18">
-        <v>1438315</v>
-      </c>
-      <c r="I18" s="12">
-        <v>1456709</v>
-      </c>
-      <c r="J18" s="12">
-        <v>1421962</v>
-      </c>
-      <c r="K18" s="12">
-        <v>1496749</v>
-      </c>
-      <c r="L18" s="12">
-        <v>1559635</v>
-      </c>
-      <c r="M18" s="12">
-        <v>1541546</v>
-      </c>
-      <c r="N18" s="12">
-        <v>1564536</v>
-      </c>
-      <c r="O18" s="24">
-        <v>1415941</v>
-      </c>
-      <c r="P18" s="25">
-        <v>1531375</v>
-      </c>
-      <c r="Q18" s="5">
+        <v>1.5957550258675367E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" s="17">
+        <v>1031211</v>
+      </c>
+      <c r="C30" s="18">
+        <v>1052375</v>
+      </c>
+      <c r="D30" s="18">
+        <v>1058129</v>
+      </c>
+      <c r="E30" s="18">
+        <v>1044239</v>
+      </c>
+      <c r="F30" s="18">
+        <v>1105769</v>
+      </c>
+      <c r="G30" s="18">
+        <v>1150039</v>
+      </c>
+      <c r="H30" s="18">
+        <v>1138630</v>
+      </c>
+      <c r="I30" s="12">
+        <v>1174432</v>
+      </c>
+      <c r="J30" s="12">
+        <v>1190841</v>
+      </c>
+      <c r="K30" s="12">
+        <v>1218530</v>
+      </c>
+      <c r="L30" s="12">
+        <v>1221282</v>
+      </c>
+      <c r="M30" s="12">
+        <v>1253123</v>
+      </c>
+      <c r="N30" s="12">
+        <v>1259897</v>
+      </c>
+      <c r="O30" s="28">
+        <v>1233830</v>
+      </c>
+      <c r="P30" s="12">
+        <v>1282326</v>
+      </c>
+      <c r="Q30" s="29">
+        <v>1311741</v>
+      </c>
+      <c r="R30" s="5">
         <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="R18" s="6">
+        <v>19</v>
+      </c>
+      <c r="S30" s="6">
         <f t="shared" si="1"/>
-        <v>2.6554904887531362E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" s="17">
-        <v>1028269</v>
-      </c>
-      <c r="C19" s="18">
-        <v>1071419</v>
-      </c>
-      <c r="D19" s="18">
-        <v>1092969</v>
-      </c>
-      <c r="E19" s="18">
-        <v>1118479</v>
-      </c>
-      <c r="F19" s="18">
-        <v>1174639</v>
-      </c>
-      <c r="G19" s="18">
-        <v>1205244</v>
-      </c>
-      <c r="H19" s="18">
-        <v>1220081</v>
-      </c>
-      <c r="I19" s="12">
-        <v>1295452</v>
-      </c>
-      <c r="J19" s="12">
-        <v>1230173</v>
-      </c>
-      <c r="K19" s="12">
-        <v>1237664</v>
-      </c>
-      <c r="L19" s="12">
-        <v>1302465</v>
-      </c>
-      <c r="M19" s="12">
-        <v>1315532</v>
-      </c>
-      <c r="N19" s="12">
-        <v>1269809</v>
-      </c>
-      <c r="O19" s="24">
-        <v>1280514</v>
-      </c>
-      <c r="P19" s="25">
-        <v>1326174</v>
-      </c>
-      <c r="Q19" s="5">
+        <v>2.2496972342091609E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31" s="17">
+        <v>1216850</v>
+      </c>
+      <c r="C31" s="18">
+        <v>1292218</v>
+      </c>
+      <c r="D31" s="18">
+        <v>1254281</v>
+      </c>
+      <c r="E31" s="18">
+        <v>1294791</v>
+      </c>
+      <c r="F31" s="18">
+        <v>1324241</v>
+      </c>
+      <c r="G31" s="18">
+        <v>1326518</v>
+      </c>
+      <c r="H31" s="18">
+        <v>1371707</v>
+      </c>
+      <c r="I31" s="12">
+        <v>1358096</v>
+      </c>
+      <c r="J31" s="12">
+        <v>1381104</v>
+      </c>
+      <c r="K31" s="12">
+        <v>1381394</v>
+      </c>
+      <c r="L31" s="12">
+        <v>1389771</v>
+      </c>
+      <c r="M31" s="12">
+        <v>1440347</v>
+      </c>
+      <c r="N31" s="12">
+        <v>1321037</v>
+      </c>
+      <c r="O31" s="28">
+        <v>1348508</v>
+      </c>
+      <c r="P31" s="12">
+        <v>1368104</v>
+      </c>
+      <c r="Q31" s="29">
+        <v>1347418</v>
+      </c>
+      <c r="R31" s="5">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="R19" s="6">
+      <c r="S31" s="6">
         <f t="shared" si="1"/>
-        <v>2.2996603989432384E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20" s="19">
-        <v>3164862</v>
-      </c>
-      <c r="C20" s="20">
-        <v>3363966</v>
-      </c>
-      <c r="D20" s="20">
-        <v>3398249</v>
-      </c>
-      <c r="E20" s="20">
-        <v>3469069</v>
-      </c>
-      <c r="F20" s="20">
-        <v>3454205</v>
-      </c>
-      <c r="G20" s="20">
-        <v>3525624</v>
-      </c>
-      <c r="H20" s="20">
-        <v>3517378</v>
-      </c>
-      <c r="I20" s="14">
-        <v>3714858</v>
-      </c>
-      <c r="J20" s="14">
-        <v>3694536</v>
-      </c>
-      <c r="K20" s="14">
-        <v>3757723</v>
-      </c>
-      <c r="L20" s="14">
-        <v>3797311</v>
-      </c>
-      <c r="M20" s="14">
-        <v>3895568</v>
-      </c>
-      <c r="N20" s="14">
-        <v>3810866</v>
-      </c>
-      <c r="O20" s="26">
-        <v>3879906</v>
-      </c>
-      <c r="P20" s="27">
-        <v>3957119</v>
-      </c>
-      <c r="Q20" s="15">
-        <f>_xlfn.RANK.EQ(P20,$P$7:$P$38)</f>
-        <v>3</v>
-      </c>
-      <c r="R20" s="16">
+        <v>2.3108849597013734E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B32" s="17">
+        <v>1088356</v>
+      </c>
+      <c r="C32" s="18">
+        <v>1167245</v>
+      </c>
+      <c r="D32" s="18">
+        <v>1148109</v>
+      </c>
+      <c r="E32" s="18">
+        <v>1263018</v>
+      </c>
+      <c r="F32" s="18">
+        <v>1253737</v>
+      </c>
+      <c r="G32" s="18">
+        <v>1356891</v>
+      </c>
+      <c r="H32" s="18">
+        <v>1372652</v>
+      </c>
+      <c r="I32" s="12">
+        <v>1386422</v>
+      </c>
+      <c r="J32" s="12">
+        <v>1412624</v>
+      </c>
+      <c r="K32" s="12">
+        <v>1422873</v>
+      </c>
+      <c r="L32" s="12">
+        <v>1464617</v>
+      </c>
+      <c r="M32" s="12">
+        <v>1512652</v>
+      </c>
+      <c r="N32" s="12">
+        <v>1478717</v>
+      </c>
+      <c r="O32" s="28">
+        <v>1357424</v>
+      </c>
+      <c r="P32" s="12">
+        <v>1402025</v>
+      </c>
+      <c r="Q32" s="29">
+        <v>1441117</v>
+      </c>
+      <c r="R32" s="5">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="S32" s="6">
         <f t="shared" si="1"/>
-        <v>6.8618671895285754E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21" s="17">
-        <v>6285658</v>
-      </c>
-      <c r="C21" s="18">
-        <v>6648026</v>
-      </c>
-      <c r="D21" s="18">
-        <v>6627998</v>
-      </c>
-      <c r="E21" s="18">
-        <v>6969793</v>
-      </c>
-      <c r="F21" s="18">
-        <v>7099226</v>
-      </c>
-      <c r="G21" s="18">
-        <v>7295121</v>
-      </c>
-      <c r="H21" s="18">
-        <v>7265129</v>
-      </c>
-      <c r="I21" s="12">
-        <v>7655997</v>
-      </c>
-      <c r="J21" s="12">
-        <v>7508735</v>
-      </c>
-      <c r="K21" s="12">
-        <v>7761047</v>
-      </c>
-      <c r="L21" s="12">
-        <v>7924199</v>
-      </c>
-      <c r="M21" s="12">
-        <v>8195649</v>
-      </c>
-      <c r="N21" s="12">
-        <v>7817888</v>
-      </c>
-      <c r="O21" s="24">
-        <v>7256647</v>
-      </c>
-      <c r="P21" s="25">
-        <v>8291602</v>
-      </c>
-      <c r="Q21" s="5">
+        <v>2.4715831319382434E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B33" s="17">
+        <v>867887</v>
+      </c>
+      <c r="C33" s="18">
+        <v>898706</v>
+      </c>
+      <c r="D33" s="18">
+        <v>904727</v>
+      </c>
+      <c r="E33" s="18">
+        <v>956138</v>
+      </c>
+      <c r="F33" s="18">
+        <v>919467</v>
+      </c>
+      <c r="G33" s="18">
+        <v>979766</v>
+      </c>
+      <c r="H33" s="18">
+        <v>988823</v>
+      </c>
+      <c r="I33" s="12">
+        <v>988960</v>
+      </c>
+      <c r="J33" s="12">
+        <v>1026527</v>
+      </c>
+      <c r="K33" s="12">
+        <v>990981</v>
+      </c>
+      <c r="L33" s="12">
+        <v>1019337</v>
+      </c>
+      <c r="M33" s="12">
+        <v>1076973</v>
+      </c>
+      <c r="N33" s="12">
+        <v>979646</v>
+      </c>
+      <c r="O33" s="28">
+        <v>967637</v>
+      </c>
+      <c r="P33" s="12">
+        <v>998364</v>
+      </c>
+      <c r="Q33" s="29">
+        <v>1006358</v>
+      </c>
+      <c r="R33" s="5">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="R21" s="6">
+        <v>22</v>
+      </c>
+      <c r="S33" s="6">
         <f t="shared" si="1"/>
-        <v>0.14378104806155567</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22" s="17">
-        <v>1727031</v>
-      </c>
-      <c r="C22" s="18">
-        <v>1829268</v>
-      </c>
-      <c r="D22" s="18">
-        <v>1730846</v>
-      </c>
-      <c r="E22" s="18">
-        <v>1853718</v>
-      </c>
-      <c r="F22" s="18">
-        <v>1885496</v>
-      </c>
-      <c r="G22" s="18">
-        <v>1937004</v>
-      </c>
-      <c r="H22" s="18">
-        <v>1944386</v>
-      </c>
-      <c r="I22" s="12">
-        <v>1955573</v>
-      </c>
-      <c r="J22" s="12">
-        <v>2002116</v>
-      </c>
-      <c r="K22" s="12">
-        <v>1996173</v>
-      </c>
-      <c r="L22" s="12">
-        <v>2014164</v>
-      </c>
-      <c r="M22" s="12">
-        <v>2092495</v>
-      </c>
-      <c r="N22" s="12">
-        <v>1937391</v>
-      </c>
-      <c r="O22" s="24">
-        <v>1989700</v>
-      </c>
-      <c r="P22" s="25">
-        <v>2041844</v>
-      </c>
-      <c r="Q22" s="5">
+        <v>1.7259510903633132E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B34" s="17">
+        <v>1404400</v>
+      </c>
+      <c r="C34" s="18">
+        <v>1446730</v>
+      </c>
+      <c r="D34" s="18">
+        <v>1443793</v>
+      </c>
+      <c r="E34" s="18">
+        <v>1529566</v>
+      </c>
+      <c r="F34" s="18">
+        <v>1510118</v>
+      </c>
+      <c r="G34" s="18">
+        <v>1608390</v>
+      </c>
+      <c r="H34" s="18">
+        <v>1537566</v>
+      </c>
+      <c r="I34" s="12">
+        <v>1600479</v>
+      </c>
+      <c r="J34" s="12">
+        <v>1633550</v>
+      </c>
+      <c r="K34" s="12">
+        <v>1647462</v>
+      </c>
+      <c r="L34" s="12">
+        <v>1697868</v>
+      </c>
+      <c r="M34" s="12">
+        <v>1719792</v>
+      </c>
+      <c r="N34" s="12">
+        <v>1685454</v>
+      </c>
+      <c r="O34" s="28">
+        <v>1586439</v>
+      </c>
+      <c r="P34" s="12">
+        <v>1645758</v>
+      </c>
+      <c r="Q34" s="29">
+        <v>1661586</v>
+      </c>
+      <c r="R34" s="5">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="R22" s="6">
+        <v>13</v>
+      </c>
+      <c r="S34" s="6">
         <f t="shared" si="1"/>
-        <v>3.5406724816048708E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B23" s="17">
-        <v>762382</v>
-      </c>
-      <c r="C23" s="18">
-        <v>783133</v>
-      </c>
-      <c r="D23" s="18">
-        <v>784089</v>
-      </c>
-      <c r="E23" s="18">
-        <v>800395</v>
-      </c>
-      <c r="F23" s="18">
-        <v>803846</v>
-      </c>
-      <c r="G23" s="18">
-        <v>826041</v>
-      </c>
-      <c r="H23" s="18">
-        <v>810715</v>
-      </c>
-      <c r="I23" s="12">
-        <v>788902</v>
-      </c>
-      <c r="J23" s="12">
-        <v>819646</v>
-      </c>
-      <c r="K23" s="12">
-        <v>846148</v>
-      </c>
-      <c r="L23" s="12">
-        <v>838342</v>
-      </c>
-      <c r="M23" s="12">
-        <v>871346</v>
-      </c>
-      <c r="N23" s="12">
-        <v>879639</v>
-      </c>
-      <c r="O23" s="24">
-        <v>823186</v>
-      </c>
-      <c r="P23" s="25">
-        <v>855311</v>
-      </c>
-      <c r="Q23" s="5">
-        <f t="shared" si="0"/>
+        <v>2.8496977898843315E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="R23" s="6">
-        <f t="shared" si="1"/>
-        <v>1.4831574404871007E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B24" s="17">
-        <v>474633</v>
-      </c>
-      <c r="C24" s="18">
-        <v>505283</v>
-      </c>
-      <c r="D24" s="18">
-        <v>513252</v>
-      </c>
-      <c r="E24" s="18">
-        <v>511957</v>
-      </c>
-      <c r="F24" s="18">
-        <v>540494</v>
-      </c>
-      <c r="G24" s="18">
-        <v>554195</v>
-      </c>
-      <c r="H24" s="18">
-        <v>555305</v>
-      </c>
-      <c r="I24" s="12">
-        <v>585739</v>
-      </c>
-      <c r="J24" s="12">
-        <v>591315</v>
-      </c>
-      <c r="K24" s="12">
-        <v>614098</v>
-      </c>
-      <c r="L24" s="12">
-        <v>620909</v>
-      </c>
-      <c r="M24" s="12">
-        <v>624047</v>
-      </c>
-      <c r="N24" s="12">
-        <v>683387</v>
-      </c>
-      <c r="O24" s="24">
-        <v>651580</v>
-      </c>
-      <c r="P24" s="25">
-        <v>627135</v>
-      </c>
-      <c r="Q24" s="5">
+      <c r="B35" s="17">
+        <v>463396</v>
+      </c>
+      <c r="C35" s="18">
+        <v>490935</v>
+      </c>
+      <c r="D35" s="18">
+        <v>484627</v>
+      </c>
+      <c r="E35" s="18">
+        <v>511982</v>
+      </c>
+      <c r="F35" s="18">
+        <v>529415</v>
+      </c>
+      <c r="G35" s="18">
+        <v>539756</v>
+      </c>
+      <c r="H35" s="18">
+        <v>544945</v>
+      </c>
+      <c r="I35" s="12">
+        <v>566621</v>
+      </c>
+      <c r="J35" s="12">
+        <v>580978</v>
+      </c>
+      <c r="K35" s="12">
+        <v>585404</v>
+      </c>
+      <c r="L35" s="12">
+        <v>603336</v>
+      </c>
+      <c r="M35" s="12">
+        <v>623082</v>
+      </c>
+      <c r="N35" s="12">
+        <v>612523</v>
+      </c>
+      <c r="O35" s="28">
+        <v>585720</v>
+      </c>
+      <c r="P35" s="12">
+        <v>619259</v>
+      </c>
+      <c r="Q35" s="29">
+        <v>626794</v>
+      </c>
+      <c r="R35" s="5">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="R24" s="6">
+      <c r="S35" s="6">
         <f t="shared" si="1"/>
-        <v>1.0874874068495294E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B25" s="17">
-        <v>2105926</v>
-      </c>
-      <c r="C25" s="18">
-        <v>2207659</v>
-      </c>
-      <c r="D25" s="18">
-        <v>2228480</v>
-      </c>
-      <c r="E25" s="18">
-        <v>2264278</v>
-      </c>
-      <c r="F25" s="18">
-        <v>2308619</v>
-      </c>
-      <c r="G25" s="18">
-        <v>2298389</v>
-      </c>
-      <c r="H25" s="18">
-        <v>2302251</v>
-      </c>
-      <c r="I25" s="12">
-        <v>2370447</v>
-      </c>
-      <c r="J25" s="12">
-        <v>2466545</v>
-      </c>
-      <c r="K25" s="12">
-        <v>2473654</v>
-      </c>
-      <c r="L25" s="12">
-        <v>2508932</v>
-      </c>
-      <c r="M25" s="12">
-        <v>2604667</v>
-      </c>
-      <c r="N25" s="12">
-        <v>2575825</v>
-      </c>
-      <c r="O25" s="24">
-        <v>2785180</v>
-      </c>
-      <c r="P25" s="25">
-        <v>2903038</v>
-      </c>
-      <c r="Q25" s="5">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="R25" s="6">
-        <f t="shared" si="1"/>
-        <v>5.0340313753906962E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B26" s="17">
-        <v>1519011</v>
-      </c>
-      <c r="C26" s="18">
-        <v>1617915</v>
-      </c>
-      <c r="D26" s="18">
-        <v>1599129</v>
-      </c>
-      <c r="E26" s="18">
-        <v>1695676</v>
-      </c>
-      <c r="F26" s="18">
-        <v>1672753</v>
-      </c>
-      <c r="G26" s="18">
-        <v>1630893</v>
-      </c>
-      <c r="H26" s="18">
-        <v>1664270</v>
-      </c>
-      <c r="I26" s="12">
-        <v>1711751</v>
-      </c>
-      <c r="J26" s="12">
-        <v>1716346</v>
-      </c>
-      <c r="K26" s="12">
-        <v>1696053</v>
-      </c>
-      <c r="L26" s="12">
-        <v>1766964</v>
-      </c>
-      <c r="M26" s="12">
-        <v>1885014</v>
-      </c>
-      <c r="N26" s="12">
-        <v>1880398</v>
-      </c>
-      <c r="O26" s="24">
-        <v>1851937</v>
-      </c>
-      <c r="P26" s="25">
-        <v>1844235</v>
-      </c>
-      <c r="Q26" s="5">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="R26" s="6">
-        <f t="shared" si="1"/>
-        <v>3.1980073473353292E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B27" s="17">
-        <v>2358209</v>
-      </c>
-      <c r="C27" s="18">
-        <v>2423138</v>
-      </c>
-      <c r="D27" s="18">
-        <v>2435395</v>
-      </c>
-      <c r="E27" s="18">
-        <v>2608697</v>
-      </c>
-      <c r="F27" s="18">
-        <v>2603161</v>
-      </c>
-      <c r="G27" s="18">
-        <v>2651019</v>
-      </c>
-      <c r="H27" s="18">
-        <v>2631791</v>
-      </c>
-      <c r="I27" s="12">
-        <v>2710296</v>
-      </c>
-      <c r="J27" s="12">
-        <v>2789480</v>
-      </c>
-      <c r="K27" s="12">
-        <v>2851683</v>
-      </c>
-      <c r="L27" s="12">
-        <v>2849781</v>
-      </c>
-      <c r="M27" s="12">
-        <v>2953254</v>
-      </c>
-      <c r="N27" s="12">
-        <v>2899694</v>
-      </c>
-      <c r="O27" s="24">
-        <v>2877269</v>
-      </c>
-      <c r="P27" s="25">
-        <v>3024303</v>
-      </c>
-      <c r="Q27" s="5">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="R27" s="6">
-        <f t="shared" si="1"/>
-        <v>5.2443117143792836E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B28" s="17">
-        <v>728072</v>
-      </c>
-      <c r="C28" s="18">
-        <v>741546</v>
-      </c>
-      <c r="D28" s="18">
-        <v>732591</v>
-      </c>
-      <c r="E28" s="18">
-        <v>773975</v>
-      </c>
-      <c r="F28" s="18">
-        <v>754137</v>
-      </c>
-      <c r="G28" s="18">
-        <v>764035</v>
-      </c>
-      <c r="H28" s="18">
-        <v>772029</v>
-      </c>
-      <c r="I28" s="12">
-        <v>842023</v>
-      </c>
-      <c r="J28" s="12">
-        <v>807243</v>
-      </c>
-      <c r="K28" s="12">
-        <v>837024</v>
-      </c>
-      <c r="L28" s="12">
-        <v>861125</v>
-      </c>
-      <c r="M28" s="12">
-        <v>888116</v>
-      </c>
-      <c r="N28" s="12">
-        <v>949571</v>
-      </c>
-      <c r="O28" s="24">
-        <v>1010295</v>
-      </c>
-      <c r="P28" s="25">
-        <v>1052926</v>
-      </c>
-      <c r="Q28" s="5">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="R28" s="6">
-        <f t="shared" si="1"/>
-        <v>1.8258329790945292E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B29" s="17">
-        <v>651673</v>
-      </c>
-      <c r="C29" s="18">
-        <v>653638</v>
-      </c>
-      <c r="D29" s="18">
-        <v>692620</v>
-      </c>
-      <c r="E29" s="18">
-        <v>707912</v>
-      </c>
-      <c r="F29" s="18">
-        <v>713671</v>
-      </c>
-      <c r="G29" s="18">
-        <v>732583</v>
-      </c>
-      <c r="H29" s="18">
-        <v>748707</v>
-      </c>
-      <c r="I29" s="12">
-        <v>790255</v>
-      </c>
-      <c r="J29" s="12">
-        <v>806043</v>
-      </c>
-      <c r="K29" s="12">
-        <v>821059</v>
-      </c>
-      <c r="L29" s="12">
-        <v>872731</v>
-      </c>
-      <c r="M29" s="12">
-        <v>878561</v>
-      </c>
-      <c r="N29" s="12">
-        <v>845007</v>
-      </c>
-      <c r="O29" s="24">
-        <v>919059</v>
-      </c>
-      <c r="P29" s="25">
-        <v>920651</v>
-      </c>
-      <c r="Q29" s="5">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="R29" s="6">
-        <f t="shared" si="1"/>
-        <v>1.5964606800823206E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B30" s="17">
-        <v>1031211</v>
-      </c>
-      <c r="C30" s="18">
-        <v>1052375</v>
-      </c>
-      <c r="D30" s="18">
-        <v>1058129</v>
-      </c>
-      <c r="E30" s="18">
-        <v>1044239</v>
-      </c>
-      <c r="F30" s="18">
-        <v>1105769</v>
-      </c>
-      <c r="G30" s="18">
-        <v>1150039</v>
-      </c>
-      <c r="H30" s="18">
-        <v>1138630</v>
-      </c>
-      <c r="I30" s="12">
-        <v>1174432</v>
-      </c>
-      <c r="J30" s="12">
-        <v>1190841</v>
-      </c>
-      <c r="K30" s="12">
-        <v>1218530</v>
-      </c>
-      <c r="L30" s="12">
-        <v>1221282</v>
-      </c>
-      <c r="M30" s="12">
-        <v>1253123</v>
-      </c>
-      <c r="N30" s="12">
-        <v>1259897</v>
-      </c>
-      <c r="O30" s="24">
-        <v>1233830</v>
-      </c>
-      <c r="P30" s="25">
-        <v>1282326</v>
-      </c>
-      <c r="Q30" s="5">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="R30" s="6">
-        <f t="shared" si="1"/>
-        <v>2.223625497661157E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B31" s="17">
-        <v>1216850</v>
-      </c>
-      <c r="C31" s="18">
-        <v>1292218</v>
-      </c>
-      <c r="D31" s="18">
-        <v>1254281</v>
-      </c>
-      <c r="E31" s="18">
-        <v>1294791</v>
-      </c>
-      <c r="F31" s="18">
-        <v>1324241</v>
-      </c>
-      <c r="G31" s="18">
-        <v>1326518</v>
-      </c>
-      <c r="H31" s="18">
-        <v>1371707</v>
-      </c>
-      <c r="I31" s="12">
-        <v>1358096</v>
-      </c>
-      <c r="J31" s="12">
-        <v>1381104</v>
-      </c>
-      <c r="K31" s="12">
-        <v>1381394</v>
-      </c>
-      <c r="L31" s="12">
-        <v>1389771</v>
-      </c>
-      <c r="M31" s="12">
-        <v>1440347</v>
-      </c>
-      <c r="N31" s="12">
-        <v>1321037</v>
-      </c>
-      <c r="O31" s="24">
-        <v>1348508</v>
-      </c>
-      <c r="P31" s="25">
-        <v>1368104</v>
-      </c>
-      <c r="Q31" s="5">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="R31" s="6">
-        <f t="shared" si="1"/>
-        <v>2.372369380213939E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B32" s="17">
-        <v>1088356</v>
-      </c>
-      <c r="C32" s="18">
-        <v>1167245</v>
-      </c>
-      <c r="D32" s="18">
-        <v>1148109</v>
-      </c>
-      <c r="E32" s="18">
-        <v>1263018</v>
-      </c>
-      <c r="F32" s="18">
-        <v>1253737</v>
-      </c>
-      <c r="G32" s="18">
-        <v>1356891</v>
-      </c>
-      <c r="H32" s="18">
-        <v>1372652</v>
-      </c>
-      <c r="I32" s="12">
-        <v>1386422</v>
-      </c>
-      <c r="J32" s="12">
-        <v>1412624</v>
-      </c>
-      <c r="K32" s="12">
-        <v>1422873</v>
-      </c>
-      <c r="L32" s="12">
-        <v>1464617</v>
-      </c>
-      <c r="M32" s="12">
-        <v>1512652</v>
-      </c>
-      <c r="N32" s="12">
-        <v>1478717</v>
-      </c>
-      <c r="O32" s="24">
-        <v>1357424</v>
-      </c>
-      <c r="P32" s="25">
-        <v>1402025</v>
-      </c>
-      <c r="Q32" s="5">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="R32" s="6">
-        <f t="shared" si="1"/>
-        <v>2.4311903044610991E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B33" s="17">
-        <v>867887</v>
-      </c>
-      <c r="C33" s="18">
-        <v>898706</v>
-      </c>
-      <c r="D33" s="18">
-        <v>904727</v>
-      </c>
-      <c r="E33" s="18">
-        <v>956138</v>
-      </c>
-      <c r="F33" s="18">
-        <v>919467</v>
-      </c>
-      <c r="G33" s="18">
-        <v>979766</v>
-      </c>
-      <c r="H33" s="18">
-        <v>988823</v>
-      </c>
-      <c r="I33" s="12">
-        <v>988960</v>
-      </c>
-      <c r="J33" s="12">
-        <v>1026527</v>
-      </c>
-      <c r="K33" s="12">
-        <v>990981</v>
-      </c>
-      <c r="L33" s="12">
-        <v>1019337</v>
-      </c>
-      <c r="M33" s="12">
-        <v>1076973</v>
-      </c>
-      <c r="N33" s="12">
-        <v>979646</v>
-      </c>
-      <c r="O33" s="24">
-        <v>967637</v>
-      </c>
-      <c r="P33" s="25">
-        <v>998364</v>
-      </c>
-      <c r="Q33" s="5">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="R33" s="6">
-        <f t="shared" si="1"/>
-        <v>1.7312193984579453E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B34" s="17">
-        <v>1404400</v>
-      </c>
-      <c r="C34" s="18">
-        <v>1446730</v>
-      </c>
-      <c r="D34" s="18">
-        <v>1443793</v>
-      </c>
-      <c r="E34" s="18">
-        <v>1529566</v>
-      </c>
-      <c r="F34" s="18">
-        <v>1510118</v>
-      </c>
-      <c r="G34" s="18">
-        <v>1608390</v>
-      </c>
-      <c r="H34" s="18">
-        <v>1537566</v>
-      </c>
-      <c r="I34" s="12">
-        <v>1600479</v>
-      </c>
-      <c r="J34" s="12">
-        <v>1633550</v>
-      </c>
-      <c r="K34" s="12">
-        <v>1647462</v>
-      </c>
-      <c r="L34" s="12">
-        <v>1697868</v>
-      </c>
-      <c r="M34" s="12">
-        <v>1719792</v>
-      </c>
-      <c r="N34" s="12">
-        <v>1685454</v>
-      </c>
-      <c r="O34" s="24">
-        <v>1586439</v>
-      </c>
-      <c r="P34" s="25">
-        <v>1645758</v>
-      </c>
-      <c r="Q34" s="5">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="R34" s="6">
-        <f t="shared" si="1"/>
-        <v>2.8538370521847253E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B35" s="17">
-        <v>463396</v>
-      </c>
-      <c r="C35" s="18">
-        <v>490935</v>
-      </c>
-      <c r="D35" s="18">
-        <v>484627</v>
-      </c>
-      <c r="E35" s="18">
-        <v>511982</v>
-      </c>
-      <c r="F35" s="18">
-        <v>529415</v>
-      </c>
-      <c r="G35" s="18">
-        <v>539756</v>
-      </c>
-      <c r="H35" s="18">
-        <v>544945</v>
-      </c>
-      <c r="I35" s="12">
-        <v>566621</v>
-      </c>
-      <c r="J35" s="12">
-        <v>580978</v>
-      </c>
-      <c r="K35" s="12">
-        <v>585404</v>
-      </c>
-      <c r="L35" s="12">
-        <v>603336</v>
-      </c>
-      <c r="M35" s="12">
-        <v>623082</v>
-      </c>
-      <c r="N35" s="12">
-        <v>612523</v>
-      </c>
-      <c r="O35" s="24">
-        <v>585720</v>
-      </c>
-      <c r="P35" s="25">
-        <v>619259</v>
-      </c>
-      <c r="Q35" s="5">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="R35" s="6">
-        <f t="shared" si="1"/>
-        <v>1.0738299793158294E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.074981058165367E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>29</v>
       </c>
@@ -3403,22 +3471,25 @@
       <c r="N36" s="12">
         <v>3401418</v>
       </c>
-      <c r="O36" s="24">
+      <c r="O36" s="28">
         <v>3255349</v>
       </c>
-      <c r="P36" s="25">
+      <c r="P36" s="12">
         <v>3399361</v>
       </c>
-      <c r="Q36" s="5">
+      <c r="Q36" s="29">
+        <v>3382551</v>
+      </c>
+      <c r="R36" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="R36" s="6">
+      <c r="S36" s="6">
         <f t="shared" si="1"/>
-        <v>5.8946834076162601E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>5.8012333450516769E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>25</v>
       </c>
@@ -3461,22 +3532,25 @@
       <c r="N37" s="12">
         <v>1121208</v>
       </c>
-      <c r="O37" s="24">
+      <c r="O37" s="28">
         <v>1183719</v>
       </c>
-      <c r="P37" s="25">
+      <c r="P37" s="12">
         <v>1189011</v>
       </c>
-      <c r="Q37" s="5">
+      <c r="Q37" s="29">
+        <v>1157294</v>
+      </c>
+      <c r="R37" s="5">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="R37" s="6">
+      <c r="S37" s="6">
         <f t="shared" si="1"/>
-        <v>2.0618120326653205E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.984813397589049E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>26</v>
       </c>
@@ -3519,24 +3593,27 @@
       <c r="N38" s="12">
         <v>704127</v>
       </c>
-      <c r="O38" s="24">
+      <c r="O38" s="28">
         <v>682037</v>
       </c>
-      <c r="P38" s="25">
+      <c r="P38" s="12">
         <v>681082</v>
       </c>
-      <c r="Q38" s="5">
+      <c r="Q38" s="29">
+        <v>708050</v>
+      </c>
+      <c r="R38" s="5">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="R38" s="6">
+      <c r="S38" s="6">
         <f t="shared" si="1"/>
-        <v>1.1810345428526412E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18" s="2" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.2143389027878189E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" s="2" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="9" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="B39" s="10">
         <v>46753657</v>
@@ -3581,108 +3658,115 @@
       <c r="O39" s="10">
         <v>55385133</v>
       </c>
-      <c r="P39" s="28">
+      <c r="P39" s="11">
         <v>57668254</v>
       </c>
-      <c r="Q39" s="11"/>
-      <c r="R39" s="21">
+      <c r="Q39" s="32">
+        <v>58307446</v>
+      </c>
+      <c r="R39" s="11"/>
+      <c r="S39" s="21">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:18" s="35" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="B40" s="33"/>
-      <c r="C40" s="33"/>
-      <c r="D40" s="33"/>
-      <c r="E40" s="33"/>
-      <c r="F40" s="33"/>
-      <c r="G40" s="33"/>
-      <c r="H40" s="33"/>
-      <c r="I40" s="33"/>
-      <c r="J40" s="33"/>
-      <c r="K40" s="33"/>
-      <c r="L40" s="33"/>
-      <c r="M40" s="33"/>
-      <c r="N40" s="33"/>
-      <c r="O40" s="33"/>
-      <c r="P40" s="33"/>
-      <c r="Q40" s="33"/>
-      <c r="R40" s="34"/>
-    </row>
-    <row r="41" spans="1:18" s="36" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="B41" s="29"/>
-      <c r="C41" s="29"/>
-      <c r="D41" s="29"/>
-      <c r="E41" s="29"/>
-      <c r="F41" s="29"/>
-      <c r="G41" s="29"/>
-      <c r="H41" s="29"/>
-      <c r="I41" s="29"/>
-      <c r="J41" s="29"/>
-      <c r="K41" s="29"/>
-      <c r="L41" s="29"/>
-      <c r="M41" s="29"/>
-      <c r="N41" s="29"/>
-      <c r="O41" s="29"/>
-      <c r="P41" s="29"/>
-      <c r="Q41" s="29"/>
-      <c r="R41" s="29"/>
-    </row>
-    <row r="42" spans="1:18" s="37" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="42" t="s">
-        <v>55</v>
-      </c>
-      <c r="B42" s="42"/>
-      <c r="C42" s="42"/>
-      <c r="D42" s="42"/>
-      <c r="E42" s="42"/>
-      <c r="F42" s="42"/>
-      <c r="G42" s="42"/>
-      <c r="H42" s="42"/>
-      <c r="I42" s="42"/>
-      <c r="J42" s="42"/>
-      <c r="K42" s="42"/>
-      <c r="L42" s="42"/>
-      <c r="M42" s="42"/>
-      <c r="N42" s="42"/>
-      <c r="O42" s="42"/>
-      <c r="P42" s="42"/>
-      <c r="Q42" s="42"/>
-      <c r="R42" s="42"/>
-    </row>
-    <row r="43" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="31" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A44" s="43" t="s">
+    <row r="40" spans="1:19" s="39" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40" s="37"/>
+      <c r="C40" s="37"/>
+      <c r="D40" s="37"/>
+      <c r="E40" s="37"/>
+      <c r="F40" s="37"/>
+      <c r="G40" s="37"/>
+      <c r="H40" s="37"/>
+      <c r="I40" s="37"/>
+      <c r="J40" s="37"/>
+      <c r="K40" s="37"/>
+      <c r="L40" s="37"/>
+      <c r="M40" s="37"/>
+      <c r="N40" s="37"/>
+      <c r="O40" s="37"/>
+      <c r="P40" s="37"/>
+      <c r="Q40" s="37"/>
+      <c r="R40" s="37"/>
+      <c r="S40" s="38"/>
+    </row>
+    <row r="41" spans="1:19" s="40" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41" s="33"/>
+      <c r="C41" s="33"/>
+      <c r="D41" s="33"/>
+      <c r="E41" s="33"/>
+      <c r="F41" s="33"/>
+      <c r="G41" s="33"/>
+      <c r="H41" s="33"/>
+      <c r="I41" s="33"/>
+      <c r="J41" s="33"/>
+      <c r="K41" s="33"/>
+      <c r="L41" s="33"/>
+      <c r="M41" s="33"/>
+      <c r="N41" s="33"/>
+      <c r="O41" s="33"/>
+      <c r="P41" s="33"/>
+      <c r="Q41" s="33"/>
+      <c r="R41" s="33"/>
+      <c r="S41" s="33"/>
+    </row>
+    <row r="42" spans="1:19" s="41" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="B42" s="46"/>
+      <c r="C42" s="46"/>
+      <c r="D42" s="46"/>
+      <c r="E42" s="46"/>
+      <c r="F42" s="46"/>
+      <c r="G42" s="46"/>
+      <c r="H42" s="46"/>
+      <c r="I42" s="46"/>
+      <c r="J42" s="46"/>
+      <c r="K42" s="46"/>
+      <c r="L42" s="46"/>
+      <c r="M42" s="46"/>
+      <c r="N42" s="46"/>
+      <c r="O42" s="46"/>
+      <c r="P42" s="46"/>
+      <c r="Q42" s="46"/>
+      <c r="R42" s="46"/>
+      <c r="S42" s="46"/>
+    </row>
+    <row r="43" spans="1:19" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="35" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A44" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="B44" s="43"/>
-      <c r="C44" s="43"/>
-      <c r="D44" s="43"/>
-      <c r="E44" s="43"/>
-      <c r="F44" s="43"/>
-      <c r="G44" s="43"/>
-      <c r="H44" s="43"/>
-      <c r="I44" s="43"/>
-      <c r="J44" s="43"/>
-      <c r="K44" s="43"/>
-      <c r="L44" s="43"/>
-      <c r="M44" s="43"/>
-      <c r="N44" s="43"/>
-      <c r="O44" s="43"/>
-      <c r="P44" s="43"/>
-      <c r="Q44" s="43"/>
-      <c r="R44" s="43"/>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B44" s="47"/>
+      <c r="C44" s="47"/>
+      <c r="D44" s="47"/>
+      <c r="E44" s="47"/>
+      <c r="F44" s="47"/>
+      <c r="G44" s="47"/>
+      <c r="H44" s="47"/>
+      <c r="I44" s="47"/>
+      <c r="J44" s="47"/>
+      <c r="K44" s="47"/>
+      <c r="L44" s="47"/>
+      <c r="M44" s="47"/>
+      <c r="N44" s="47"/>
+      <c r="O44" s="47"/>
+      <c r="P44" s="47"/>
+      <c r="Q44" s="47"/>
+      <c r="R44" s="47"/>
+      <c r="S44" s="47"/>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A45" s="8"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
@@ -3692,7 +3776,7 @@
       <c r="G45" s="8"/>
       <c r="H45" s="8"/>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A46" s="8"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
@@ -3702,7 +3786,7 @@
       <c r="G46" s="8"/>
       <c r="H46" s="8"/>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A47" s="8"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
@@ -3712,7 +3796,7 @@
       <c r="G47" s="8"/>
       <c r="H47" s="8"/>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A48" s="8"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
@@ -3733,26 +3817,13 @@
       <c r="H49" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="N5:N6"/>
+  <mergeCells count="6">
     <mergeCell ref="A5:A6"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="O5:Q5"/>
     <mergeCell ref="R5:R6"/>
-    <mergeCell ref="A42:R42"/>
-    <mergeCell ref="A44:R44"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="A42:S42"/>
+    <mergeCell ref="A44:S44"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.79" right="0.79" top="0.98" bottom="0.98" header="0" footer="0"/>

--- a/Tabulados/pea-entidad.xlsx
+++ b/Tabulados/pea-entidad.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="45">
   <si>
     <t>Aguascalientes</t>
   </si>
@@ -157,23 +157,14 @@
     <t>Debido a lo anterior la suma no coincide con el total.</t>
   </si>
   <si>
-    <t>Rank III trim 2021</t>
+    <t>IV Trim</t>
+  </si>
+  <si>
+    <t>Rank IV trim 2021</t>
   </si>
   <si>
     <t>% Partic Nal
- III Trim 2021</t>
-  </si>
-  <si>
-    <t>IV Trim</t>
-  </si>
-  <si>
-    <t>I Trim</t>
-  </si>
-  <si>
-    <t>II Trim</t>
-  </si>
-  <si>
-    <t>III Trim</t>
+IV Trim 2021</t>
   </si>
 </sst>
 </file>
@@ -937,7 +928,7 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -990,31 +981,7 @@
     <xf numFmtId="10" fontId="22" fillId="36" borderId="6" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="37" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="37" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="37" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="37" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="37" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="37" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="23" fillId="35" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="23" fillId="35" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="22" fillId="39" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="22" fillId="39" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1038,6 +1005,18 @@
     <xf numFmtId="0" fontId="24" fillId="37" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="37" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1049,30 +1028,6 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="37" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="37" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="37" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="37" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="37" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="37" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="37" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="37" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="60">
@@ -1437,10 +1392,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S49"/>
+  <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="T8" sqref="T8"/>
+      <selection activeCell="U27" sqref="U27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1458,14 +1413,13 @@
     <col min="12" max="12" width="9.5703125" style="3" customWidth="1"/>
     <col min="13" max="13" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.28515625" style="3" customWidth="1"/>
-    <col min="15" max="16" width="10.85546875" style="3" customWidth="1"/>
-    <col min="17" max="17" width="10.140625" style="3" customWidth="1"/>
-    <col min="18" max="18" width="12.85546875" style="3" customWidth="1"/>
-    <col min="19" max="19" width="12.140625" style="3" customWidth="1"/>
-    <col min="20" max="16384" width="11.42578125" style="3"/>
+    <col min="15" max="15" width="10.140625" style="3" customWidth="1"/>
+    <col min="16" max="16" width="12.85546875" style="3" customWidth="1"/>
+    <col min="17" max="17" width="12.140625" style="3" customWidth="1"/>
+    <col min="18" max="16384" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>30</v>
       </c>
@@ -1484,10 +1438,8 @@
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>31</v>
       </c>
@@ -1506,10 +1458,8 @@
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>37</v>
       </c>
@@ -1528,10 +1478,8 @@
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1548,118 +1496,108 @@
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-    </row>
-    <row r="5" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="48" t="s">
+    </row>
+    <row r="5" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="22">
+      <c r="B5" s="36">
         <v>2008</v>
       </c>
-      <c r="C5" s="23">
+      <c r="C5" s="34">
         <v>2009</v>
       </c>
-      <c r="D5" s="23">
+      <c r="D5" s="34">
         <v>2010</v>
       </c>
-      <c r="E5" s="23">
+      <c r="E5" s="34">
         <v>2011</v>
       </c>
-      <c r="F5" s="23">
+      <c r="F5" s="34">
         <v>2012</v>
       </c>
-      <c r="G5" s="23">
+      <c r="G5" s="34">
         <v>2013</v>
       </c>
-      <c r="H5" s="23">
+      <c r="H5" s="34">
         <v>2014</v>
       </c>
-      <c r="I5" s="23">
+      <c r="I5" s="34">
         <v>2015</v>
       </c>
-      <c r="J5" s="23">
+      <c r="J5" s="34">
         <v>2016</v>
       </c>
-      <c r="K5" s="23">
+      <c r="K5" s="34">
         <v>2017</v>
       </c>
-      <c r="L5" s="23">
+      <c r="L5" s="34">
         <v>2018</v>
       </c>
-      <c r="M5" s="23">
+      <c r="M5" s="34">
         <v>2019</v>
       </c>
-      <c r="N5" s="24">
+      <c r="N5" s="34">
         <v>2020</v>
       </c>
-      <c r="O5" s="50">
+      <c r="O5" s="34">
         <v>2021</v>
       </c>
-      <c r="P5" s="51"/>
-      <c r="Q5" s="52"/>
-      <c r="R5" s="42" t="s">
+      <c r="P5" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q5" s="40" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="39"/>
+      <c r="B6" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="S5" s="44" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="49"/>
-      <c r="B6" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="G6" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="H6" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="I6" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="J6" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="K6" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="L6" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="M6" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="N6" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="O6" s="53" t="s">
-        <v>45</v>
-      </c>
-      <c r="P6" s="54" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q6" s="55" t="s">
-        <v>47</v>
-      </c>
-      <c r="R6" s="43"/>
-      <c r="S6" s="45"/>
-    </row>
-    <row r="7" spans="1:19" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C6" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="K6" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="L6" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="M6" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="N6" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="O6" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="P6" s="39"/>
+      <c r="Q6" s="41"/>
+    </row>
+    <row r="7" spans="1:17" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>0</v>
       </c>
@@ -1702,25 +1640,19 @@
       <c r="N7" s="12">
         <v>591245</v>
       </c>
-      <c r="O7" s="28">
-        <v>618289</v>
-      </c>
-      <c r="P7" s="12">
-        <v>631864</v>
-      </c>
-      <c r="Q7" s="29">
-        <v>650144</v>
-      </c>
-      <c r="R7" s="5">
-        <f>_xlfn.RANK.EQ(Q7,$Q$7:$Q$38)</f>
+      <c r="O7" s="22">
+        <v>659568</v>
+      </c>
+      <c r="P7" s="5">
+        <f>_xlfn.RANK.EQ(O7,$O$7:$O$38)</f>
         <v>27</v>
       </c>
-      <c r="S7" s="6">
-        <f>Q7/$Q$39</f>
-        <v>1.1150274014745904E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q7" s="6">
+        <f>O7/$O$39</f>
+        <v>1.1224436259118233E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>1</v>
       </c>
@@ -1763,25 +1695,19 @@
       <c r="N8" s="12">
         <v>1705014</v>
       </c>
-      <c r="O8" s="28">
-        <v>1731982</v>
-      </c>
-      <c r="P8" s="12">
-        <v>1808741</v>
-      </c>
-      <c r="Q8" s="29">
-        <v>1813625</v>
-      </c>
-      <c r="R8" s="5">
-        <f t="shared" ref="R8:R38" si="0">_xlfn.RANK.EQ(Q8,$Q$7:$Q$38)</f>
-        <v>10</v>
-      </c>
-      <c r="S8" s="6">
-        <f t="shared" ref="S8:S38" si="1">Q8/$Q$39</f>
-        <v>3.1104517937554664E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O8" s="22">
+        <v>1827448</v>
+      </c>
+      <c r="P8" s="5">
+        <f t="shared" ref="P8:P38" si="0">_xlfn.RANK.EQ(O8,$O$7:$O$38)</f>
+        <v>11</v>
+      </c>
+      <c r="Q8" s="6">
+        <f t="shared" ref="Q8:Q38" si="1">O8/$O$39</f>
+        <v>3.1099255259280464E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>2</v>
       </c>
@@ -1824,25 +1750,19 @@
       <c r="N9" s="12">
         <v>424557</v>
       </c>
-      <c r="O9" s="28">
-        <v>403452</v>
-      </c>
-      <c r="P9" s="12">
-        <v>426715</v>
-      </c>
-      <c r="Q9" s="29">
-        <v>424389</v>
-      </c>
-      <c r="R9" s="5">
+      <c r="O9" s="22">
+        <v>428748</v>
+      </c>
+      <c r="P9" s="5">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="S9" s="6">
+      <c r="Q9" s="6">
         <f t="shared" si="1"/>
-        <v>7.2784700602389618E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>7.2963736828112104E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>3</v>
       </c>
@@ -1885,25 +1805,19 @@
       <c r="N10" s="12">
         <v>436711</v>
       </c>
-      <c r="O10" s="28">
-        <v>438863</v>
-      </c>
-      <c r="P10" s="12">
-        <v>443205</v>
-      </c>
-      <c r="Q10" s="29">
-        <v>431338</v>
-      </c>
-      <c r="R10" s="5">
+      <c r="O10" s="22">
+        <v>433926</v>
+      </c>
+      <c r="P10" s="5">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="S10" s="6">
+      <c r="Q10" s="6">
         <f t="shared" si="1"/>
-        <v>7.3976486639459396E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>7.3844921648323425E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>27</v>
       </c>
@@ -1946,25 +1860,19 @@
       <c r="N11" s="12">
         <v>1410380</v>
       </c>
-      <c r="O11" s="28">
-        <v>1419362</v>
-      </c>
-      <c r="P11" s="12">
-        <v>1467284</v>
-      </c>
-      <c r="Q11" s="29">
-        <v>1488846</v>
-      </c>
-      <c r="R11" s="5">
+      <c r="O11" s="22">
+        <v>1493537</v>
+      </c>
+      <c r="P11" s="5">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="S11" s="6">
+      <c r="Q11" s="6">
         <f t="shared" si="1"/>
-        <v>2.553440601737212E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>2.5416804419157189E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>4</v>
       </c>
@@ -2007,25 +1915,19 @@
       <c r="N12" s="12">
         <v>371574</v>
       </c>
-      <c r="O12" s="28">
-        <v>365263</v>
-      </c>
-      <c r="P12" s="12">
-        <v>381094</v>
-      </c>
-      <c r="Q12" s="29">
-        <v>394648</v>
-      </c>
-      <c r="R12" s="5">
+      <c r="O12" s="22">
+        <v>401993</v>
+      </c>
+      <c r="P12" s="5">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="S12" s="6">
+      <c r="Q12" s="6">
         <f t="shared" si="1"/>
-        <v>6.7683979847102203E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>6.8410608233142236E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>5</v>
       </c>
@@ -2068,574 +1970,514 @@
       <c r="N13" s="12">
         <v>2108289</v>
       </c>
-      <c r="O13" s="28">
-        <v>2131275</v>
-      </c>
-      <c r="P13" s="12">
-        <v>2263306</v>
-      </c>
-      <c r="Q13" s="29">
-        <v>2170044</v>
-      </c>
-      <c r="R13" s="5">
+      <c r="O13" s="22">
+        <v>2232786</v>
+      </c>
+      <c r="P13" s="5">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="Q13" s="6">
+        <f t="shared" si="1"/>
+        <v>3.799724082619467E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="17">
+        <v>1487165</v>
+      </c>
+      <c r="C14" s="18">
+        <v>1500752</v>
+      </c>
+      <c r="D14" s="18">
+        <v>1348916</v>
+      </c>
+      <c r="E14" s="18">
+        <v>1437635</v>
+      </c>
+      <c r="F14" s="18">
+        <v>1517276</v>
+      </c>
+      <c r="G14" s="18">
+        <v>1532475</v>
+      </c>
+      <c r="H14" s="18">
+        <v>1593911</v>
+      </c>
+      <c r="I14" s="12">
+        <v>1627360</v>
+      </c>
+      <c r="J14" s="12">
+        <v>1674505</v>
+      </c>
+      <c r="K14" s="12">
+        <v>1676051</v>
+      </c>
+      <c r="L14" s="12">
+        <v>1772618</v>
+      </c>
+      <c r="M14" s="12">
+        <v>1785404</v>
+      </c>
+      <c r="N14" s="12">
+        <v>1763997</v>
+      </c>
+      <c r="O14" s="22">
+        <v>1777289</v>
+      </c>
+      <c r="P14" s="5">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="Q14" s="6">
+        <f t="shared" si="1"/>
+        <v>3.0245656391049879E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="17">
+        <v>4154767</v>
+      </c>
+      <c r="C15" s="18">
+        <v>4235853</v>
+      </c>
+      <c r="D15" s="18">
+        <v>4205116</v>
+      </c>
+      <c r="E15" s="18">
+        <v>4393420</v>
+      </c>
+      <c r="F15" s="18">
+        <v>4470040</v>
+      </c>
+      <c r="G15" s="18">
+        <v>4429488</v>
+      </c>
+      <c r="H15" s="18">
+        <v>4314435</v>
+      </c>
+      <c r="I15" s="12">
+        <v>4403287</v>
+      </c>
+      <c r="J15" s="12">
+        <v>4350772</v>
+      </c>
+      <c r="K15" s="12">
+        <v>4335159</v>
+      </c>
+      <c r="L15" s="12">
+        <v>4440317</v>
+      </c>
+      <c r="M15" s="12">
+        <v>4514470</v>
+      </c>
+      <c r="N15" s="12">
+        <v>3935752</v>
+      </c>
+      <c r="O15" s="22">
+        <v>4744648</v>
+      </c>
+      <c r="P15" s="5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="Q15" s="6">
+        <f t="shared" si="1"/>
+        <v>8.0743758108266034E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="17">
+        <v>636799</v>
+      </c>
+      <c r="C16" s="18">
+        <v>638272</v>
+      </c>
+      <c r="D16" s="18">
+        <v>653642</v>
+      </c>
+      <c r="E16" s="18">
+        <v>707317</v>
+      </c>
+      <c r="F16" s="18">
+        <v>718467</v>
+      </c>
+      <c r="G16" s="18">
+        <v>732490</v>
+      </c>
+      <c r="H16" s="18">
+        <v>744530</v>
+      </c>
+      <c r="I16" s="12">
+        <v>779604</v>
+      </c>
+      <c r="J16" s="12">
+        <v>783889</v>
+      </c>
+      <c r="K16" s="12">
+        <v>778302</v>
+      </c>
+      <c r="L16" s="12">
+        <v>804613</v>
+      </c>
+      <c r="M16" s="12">
+        <v>810077</v>
+      </c>
+      <c r="N16" s="12">
+        <v>798476</v>
+      </c>
+      <c r="O16" s="22">
+        <v>836016</v>
+      </c>
+      <c r="P16" s="5">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="Q16" s="6">
+        <f t="shared" si="1"/>
+        <v>1.4227203720621664E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="17">
+        <v>2149708</v>
+      </c>
+      <c r="C17" s="18">
+        <v>2262407</v>
+      </c>
+      <c r="D17" s="18">
+        <v>2279071</v>
+      </c>
+      <c r="E17" s="18">
+        <v>2397360</v>
+      </c>
+      <c r="F17" s="18">
+        <v>2473548</v>
+      </c>
+      <c r="G17" s="18">
+        <v>2517481</v>
+      </c>
+      <c r="H17" s="18">
+        <v>2457663</v>
+      </c>
+      <c r="I17" s="12">
+        <v>2536929</v>
+      </c>
+      <c r="J17" s="12">
+        <v>2583592</v>
+      </c>
+      <c r="K17" s="12">
+        <v>2633796</v>
+      </c>
+      <c r="L17" s="12">
+        <v>2659163</v>
+      </c>
+      <c r="M17" s="12">
+        <v>2682748</v>
+      </c>
+      <c r="N17" s="12">
+        <v>2656883</v>
+      </c>
+      <c r="O17" s="22">
+        <v>2799197</v>
+      </c>
+      <c r="P17" s="5">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="Q17" s="6">
+        <f t="shared" si="1"/>
+        <v>4.7636344248379217E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="17">
+        <v>1353231</v>
+      </c>
+      <c r="C18" s="18">
+        <v>1426814</v>
+      </c>
+      <c r="D18" s="18">
+        <v>1422289</v>
+      </c>
+      <c r="E18" s="18">
+        <v>1474825</v>
+      </c>
+      <c r="F18" s="18">
+        <v>1391164</v>
+      </c>
+      <c r="G18" s="18">
+        <v>1413436</v>
+      </c>
+      <c r="H18" s="18">
+        <v>1438315</v>
+      </c>
+      <c r="I18" s="12">
+        <v>1456709</v>
+      </c>
+      <c r="J18" s="12">
+        <v>1421962</v>
+      </c>
+      <c r="K18" s="12">
+        <v>1496749</v>
+      </c>
+      <c r="L18" s="12">
+        <v>1559635</v>
+      </c>
+      <c r="M18" s="12">
+        <v>1541546</v>
+      </c>
+      <c r="N18" s="12">
+        <v>1564536</v>
+      </c>
+      <c r="O18" s="22">
+        <v>1506516</v>
+      </c>
+      <c r="P18" s="5">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="Q18" s="6">
+        <f t="shared" si="1"/>
+        <v>2.5637679231469333E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="17">
+        <v>1028269</v>
+      </c>
+      <c r="C19" s="18">
+        <v>1071419</v>
+      </c>
+      <c r="D19" s="18">
+        <v>1092969</v>
+      </c>
+      <c r="E19" s="18">
+        <v>1118479</v>
+      </c>
+      <c r="F19" s="18">
+        <v>1174639</v>
+      </c>
+      <c r="G19" s="18">
+        <v>1205244</v>
+      </c>
+      <c r="H19" s="18">
+        <v>1220081</v>
+      </c>
+      <c r="I19" s="12">
+        <v>1295452</v>
+      </c>
+      <c r="J19" s="12">
+        <v>1230173</v>
+      </c>
+      <c r="K19" s="12">
+        <v>1237664</v>
+      </c>
+      <c r="L19" s="12">
+        <v>1302465</v>
+      </c>
+      <c r="M19" s="12">
+        <v>1315532</v>
+      </c>
+      <c r="N19" s="12">
+        <v>1269809</v>
+      </c>
+      <c r="O19" s="22">
+        <v>1405819</v>
+      </c>
+      <c r="P19" s="5">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="Q19" s="6">
+        <f t="shared" si="1"/>
+        <v>2.3924031725852887E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="19">
+        <v>3164862</v>
+      </c>
+      <c r="C20" s="20">
+        <v>3363966</v>
+      </c>
+      <c r="D20" s="20">
+        <v>3398249</v>
+      </c>
+      <c r="E20" s="20">
+        <v>3469069</v>
+      </c>
+      <c r="F20" s="20">
+        <v>3454205</v>
+      </c>
+      <c r="G20" s="20">
+        <v>3525624</v>
+      </c>
+      <c r="H20" s="20">
+        <v>3517378</v>
+      </c>
+      <c r="I20" s="14">
+        <v>3714858</v>
+      </c>
+      <c r="J20" s="14">
+        <v>3694536</v>
+      </c>
+      <c r="K20" s="14">
+        <v>3757723</v>
+      </c>
+      <c r="L20" s="14">
+        <v>3797311</v>
+      </c>
+      <c r="M20" s="14">
+        <v>3895568</v>
+      </c>
+      <c r="N20" s="14">
+        <v>3810866</v>
+      </c>
+      <c r="O20" s="23">
+        <v>4050154</v>
+      </c>
+      <c r="P20" s="15">
+        <f>_xlfn.RANK.EQ(O20,$O$7:$O$38)</f>
+        <v>3</v>
+      </c>
+      <c r="Q20" s="16">
+        <f>O20/$O$39</f>
+        <v>6.8924956050949643E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="17">
+        <v>6285658</v>
+      </c>
+      <c r="C21" s="18">
+        <v>6648026</v>
+      </c>
+      <c r="D21" s="18">
+        <v>6627998</v>
+      </c>
+      <c r="E21" s="18">
+        <v>6969793</v>
+      </c>
+      <c r="F21" s="18">
+        <v>7099226</v>
+      </c>
+      <c r="G21" s="18">
+        <v>7295121</v>
+      </c>
+      <c r="H21" s="18">
+        <v>7265129</v>
+      </c>
+      <c r="I21" s="12">
+        <v>7655997</v>
+      </c>
+      <c r="J21" s="12">
+        <v>7508735</v>
+      </c>
+      <c r="K21" s="12">
+        <v>7761047</v>
+      </c>
+      <c r="L21" s="12">
+        <v>7924199</v>
+      </c>
+      <c r="M21" s="12">
+        <v>8195649</v>
+      </c>
+      <c r="N21" s="12">
+        <v>7817888</v>
+      </c>
+      <c r="O21" s="22">
+        <v>7981849</v>
+      </c>
+      <c r="P21" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Q21" s="6">
+        <f t="shared" si="1"/>
+        <v>0.13583399335687391</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="17">
+        <v>1727031</v>
+      </c>
+      <c r="C22" s="18">
+        <v>1829268</v>
+      </c>
+      <c r="D22" s="18">
+        <v>1730846</v>
+      </c>
+      <c r="E22" s="18">
+        <v>1853718</v>
+      </c>
+      <c r="F22" s="18">
+        <v>1885496</v>
+      </c>
+      <c r="G22" s="18">
+        <v>1937004</v>
+      </c>
+      <c r="H22" s="18">
+        <v>1944386</v>
+      </c>
+      <c r="I22" s="12">
+        <v>1955573</v>
+      </c>
+      <c r="J22" s="12">
+        <v>2002116</v>
+      </c>
+      <c r="K22" s="12">
+        <v>1996173</v>
+      </c>
+      <c r="L22" s="12">
+        <v>2014164</v>
+      </c>
+      <c r="M22" s="12">
+        <v>2092495</v>
+      </c>
+      <c r="N22" s="12">
+        <v>1937391</v>
+      </c>
+      <c r="O22" s="22">
+        <v>2165988</v>
+      </c>
+      <c r="P22" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="S13" s="6">
+      <c r="Q22" s="6">
         <f t="shared" si="1"/>
-        <v>3.7217270672428353E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="17">
-        <v>1487165</v>
-      </c>
-      <c r="C14" s="18">
-        <v>1500752</v>
-      </c>
-      <c r="D14" s="18">
-        <v>1348916</v>
-      </c>
-      <c r="E14" s="18">
-        <v>1437635</v>
-      </c>
-      <c r="F14" s="18">
-        <v>1517276</v>
-      </c>
-      <c r="G14" s="18">
-        <v>1532475</v>
-      </c>
-      <c r="H14" s="18">
-        <v>1593911</v>
-      </c>
-      <c r="I14" s="12">
-        <v>1627360</v>
-      </c>
-      <c r="J14" s="12">
-        <v>1674505</v>
-      </c>
-      <c r="K14" s="12">
-        <v>1676051</v>
-      </c>
-      <c r="L14" s="12">
-        <v>1772618</v>
-      </c>
-      <c r="M14" s="12">
-        <v>1785404</v>
-      </c>
-      <c r="N14" s="12">
-        <v>1763997</v>
-      </c>
-      <c r="O14" s="28">
-        <v>1671214</v>
-      </c>
-      <c r="P14" s="12">
-        <v>1740632</v>
-      </c>
-      <c r="Q14" s="29">
-        <v>1774805</v>
-      </c>
-      <c r="R14" s="5">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="S14" s="6">
-        <f t="shared" si="1"/>
-        <v>3.0438736760996187E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="17">
-        <v>4154767</v>
-      </c>
-      <c r="C15" s="18">
-        <v>4235853</v>
-      </c>
-      <c r="D15" s="18">
-        <v>4205116</v>
-      </c>
-      <c r="E15" s="18">
-        <v>4393420</v>
-      </c>
-      <c r="F15" s="18">
-        <v>4470040</v>
-      </c>
-      <c r="G15" s="18">
-        <v>4429488</v>
-      </c>
-      <c r="H15" s="18">
-        <v>4314435</v>
-      </c>
-      <c r="I15" s="12">
-        <v>4403287</v>
-      </c>
-      <c r="J15" s="12">
-        <v>4350772</v>
-      </c>
-      <c r="K15" s="12">
-        <v>4335159</v>
-      </c>
-      <c r="L15" s="12">
-        <v>4440317</v>
-      </c>
-      <c r="M15" s="12">
-        <v>4514470</v>
-      </c>
-      <c r="N15" s="12">
-        <v>3935752</v>
-      </c>
-      <c r="O15" s="28">
-        <v>4175657</v>
-      </c>
-      <c r="P15" s="12">
-        <v>4439594</v>
-      </c>
-      <c r="Q15" s="29">
-        <v>4724127</v>
-      </c>
-      <c r="R15" s="5">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="S15" s="6">
-        <f t="shared" si="1"/>
-        <v>8.1020990012150421E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" s="17">
-        <v>636799</v>
-      </c>
-      <c r="C16" s="18">
-        <v>638272</v>
-      </c>
-      <c r="D16" s="18">
-        <v>653642</v>
-      </c>
-      <c r="E16" s="18">
-        <v>707317</v>
-      </c>
-      <c r="F16" s="18">
-        <v>718467</v>
-      </c>
-      <c r="G16" s="18">
-        <v>732490</v>
-      </c>
-      <c r="H16" s="18">
-        <v>744530</v>
-      </c>
-      <c r="I16" s="12">
-        <v>779604</v>
-      </c>
-      <c r="J16" s="12">
-        <v>783889</v>
-      </c>
-      <c r="K16" s="12">
-        <v>778302</v>
-      </c>
-      <c r="L16" s="12">
-        <v>804613</v>
-      </c>
-      <c r="M16" s="12">
-        <v>810077</v>
-      </c>
-      <c r="N16" s="12">
-        <v>798476</v>
-      </c>
-      <c r="O16" s="28">
-        <v>803577</v>
-      </c>
-      <c r="P16" s="12">
-        <v>843167</v>
-      </c>
-      <c r="Q16" s="29">
-        <v>842334</v>
-      </c>
-      <c r="R16" s="5">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="S16" s="6">
-        <f t="shared" si="1"/>
-        <v>1.4446422503225403E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" s="17">
-        <v>2149708</v>
-      </c>
-      <c r="C17" s="18">
-        <v>2262407</v>
-      </c>
-      <c r="D17" s="18">
-        <v>2279071</v>
-      </c>
-      <c r="E17" s="18">
-        <v>2397360</v>
-      </c>
-      <c r="F17" s="18">
-        <v>2473548</v>
-      </c>
-      <c r="G17" s="18">
-        <v>2517481</v>
-      </c>
-      <c r="H17" s="18">
-        <v>2457663</v>
-      </c>
-      <c r="I17" s="12">
-        <v>2536929</v>
-      </c>
-      <c r="J17" s="12">
-        <v>2583592</v>
-      </c>
-      <c r="K17" s="12">
-        <v>2633796</v>
-      </c>
-      <c r="L17" s="12">
-        <v>2659163</v>
-      </c>
-      <c r="M17" s="12">
-        <v>2682748</v>
-      </c>
-      <c r="N17" s="12">
-        <v>2656883</v>
-      </c>
-      <c r="O17" s="28">
-        <v>2684322</v>
-      </c>
-      <c r="P17" s="12">
-        <v>2800508</v>
-      </c>
-      <c r="Q17" s="29">
-        <v>2830259</v>
-      </c>
-      <c r="R17" s="5">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="S17" s="6">
-        <f t="shared" si="1"/>
-        <v>4.8540267052684834E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" s="17">
-        <v>1353231</v>
-      </c>
-      <c r="C18" s="18">
-        <v>1426814</v>
-      </c>
-      <c r="D18" s="18">
-        <v>1422289</v>
-      </c>
-      <c r="E18" s="18">
-        <v>1474825</v>
-      </c>
-      <c r="F18" s="18">
-        <v>1391164</v>
-      </c>
-      <c r="G18" s="18">
-        <v>1413436</v>
-      </c>
-      <c r="H18" s="18">
-        <v>1438315</v>
-      </c>
-      <c r="I18" s="12">
-        <v>1456709</v>
-      </c>
-      <c r="J18" s="12">
-        <v>1421962</v>
-      </c>
-      <c r="K18" s="12">
-        <v>1496749</v>
-      </c>
-      <c r="L18" s="12">
-        <v>1559635</v>
-      </c>
-      <c r="M18" s="12">
-        <v>1541546</v>
-      </c>
-      <c r="N18" s="12">
-        <v>1564536</v>
-      </c>
-      <c r="O18" s="28">
-        <v>1415941</v>
-      </c>
-      <c r="P18" s="12">
-        <v>1531375</v>
-      </c>
-      <c r="Q18" s="29">
-        <v>1526815</v>
-      </c>
-      <c r="R18" s="5">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="S18" s="6">
-        <f t="shared" si="1"/>
-        <v>2.6185592145469724E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" s="17">
-        <v>1028269</v>
-      </c>
-      <c r="C19" s="18">
-        <v>1071419</v>
-      </c>
-      <c r="D19" s="18">
-        <v>1092969</v>
-      </c>
-      <c r="E19" s="18">
-        <v>1118479</v>
-      </c>
-      <c r="F19" s="18">
-        <v>1174639</v>
-      </c>
-      <c r="G19" s="18">
-        <v>1205244</v>
-      </c>
-      <c r="H19" s="18">
-        <v>1220081</v>
-      </c>
-      <c r="I19" s="12">
-        <v>1295452</v>
-      </c>
-      <c r="J19" s="12">
-        <v>1230173</v>
-      </c>
-      <c r="K19" s="12">
-        <v>1237664</v>
-      </c>
-      <c r="L19" s="12">
-        <v>1302465</v>
-      </c>
-      <c r="M19" s="12">
-        <v>1315532</v>
-      </c>
-      <c r="N19" s="12">
-        <v>1269809</v>
-      </c>
-      <c r="O19" s="28">
-        <v>1280514</v>
-      </c>
-      <c r="P19" s="12">
-        <v>1326174</v>
-      </c>
-      <c r="Q19" s="29">
-        <v>1377006</v>
-      </c>
-      <c r="R19" s="5">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="S19" s="6">
-        <f t="shared" si="1"/>
-        <v>2.3616297650903798E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20" s="19">
-        <v>3164862</v>
-      </c>
-      <c r="C20" s="20">
-        <v>3363966</v>
-      </c>
-      <c r="D20" s="20">
-        <v>3398249</v>
-      </c>
-      <c r="E20" s="20">
-        <v>3469069</v>
-      </c>
-      <c r="F20" s="20">
-        <v>3454205</v>
-      </c>
-      <c r="G20" s="20">
-        <v>3525624</v>
-      </c>
-      <c r="H20" s="20">
-        <v>3517378</v>
-      </c>
-      <c r="I20" s="14">
-        <v>3714858</v>
-      </c>
-      <c r="J20" s="14">
-        <v>3694536</v>
-      </c>
-      <c r="K20" s="14">
-        <v>3757723</v>
-      </c>
-      <c r="L20" s="14">
-        <v>3797311</v>
-      </c>
-      <c r="M20" s="14">
-        <v>3895568</v>
-      </c>
-      <c r="N20" s="14">
-        <v>3810866</v>
-      </c>
-      <c r="O20" s="30">
-        <v>3879906</v>
-      </c>
-      <c r="P20" s="14">
-        <v>3957119</v>
-      </c>
-      <c r="Q20" s="31">
-        <v>3959500</v>
-      </c>
-      <c r="R20" s="15">
-        <f>_xlfn.RANK.EQ(Q20,$Q$7:$Q$38)</f>
-        <v>3</v>
-      </c>
-      <c r="S20" s="16">
-        <f t="shared" si="1"/>
-        <v>6.7907278943413169E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21" s="17">
-        <v>6285658</v>
-      </c>
-      <c r="C21" s="18">
-        <v>6648026</v>
-      </c>
-      <c r="D21" s="18">
-        <v>6627998</v>
-      </c>
-      <c r="E21" s="18">
-        <v>6969793</v>
-      </c>
-      <c r="F21" s="18">
-        <v>7099226</v>
-      </c>
-      <c r="G21" s="18">
-        <v>7295121</v>
-      </c>
-      <c r="H21" s="18">
-        <v>7265129</v>
-      </c>
-      <c r="I21" s="12">
-        <v>7655997</v>
-      </c>
-      <c r="J21" s="12">
-        <v>7508735</v>
-      </c>
-      <c r="K21" s="12">
-        <v>7761047</v>
-      </c>
-      <c r="L21" s="12">
-        <v>7924199</v>
-      </c>
-      <c r="M21" s="12">
-        <v>8195649</v>
-      </c>
-      <c r="N21" s="12">
-        <v>7817888</v>
-      </c>
-      <c r="O21" s="28">
-        <v>7256647</v>
-      </c>
-      <c r="P21" s="12">
-        <v>8291602</v>
-      </c>
-      <c r="Q21" s="29">
-        <v>8531411</v>
-      </c>
-      <c r="R21" s="5">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="S21" s="6">
-        <f t="shared" si="1"/>
-        <v>0.14631769328397612</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22" s="17">
-        <v>1727031</v>
-      </c>
-      <c r="C22" s="18">
-        <v>1829268</v>
-      </c>
-      <c r="D22" s="18">
-        <v>1730846</v>
-      </c>
-      <c r="E22" s="18">
-        <v>1853718</v>
-      </c>
-      <c r="F22" s="18">
-        <v>1885496</v>
-      </c>
-      <c r="G22" s="18">
-        <v>1937004</v>
-      </c>
-      <c r="H22" s="18">
-        <v>1944386</v>
-      </c>
-      <c r="I22" s="12">
-        <v>1955573</v>
-      </c>
-      <c r="J22" s="12">
-        <v>2002116</v>
-      </c>
-      <c r="K22" s="12">
-        <v>1996173</v>
-      </c>
-      <c r="L22" s="12">
-        <v>2014164</v>
-      </c>
-      <c r="M22" s="12">
-        <v>2092495</v>
-      </c>
-      <c r="N22" s="12">
-        <v>1937391</v>
-      </c>
-      <c r="O22" s="28">
-        <v>1989700</v>
-      </c>
-      <c r="P22" s="12">
-        <v>2041844</v>
-      </c>
-      <c r="Q22" s="29">
-        <v>2173381</v>
-      </c>
-      <c r="R22" s="5">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="S22" s="6">
-        <f t="shared" si="1"/>
-        <v>3.7274501784900681E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>3.6860481775973036E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>13</v>
       </c>
@@ -2678,25 +2520,19 @@
       <c r="N23" s="12">
         <v>879639</v>
       </c>
-      <c r="O23" s="28">
-        <v>823186</v>
-      </c>
-      <c r="P23" s="12">
-        <v>855311</v>
-      </c>
-      <c r="Q23" s="29">
-        <v>857820</v>
-      </c>
-      <c r="R23" s="5">
+      <c r="O23" s="22">
+        <v>850676</v>
+      </c>
+      <c r="P23" s="5">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="S23" s="6">
+      <c r="Q23" s="6">
         <f t="shared" si="1"/>
-        <v>1.4712014654183276E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.4476685556548623E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>14</v>
       </c>
@@ -2739,25 +2575,19 @@
       <c r="N24" s="12">
         <v>683387</v>
       </c>
-      <c r="O24" s="28">
-        <v>651580</v>
-      </c>
-      <c r="P24" s="12">
-        <v>627135</v>
-      </c>
-      <c r="Q24" s="29">
-        <v>600692</v>
-      </c>
-      <c r="R24" s="5">
+      <c r="O24" s="22">
+        <v>609847</v>
+      </c>
+      <c r="P24" s="5">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="S24" s="6">
+      <c r="Q24" s="6">
         <f t="shared" si="1"/>
-        <v>1.0302149060001702E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.0378291213816433E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>15</v>
       </c>
@@ -2800,25 +2630,19 @@
       <c r="N25" s="12">
         <v>2575825</v>
       </c>
-      <c r="O25" s="28">
-        <v>2785180</v>
-      </c>
-      <c r="P25" s="12">
-        <v>2903038</v>
-      </c>
-      <c r="Q25" s="29">
-        <v>2866655</v>
-      </c>
-      <c r="R25" s="5">
+      <c r="O25" s="22">
+        <v>2892673</v>
+      </c>
+      <c r="P25" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="S25" s="6">
+      <c r="Q25" s="6">
         <f t="shared" si="1"/>
-        <v>4.9164475494261915E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>4.9227105782834096E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>16</v>
       </c>
@@ -2861,25 +2685,19 @@
       <c r="N26" s="12">
         <v>1880398</v>
       </c>
-      <c r="O26" s="28">
-        <v>1851937</v>
-      </c>
-      <c r="P26" s="12">
-        <v>1844235</v>
-      </c>
-      <c r="Q26" s="29">
-        <v>1783913</v>
-      </c>
-      <c r="R26" s="5">
+      <c r="O26" s="22">
+        <v>1854356</v>
+      </c>
+      <c r="P26" s="5">
         <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="S26" s="6">
+        <v>10</v>
+      </c>
+      <c r="Q26" s="6">
         <f t="shared" si="1"/>
-        <v>3.0594943225604496E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>3.1557171851444354E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>17</v>
       </c>
@@ -2922,25 +2740,19 @@
       <c r="N27" s="12">
         <v>2899694</v>
       </c>
-      <c r="O27" s="28">
-        <v>2877269</v>
-      </c>
-      <c r="P27" s="12">
-        <v>3024303</v>
-      </c>
-      <c r="Q27" s="29">
-        <v>2999739</v>
-      </c>
-      <c r="R27" s="5">
+      <c r="O27" s="22">
+        <v>3044866</v>
+      </c>
+      <c r="P27" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="S27" s="6">
+      <c r="Q27" s="6">
         <f t="shared" si="1"/>
-        <v>5.1446928407737152E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>5.1817105036260552E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>18</v>
       </c>
@@ -2983,25 +2795,19 @@
       <c r="N28" s="12">
         <v>949571</v>
       </c>
-      <c r="O28" s="28">
-        <v>1010295</v>
-      </c>
-      <c r="P28" s="12">
-        <v>1052926</v>
-      </c>
-      <c r="Q28" s="29">
-        <v>1087188</v>
-      </c>
-      <c r="R28" s="5">
+      <c r="O28" s="22">
+        <v>1060535</v>
+      </c>
+      <c r="P28" s="5">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="S28" s="6">
+      <c r="Q28" s="6">
         <f t="shared" si="1"/>
-        <v>1.8645783250393098E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.8048036757489685E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>19</v>
       </c>
@@ -3044,25 +2850,19 @@
       <c r="N29" s="12">
         <v>845007</v>
       </c>
-      <c r="O29" s="28">
-        <v>919059</v>
-      </c>
-      <c r="P29" s="12">
-        <v>920651</v>
-      </c>
-      <c r="Q29" s="29">
-        <v>930444</v>
-      </c>
-      <c r="R29" s="5">
+      <c r="O29" s="22">
+        <v>937357</v>
+      </c>
+      <c r="P29" s="5">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="S29" s="6">
+      <c r="Q29" s="6">
         <f t="shared" si="1"/>
-        <v>1.5957550258675367E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.5951810728443906E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>35</v>
       </c>
@@ -3105,25 +2905,19 @@
       <c r="N30" s="12">
         <v>1259897</v>
       </c>
-      <c r="O30" s="28">
-        <v>1233830</v>
-      </c>
-      <c r="P30" s="12">
-        <v>1282326</v>
-      </c>
-      <c r="Q30" s="29">
-        <v>1311741</v>
-      </c>
-      <c r="R30" s="5">
+      <c r="O30" s="22">
+        <v>1315432</v>
+      </c>
+      <c r="P30" s="5">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="S30" s="6">
+      <c r="Q30" s="6">
         <f t="shared" si="1"/>
-        <v>2.2496972342091609E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>2.2385838362692576E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>20</v>
       </c>
@@ -3166,25 +2960,19 @@
       <c r="N31" s="12">
         <v>1321037</v>
       </c>
-      <c r="O31" s="28">
-        <v>1348508</v>
-      </c>
-      <c r="P31" s="12">
-        <v>1368104</v>
-      </c>
-      <c r="Q31" s="29">
-        <v>1347418</v>
-      </c>
-      <c r="R31" s="5">
+      <c r="O31" s="22">
+        <v>1380214</v>
+      </c>
+      <c r="P31" s="5">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="S31" s="6">
+      <c r="Q31" s="6">
         <f t="shared" si="1"/>
-        <v>2.3108849597013734E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>2.3488289406009104E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>21</v>
       </c>
@@ -3227,25 +3015,19 @@
       <c r="N32" s="12">
         <v>1478717</v>
       </c>
-      <c r="O32" s="28">
-        <v>1357424</v>
-      </c>
-      <c r="P32" s="12">
-        <v>1402025</v>
-      </c>
-      <c r="Q32" s="29">
-        <v>1441117</v>
-      </c>
-      <c r="R32" s="5">
+      <c r="O32" s="22">
+        <v>1451618</v>
+      </c>
+      <c r="P32" s="5">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="S32" s="6">
+      <c r="Q32" s="6">
         <f t="shared" si="1"/>
-        <v>2.4715831319382434E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>2.4703432722006969E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>22</v>
       </c>
@@ -3288,25 +3070,19 @@
       <c r="N33" s="12">
         <v>979646</v>
       </c>
-      <c r="O33" s="28">
-        <v>967637</v>
-      </c>
-      <c r="P33" s="12">
-        <v>998364</v>
-      </c>
-      <c r="Q33" s="29">
-        <v>1006358</v>
-      </c>
-      <c r="R33" s="5">
+      <c r="O33" s="22">
+        <v>1004998</v>
+      </c>
+      <c r="P33" s="5">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="S33" s="6">
-        <f t="shared" si="1"/>
-        <v>1.7259510903633132E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q33" s="6">
+        <f>O33/$O$39</f>
+        <v>1.7102915835124365E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>23</v>
       </c>
@@ -3349,25 +3125,19 @@
       <c r="N34" s="12">
         <v>1685454</v>
       </c>
-      <c r="O34" s="28">
-        <v>1586439</v>
-      </c>
-      <c r="P34" s="12">
-        <v>1645758</v>
-      </c>
-      <c r="Q34" s="29">
-        <v>1661586</v>
-      </c>
-      <c r="R34" s="5">
+      <c r="O34" s="22">
+        <v>1688042</v>
+      </c>
+      <c r="P34" s="5">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="S34" s="6">
+      <c r="Q34" s="6">
         <f t="shared" si="1"/>
-        <v>2.8496977898843315E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>2.8726863388937093E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>24</v>
       </c>
@@ -3410,25 +3180,19 @@
       <c r="N35" s="12">
         <v>612523</v>
       </c>
-      <c r="O35" s="28">
-        <v>585720</v>
-      </c>
-      <c r="P35" s="12">
-        <v>619259</v>
-      </c>
-      <c r="Q35" s="29">
-        <v>626794</v>
-      </c>
-      <c r="R35" s="5">
+      <c r="O35" s="22">
+        <v>622461</v>
+      </c>
+      <c r="P35" s="5">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="S35" s="6">
+      <c r="Q35" s="6">
         <f t="shared" si="1"/>
-        <v>1.074981058165367E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.0592954507021255E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>29</v>
       </c>
@@ -3471,25 +3235,19 @@
       <c r="N36" s="12">
         <v>3401418</v>
       </c>
-      <c r="O36" s="28">
-        <v>3255349</v>
-      </c>
-      <c r="P36" s="12">
-        <v>3399361</v>
-      </c>
-      <c r="Q36" s="29">
-        <v>3382551</v>
-      </c>
-      <c r="R36" s="5">
+      <c r="O36" s="22">
+        <v>3395346</v>
+      </c>
+      <c r="P36" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="S36" s="6">
+      <c r="Q36" s="6">
         <f t="shared" si="1"/>
-        <v>5.8012333450516769E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>5.7781524808135108E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>25</v>
       </c>
@@ -3532,25 +3290,19 @@
       <c r="N37" s="12">
         <v>1121208</v>
       </c>
-      <c r="O37" s="28">
-        <v>1183719</v>
-      </c>
-      <c r="P37" s="12">
-        <v>1189011</v>
-      </c>
-      <c r="Q37" s="29">
-        <v>1157294</v>
-      </c>
-      <c r="R37" s="5">
+      <c r="O37" s="22">
+        <v>1191156</v>
+      </c>
+      <c r="P37" s="5">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="S37" s="6">
+      <c r="Q37" s="6">
         <f t="shared" si="1"/>
-        <v>1.984813397589049E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>2.0270926722743127E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>26</v>
       </c>
@@ -3593,25 +3345,19 @@
       <c r="N38" s="12">
         <v>704127</v>
       </c>
-      <c r="O38" s="28">
-        <v>682037</v>
-      </c>
-      <c r="P38" s="12">
-        <v>681082</v>
-      </c>
-      <c r="Q38" s="29">
-        <v>708050</v>
-      </c>
-      <c r="R38" s="5">
+      <c r="O38" s="22">
+        <v>716734</v>
+      </c>
+      <c r="P38" s="5">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="S38" s="6">
+      <c r="Q38" s="6">
         <f t="shared" si="1"/>
-        <v>1.2143389027878189E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" s="2" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.2197279276348835E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" s="2" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="9" t="s">
         <v>36</v>
       </c>
@@ -3655,118 +3401,105 @@
         <f>SUM(N7:N38)</f>
         <v>55880916</v>
       </c>
-      <c r="O39" s="10">
-        <v>55385133</v>
-      </c>
-      <c r="P39" s="11">
-        <v>57668254</v>
-      </c>
-      <c r="Q39" s="32">
-        <v>58307446</v>
-      </c>
-      <c r="R39" s="11"/>
-      <c r="S39" s="21">
+      <c r="O39" s="24">
+        <f>SUM(O7:O38)</f>
+        <v>58761793</v>
+      </c>
+      <c r="P39" s="11"/>
+      <c r="Q39" s="21">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:19" s="39" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="36" t="s">
+    <row r="40" spans="1:17" s="31" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="B40" s="37"/>
-      <c r="C40" s="37"/>
-      <c r="D40" s="37"/>
-      <c r="E40" s="37"/>
-      <c r="F40" s="37"/>
-      <c r="G40" s="37"/>
-      <c r="H40" s="37"/>
-      <c r="I40" s="37"/>
-      <c r="J40" s="37"/>
-      <c r="K40" s="37"/>
-      <c r="L40" s="37"/>
-      <c r="M40" s="37"/>
-      <c r="N40" s="37"/>
-      <c r="O40" s="37"/>
-      <c r="P40" s="37"/>
-      <c r="Q40" s="37"/>
-      <c r="R40" s="37"/>
-      <c r="S40" s="38"/>
-    </row>
-    <row r="41" spans="1:19" s="40" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="33" t="s">
+      <c r="B40" s="29"/>
+      <c r="C40" s="29"/>
+      <c r="D40" s="29"/>
+      <c r="E40" s="29"/>
+      <c r="F40" s="29"/>
+      <c r="G40" s="29"/>
+      <c r="H40" s="29"/>
+      <c r="I40" s="29"/>
+      <c r="J40" s="29"/>
+      <c r="K40" s="29"/>
+      <c r="L40" s="29"/>
+      <c r="M40" s="29"/>
+      <c r="N40" s="29"/>
+      <c r="O40" s="29"/>
+      <c r="P40" s="29"/>
+      <c r="Q40" s="30"/>
+    </row>
+    <row r="41" spans="1:17" s="32" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="B41" s="33"/>
-      <c r="C41" s="33"/>
-      <c r="D41" s="33"/>
-      <c r="E41" s="33"/>
-      <c r="F41" s="33"/>
-      <c r="G41" s="33"/>
-      <c r="H41" s="33"/>
-      <c r="I41" s="33"/>
-      <c r="J41" s="33"/>
-      <c r="K41" s="33"/>
-      <c r="L41" s="33"/>
-      <c r="M41" s="33"/>
-      <c r="N41" s="33"/>
-      <c r="O41" s="33"/>
-      <c r="P41" s="33"/>
-      <c r="Q41" s="33"/>
-      <c r="R41" s="33"/>
-      <c r="S41" s="33"/>
-    </row>
-    <row r="42" spans="1:19" s="41" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="46" t="s">
+      <c r="B41" s="25"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="25"/>
+      <c r="E41" s="25"/>
+      <c r="F41" s="25"/>
+      <c r="G41" s="25"/>
+      <c r="H41" s="25"/>
+      <c r="I41" s="25"/>
+      <c r="J41" s="25"/>
+      <c r="K41" s="25"/>
+      <c r="L41" s="25"/>
+      <c r="M41" s="25"/>
+      <c r="N41" s="25"/>
+      <c r="O41" s="25"/>
+      <c r="P41" s="25"/>
+      <c r="Q41" s="25"/>
+    </row>
+    <row r="42" spans="1:17" s="33" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="B42" s="46"/>
-      <c r="C42" s="46"/>
-      <c r="D42" s="46"/>
-      <c r="E42" s="46"/>
-      <c r="F42" s="46"/>
-      <c r="G42" s="46"/>
-      <c r="H42" s="46"/>
-      <c r="I42" s="46"/>
-      <c r="J42" s="46"/>
-      <c r="K42" s="46"/>
-      <c r="L42" s="46"/>
-      <c r="M42" s="46"/>
-      <c r="N42" s="46"/>
-      <c r="O42" s="46"/>
-      <c r="P42" s="46"/>
-      <c r="Q42" s="46"/>
-      <c r="R42" s="46"/>
-      <c r="S42" s="46"/>
-    </row>
-    <row r="43" spans="1:19" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="35" t="s">
+      <c r="B42" s="42"/>
+      <c r="C42" s="42"/>
+      <c r="D42" s="42"/>
+      <c r="E42" s="42"/>
+      <c r="F42" s="42"/>
+      <c r="G42" s="42"/>
+      <c r="H42" s="42"/>
+      <c r="I42" s="42"/>
+      <c r="J42" s="42"/>
+      <c r="K42" s="42"/>
+      <c r="L42" s="42"/>
+      <c r="M42" s="42"/>
+      <c r="N42" s="42"/>
+      <c r="O42" s="42"/>
+      <c r="P42" s="42"/>
+      <c r="Q42" s="42"/>
+    </row>
+    <row r="43" spans="1:17" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="27" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A44" s="47" t="s">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A44" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="B44" s="47"/>
-      <c r="C44" s="47"/>
-      <c r="D44" s="47"/>
-      <c r="E44" s="47"/>
-      <c r="F44" s="47"/>
-      <c r="G44" s="47"/>
-      <c r="H44" s="47"/>
-      <c r="I44" s="47"/>
-      <c r="J44" s="47"/>
-      <c r="K44" s="47"/>
-      <c r="L44" s="47"/>
-      <c r="M44" s="47"/>
-      <c r="N44" s="47"/>
-      <c r="O44" s="47"/>
-      <c r="P44" s="47"/>
-      <c r="Q44" s="47"/>
-      <c r="R44" s="47"/>
-      <c r="S44" s="47"/>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B44" s="43"/>
+      <c r="C44" s="43"/>
+      <c r="D44" s="43"/>
+      <c r="E44" s="43"/>
+      <c r="F44" s="43"/>
+      <c r="G44" s="43"/>
+      <c r="H44" s="43"/>
+      <c r="I44" s="43"/>
+      <c r="J44" s="43"/>
+      <c r="K44" s="43"/>
+      <c r="L44" s="43"/>
+      <c r="M44" s="43"/>
+      <c r="N44" s="43"/>
+      <c r="O44" s="43"/>
+      <c r="P44" s="43"/>
+      <c r="Q44" s="43"/>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45" s="8"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
@@ -3776,7 +3509,7 @@
       <c r="G45" s="8"/>
       <c r="H45" s="8"/>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46" s="8"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
@@ -3786,7 +3519,7 @@
       <c r="G46" s="8"/>
       <c r="H46" s="8"/>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A47" s="8"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
@@ -3796,7 +3529,7 @@
       <c r="G47" s="8"/>
       <c r="H47" s="8"/>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A48" s="8"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
@@ -3817,13 +3550,12 @@
       <c r="H49" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="5">
+    <mergeCell ref="A44:Q44"/>
     <mergeCell ref="A5:A6"/>
-    <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="R5:R6"/>
-    <mergeCell ref="S5:S6"/>
-    <mergeCell ref="A42:S42"/>
-    <mergeCell ref="A44:S44"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="A42:Q42"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.79" right="0.79" top="0.98" bottom="0.98" header="0" footer="0"/>

--- a/Tabulados/pea-entidad.xlsx
+++ b/Tabulados/pea-entidad.xlsx
@@ -141,19 +141,6 @@
     <t>Debido a lo anterior la suma no coincide con el total.</t>
   </si>
   <si>
-    <t>IV trimestre 2012 - II trimestre 2022</t>
-  </si>
-  <si>
-    <t>Rank II trim 2022</t>
-  </si>
-  <si>
-    <t>% Var II trim 2022 / II trim 2021</t>
-  </si>
-  <si>
-    <t>% Partic Nal
-II Trim 2022</t>
-  </si>
-  <si>
     <t>2012
 IV Trim</t>
   </si>
@@ -192,14 +179,6 @@
   <si>
     <t>2021
 IV Trim</t>
-  </si>
-  <si>
-    <t>2021
-II Trim</t>
-  </si>
-  <si>
-    <t>2022
-II Trim</t>
   </si>
   <si>
     <r>
@@ -229,6 +208,27 @@
       </rPr>
       <t xml:space="preserve"> Instituto de Información estadística y Geográfica con base en datos proporcionados por la Encuesta Nacional de Ocupación y Empleo (ENOE), INEGI.</t>
     </r>
+  </si>
+  <si>
+    <t>2021
+III Trim</t>
+  </si>
+  <si>
+    <t>2022
+III Trim</t>
+  </si>
+  <si>
+    <t>Rank III trim 2022</t>
+  </si>
+  <si>
+    <t>% Partic Nal
+III Trim 2022</t>
+  </si>
+  <si>
+    <t>% Var III trim 2022 / III trim 2021</t>
+  </si>
+  <si>
+    <t>IV trimestre 2012 - III trimestre 2022</t>
   </si>
 </sst>
 </file>
@@ -975,12 +975,6 @@
     <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="29" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="37" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1026,6 +1020,12 @@
     </xf>
     <xf numFmtId="164" fontId="22" fillId="36" borderId="4" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="60">
@@ -1393,7 +1393,7 @@
   <dimension ref="A1:P48"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="S19" sqref="S19"/>
+      <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="13.6" x14ac:dyDescent="0.25"/>
@@ -1446,7 +1446,7 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1479,57 +1479,57 @@
       <c r="N4" s="2"/>
     </row>
     <row r="5" spans="1:16" ht="31.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="G5" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="H5" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="E5" s="29" t="s">
+      <c r="I5" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="F5" s="29" t="s">
+      <c r="J5" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="G5" s="29" t="s">
+      <c r="K5" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="H5" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="I5" s="29" t="s">
+      <c r="L5" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="J5" s="29" t="s">
+      <c r="M5" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="K5" s="29" t="s">
+      <c r="N5" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="L5" s="29" t="s">
+      <c r="O5" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="M5" s="22" t="s">
+      <c r="P5" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="N5" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="O5" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="P5" s="22" t="s">
-        <v>42</v>
-      </c>
     </row>
     <row r="6" spans="1:16" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="29" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="10">
@@ -1542,47 +1542,47 @@
         <v>536639</v>
       </c>
       <c r="E6" s="8">
-        <v>548262</v>
+        <v>550151</v>
       </c>
       <c r="F6" s="8">
-        <v>566914</v>
+        <v>571435</v>
       </c>
       <c r="G6" s="8">
-        <v>568031</v>
+        <v>574264</v>
       </c>
       <c r="H6" s="8">
-        <v>584160</v>
+        <v>599073</v>
       </c>
       <c r="I6" s="8">
-        <v>605419</v>
+        <v>632637</v>
       </c>
       <c r="J6" s="8">
-        <v>591245</v>
+        <v>617908</v>
       </c>
       <c r="K6" s="8">
         <v>659568</v>
       </c>
       <c r="L6" s="8">
-        <v>631864</v>
+        <v>650144</v>
       </c>
       <c r="M6" s="8">
-        <v>650364</v>
-      </c>
-      <c r="N6" s="26">
+        <v>665746</v>
+      </c>
+      <c r="N6" s="24">
         <f>_xlfn.RANK.EQ(M6,$M$6:$M$37)</f>
         <v>27</v>
       </c>
-      <c r="O6" s="24">
+      <c r="O6" s="22">
         <f>M6/$M$38</f>
-        <v>1.0960251569897743E-2</v>
-      </c>
-      <c r="P6" s="35">
+        <v>1.1192682048533208E-2</v>
+      </c>
+      <c r="P6" s="33">
         <f>M6/L6-1</f>
-        <v>2.927845232518389E-2</v>
+        <v>2.3997760496136333E-2</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="29" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="10">
@@ -1595,47 +1595,47 @@
         <v>1571047</v>
       </c>
       <c r="E7" s="8">
-        <v>1597427</v>
+        <v>1621148</v>
       </c>
       <c r="F7" s="8">
-        <v>1636376</v>
+        <v>1673552</v>
       </c>
       <c r="G7" s="8">
-        <v>1677618</v>
+        <v>1731131</v>
       </c>
       <c r="H7" s="8">
-        <v>1741615</v>
+        <v>1786036</v>
       </c>
       <c r="I7" s="8">
-        <v>1766564</v>
+        <v>1797111</v>
       </c>
       <c r="J7" s="8">
-        <v>1705014</v>
+        <v>1726553</v>
       </c>
       <c r="K7" s="8">
         <v>1827448</v>
       </c>
       <c r="L7" s="8">
-        <v>1808741</v>
+        <v>1813625</v>
       </c>
       <c r="M7" s="8">
-        <v>1852949</v>
-      </c>
-      <c r="N7" s="26">
+        <v>1830056</v>
+      </c>
+      <c r="N7" s="24">
         <f t="shared" ref="N7:N37" si="0">_xlfn.RANK.EQ(M7,$M$6:$M$37)</f>
         <v>11</v>
       </c>
-      <c r="O7" s="24">
+      <c r="O7" s="22">
         <f t="shared" ref="O7:O36" si="1">M7/$M$38</f>
-        <v>3.1226800970211223E-2</v>
-      </c>
-      <c r="P7" s="35">
+        <v>3.0767342107966833E-2</v>
+      </c>
+      <c r="P7" s="33">
         <f t="shared" ref="P7:P38" si="2">M7/L7-1</f>
-        <v>2.4441310281571482E-2</v>
+        <v>9.0597560135088351E-3</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="29" t="s">
         <v>2</v>
       </c>
       <c r="B8" s="10">
@@ -1648,47 +1648,47 @@
         <v>368237</v>
       </c>
       <c r="E8" s="8">
-        <v>375914</v>
+        <v>345797</v>
       </c>
       <c r="F8" s="8">
-        <v>394690</v>
+        <v>363720</v>
       </c>
       <c r="G8" s="8">
-        <v>402255</v>
+        <v>366557</v>
       </c>
       <c r="H8" s="8">
-        <v>425517</v>
+        <v>388940</v>
       </c>
       <c r="I8" s="8">
-        <v>453332</v>
+        <v>413801</v>
       </c>
       <c r="J8" s="8">
-        <v>424557</v>
+        <v>392887</v>
       </c>
       <c r="K8" s="8">
         <v>428748</v>
       </c>
       <c r="L8" s="8">
-        <v>426715</v>
+        <v>424389</v>
       </c>
       <c r="M8" s="8">
-        <v>442159</v>
-      </c>
-      <c r="N8" s="26">
+        <v>440461</v>
+      </c>
+      <c r="N8" s="24">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="O8" s="24">
+      <c r="O8" s="22">
         <f t="shared" si="1"/>
-        <v>7.4514792852839575E-3</v>
-      </c>
-      <c r="P8" s="35">
+        <v>7.4051363850161844E-3</v>
+      </c>
+      <c r="P8" s="33">
         <f t="shared" si="2"/>
-        <v>3.6192775037202862E-2</v>
+        <v>3.7870915598660737E-2</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="29" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="10">
@@ -1701,47 +1701,47 @@
         <v>400431</v>
       </c>
       <c r="E9" s="8">
-        <v>411969</v>
+        <v>384722</v>
       </c>
       <c r="F9" s="8">
-        <v>413636</v>
+        <v>382859</v>
       </c>
       <c r="G9" s="8">
-        <v>418346</v>
+        <v>384263</v>
       </c>
       <c r="H9" s="8">
-        <v>433649</v>
+        <v>401734</v>
       </c>
       <c r="I9" s="8">
-        <v>448380</v>
+        <v>425674</v>
       </c>
       <c r="J9" s="8">
-        <v>436711</v>
+        <v>416734</v>
       </c>
       <c r="K9" s="8">
         <v>433926</v>
       </c>
       <c r="L9" s="8">
-        <v>443205</v>
+        <v>431338</v>
       </c>
       <c r="M9" s="8">
-        <v>442962</v>
-      </c>
-      <c r="N9" s="26">
+        <v>445659</v>
+      </c>
+      <c r="N9" s="24">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="O9" s="24">
+      <c r="O9" s="22">
         <f t="shared" si="1"/>
-        <v>7.4650118332273063E-3</v>
-      </c>
-      <c r="P9" s="35">
+        <v>7.4925264125766588E-3</v>
+      </c>
+      <c r="P9" s="33">
         <f t="shared" si="2"/>
-        <v>-5.4827901309772997E-4</v>
+        <v>3.3201340943761037E-2</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="31" t="s">
+      <c r="A10" s="29" t="s">
         <v>27</v>
       </c>
       <c r="B10" s="10">
@@ -1754,47 +1754,47 @@
         <v>1314365</v>
       </c>
       <c r="E10" s="8">
-        <v>1313758</v>
+        <v>1293380</v>
       </c>
       <c r="F10" s="8">
-        <v>1366191</v>
+        <v>1344974</v>
       </c>
       <c r="G10" s="8">
-        <v>1350875</v>
+        <v>1331589</v>
       </c>
       <c r="H10" s="8">
-        <v>1391498</v>
+        <v>1383511</v>
       </c>
       <c r="I10" s="8">
-        <v>1402895</v>
+        <v>1411731</v>
       </c>
       <c r="J10" s="8">
-        <v>1410380</v>
+        <v>1428545</v>
       </c>
       <c r="K10" s="8">
         <v>1493537</v>
       </c>
       <c r="L10" s="8">
-        <v>1467284</v>
+        <v>1488846</v>
       </c>
       <c r="M10" s="8">
-        <v>1515811</v>
-      </c>
-      <c r="N10" s="26">
+        <v>1514885</v>
+      </c>
+      <c r="N10" s="24">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="O10" s="24">
+      <c r="O10" s="22">
         <f t="shared" si="1"/>
-        <v>2.5545186837552917E-2</v>
-      </c>
-      <c r="P10" s="35">
+        <v>2.5468611369940226E-2</v>
+      </c>
+      <c r="P10" s="33">
         <f t="shared" si="2"/>
-        <v>3.3072670321491859E-2</v>
+        <v>1.7489384395699803E-2</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="31" t="s">
+      <c r="A11" s="29" t="s">
         <v>4</v>
       </c>
       <c r="B11" s="10">
@@ -1807,47 +1807,47 @@
         <v>356667</v>
       </c>
       <c r="E11" s="8">
-        <v>359330</v>
+        <v>342152</v>
       </c>
       <c r="F11" s="8">
-        <v>365409</v>
+        <v>345942</v>
       </c>
       <c r="G11" s="8">
-        <v>380332</v>
+        <v>358301</v>
       </c>
       <c r="H11" s="8">
-        <v>396857</v>
+        <v>375731</v>
       </c>
       <c r="I11" s="8">
-        <v>396074</v>
+        <v>371417</v>
       </c>
       <c r="J11" s="8">
-        <v>371574</v>
+        <v>349998</v>
       </c>
       <c r="K11" s="8">
         <v>401993</v>
       </c>
       <c r="L11" s="8">
-        <v>381094</v>
+        <v>394648</v>
       </c>
       <c r="M11" s="8">
-        <v>395237</v>
-      </c>
-      <c r="N11" s="26">
+        <v>393280</v>
+      </c>
+      <c r="N11" s="24">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="O11" s="24">
+      <c r="O11" s="22">
         <f t="shared" si="1"/>
-        <v>6.6607268387113587E-3</v>
-      </c>
-      <c r="P11" s="35">
+        <v>6.6119180529017668E-3</v>
+      </c>
+      <c r="P11" s="33">
         <f t="shared" si="2"/>
-        <v>3.7111578770592013E-2</v>
+        <v>-3.4663801666294791E-3</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="31" t="s">
+      <c r="A12" s="29" t="s">
         <v>5</v>
       </c>
       <c r="B12" s="10">
@@ -1860,47 +1860,47 @@
         <v>1865624</v>
       </c>
       <c r="E12" s="8">
-        <v>2014866</v>
+        <v>1953171</v>
       </c>
       <c r="F12" s="8">
-        <v>1964597</v>
+        <v>1902994</v>
       </c>
       <c r="G12" s="8">
-        <v>1906694</v>
+        <v>1845018</v>
       </c>
       <c r="H12" s="8">
-        <v>1969051</v>
+        <v>1918593</v>
       </c>
       <c r="I12" s="8">
-        <v>2166019</v>
+        <v>2135375</v>
       </c>
       <c r="J12" s="8">
-        <v>2108289</v>
+        <v>2098192</v>
       </c>
       <c r="K12" s="8">
         <v>2232786</v>
       </c>
       <c r="L12" s="8">
-        <v>2263306</v>
+        <v>2170044</v>
       </c>
       <c r="M12" s="8">
-        <v>2199559</v>
-      </c>
-      <c r="N12" s="26">
+        <v>2228741</v>
+      </c>
+      <c r="N12" s="24">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="O12" s="24">
+      <c r="O12" s="22">
         <f t="shared" si="1"/>
-        <v>3.7068041870141503E-2</v>
-      </c>
-      <c r="P12" s="35">
+        <v>3.7470130322269979E-2</v>
+      </c>
+      <c r="P12" s="33">
         <f t="shared" si="2"/>
-        <v>-2.8165435871243205E-2</v>
+        <v>2.70487603016345E-2</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="31" t="s">
+      <c r="A13" s="29" t="s">
         <v>6</v>
       </c>
       <c r="B13" s="10">
@@ -1913,47 +1913,47 @@
         <v>1593911</v>
       </c>
       <c r="E13" s="8">
-        <v>1627360</v>
+        <v>1562905</v>
       </c>
       <c r="F13" s="8">
-        <v>1674505</v>
+        <v>1607428</v>
       </c>
       <c r="G13" s="8">
-        <v>1676051</v>
+        <v>1607450</v>
       </c>
       <c r="H13" s="8">
-        <v>1772618</v>
+        <v>1711268</v>
       </c>
       <c r="I13" s="8">
-        <v>1785404</v>
+        <v>1726136</v>
       </c>
       <c r="J13" s="8">
-        <v>1763997</v>
+        <v>1710384</v>
       </c>
       <c r="K13" s="8">
         <v>1777289</v>
       </c>
       <c r="L13" s="8">
-        <v>1740632</v>
+        <v>1774805</v>
       </c>
       <c r="M13" s="8">
-        <v>1804415</v>
-      </c>
-      <c r="N13" s="26">
+        <v>1820218</v>
+      </c>
+      <c r="N13" s="24">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="O13" s="24">
+      <c r="O13" s="22">
         <f t="shared" si="1"/>
-        <v>3.0408882312823331E-2</v>
-      </c>
-      <c r="P13" s="35">
+        <v>3.0601943283199623E-2</v>
+      </c>
+      <c r="P13" s="33">
         <f t="shared" si="2"/>
-        <v>3.6643586927047167E-2</v>
+        <v>2.5587599764481217E-2</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="31" t="s">
+      <c r="A14" s="29" t="s">
         <v>33</v>
       </c>
       <c r="B14" s="10">
@@ -1966,47 +1966,47 @@
         <v>4314435</v>
       </c>
       <c r="E14" s="8">
-        <v>4403287</v>
+        <v>4519920</v>
       </c>
       <c r="F14" s="8">
-        <v>4350772</v>
+        <v>4498050</v>
       </c>
       <c r="G14" s="8">
-        <v>4335159</v>
+        <v>4512505</v>
       </c>
       <c r="H14" s="8">
-        <v>4440317</v>
+        <v>4650115</v>
       </c>
       <c r="I14" s="8">
-        <v>4514470</v>
+        <v>4749279</v>
       </c>
       <c r="J14" s="8">
-        <v>3935752</v>
+        <v>4166769</v>
       </c>
       <c r="K14" s="8">
         <v>4744648</v>
       </c>
       <c r="L14" s="8">
-        <v>4439594</v>
+        <v>4724127</v>
       </c>
       <c r="M14" s="8">
-        <v>4793126</v>
-      </c>
-      <c r="N14" s="26">
+        <v>4798534</v>
+      </c>
+      <c r="N14" s="24">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="O14" s="24">
+      <c r="O14" s="22">
         <f t="shared" si="1"/>
-        <v>8.0776098871120916E-2</v>
-      </c>
-      <c r="P14" s="35">
+        <v>8.0674108986124204E-2</v>
+      </c>
+      <c r="P14" s="33">
         <f t="shared" si="2"/>
-        <v>7.9631605953156992E-2</v>
+        <v>1.575042330572396E-2</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="31" t="s">
+      <c r="A15" s="29" t="s">
         <v>7</v>
       </c>
       <c r="B15" s="10">
@@ -2019,47 +2019,47 @@
         <v>744530</v>
       </c>
       <c r="E15" s="8">
-        <v>779604</v>
+        <v>763905</v>
       </c>
       <c r="F15" s="8">
-        <v>783889</v>
+        <v>769864</v>
       </c>
       <c r="G15" s="8">
-        <v>778302</v>
+        <v>766631</v>
       </c>
       <c r="H15" s="8">
-        <v>804613</v>
+        <v>794651</v>
       </c>
       <c r="I15" s="8">
-        <v>810077</v>
+        <v>805680</v>
       </c>
       <c r="J15" s="8">
-        <v>798476</v>
+        <v>800825</v>
       </c>
       <c r="K15" s="8">
         <v>836016</v>
       </c>
       <c r="L15" s="8">
-        <v>843167</v>
+        <v>842334</v>
       </c>
       <c r="M15" s="8">
-        <v>835615</v>
-      </c>
-      <c r="N15" s="26">
+        <v>855086</v>
+      </c>
+      <c r="N15" s="24">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="O15" s="24">
+      <c r="O15" s="22">
         <f t="shared" si="1"/>
-        <v>1.4082191842691326E-2</v>
-      </c>
-      <c r="P15" s="35">
+        <v>1.4375911717309703E-2</v>
+      </c>
+      <c r="P15" s="33">
         <f t="shared" si="2"/>
-        <v>-8.956707271513209E-3</v>
+        <v>1.5138887899574183E-2</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="31" t="s">
+      <c r="A16" s="29" t="s">
         <v>8</v>
       </c>
       <c r="B16" s="10">
@@ -2072,47 +2072,47 @@
         <v>2457663</v>
       </c>
       <c r="E16" s="8">
-        <v>2536929</v>
+        <v>2559857</v>
       </c>
       <c r="F16" s="8">
-        <v>2583592</v>
+        <v>2619228</v>
       </c>
       <c r="G16" s="8">
-        <v>2633796</v>
+        <v>2683718</v>
       </c>
       <c r="H16" s="8">
-        <v>2659163</v>
+        <v>2714443</v>
       </c>
       <c r="I16" s="8">
-        <v>2682748</v>
+        <v>2754807</v>
       </c>
       <c r="J16" s="8">
-        <v>2656883</v>
+        <v>2736268</v>
       </c>
       <c r="K16" s="8">
         <v>2799197</v>
       </c>
       <c r="L16" s="8">
-        <v>2800508</v>
+        <v>2830259</v>
       </c>
       <c r="M16" s="8">
-        <v>2828639</v>
-      </c>
-      <c r="N16" s="26">
+        <v>2848237</v>
+      </c>
+      <c r="N16" s="24">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="O16" s="24">
+      <c r="O16" s="22">
         <f t="shared" si="1"/>
-        <v>4.7669605083344065E-2</v>
-      </c>
-      <c r="P16" s="35">
+        <v>4.7885246234852442E-2</v>
+      </c>
+      <c r="P16" s="33">
         <f t="shared" si="2"/>
-        <v>1.0044963270949392E-2</v>
+        <v>6.352068838929581E-3</v>
       </c>
     </row>
     <row r="17" spans="1:16" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="31" t="s">
+      <c r="A17" s="29" t="s">
         <v>9</v>
       </c>
       <c r="B17" s="10">
@@ -2125,47 +2125,47 @@
         <v>1438315</v>
       </c>
       <c r="E17" s="8">
-        <v>1456709</v>
+        <v>1408328</v>
       </c>
       <c r="F17" s="8">
-        <v>1421962</v>
+        <v>1372793</v>
       </c>
       <c r="G17" s="8">
-        <v>1496749</v>
+        <v>1443519</v>
       </c>
       <c r="H17" s="8">
-        <v>1559635</v>
+        <v>1508207</v>
       </c>
       <c r="I17" s="8">
-        <v>1541546</v>
+        <v>1495036</v>
       </c>
       <c r="J17" s="8">
-        <v>1564536</v>
+        <v>1522019</v>
       </c>
       <c r="K17" s="8">
         <v>1506516</v>
       </c>
       <c r="L17" s="8">
-        <v>1531375</v>
+        <v>1526815</v>
       </c>
       <c r="M17" s="8">
-        <v>1519990</v>
-      </c>
-      <c r="N17" s="26">
+        <v>1557236</v>
+      </c>
+      <c r="N17" s="24">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="O17" s="24">
+      <c r="O17" s="22">
         <f t="shared" si="1"/>
-        <v>2.5615613385317867E-2</v>
-      </c>
-      <c r="P17" s="35">
+        <v>2.6180626579100221E-2</v>
+      </c>
+      <c r="P17" s="33">
         <f t="shared" si="2"/>
-        <v>-7.4344951432535611E-3</v>
+        <v>1.9924483319852193E-2</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="31" t="s">
+      <c r="A18" s="29" t="s">
         <v>10</v>
       </c>
       <c r="B18" s="10">
@@ -2178,736 +2178,736 @@
         <v>1220081</v>
       </c>
       <c r="E18" s="8">
-        <v>1295452</v>
+        <v>1301737</v>
       </c>
       <c r="F18" s="8">
-        <v>1230173</v>
+        <v>1240055</v>
       </c>
       <c r="G18" s="8">
-        <v>1237664</v>
+        <v>1254004</v>
       </c>
       <c r="H18" s="8">
-        <v>1302465</v>
+        <v>1328241</v>
       </c>
       <c r="I18" s="8">
-        <v>1315532</v>
+        <v>1338231</v>
       </c>
       <c r="J18" s="8">
-        <v>1269809</v>
+        <v>1286995</v>
       </c>
       <c r="K18" s="8">
         <v>1405819</v>
       </c>
       <c r="L18" s="8">
-        <v>1326174</v>
+        <v>1377006</v>
       </c>
       <c r="M18" s="8">
-        <v>1423737</v>
-      </c>
-      <c r="N18" s="26">
+        <v>1466506</v>
+      </c>
+      <c r="N18" s="24">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="O18" s="22">
+        <f t="shared" si="1"/>
+        <v>2.4655251973374589E-2</v>
+      </c>
+      <c r="P18" s="33">
+        <f t="shared" si="2"/>
+        <v>6.4996085710592455E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="11">
+        <v>3454205</v>
+      </c>
+      <c r="C19" s="11">
+        <v>3525624</v>
+      </c>
+      <c r="D19" s="11">
+        <v>3517378</v>
+      </c>
+      <c r="E19" s="9">
+        <v>3664438</v>
+      </c>
+      <c r="F19" s="9">
+        <v>3651350</v>
+      </c>
+      <c r="G19" s="9">
+        <v>3715113</v>
+      </c>
+      <c r="H19" s="9">
+        <v>3782844</v>
+      </c>
+      <c r="I19" s="9">
+        <v>3902364</v>
+      </c>
+      <c r="J19" s="9">
+        <v>3801923</v>
+      </c>
+      <c r="K19" s="9">
+        <v>4050154</v>
+      </c>
+      <c r="L19" s="9">
+        <v>3959500</v>
+      </c>
+      <c r="M19" s="9">
+        <v>4140158</v>
+      </c>
+      <c r="N19" s="25">
+        <f>_xlfn.RANK.EQ(M19,$M$6:$M$37)</f>
+        <v>3</v>
+      </c>
+      <c r="O19" s="23">
+        <f>M19/$M$38</f>
+        <v>6.9605333152119794E-2</v>
+      </c>
+      <c r="P19" s="34">
+        <f t="shared" si="2"/>
+        <v>4.5626467988382435E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="10">
+        <v>7099226</v>
+      </c>
+      <c r="C20" s="10">
+        <v>7295121</v>
+      </c>
+      <c r="D20" s="10">
+        <v>7265129</v>
+      </c>
+      <c r="E20" s="8">
+        <v>7347375</v>
+      </c>
+      <c r="F20" s="8">
+        <v>7191761</v>
+      </c>
+      <c r="G20" s="8">
+        <v>7423582</v>
+      </c>
+      <c r="H20" s="8">
+        <v>7522476</v>
+      </c>
+      <c r="I20" s="8">
+        <v>7721709</v>
+      </c>
+      <c r="J20" s="8">
+        <v>7328990</v>
+      </c>
+      <c r="K20" s="8">
+        <v>7981849</v>
+      </c>
+      <c r="L20" s="8">
+        <v>7956825</v>
+      </c>
+      <c r="M20" s="8">
+        <v>8184570</v>
+      </c>
+      <c r="N20" s="24">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O20" s="22">
+        <f t="shared" si="1"/>
+        <v>0.13760096149877496</v>
+      </c>
+      <c r="P20" s="33">
+        <f t="shared" si="2"/>
+        <v>2.8622597581321685E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="10">
+        <v>1885496</v>
+      </c>
+      <c r="C21" s="10">
+        <v>1937004</v>
+      </c>
+      <c r="D21" s="10">
+        <v>1944386</v>
+      </c>
+      <c r="E21" s="8">
+        <v>1900063</v>
+      </c>
+      <c r="F21" s="8">
+        <v>1941072</v>
+      </c>
+      <c r="G21" s="8">
+        <v>1933242</v>
+      </c>
+      <c r="H21" s="8">
+        <v>2007279</v>
+      </c>
+      <c r="I21" s="8">
+        <v>2100537</v>
+      </c>
+      <c r="J21" s="8">
+        <v>1973085</v>
+      </c>
+      <c r="K21" s="8">
+        <v>2165988</v>
+      </c>
+      <c r="L21" s="8">
+        <v>2173381</v>
+      </c>
+      <c r="M21" s="8">
+        <v>2251196</v>
+      </c>
+      <c r="N21" s="24">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="O21" s="22">
+        <f t="shared" si="1"/>
+        <v>3.7847649188924547E-2</v>
+      </c>
+      <c r="P21" s="33">
+        <f t="shared" si="2"/>
+        <v>3.5803662588381968E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="10">
+        <v>803846</v>
+      </c>
+      <c r="C22" s="10">
+        <v>826041</v>
+      </c>
+      <c r="D22" s="10">
+        <v>810715</v>
+      </c>
+      <c r="E22" s="8">
+        <v>775028</v>
+      </c>
+      <c r="F22" s="8">
+        <v>803262</v>
+      </c>
+      <c r="G22" s="8">
+        <v>831775</v>
+      </c>
+      <c r="H22" s="8">
+        <v>825026</v>
+      </c>
+      <c r="I22" s="8">
+        <v>851860</v>
+      </c>
+      <c r="J22" s="8">
+        <v>855666</v>
+      </c>
+      <c r="K22" s="8">
+        <v>850676</v>
+      </c>
+      <c r="L22" s="8">
+        <v>857820</v>
+      </c>
+      <c r="M22" s="8">
+        <v>869977</v>
+      </c>
+      <c r="N22" s="24">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="O22" s="22">
+        <f t="shared" si="1"/>
+        <v>1.4626262794724676E-2</v>
+      </c>
+      <c r="P22" s="33">
+        <f t="shared" si="2"/>
+        <v>1.4171970809726986E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="10">
+        <v>540494</v>
+      </c>
+      <c r="C23" s="10">
+        <v>554195</v>
+      </c>
+      <c r="D23" s="10">
+        <v>555305</v>
+      </c>
+      <c r="E23" s="8">
+        <v>555056</v>
+      </c>
+      <c r="F23" s="8">
+        <v>557501</v>
+      </c>
+      <c r="G23" s="8">
+        <v>576743</v>
+      </c>
+      <c r="H23" s="8">
+        <v>585546</v>
+      </c>
+      <c r="I23" s="8">
+        <v>584501</v>
+      </c>
+      <c r="J23" s="8">
+        <v>633648</v>
+      </c>
+      <c r="K23" s="8">
+        <v>609847</v>
+      </c>
+      <c r="L23" s="8">
+        <v>600692</v>
+      </c>
+      <c r="M23" s="8">
+        <v>621582</v>
+      </c>
+      <c r="N23" s="24">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="O23" s="22">
+        <f t="shared" si="1"/>
+        <v>1.0450186246843943E-2</v>
+      </c>
+      <c r="P23" s="33">
+        <f t="shared" si="2"/>
+        <v>3.4776557703448674E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="10">
+        <v>2308619</v>
+      </c>
+      <c r="C24" s="10">
+        <v>2298389</v>
+      </c>
+      <c r="D24" s="10">
+        <v>2302251</v>
+      </c>
+      <c r="E24" s="8">
+        <v>2406438</v>
+      </c>
+      <c r="F24" s="8">
+        <v>2519854</v>
+      </c>
+      <c r="G24" s="8">
+        <v>2540229</v>
+      </c>
+      <c r="H24" s="8">
+        <v>2587987</v>
+      </c>
+      <c r="I24" s="8">
+        <v>2746625</v>
+      </c>
+      <c r="J24" s="8">
+        <v>2763440</v>
+      </c>
+      <c r="K24" s="8">
+        <v>2892673</v>
+      </c>
+      <c r="L24" s="8">
+        <v>2866655</v>
+      </c>
+      <c r="M24" s="8">
+        <v>2889879</v>
+      </c>
+      <c r="N24" s="24">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="O24" s="22">
+        <f t="shared" si="1"/>
+        <v>4.8585341565301324E-2</v>
+      </c>
+      <c r="P24" s="33">
+        <f t="shared" si="2"/>
+        <v>8.1014283197664572E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="10">
+        <v>1672753</v>
+      </c>
+      <c r="C25" s="10">
+        <v>1630893</v>
+      </c>
+      <c r="D25" s="10">
+        <v>1664270</v>
+      </c>
+      <c r="E25" s="8">
+        <v>1659844</v>
+      </c>
+      <c r="F25" s="8">
+        <v>1661898</v>
+      </c>
+      <c r="G25" s="8">
+        <v>1640024</v>
+      </c>
+      <c r="H25" s="8">
+        <v>1731989</v>
+      </c>
+      <c r="I25" s="8">
+        <v>1879061</v>
+      </c>
+      <c r="J25" s="8">
+        <v>1895813</v>
+      </c>
+      <c r="K25" s="8">
+        <v>1854356</v>
+      </c>
+      <c r="L25" s="8">
+        <v>1783913</v>
+      </c>
+      <c r="M25" s="8">
+        <v>1920622</v>
+      </c>
+      <c r="N25" s="24">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="O25" s="22">
+        <f t="shared" si="1"/>
+        <v>3.2289959506204988E-2</v>
+      </c>
+      <c r="P25" s="33">
+        <f t="shared" si="2"/>
+        <v>7.6634342594061433E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="10">
+        <v>2603161</v>
+      </c>
+      <c r="C26" s="10">
+        <v>2651019</v>
+      </c>
+      <c r="D26" s="10">
+        <v>2631791</v>
+      </c>
+      <c r="E26" s="8">
+        <v>2720844</v>
+      </c>
+      <c r="F26" s="8">
+        <v>2813936</v>
+      </c>
+      <c r="G26" s="8">
+        <v>2887790</v>
+      </c>
+      <c r="H26" s="8">
+        <v>2889801</v>
+      </c>
+      <c r="I26" s="8">
+        <v>3000471</v>
+      </c>
+      <c r="J26" s="8">
+        <v>2954178</v>
+      </c>
+      <c r="K26" s="8">
+        <v>3044866</v>
+      </c>
+      <c r="L26" s="8">
+        <v>2999739</v>
+      </c>
+      <c r="M26" s="8">
+        <v>2995755</v>
+      </c>
+      <c r="N26" s="24">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="O26" s="22">
+        <f t="shared" si="1"/>
+        <v>5.0365354369840146E-2</v>
+      </c>
+      <c r="P26" s="33">
+        <f t="shared" si="2"/>
+        <v>-1.3281155460524996E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" s="10">
+        <v>754137</v>
+      </c>
+      <c r="C27" s="10">
+        <v>764035</v>
+      </c>
+      <c r="D27" s="10">
+        <v>772029</v>
+      </c>
+      <c r="E27" s="8">
+        <v>883562</v>
+      </c>
+      <c r="F27" s="8">
+        <v>860395</v>
+      </c>
+      <c r="G27" s="8">
+        <v>898805</v>
+      </c>
+      <c r="H27" s="8">
+        <v>948123</v>
+      </c>
+      <c r="I27" s="8">
+        <v>994877</v>
+      </c>
+      <c r="J27" s="8">
+        <v>1059350</v>
+      </c>
+      <c r="K27" s="8">
+        <v>1060535</v>
+      </c>
+      <c r="L27" s="8">
+        <v>1087188</v>
+      </c>
+      <c r="M27" s="8">
+        <v>1066235</v>
+      </c>
+      <c r="N27" s="24">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="O27" s="22">
+        <f t="shared" si="1"/>
+        <v>1.7925799545198625E-2</v>
+      </c>
+      <c r="P27" s="33">
+        <f t="shared" si="2"/>
+        <v>-1.9272655695243168E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" s="10">
+        <v>713671</v>
+      </c>
+      <c r="C28" s="10">
+        <v>732583</v>
+      </c>
+      <c r="D28" s="10">
+        <v>748707</v>
+      </c>
+      <c r="E28" s="8">
+        <v>819269</v>
+      </c>
+      <c r="F28" s="8">
+        <v>844447</v>
+      </c>
+      <c r="G28" s="8">
+        <v>871433</v>
+      </c>
+      <c r="H28" s="8">
+        <v>923043</v>
+      </c>
+      <c r="I28" s="8">
+        <v>925593</v>
+      </c>
+      <c r="J28" s="8">
+        <v>880747</v>
+      </c>
+      <c r="K28" s="8">
+        <v>937357</v>
+      </c>
+      <c r="L28" s="8">
+        <v>930444</v>
+      </c>
+      <c r="M28" s="8">
+        <v>962278</v>
+      </c>
+      <c r="N28" s="24">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="O28" s="22">
+        <f t="shared" si="1"/>
+        <v>1.617804943071147E-2</v>
+      </c>
+      <c r="P28" s="33">
+        <f t="shared" si="2"/>
+        <v>3.4213773209349485E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" s="10">
+        <v>1105769</v>
+      </c>
+      <c r="C29" s="10">
+        <v>1150039</v>
+      </c>
+      <c r="D29" s="10">
+        <v>1138630</v>
+      </c>
+      <c r="E29" s="8">
+        <v>1168601</v>
+      </c>
+      <c r="F29" s="8">
+        <v>1186141</v>
+      </c>
+      <c r="G29" s="8">
+        <v>1219435</v>
+      </c>
+      <c r="H29" s="8">
+        <v>1217430</v>
+      </c>
+      <c r="I29" s="8">
+        <v>1244392</v>
+      </c>
+      <c r="J29" s="8">
+        <v>1248706</v>
+      </c>
+      <c r="K29" s="8">
+        <v>1315432</v>
+      </c>
+      <c r="L29" s="8">
+        <v>1311741</v>
+      </c>
+      <c r="M29" s="8">
+        <v>1282616</v>
+      </c>
+      <c r="N29" s="24">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="O29" s="22">
+        <f t="shared" si="1"/>
+        <v>2.1563649016834451E-2</v>
+      </c>
+      <c r="P29" s="33">
+        <f t="shared" si="2"/>
+        <v>-2.2203316050958266E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30" s="10">
+        <v>1324241</v>
+      </c>
+      <c r="C30" s="10">
+        <v>1326518</v>
+      </c>
+      <c r="D30" s="10">
+        <v>1371707</v>
+      </c>
+      <c r="E30" s="8">
+        <v>1328463</v>
+      </c>
+      <c r="F30" s="8">
+        <v>1351021</v>
+      </c>
+      <c r="G30" s="8">
+        <v>1353909</v>
+      </c>
+      <c r="H30" s="8">
+        <v>1367126</v>
+      </c>
+      <c r="I30" s="8">
+        <v>1414817</v>
+      </c>
+      <c r="J30" s="8">
+        <v>1298903</v>
+      </c>
+      <c r="K30" s="8">
+        <v>1380214</v>
+      </c>
+      <c r="L30" s="8">
+        <v>1347418</v>
+      </c>
+      <c r="M30" s="8">
+        <v>1414126</v>
+      </c>
+      <c r="N30" s="24">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="O18" s="24">
+      <c r="O30" s="22">
         <f t="shared" si="1"/>
-        <v>2.3993510848342621E-2</v>
-      </c>
-      <c r="P18" s="35">
+        <v>2.377462680145892E-2</v>
+      </c>
+      <c r="P30" s="33">
         <f t="shared" si="2"/>
-        <v>7.3567269453329587E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" s="11">
-        <v>3454205</v>
-      </c>
-      <c r="C19" s="11">
-        <v>3525624</v>
-      </c>
-      <c r="D19" s="11">
-        <v>3517378</v>
-      </c>
-      <c r="E19" s="9">
-        <v>3714858</v>
-      </c>
-      <c r="F19" s="9">
-        <v>3694536</v>
-      </c>
-      <c r="G19" s="9">
-        <v>3757723</v>
-      </c>
-      <c r="H19" s="9">
-        <v>3797311</v>
-      </c>
-      <c r="I19" s="9">
-        <v>3895568</v>
-      </c>
-      <c r="J19" s="9">
-        <v>3810866</v>
-      </c>
-      <c r="K19" s="9">
-        <v>4050154</v>
-      </c>
-      <c r="L19" s="9">
-        <v>3957119</v>
-      </c>
-      <c r="M19" s="9">
-        <v>4068763</v>
-      </c>
-      <c r="N19" s="27">
-        <f>_xlfn.RANK.EQ(M19,$M$6:$M$37)</f>
-        <v>3</v>
-      </c>
-      <c r="O19" s="25">
-        <f>M19/$M$38</f>
-        <v>6.8568780034398966E-2</v>
-      </c>
-      <c r="P19" s="36">
-        <f t="shared" si="2"/>
-        <v>2.8213455294116674E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20" s="10">
-        <v>7099226</v>
-      </c>
-      <c r="C20" s="10">
-        <v>7295121</v>
-      </c>
-      <c r="D20" s="10">
-        <v>7265129</v>
-      </c>
-      <c r="E20" s="8">
-        <v>7655997</v>
-      </c>
-      <c r="F20" s="8">
-        <v>7508735</v>
-      </c>
-      <c r="G20" s="8">
-        <v>7761047</v>
-      </c>
-      <c r="H20" s="8">
-        <v>7924199</v>
-      </c>
-      <c r="I20" s="8">
-        <v>8195649</v>
-      </c>
-      <c r="J20" s="8">
-        <v>7817888</v>
-      </c>
-      <c r="K20" s="8">
-        <v>7981849</v>
-      </c>
-      <c r="L20" s="8">
-        <v>7752743</v>
-      </c>
-      <c r="M20" s="8">
-        <v>8112846</v>
-      </c>
-      <c r="N20" s="26">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="O20" s="24">
-        <f t="shared" si="1"/>
-        <v>0.13672164066251916</v>
-      </c>
-      <c r="P20" s="35">
-        <f t="shared" si="2"/>
-        <v>4.6448463466414402E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" s="10">
-        <v>1885496</v>
-      </c>
-      <c r="C21" s="10">
-        <v>1937004</v>
-      </c>
-      <c r="D21" s="10">
-        <v>1944386</v>
-      </c>
-      <c r="E21" s="8">
-        <v>1955573</v>
-      </c>
-      <c r="F21" s="8">
-        <v>2002116</v>
-      </c>
-      <c r="G21" s="8">
-        <v>1996173</v>
-      </c>
-      <c r="H21" s="8">
-        <v>2014164</v>
-      </c>
-      <c r="I21" s="8">
-        <v>2092495</v>
-      </c>
-      <c r="J21" s="8">
-        <v>1937391</v>
-      </c>
-      <c r="K21" s="8">
-        <v>2165988</v>
-      </c>
-      <c r="L21" s="8">
-        <v>2041844</v>
-      </c>
-      <c r="M21" s="8">
-        <v>2236441</v>
-      </c>
-      <c r="N21" s="26">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="O21" s="24">
-        <f t="shared" si="1"/>
-        <v>3.7689595336201996E-2</v>
-      </c>
-      <c r="P21" s="35">
-        <f t="shared" si="2"/>
-        <v>9.5304538446619791E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22" s="10">
-        <v>803846</v>
-      </c>
-      <c r="C22" s="10">
-        <v>826041</v>
-      </c>
-      <c r="D22" s="10">
-        <v>810715</v>
-      </c>
-      <c r="E22" s="8">
-        <v>788902</v>
-      </c>
-      <c r="F22" s="8">
-        <v>819646</v>
-      </c>
-      <c r="G22" s="8">
-        <v>846148</v>
-      </c>
-      <c r="H22" s="8">
-        <v>838342</v>
-      </c>
-      <c r="I22" s="8">
-        <v>871346</v>
-      </c>
-      <c r="J22" s="8">
-        <v>879639</v>
-      </c>
-      <c r="K22" s="8">
-        <v>850676</v>
-      </c>
-      <c r="L22" s="8">
-        <v>855311</v>
-      </c>
-      <c r="M22" s="8">
-        <v>841772</v>
-      </c>
-      <c r="N22" s="26">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="O22" s="24">
-        <f t="shared" si="1"/>
-        <v>1.418595261191573E-2</v>
-      </c>
-      <c r="P22" s="35">
-        <f t="shared" si="2"/>
-        <v>-1.5829329916252632E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="B23" s="10">
-        <v>540494</v>
-      </c>
-      <c r="C23" s="10">
-        <v>554195</v>
-      </c>
-      <c r="D23" s="10">
-        <v>555305</v>
-      </c>
-      <c r="E23" s="8">
-        <v>585739</v>
-      </c>
-      <c r="F23" s="8">
-        <v>591315</v>
-      </c>
-      <c r="G23" s="8">
-        <v>614098</v>
-      </c>
-      <c r="H23" s="8">
-        <v>620909</v>
-      </c>
-      <c r="I23" s="8">
-        <v>624047</v>
-      </c>
-      <c r="J23" s="8">
-        <v>683387</v>
-      </c>
-      <c r="K23" s="8">
-        <v>609847</v>
-      </c>
-      <c r="L23" s="8">
-        <v>627135</v>
-      </c>
-      <c r="M23" s="8">
-        <v>618626</v>
-      </c>
-      <c r="N23" s="26">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="O23" s="24">
-        <f t="shared" si="1"/>
-        <v>1.042538730261755E-2</v>
-      </c>
-      <c r="P23" s="35">
-        <f t="shared" si="2"/>
-        <v>-1.3568051535953196E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="B24" s="10">
-        <v>2308619</v>
-      </c>
-      <c r="C24" s="10">
-        <v>2298389</v>
-      </c>
-      <c r="D24" s="10">
-        <v>2302251</v>
-      </c>
-      <c r="E24" s="8">
-        <v>2370447</v>
-      </c>
-      <c r="F24" s="8">
-        <v>2466545</v>
-      </c>
-      <c r="G24" s="8">
-        <v>2473654</v>
-      </c>
-      <c r="H24" s="8">
-        <v>2508932</v>
-      </c>
-      <c r="I24" s="8">
-        <v>2604667</v>
-      </c>
-      <c r="J24" s="8">
-        <v>2575825</v>
-      </c>
-      <c r="K24" s="8">
-        <v>2892673</v>
-      </c>
-      <c r="L24" s="8">
-        <v>2903038</v>
-      </c>
-      <c r="M24" s="8">
-        <v>2890727</v>
-      </c>
-      <c r="N24" s="26">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="O24" s="24">
-        <f t="shared" si="1"/>
-        <v>4.8715942364423295E-2</v>
-      </c>
-      <c r="P24" s="35">
-        <f t="shared" si="2"/>
-        <v>-4.2407298836597551E-3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="B25" s="10">
-        <v>1672753</v>
-      </c>
-      <c r="C25" s="10">
-        <v>1630893</v>
-      </c>
-      <c r="D25" s="10">
-        <v>1664270</v>
-      </c>
-      <c r="E25" s="8">
-        <v>1711751</v>
-      </c>
-      <c r="F25" s="8">
-        <v>1716346</v>
-      </c>
-      <c r="G25" s="8">
-        <v>1696053</v>
-      </c>
-      <c r="H25" s="8">
-        <v>1766964</v>
-      </c>
-      <c r="I25" s="8">
-        <v>1885014</v>
-      </c>
-      <c r="J25" s="8">
-        <v>1880398</v>
-      </c>
-      <c r="K25" s="8">
-        <v>1854356</v>
-      </c>
-      <c r="L25" s="8">
-        <v>1844235</v>
-      </c>
-      <c r="M25" s="8">
-        <v>1907900</v>
-      </c>
-      <c r="N25" s="26">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="O25" s="24">
-        <f t="shared" si="1"/>
-        <v>3.2152862043729205E-2</v>
-      </c>
-      <c r="P25" s="35">
-        <f t="shared" si="2"/>
-        <v>3.4521088689890345E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="B26" s="10">
-        <v>2603161</v>
-      </c>
-      <c r="C26" s="10">
-        <v>2651019</v>
-      </c>
-      <c r="D26" s="10">
-        <v>2631791</v>
-      </c>
-      <c r="E26" s="8">
-        <v>2710296</v>
-      </c>
-      <c r="F26" s="8">
-        <v>2789480</v>
-      </c>
-      <c r="G26" s="8">
-        <v>2851683</v>
-      </c>
-      <c r="H26" s="8">
-        <v>2849781</v>
-      </c>
-      <c r="I26" s="8">
-        <v>2953254</v>
-      </c>
-      <c r="J26" s="8">
-        <v>2899694</v>
-      </c>
-      <c r="K26" s="8">
-        <v>3044866</v>
-      </c>
-      <c r="L26" s="8">
-        <v>3024303</v>
-      </c>
-      <c r="M26" s="8">
-        <v>3090458</v>
-      </c>
-      <c r="N26" s="26">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="O26" s="24">
-        <f t="shared" si="1"/>
-        <v>5.2081906664887719E-2</v>
-      </c>
-      <c r="P26" s="35">
-        <f t="shared" si="2"/>
-        <v>2.1874461652817256E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="B27" s="10">
-        <v>754137</v>
-      </c>
-      <c r="C27" s="10">
-        <v>764035</v>
-      </c>
-      <c r="D27" s="10">
-        <v>772029</v>
-      </c>
-      <c r="E27" s="8">
-        <v>842023</v>
-      </c>
-      <c r="F27" s="8">
-        <v>807243</v>
-      </c>
-      <c r="G27" s="8">
-        <v>837024</v>
-      </c>
-      <c r="H27" s="8">
-        <v>861125</v>
-      </c>
-      <c r="I27" s="8">
-        <v>888116</v>
-      </c>
-      <c r="J27" s="8">
-        <v>949571</v>
-      </c>
-      <c r="K27" s="8">
-        <v>1060535</v>
-      </c>
-      <c r="L27" s="8">
-        <v>1052926</v>
-      </c>
-      <c r="M27" s="8">
-        <v>1029663</v>
-      </c>
-      <c r="N27" s="26">
-        <f t="shared" si="0"/>
+        <v>4.950802200950255E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="O27" s="24">
-        <f t="shared" si="1"/>
-        <v>1.7352383453290186E-2</v>
-      </c>
-      <c r="P27" s="35">
-        <f t="shared" si="2"/>
-        <v>-2.2093670400389009E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="B28" s="10">
-        <v>713671</v>
-      </c>
-      <c r="C28" s="10">
-        <v>732583</v>
-      </c>
-      <c r="D28" s="10">
-        <v>748707</v>
-      </c>
-      <c r="E28" s="8">
-        <v>790255</v>
-      </c>
-      <c r="F28" s="8">
-        <v>806043</v>
-      </c>
-      <c r="G28" s="8">
-        <v>821059</v>
-      </c>
-      <c r="H28" s="8">
-        <v>872731</v>
-      </c>
-      <c r="I28" s="8">
-        <v>878561</v>
-      </c>
-      <c r="J28" s="8">
-        <v>845007</v>
-      </c>
-      <c r="K28" s="8">
-        <v>937357</v>
-      </c>
-      <c r="L28" s="8">
-        <v>920651</v>
-      </c>
-      <c r="M28" s="8">
-        <v>960681</v>
-      </c>
-      <c r="N28" s="26">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="O28" s="24">
-        <f t="shared" si="1"/>
-        <v>1.6189865119257726E-2</v>
-      </c>
-      <c r="P28" s="35">
-        <f t="shared" si="2"/>
-        <v>4.3480102666482834E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="B29" s="10">
-        <v>1105769</v>
-      </c>
-      <c r="C29" s="10">
-        <v>1150039</v>
-      </c>
-      <c r="D29" s="10">
-        <v>1138630</v>
-      </c>
-      <c r="E29" s="8">
-        <v>1174432</v>
-      </c>
-      <c r="F29" s="8">
-        <v>1190841</v>
-      </c>
-      <c r="G29" s="8">
-        <v>1218530</v>
-      </c>
-      <c r="H29" s="8">
-        <v>1221282</v>
-      </c>
-      <c r="I29" s="8">
-        <v>1253123</v>
-      </c>
-      <c r="J29" s="8">
-        <v>1259897</v>
-      </c>
-      <c r="K29" s="8">
-        <v>1315432</v>
-      </c>
-      <c r="L29" s="8">
-        <v>1282326</v>
-      </c>
-      <c r="M29" s="8">
-        <v>1285079</v>
-      </c>
-      <c r="N29" s="26">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="O29" s="24">
-        <f t="shared" si="1"/>
-        <v>2.1656778553537127E-2</v>
-      </c>
-      <c r="P29" s="35">
-        <f t="shared" si="2"/>
-        <v>2.1468799665607108E-3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="B30" s="10">
-        <v>1324241</v>
-      </c>
-      <c r="C30" s="10">
-        <v>1326518</v>
-      </c>
-      <c r="D30" s="10">
-        <v>1371707</v>
-      </c>
-      <c r="E30" s="8">
-        <v>1358096</v>
-      </c>
-      <c r="F30" s="8">
-        <v>1381104</v>
-      </c>
-      <c r="G30" s="8">
-        <v>1381394</v>
-      </c>
-      <c r="H30" s="8">
-        <v>1389771</v>
-      </c>
-      <c r="I30" s="8">
-        <v>1440347</v>
-      </c>
-      <c r="J30" s="8">
-        <v>1321037</v>
-      </c>
-      <c r="K30" s="8">
-        <v>1380214</v>
-      </c>
-      <c r="L30" s="8">
-        <v>1368104</v>
-      </c>
-      <c r="M30" s="8">
-        <v>1430286</v>
-      </c>
-      <c r="N30" s="26">
+      <c r="B31" s="10">
+        <v>1253737</v>
+      </c>
+      <c r="C31" s="10">
+        <v>1356891</v>
+      </c>
+      <c r="D31" s="10">
+        <v>1372652</v>
+      </c>
+      <c r="E31" s="8">
+        <v>1326962</v>
+      </c>
+      <c r="F31" s="8">
+        <v>1347063</v>
+      </c>
+      <c r="G31" s="8">
+        <v>1355978</v>
+      </c>
+      <c r="H31" s="8">
+        <v>1391002</v>
+      </c>
+      <c r="I31" s="8">
+        <v>1438669</v>
+      </c>
+      <c r="J31" s="8">
+        <v>1395892</v>
+      </c>
+      <c r="K31" s="8">
+        <v>1451618</v>
+      </c>
+      <c r="L31" s="8">
+        <v>1441117</v>
+      </c>
+      <c r="M31" s="8">
+        <v>1434526</v>
+      </c>
+      <c r="N31" s="24">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="O30" s="24">
+      <c r="O31" s="22">
         <f t="shared" si="1"/>
-        <v>2.4103877792901761E-2</v>
-      </c>
-      <c r="P30" s="35">
+        <v>2.411759651331611E-2</v>
+      </c>
+      <c r="P31" s="33">
         <f t="shared" si="2"/>
-        <v>4.5451223006438113E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="B31" s="10">
-        <v>1253737</v>
-      </c>
-      <c r="C31" s="10">
-        <v>1356891</v>
-      </c>
-      <c r="D31" s="10">
-        <v>1372652</v>
-      </c>
-      <c r="E31" s="8">
-        <v>1386422</v>
-      </c>
-      <c r="F31" s="8">
-        <v>1412624</v>
-      </c>
-      <c r="G31" s="8">
-        <v>1422873</v>
-      </c>
-      <c r="H31" s="8">
-        <v>1464617</v>
-      </c>
-      <c r="I31" s="8">
-        <v>1512652</v>
-      </c>
-      <c r="J31" s="8">
-        <v>1478717</v>
-      </c>
-      <c r="K31" s="8">
-        <v>1451618</v>
-      </c>
-      <c r="L31" s="8">
-        <v>1402025</v>
-      </c>
-      <c r="M31" s="8">
-        <v>1459021</v>
-      </c>
-      <c r="N31" s="26">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="O31" s="24">
-        <f t="shared" si="1"/>
-        <v>2.4588134038421212E-2</v>
-      </c>
-      <c r="P31" s="35">
-        <f t="shared" si="2"/>
-        <v>4.0652627449581757E-2</v>
+        <v>-4.5735356671249283E-3</v>
       </c>
     </row>
     <row r="32" spans="1:16" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="31" t="s">
+      <c r="A32" s="29" t="s">
         <v>22</v>
       </c>
       <c r="B32" s="10">
@@ -2920,47 +2920,47 @@
         <v>988823</v>
       </c>
       <c r="E32" s="8">
-        <v>988960</v>
+        <v>956396</v>
       </c>
       <c r="F32" s="8">
-        <v>1026527</v>
+        <v>989550</v>
       </c>
       <c r="G32" s="8">
-        <v>990981</v>
+        <v>950500</v>
       </c>
       <c r="H32" s="8">
-        <v>1019337</v>
+        <v>974470</v>
       </c>
       <c r="I32" s="8">
-        <v>1076973</v>
+        <v>1030108</v>
       </c>
       <c r="J32" s="8">
-        <v>979646</v>
+        <v>941220</v>
       </c>
       <c r="K32" s="8">
         <v>1004998</v>
       </c>
       <c r="L32" s="8">
-        <v>998364</v>
+        <v>1006358</v>
       </c>
       <c r="M32" s="8">
-        <v>1029537</v>
-      </c>
-      <c r="N32" s="26">
+        <v>1048530</v>
+      </c>
+      <c r="N32" s="24">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="O32" s="24">
+      <c r="O32" s="22">
         <f t="shared" si="1"/>
-        <v>1.7350260039789737E-2</v>
-      </c>
-      <c r="P32" s="35">
+        <v>1.7628138822236294E-2</v>
+      </c>
+      <c r="P32" s="33">
         <f t="shared" si="2"/>
-        <v>3.1224082599132119E-2</v>
+        <v>4.1905564421408581E-2</v>
       </c>
     </row>
     <row r="33" spans="1:16" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="31" t="s">
+      <c r="A33" s="29" t="s">
         <v>23</v>
       </c>
       <c r="B33" s="10">
@@ -2973,47 +2973,47 @@
         <v>1537566</v>
       </c>
       <c r="E33" s="8">
-        <v>1600479</v>
+        <v>1531816</v>
       </c>
       <c r="F33" s="8">
-        <v>1633550</v>
+        <v>1560286</v>
       </c>
       <c r="G33" s="8">
-        <v>1647462</v>
+        <v>1569834</v>
       </c>
       <c r="H33" s="8">
-        <v>1697868</v>
+        <v>1618609</v>
       </c>
       <c r="I33" s="8">
-        <v>1719792</v>
+        <v>1634151</v>
       </c>
       <c r="J33" s="8">
-        <v>1685454</v>
+        <v>1597897</v>
       </c>
       <c r="K33" s="8">
         <v>1688042</v>
       </c>
       <c r="L33" s="8">
-        <v>1645758</v>
+        <v>1661586</v>
       </c>
       <c r="M33" s="8">
-        <v>1675906</v>
-      </c>
-      <c r="N33" s="26">
+        <v>1657909</v>
+      </c>
+      <c r="N33" s="24">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="O33" s="24">
+      <c r="O33" s="22">
         <f t="shared" si="1"/>
-        <v>2.8243185919732711E-2</v>
-      </c>
-      <c r="P33" s="35">
+        <v>2.7873165294874682E-2</v>
+      </c>
+      <c r="P33" s="33">
         <f t="shared" si="2"/>
-        <v>1.8318610634127319E-2</v>
+        <v>-2.2129459444170108E-3</v>
       </c>
     </row>
     <row r="34" spans="1:16" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="31" t="s">
+      <c r="A34" s="29" t="s">
         <v>24</v>
       </c>
       <c r="B34" s="10">
@@ -3026,47 +3026,47 @@
         <v>544945</v>
       </c>
       <c r="E34" s="8">
-        <v>566621</v>
+        <v>554347</v>
       </c>
       <c r="F34" s="8">
-        <v>580978</v>
+        <v>568004</v>
       </c>
       <c r="G34" s="8">
-        <v>585404</v>
+        <v>572385</v>
       </c>
       <c r="H34" s="8">
-        <v>603336</v>
+        <v>589650</v>
       </c>
       <c r="I34" s="8">
-        <v>623082</v>
+        <v>612283</v>
       </c>
       <c r="J34" s="8">
-        <v>612523</v>
+        <v>604030</v>
       </c>
       <c r="K34" s="8">
         <v>622461</v>
       </c>
       <c r="L34" s="8">
-        <v>619259</v>
+        <v>626794</v>
       </c>
       <c r="M34" s="8">
-        <v>630978</v>
-      </c>
-      <c r="N34" s="26">
+        <v>640198</v>
+      </c>
+      <c r="N34" s="24">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="O34" s="24">
+      <c r="O34" s="22">
         <f>M34/$M$38</f>
-        <v>1.0633549235614114E-2</v>
-      </c>
-      <c r="P34" s="35">
+        <v>1.0763162921154408E-2</v>
+      </c>
+      <c r="P34" s="33">
         <f t="shared" si="2"/>
-        <v>1.8924230410862108E-2</v>
+        <v>2.1385016448785432E-2</v>
       </c>
     </row>
     <row r="35" spans="1:16" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="31" t="s">
+      <c r="A35" s="29" t="s">
         <v>29</v>
       </c>
       <c r="B35" s="10">
@@ -3079,47 +3079,47 @@
         <v>3131139</v>
       </c>
       <c r="E35" s="8">
-        <v>3235550</v>
+        <v>3129878</v>
       </c>
       <c r="F35" s="8">
-        <v>3162476</v>
+        <v>3047656</v>
       </c>
       <c r="G35" s="8">
-        <v>3236584</v>
+        <v>3110269</v>
       </c>
       <c r="H35" s="8">
-        <v>3330020</v>
+        <v>3205282</v>
       </c>
       <c r="I35" s="8">
-        <v>3425529</v>
+        <v>3302869</v>
       </c>
       <c r="J35" s="8">
-        <v>3401418</v>
+        <v>3299647</v>
       </c>
       <c r="K35" s="8">
         <v>3395346</v>
       </c>
       <c r="L35" s="8">
-        <v>3399361</v>
+        <v>3382551</v>
       </c>
       <c r="M35" s="8">
-        <v>3439114</v>
-      </c>
-      <c r="N35" s="26">
+        <v>3312195</v>
+      </c>
+      <c r="N35" s="24">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="O35" s="24">
+      <c r="O35" s="22">
         <f t="shared" si="1"/>
-        <v>5.7957627755468172E-2</v>
-      </c>
-      <c r="P35" s="35">
+        <v>5.5685419841413161E-2</v>
+      </c>
+      <c r="P35" s="33">
         <f t="shared" si="2"/>
-        <v>1.1694256655883306E-2</v>
+        <v>-2.0799686390537753E-2</v>
       </c>
     </row>
     <row r="36" spans="1:16" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="31" t="s">
+      <c r="A36" s="29" t="s">
         <v>25</v>
       </c>
       <c r="B36" s="10">
@@ -3132,47 +3132,47 @@
         <v>993185</v>
       </c>
       <c r="E36" s="8">
-        <v>1010211</v>
+        <v>1018437</v>
       </c>
       <c r="F36" s="8">
-        <v>1050904</v>
+        <v>1062744</v>
       </c>
       <c r="G36" s="8">
-        <v>1043167</v>
+        <v>1061378</v>
       </c>
       <c r="H36" s="8">
-        <v>1100165</v>
+        <v>1125866</v>
       </c>
       <c r="I36" s="8">
-        <v>1111355</v>
+        <v>1150540</v>
       </c>
       <c r="J36" s="8">
-        <v>1121208</v>
+        <v>1161691</v>
       </c>
       <c r="K36" s="8">
         <v>1191156</v>
       </c>
       <c r="L36" s="8">
-        <v>1189011</v>
+        <v>1157294</v>
       </c>
       <c r="M36" s="8">
-        <v>1224460</v>
-      </c>
-      <c r="N36" s="26">
+        <v>1224639</v>
+      </c>
+      <c r="N36" s="24">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="O36" s="24">
+      <c r="O36" s="22">
         <f t="shared" si="1"/>
-        <v>2.0635197577475058E-2</v>
-      </c>
-      <c r="P36" s="35">
+        <v>2.0588925733288157E-2</v>
+      </c>
+      <c r="P36" s="33">
         <f t="shared" si="2"/>
-        <v>2.9813853698578141E-2</v>
+        <v>5.8191781863554226E-2</v>
       </c>
     </row>
     <row r="37" spans="1:16" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="31" t="s">
+      <c r="A37" s="29" t="s">
         <v>26</v>
       </c>
       <c r="B37" s="10">
@@ -3185,47 +3185,47 @@
         <v>635847</v>
       </c>
       <c r="E37" s="8">
-        <v>641538</v>
+        <v>643094</v>
       </c>
       <c r="F37" s="8">
-        <v>641085</v>
+        <v>645340</v>
       </c>
       <c r="G37" s="8">
-        <v>653709</v>
+        <v>661026</v>
       </c>
       <c r="H37" s="8">
-        <v>661187</v>
+        <v>665302</v>
       </c>
       <c r="I37" s="8">
-        <v>685491</v>
+        <v>685516</v>
       </c>
       <c r="J37" s="8">
-        <v>704127</v>
+        <v>704537</v>
       </c>
       <c r="K37" s="8">
         <v>716734</v>
       </c>
       <c r="L37" s="8">
-        <v>681082</v>
+        <v>708050</v>
       </c>
       <c r="M37" s="8">
-        <v>701598</v>
-      </c>
-      <c r="N37" s="26">
+        <v>698835</v>
+      </c>
+      <c r="N37" s="24">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="O37" s="24">
+      <c r="O37" s="22">
         <f>M37/$M$38</f>
-        <v>1.1823671945152431E-2</v>
-      </c>
-      <c r="P37" s="35">
+        <v>1.1748982283613726E-2</v>
+      </c>
+      <c r="P37" s="33">
         <f t="shared" si="2"/>
-        <v>3.0122657771017192E-2</v>
+        <v>-1.3014617611750601E-2</v>
       </c>
     </row>
     <row r="38" spans="1:16" s="2" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="33" t="s">
+      <c r="A38" s="31" t="s">
         <v>35</v>
       </c>
       <c r="B38" s="7">
@@ -3238,41 +3238,39 @@
         <v>52108400</v>
       </c>
       <c r="E38" s="7">
-        <v>53809017</v>
+        <v>52997084</v>
       </c>
       <c r="F38" s="7">
-        <v>54034800</v>
+        <v>53296175</v>
       </c>
       <c r="G38" s="7">
-        <v>54696638</v>
+        <v>54032400</v>
       </c>
       <c r="H38" s="7">
-        <v>56023199</v>
+        <v>55519394</v>
       </c>
       <c r="I38" s="7">
-        <v>57625521</v>
+        <v>57277858</v>
       </c>
       <c r="J38" s="7">
-        <f>SUM(J6:J37)</f>
-        <v>55880916</v>
+        <v>55653440</v>
       </c>
       <c r="K38" s="7">
-        <f>SUM(K6:K37)</f>
         <v>58761793</v>
       </c>
       <c r="L38" s="7">
-        <v>57668254</v>
+        <v>58307446</v>
       </c>
       <c r="M38" s="7">
-        <v>59338419</v>
+        <v>59480471</v>
       </c>
       <c r="N38" s="6"/>
-      <c r="O38" s="34">
+      <c r="O38" s="32">
         <v>1</v>
       </c>
-      <c r="P38" s="37">
+      <c r="P38" s="35">
         <f t="shared" si="2"/>
-        <v>2.8961601646548818E-2</v>
+        <v>2.0117927991563977E-2</v>
       </c>
     </row>
     <row r="39" spans="1:16" s="16" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -3292,7 +3290,7 @@
       <c r="L39" s="19"/>
       <c r="M39" s="19"/>
       <c r="N39" s="19"/>
-      <c r="O39" s="23"/>
+      <c r="O39" s="21"/>
     </row>
     <row r="40" spans="1:16" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="12" t="s">
@@ -3314,23 +3312,23 @@
       <c r="O40" s="12"/>
     </row>
     <row r="41" spans="1:16" s="18" customFormat="1" ht="22.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="21" t="s">
+      <c r="A41" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="B41" s="21"/>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21"/>
-      <c r="E41" s="21"/>
-      <c r="F41" s="21"/>
-      <c r="G41" s="21"/>
-      <c r="H41" s="21"/>
-      <c r="I41" s="21"/>
-      <c r="J41" s="21"/>
-      <c r="K41" s="21"/>
-      <c r="L41" s="21"/>
-      <c r="M41" s="21"/>
-      <c r="N41" s="21"/>
-      <c r="O41" s="21"/>
+      <c r="B41" s="37"/>
+      <c r="C41" s="37"/>
+      <c r="D41" s="37"/>
+      <c r="E41" s="37"/>
+      <c r="F41" s="37"/>
+      <c r="G41" s="37"/>
+      <c r="H41" s="37"/>
+      <c r="I41" s="37"/>
+      <c r="J41" s="37"/>
+      <c r="K41" s="37"/>
+      <c r="L41" s="37"/>
+      <c r="M41" s="37"/>
+      <c r="N41" s="37"/>
+      <c r="O41" s="37"/>
     </row>
     <row r="42" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="14" t="s">
@@ -3338,23 +3336,23 @@
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A43" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="B43" s="20"/>
-      <c r="C43" s="20"/>
-      <c r="D43" s="20"/>
-      <c r="E43" s="20"/>
-      <c r="F43" s="20"/>
-      <c r="G43" s="20"/>
-      <c r="H43" s="20"/>
-      <c r="I43" s="20"/>
-      <c r="J43" s="20"/>
-      <c r="K43" s="20"/>
-      <c r="L43" s="20"/>
-      <c r="M43" s="20"/>
-      <c r="N43" s="20"/>
-      <c r="O43" s="20"/>
+      <c r="A43" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="B43" s="36"/>
+      <c r="C43" s="36"/>
+      <c r="D43" s="36"/>
+      <c r="E43" s="36"/>
+      <c r="F43" s="36"/>
+      <c r="G43" s="36"/>
+      <c r="H43" s="36"/>
+      <c r="I43" s="36"/>
+      <c r="J43" s="36"/>
+      <c r="K43" s="36"/>
+      <c r="L43" s="36"/>
+      <c r="M43" s="36"/>
+      <c r="N43" s="36"/>
+      <c r="O43" s="36"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="5"/>

--- a/Tabulados/pea-entidad.xlsx
+++ b/Tabulados/pea-entidad.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>Aguascalientes</t>
   </si>
@@ -210,25 +210,21 @@
     </r>
   </si>
   <si>
-    <t>2021
-III Trim</t>
-  </si>
-  <si>
     <t>2022
-III Trim</t>
-  </si>
-  <si>
-    <t>Rank III trim 2022</t>
+IV Trim</t>
+  </si>
+  <si>
+    <t>Rank IV trim 2022</t>
   </si>
   <si>
     <t>% Partic Nal
-III Trim 2022</t>
-  </si>
-  <si>
-    <t>% Var III trim 2022 / III trim 2021</t>
-  </si>
-  <si>
-    <t>IV trimestre 2012 - III trimestre 2022</t>
+IV Trim 2022</t>
+  </si>
+  <si>
+    <t>% Var IV trim 2022 / IV trim 2021</t>
+  </si>
+  <si>
+    <t>IV trimestre 2012 - IV trimestre 2022</t>
   </si>
 </sst>
 </file>
@@ -1390,25 +1386,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P48"/>
+  <dimension ref="A1:O48"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="S6" sqref="S6"/>
+      <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="13.6" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.125" style="3" customWidth="1"/>
     <col min="2" max="11" width="8.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.125" style="3" customWidth="1"/>
-    <col min="13" max="13" width="8.875" style="3" customWidth="1"/>
-    <col min="14" max="14" width="10" style="3" customWidth="1"/>
-    <col min="15" max="15" width="11.375" style="3" customWidth="1"/>
-    <col min="16" max="16" width="15.125" style="3" customWidth="1"/>
-    <col min="17" max="16384" width="11.375" style="3"/>
+    <col min="12" max="12" width="8.875" style="3" customWidth="1"/>
+    <col min="13" max="13" width="10" style="3" customWidth="1"/>
+    <col min="14" max="14" width="11.375" style="3" customWidth="1"/>
+    <col min="15" max="15" width="15.125" style="3" customWidth="1"/>
+    <col min="16" max="16384" width="11.375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>30</v>
       </c>
@@ -1424,9 +1419,8 @@
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>31</v>
       </c>
@@ -1442,11 +1436,10 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1460,9 +1453,8 @@
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1476,9 +1468,8 @@
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-    </row>
-    <row r="5" spans="1:16" ht="31.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:15" ht="31.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
         <v>32</v>
       </c>
@@ -1512,23 +1503,20 @@
       <c r="K5" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="L5" s="27" t="s">
+      <c r="L5" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="M5" s="20" t="s">
+      <c r="M5" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="N5" s="26" t="s">
+      <c r="N5" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="O5" s="27" t="s">
+      <c r="O5" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="P5" s="20" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:15" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>0</v>
       </c>
@@ -1563,25 +1551,22 @@
         <v>659568</v>
       </c>
       <c r="L6" s="8">
-        <v>650144</v>
-      </c>
-      <c r="M6" s="8">
-        <v>665746</v>
-      </c>
-      <c r="N6" s="24">
-        <f>_xlfn.RANK.EQ(M6,$M$6:$M$37)</f>
+        <v>663401</v>
+      </c>
+      <c r="M6" s="24">
+        <f>_xlfn.RANK.EQ(L6,$L$6:$L$37)</f>
         <v>27</v>
       </c>
-      <c r="O6" s="22">
-        <f>M6/$M$38</f>
-        <v>1.1192682048533208E-2</v>
-      </c>
-      <c r="P6" s="33">
-        <f>M6/L6-1</f>
-        <v>2.3997760496136333E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N6" s="22">
+        <f>L6/$L$38</f>
+        <v>1.1029943808223849E-2</v>
+      </c>
+      <c r="O6" s="33">
+        <f>L6/K6-1</f>
+        <v>5.8113795696577153E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>1</v>
       </c>
@@ -1616,25 +1601,22 @@
         <v>1827448</v>
       </c>
       <c r="L7" s="8">
-        <v>1813625</v>
-      </c>
-      <c r="M7" s="8">
-        <v>1830056</v>
-      </c>
-      <c r="N7" s="24">
-        <f t="shared" ref="N7:N37" si="0">_xlfn.RANK.EQ(M7,$M$6:$M$37)</f>
-        <v>11</v>
-      </c>
-      <c r="O7" s="22">
-        <f t="shared" ref="O7:O36" si="1">M7/$M$38</f>
-        <v>3.0767342107966833E-2</v>
-      </c>
-      <c r="P7" s="33">
-        <f t="shared" ref="P7:P38" si="2">M7/L7-1</f>
-        <v>9.0597560135088351E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1848093</v>
+      </c>
+      <c r="M7" s="24">
+        <f t="shared" ref="M7:M37" si="0">_xlfn.RANK.EQ(L7,$L$6:$L$37)</f>
+        <v>12</v>
+      </c>
+      <c r="N7" s="22">
+        <f t="shared" ref="N7:N36" si="1">L7/$L$38</f>
+        <v>3.0727059414097715E-2</v>
+      </c>
+      <c r="O7" s="33">
+        <f t="shared" ref="O7:O38" si="2">L7/K7-1</f>
+        <v>1.1297175076937949E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>2</v>
       </c>
@@ -1669,78 +1651,72 @@
         <v>428748</v>
       </c>
       <c r="L8" s="8">
-        <v>424389</v>
-      </c>
-      <c r="M8" s="8">
-        <v>440461</v>
-      </c>
-      <c r="N8" s="24">
+        <v>444018</v>
+      </c>
+      <c r="M8" s="24">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="N8" s="22">
+        <f t="shared" si="1"/>
+        <v>7.3824030862780395E-3</v>
+      </c>
+      <c r="O8" s="33">
+        <f t="shared" si="2"/>
+        <v>3.561532648548793E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="10">
+        <v>404822</v>
+      </c>
+      <c r="C9" s="10">
+        <v>401356</v>
+      </c>
+      <c r="D9" s="10">
+        <v>400431</v>
+      </c>
+      <c r="E9" s="8">
+        <v>384722</v>
+      </c>
+      <c r="F9" s="8">
+        <v>382859</v>
+      </c>
+      <c r="G9" s="8">
+        <v>384263</v>
+      </c>
+      <c r="H9" s="8">
+        <v>401734</v>
+      </c>
+      <c r="I9" s="8">
+        <v>425674</v>
+      </c>
+      <c r="J9" s="8">
+        <v>416734</v>
+      </c>
+      <c r="K9" s="8">
+        <v>433926</v>
+      </c>
+      <c r="L9" s="8">
+        <v>435183</v>
+      </c>
+      <c r="M9" s="24">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="O8" s="22">
+      <c r="N9" s="22">
         <f t="shared" si="1"/>
-        <v>7.4051363850161844E-3</v>
-      </c>
-      <c r="P8" s="33">
+        <v>7.235509196239197E-3</v>
+      </c>
+      <c r="O9" s="33">
         <f t="shared" si="2"/>
-        <v>3.7870915598660737E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="10">
-        <v>404822</v>
-      </c>
-      <c r="C9" s="10">
-        <v>401356</v>
-      </c>
-      <c r="D9" s="10">
-        <v>400431</v>
-      </c>
-      <c r="E9" s="8">
-        <v>384722</v>
-      </c>
-      <c r="F9" s="8">
-        <v>382859</v>
-      </c>
-      <c r="G9" s="8">
-        <v>384263</v>
-      </c>
-      <c r="H9" s="8">
-        <v>401734</v>
-      </c>
-      <c r="I9" s="8">
-        <v>425674</v>
-      </c>
-      <c r="J9" s="8">
-        <v>416734</v>
-      </c>
-      <c r="K9" s="8">
-        <v>433926</v>
-      </c>
-      <c r="L9" s="8">
-        <v>431338</v>
-      </c>
-      <c r="M9" s="8">
-        <v>445659</v>
-      </c>
-      <c r="N9" s="24">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="O9" s="22">
-        <f t="shared" si="1"/>
-        <v>7.4925264125766588E-3</v>
-      </c>
-      <c r="P9" s="33">
-        <f t="shared" si="2"/>
-        <v>3.3201340943761037E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2.8968072897221919E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>27</v>
       </c>
@@ -1775,25 +1751,22 @@
         <v>1493537</v>
       </c>
       <c r="L10" s="8">
-        <v>1488846</v>
-      </c>
-      <c r="M10" s="8">
-        <v>1514885</v>
-      </c>
-      <c r="N10" s="24">
+        <v>1540535</v>
+      </c>
+      <c r="M10" s="24">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="O10" s="22">
+      <c r="N10" s="22">
         <f t="shared" si="1"/>
-        <v>2.5468611369940226E-2</v>
-      </c>
-      <c r="P10" s="33">
+        <v>2.5613489404752374E-2</v>
+      </c>
+      <c r="O10" s="33">
         <f t="shared" si="2"/>
-        <v>1.7489384395699803E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+        <v>3.1467583327363213E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
         <v>4</v>
       </c>
@@ -1828,25 +1801,22 @@
         <v>401993</v>
       </c>
       <c r="L11" s="8">
-        <v>394648</v>
-      </c>
-      <c r="M11" s="8">
-        <v>393280</v>
-      </c>
-      <c r="N11" s="24">
+        <v>385344</v>
+      </c>
+      <c r="M11" s="24">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="O11" s="22">
+      <c r="N11" s="22">
         <f t="shared" si="1"/>
-        <v>6.6119180529017668E-3</v>
-      </c>
-      <c r="P11" s="33">
+        <v>6.4068680433647393E-3</v>
+      </c>
+      <c r="O11" s="33">
         <f t="shared" si="2"/>
-        <v>-3.4663801666294791E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+        <v>-4.1416144062210059E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
         <v>5</v>
       </c>
@@ -1881,25 +1851,22 @@
         <v>2232786</v>
       </c>
       <c r="L12" s="8">
-        <v>2170044</v>
-      </c>
-      <c r="M12" s="8">
-        <v>2228741</v>
-      </c>
-      <c r="N12" s="24">
+        <v>2211107</v>
+      </c>
+      <c r="M12" s="24">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="O12" s="22">
+      <c r="N12" s="22">
         <f t="shared" si="1"/>
-        <v>3.7470130322269979E-2</v>
-      </c>
-      <c r="P12" s="33">
+        <v>3.6762660840080751E-2</v>
+      </c>
+      <c r="O12" s="33">
         <f t="shared" si="2"/>
-        <v>2.70487603016345E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+        <v>-9.7093944515954655E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
         <v>6</v>
       </c>
@@ -1934,25 +1901,22 @@
         <v>1777289</v>
       </c>
       <c r="L13" s="8">
-        <v>1774805</v>
-      </c>
-      <c r="M13" s="8">
-        <v>1820218</v>
-      </c>
-      <c r="N13" s="24">
+        <v>1855152</v>
+      </c>
+      <c r="M13" s="24">
         <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="O13" s="22">
+        <v>11</v>
+      </c>
+      <c r="N13" s="22">
         <f t="shared" si="1"/>
-        <v>3.0601943283199623E-2</v>
-      </c>
-      <c r="P13" s="33">
+        <v>3.084442488888936E-2</v>
+      </c>
+      <c r="O13" s="33">
         <f t="shared" si="2"/>
-        <v>2.5587599764481217E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+        <v>4.380998250706547E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
         <v>33</v>
       </c>
@@ -1987,25 +1951,22 @@
         <v>4744648</v>
       </c>
       <c r="L14" s="8">
-        <v>4724127</v>
-      </c>
-      <c r="M14" s="8">
-        <v>4798534</v>
-      </c>
-      <c r="N14" s="24">
+        <v>4921131</v>
+      </c>
+      <c r="M14" s="24">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="O14" s="22">
+      <c r="N14" s="22">
         <f t="shared" si="1"/>
-        <v>8.0674108986124204E-2</v>
-      </c>
-      <c r="P14" s="33">
+        <v>8.1820495300592613E-2</v>
+      </c>
+      <c r="O14" s="33">
         <f t="shared" si="2"/>
-        <v>1.575042330572396E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+        <v>3.7196226147861777E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
         <v>7</v>
       </c>
@@ -2040,25 +2001,22 @@
         <v>836016</v>
       </c>
       <c r="L15" s="8">
-        <v>842334</v>
-      </c>
-      <c r="M15" s="8">
-        <v>855086</v>
-      </c>
-      <c r="N15" s="24">
+        <v>824826</v>
+      </c>
+      <c r="M15" s="24">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="O15" s="22">
+      <c r="N15" s="22">
         <f t="shared" si="1"/>
-        <v>1.4375911717309703E-2</v>
-      </c>
-      <c r="P15" s="33">
+        <v>1.3713853960970884E-2</v>
+      </c>
+      <c r="O15" s="33">
         <f t="shared" si="2"/>
-        <v>1.5138887899574183E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+        <v>-1.3384911293563784E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>8</v>
       </c>
@@ -2093,25 +2051,22 @@
         <v>2799197</v>
       </c>
       <c r="L16" s="8">
-        <v>2830259</v>
-      </c>
-      <c r="M16" s="8">
-        <v>2848237</v>
-      </c>
-      <c r="N16" s="24">
+        <v>2842643</v>
+      </c>
+      <c r="M16" s="24">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="O16" s="22">
+      <c r="N16" s="22">
         <f t="shared" si="1"/>
-        <v>4.7885246234852442E-2</v>
-      </c>
-      <c r="P16" s="33">
+        <v>4.7262805688928523E-2</v>
+      </c>
+      <c r="O16" s="33">
         <f t="shared" si="2"/>
-        <v>6.352068838929581E-3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1.552087973801064E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
         <v>9</v>
       </c>
@@ -2146,25 +2101,22 @@
         <v>1506516</v>
       </c>
       <c r="L17" s="8">
-        <v>1526815</v>
-      </c>
-      <c r="M17" s="8">
-        <v>1557236</v>
-      </c>
-      <c r="N17" s="24">
+        <v>1599844</v>
+      </c>
+      <c r="M17" s="24">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="O17" s="22">
+      <c r="N17" s="22">
         <f t="shared" si="1"/>
-        <v>2.6180626579100221E-2</v>
-      </c>
-      <c r="P17" s="33">
+        <v>2.6599582186225341E-2</v>
+      </c>
+      <c r="O17" s="33">
         <f t="shared" si="2"/>
-        <v>1.9924483319852193E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+        <v>6.1949557787637222E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="29" t="s">
         <v>10</v>
       </c>
@@ -2199,25 +2151,22 @@
         <v>1405819</v>
       </c>
       <c r="L18" s="8">
-        <v>1377006</v>
-      </c>
-      <c r="M18" s="8">
-        <v>1466506</v>
-      </c>
-      <c r="N18" s="24">
+        <v>1483290</v>
+      </c>
+      <c r="M18" s="24">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="O18" s="22">
+      <c r="N18" s="22">
         <f t="shared" si="1"/>
-        <v>2.4655251973374589E-2</v>
-      </c>
-      <c r="P18" s="33">
+        <v>2.466171343018831E-2</v>
+      </c>
+      <c r="O18" s="33">
         <f t="shared" si="2"/>
-        <v>6.4996085710592455E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+        <v>5.5107378688152631E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="30" t="s">
         <v>11</v>
       </c>
@@ -2252,25 +2201,22 @@
         <v>4050154</v>
       </c>
       <c r="L19" s="9">
-        <v>3959500</v>
-      </c>
-      <c r="M19" s="9">
-        <v>4140158</v>
-      </c>
-      <c r="N19" s="25">
-        <f>_xlfn.RANK.EQ(M19,$M$6:$M$37)</f>
+        <v>4164627</v>
+      </c>
+      <c r="M19" s="25">
+        <f>_xlfn.RANK.EQ(L19,$L$6:$L$37)</f>
         <v>3</v>
       </c>
-      <c r="O19" s="23">
-        <f>M19/$M$38</f>
-        <v>6.9605333152119794E-2</v>
-      </c>
-      <c r="P19" s="34">
+      <c r="N19" s="23">
+        <f>L19/$L$38</f>
+        <v>6.9242587503202238E-2</v>
+      </c>
+      <c r="O19" s="34">
         <f t="shared" si="2"/>
-        <v>4.5626467988382435E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2.8263863546917012E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="29" t="s">
         <v>12</v>
       </c>
@@ -2305,25 +2251,22 @@
         <v>7981849</v>
       </c>
       <c r="L20" s="8">
-        <v>7956825</v>
-      </c>
-      <c r="M20" s="8">
-        <v>8184570</v>
-      </c>
-      <c r="N20" s="24">
+        <v>8217291</v>
+      </c>
+      <c r="M20" s="24">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="O20" s="22">
+      <c r="N20" s="22">
         <f t="shared" si="1"/>
-        <v>0.13760096149877496</v>
-      </c>
-      <c r="P20" s="33">
+        <v>0.13662363786883586</v>
+      </c>
+      <c r="O20" s="33">
         <f t="shared" si="2"/>
-        <v>2.8622597581321685E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2.9497175403844444E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="29" t="s">
         <v>28</v>
       </c>
@@ -2358,25 +2301,22 @@
         <v>2165988</v>
       </c>
       <c r="L21" s="8">
-        <v>2173381</v>
-      </c>
-      <c r="M21" s="8">
-        <v>2251196</v>
-      </c>
-      <c r="N21" s="24">
+        <v>2246319</v>
+      </c>
+      <c r="M21" s="24">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="O21" s="22">
+      <c r="N21" s="22">
         <f t="shared" si="1"/>
-        <v>3.7847649188924547E-2</v>
-      </c>
-      <c r="P21" s="33">
+        <v>3.7348108226164252E-2</v>
+      </c>
+      <c r="O21" s="33">
         <f t="shared" si="2"/>
-        <v>3.5803662588381968E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+        <v>3.7087463088438133E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="29" t="s">
         <v>13</v>
       </c>
@@ -2411,25 +2351,22 @@
         <v>850676</v>
       </c>
       <c r="L22" s="8">
-        <v>857820</v>
-      </c>
-      <c r="M22" s="8">
-        <v>869977</v>
-      </c>
-      <c r="N22" s="24">
+        <v>883075</v>
+      </c>
+      <c r="M22" s="24">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="O22" s="22">
+      <c r="N22" s="22">
         <f t="shared" si="1"/>
-        <v>1.4626262794724676E-2</v>
-      </c>
-      <c r="P22" s="33">
+        <v>1.4682322800911177E-2</v>
+      </c>
+      <c r="O22" s="33">
         <f t="shared" si="2"/>
-        <v>1.4171970809726986E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+        <v>3.808618087262361E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
         <v>14</v>
       </c>
@@ -2464,25 +2401,22 @@
         <v>609847</v>
       </c>
       <c r="L23" s="8">
-        <v>600692</v>
-      </c>
-      <c r="M23" s="8">
-        <v>621582</v>
-      </c>
-      <c r="N23" s="24">
+        <v>622716</v>
+      </c>
+      <c r="M23" s="24">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="O23" s="22">
+      <c r="N23" s="22">
         <f t="shared" si="1"/>
-        <v>1.0450186246843943E-2</v>
-      </c>
-      <c r="P23" s="33">
+        <v>1.0353500354207972E-2</v>
+      </c>
+      <c r="O23" s="33">
         <f t="shared" si="2"/>
-        <v>3.4776557703448674E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2.1102014111736178E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
         <v>15</v>
       </c>
@@ -2517,25 +2451,22 @@
         <v>2892673</v>
       </c>
       <c r="L24" s="8">
-        <v>2866655</v>
-      </c>
-      <c r="M24" s="8">
-        <v>2889879</v>
-      </c>
-      <c r="N24" s="24">
+        <v>2919303</v>
+      </c>
+      <c r="M24" s="24">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="O24" s="22">
+      <c r="N24" s="22">
         <f t="shared" si="1"/>
-        <v>4.8585341565301324E-2</v>
-      </c>
-      <c r="P24" s="33">
+        <v>4.8537382441659435E-2</v>
+      </c>
+      <c r="O24" s="33">
         <f t="shared" si="2"/>
-        <v>8.1014283197664572E-3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+        <v>9.2060181015967135E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="29" t="s">
         <v>16</v>
       </c>
@@ -2570,25 +2501,22 @@
         <v>1854356</v>
       </c>
       <c r="L25" s="8">
-        <v>1783913</v>
-      </c>
-      <c r="M25" s="8">
-        <v>1920622</v>
-      </c>
-      <c r="N25" s="24">
+        <v>1930924</v>
+      </c>
+      <c r="M25" s="24">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="O25" s="22">
+      <c r="N25" s="22">
         <f t="shared" si="1"/>
-        <v>3.2289959506204988E-2</v>
-      </c>
-      <c r="P25" s="33">
+        <v>3.210423743399668E-2</v>
+      </c>
+      <c r="O25" s="33">
         <f t="shared" si="2"/>
-        <v>7.6634342594061433E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+        <v>4.1290884813919293E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="29" t="s">
         <v>17</v>
       </c>
@@ -2623,25 +2551,22 @@
         <v>3044866</v>
       </c>
       <c r="L26" s="8">
-        <v>2999739</v>
-      </c>
-      <c r="M26" s="8">
-        <v>2995755</v>
-      </c>
-      <c r="N26" s="24">
+        <v>3016552</v>
+      </c>
+      <c r="M26" s="24">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="O26" s="22">
+      <c r="N26" s="22">
         <f t="shared" si="1"/>
-        <v>5.0365354369840146E-2</v>
-      </c>
-      <c r="P26" s="33">
+        <v>5.0154279319122627E-2</v>
+      </c>
+      <c r="O26" s="33">
         <f t="shared" si="2"/>
-        <v>-1.3281155460524996E-3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+        <v>-9.2989313815452501E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="29" t="s">
         <v>18</v>
       </c>
@@ -2676,25 +2601,22 @@
         <v>1060535</v>
       </c>
       <c r="L27" s="8">
-        <v>1087188</v>
-      </c>
-      <c r="M27" s="8">
-        <v>1066235</v>
-      </c>
-      <c r="N27" s="24">
+        <v>1111103</v>
+      </c>
+      <c r="M27" s="24">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="O27" s="22">
+      <c r="N27" s="22">
         <f t="shared" si="1"/>
-        <v>1.7925799545198625E-2</v>
-      </c>
-      <c r="P27" s="33">
+        <v>1.8473598404507897E-2</v>
+      </c>
+      <c r="O27" s="33">
         <f t="shared" si="2"/>
-        <v>-1.9272655695243168E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+        <v>4.7681594666842742E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="29" t="s">
         <v>19</v>
       </c>
@@ -2729,25 +2651,22 @@
         <v>937357</v>
       </c>
       <c r="L28" s="8">
-        <v>930444</v>
-      </c>
-      <c r="M28" s="8">
-        <v>962278</v>
-      </c>
-      <c r="N28" s="24">
+        <v>987173</v>
+      </c>
+      <c r="M28" s="24">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="O28" s="22">
+      <c r="N28" s="22">
         <f t="shared" si="1"/>
-        <v>1.617804943071147E-2</v>
-      </c>
-      <c r="P28" s="33">
+        <v>1.6413093617579356E-2</v>
+      </c>
+      <c r="O28" s="33">
         <f t="shared" si="2"/>
-        <v>3.4213773209349485E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+        <v>5.3145173077066676E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="29" t="s">
         <v>34</v>
       </c>
@@ -2782,25 +2701,22 @@
         <v>1315432</v>
       </c>
       <c r="L29" s="8">
-        <v>1311741</v>
-      </c>
-      <c r="M29" s="8">
-        <v>1282616</v>
-      </c>
-      <c r="N29" s="24">
+        <v>1306723</v>
+      </c>
+      <c r="M29" s="24">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="O29" s="22">
+      <c r="N29" s="22">
         <f t="shared" si="1"/>
-        <v>2.1563649016834451E-2</v>
-      </c>
-      <c r="P29" s="33">
+        <v>2.1726046935283023E-2</v>
+      </c>
+      <c r="O29" s="33">
         <f t="shared" si="2"/>
-        <v>-2.2203316050958266E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+        <v>-6.6206386951206397E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="29" t="s">
         <v>20</v>
       </c>
@@ -2835,78 +2751,72 @@
         <v>1380214</v>
       </c>
       <c r="L30" s="8">
-        <v>1347418</v>
-      </c>
-      <c r="M30" s="8">
-        <v>1414126</v>
-      </c>
-      <c r="N30" s="24">
+        <v>1466293</v>
+      </c>
+      <c r="M30" s="24">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="N30" s="22">
+        <f t="shared" si="1"/>
+        <v>2.437911519034788E-2</v>
+      </c>
+      <c r="O30" s="33">
+        <f t="shared" si="2"/>
+        <v>6.2366415642791662E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="B31" s="10">
+        <v>1253737</v>
+      </c>
+      <c r="C31" s="10">
+        <v>1356891</v>
+      </c>
+      <c r="D31" s="10">
+        <v>1372652</v>
+      </c>
+      <c r="E31" s="8">
+        <v>1326962</v>
+      </c>
+      <c r="F31" s="8">
+        <v>1347063</v>
+      </c>
+      <c r="G31" s="8">
+        <v>1355978</v>
+      </c>
+      <c r="H31" s="8">
+        <v>1391002</v>
+      </c>
+      <c r="I31" s="8">
+        <v>1438669</v>
+      </c>
+      <c r="J31" s="8">
+        <v>1395892</v>
+      </c>
+      <c r="K31" s="8">
+        <v>1451618</v>
+      </c>
+      <c r="L31" s="8">
+        <v>1445570</v>
+      </c>
+      <c r="M31" s="24">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="O30" s="22">
+      <c r="N31" s="22">
         <f t="shared" si="1"/>
-        <v>2.377462680145892E-2</v>
-      </c>
-      <c r="P30" s="33">
+        <v>2.4034567133384109E-2</v>
+      </c>
+      <c r="O31" s="33">
         <f t="shared" si="2"/>
-        <v>4.950802200950255E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="B31" s="10">
-        <v>1253737</v>
-      </c>
-      <c r="C31" s="10">
-        <v>1356891</v>
-      </c>
-      <c r="D31" s="10">
-        <v>1372652</v>
-      </c>
-      <c r="E31" s="8">
-        <v>1326962</v>
-      </c>
-      <c r="F31" s="8">
-        <v>1347063</v>
-      </c>
-      <c r="G31" s="8">
-        <v>1355978</v>
-      </c>
-      <c r="H31" s="8">
-        <v>1391002</v>
-      </c>
-      <c r="I31" s="8">
-        <v>1438669</v>
-      </c>
-      <c r="J31" s="8">
-        <v>1395892</v>
-      </c>
-      <c r="K31" s="8">
-        <v>1451618</v>
-      </c>
-      <c r="L31" s="8">
-        <v>1441117</v>
-      </c>
-      <c r="M31" s="8">
-        <v>1434526</v>
-      </c>
-      <c r="N31" s="24">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="O31" s="22">
-        <f t="shared" si="1"/>
-        <v>2.411759651331611E-2</v>
-      </c>
-      <c r="P31" s="33">
-        <f t="shared" si="2"/>
-        <v>-4.5735356671249283E-3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+        <v>-4.1663853713580501E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="29" t="s">
         <v>22</v>
       </c>
@@ -2941,25 +2851,22 @@
         <v>1004998</v>
       </c>
       <c r="L32" s="8">
-        <v>1006358</v>
-      </c>
-      <c r="M32" s="8">
-        <v>1048530</v>
-      </c>
-      <c r="N32" s="24">
+        <v>1089415</v>
+      </c>
+      <c r="M32" s="24">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="O32" s="22">
+      <c r="N32" s="22">
         <f t="shared" si="1"/>
-        <v>1.7628138822236294E-2</v>
-      </c>
-      <c r="P32" s="33">
+        <v>1.8113005910205419E-2</v>
+      </c>
+      <c r="O32" s="33">
         <f t="shared" si="2"/>
-        <v>4.1905564421408581E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+        <v>8.3997182083944466E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="29" t="s">
         <v>23</v>
       </c>
@@ -2994,25 +2901,22 @@
         <v>1688042</v>
       </c>
       <c r="L33" s="8">
-        <v>1661586</v>
-      </c>
-      <c r="M33" s="8">
-        <v>1657909</v>
-      </c>
-      <c r="N33" s="24">
+        <v>1672565</v>
+      </c>
+      <c r="M33" s="24">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="O33" s="22">
+      <c r="N33" s="22">
         <f t="shared" si="1"/>
-        <v>2.7873165294874682E-2</v>
-      </c>
-      <c r="P33" s="33">
+        <v>2.7808667707166439E-2</v>
+      </c>
+      <c r="O33" s="33">
         <f t="shared" si="2"/>
-        <v>-2.2129459444170108E-3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+        <v>-9.1686107336191869E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="29" t="s">
         <v>24</v>
       </c>
@@ -3047,25 +2951,22 @@
         <v>622461</v>
       </c>
       <c r="L34" s="8">
-        <v>626794</v>
-      </c>
-      <c r="M34" s="8">
-        <v>640198</v>
-      </c>
-      <c r="N34" s="24">
+        <v>648539</v>
+      </c>
+      <c r="M34" s="24">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="O34" s="22">
-        <f>M34/$M$38</f>
-        <v>1.0763162921154408E-2</v>
-      </c>
-      <c r="P34" s="33">
+      <c r="N34" s="22">
+        <f>L34/$L$38</f>
+        <v>1.0782842846847815E-2</v>
+      </c>
+      <c r="O34" s="33">
         <f t="shared" si="2"/>
-        <v>2.1385016448785432E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+        <v>4.1894994224537685E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="29" t="s">
         <v>29</v>
       </c>
@@ -3100,25 +3001,22 @@
         <v>3395346</v>
       </c>
       <c r="L35" s="8">
-        <v>3382551</v>
-      </c>
-      <c r="M35" s="8">
-        <v>3312195</v>
-      </c>
-      <c r="N35" s="24">
+        <v>3428792</v>
+      </c>
+      <c r="M35" s="24">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="O35" s="22">
+      <c r="N35" s="22">
         <f t="shared" si="1"/>
-        <v>5.5685419841413161E-2</v>
-      </c>
-      <c r="P35" s="33">
+        <v>5.7008329939339061E-2</v>
+      </c>
+      <c r="O35" s="33">
         <f t="shared" si="2"/>
-        <v>-2.0799686390537753E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+        <v>9.8505424778505546E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="29" t="s">
         <v>25</v>
       </c>
@@ -3153,25 +3051,22 @@
         <v>1191156</v>
       </c>
       <c r="L36" s="8">
-        <v>1157294</v>
-      </c>
-      <c r="M36" s="8">
-        <v>1224639</v>
-      </c>
-      <c r="N36" s="24">
+        <v>1241444</v>
+      </c>
+      <c r="M36" s="24">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="O36" s="22">
+      <c r="N36" s="22">
         <f t="shared" si="1"/>
-        <v>2.0588925733288157E-2</v>
-      </c>
-      <c r="P36" s="33">
+        <v>2.0640694784989245E-2</v>
+      </c>
+      <c r="O36" s="33">
         <f t="shared" si="2"/>
-        <v>5.8191781863554226E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+        <v>4.2217811940669314E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="29" t="s">
         <v>26</v>
       </c>
@@ -3206,25 +3101,22 @@
         <v>716734</v>
       </c>
       <c r="L37" s="8">
-        <v>708050</v>
-      </c>
-      <c r="M37" s="8">
-        <v>698835</v>
-      </c>
-      <c r="N37" s="24">
+        <v>692465</v>
+      </c>
+      <c r="M37" s="24">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="O37" s="22">
-        <f>M37/$M$38</f>
-        <v>1.1748982283613726E-2</v>
-      </c>
-      <c r="P37" s="33">
+      <c r="N37" s="22">
+        <f>L37/$L$38</f>
+        <v>1.1513172333417839E-2</v>
+      </c>
+      <c r="O37" s="33">
         <f t="shared" si="2"/>
-        <v>-1.3014617611750601E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" s="2" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+        <v>-3.3860539614417595E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" s="2" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="31" t="s">
         <v>35</v>
       </c>
@@ -3259,21 +3151,18 @@
         <v>58761793</v>
       </c>
       <c r="L38" s="7">
-        <v>58307446</v>
-      </c>
-      <c r="M38" s="7">
-        <v>59480471</v>
-      </c>
-      <c r="N38" s="6"/>
-      <c r="O38" s="32">
+        <v>60145456</v>
+      </c>
+      <c r="M38" s="6"/>
+      <c r="N38" s="32">
         <v>1</v>
       </c>
-      <c r="P38" s="35">
+      <c r="O38" s="35">
         <f t="shared" si="2"/>
-        <v>2.0117927991563977E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" s="16" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
+        <v>2.3546984007108085E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" s="16" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="15" t="s">
         <v>37</v>
       </c>
@@ -3289,10 +3178,9 @@
       <c r="K39" s="19"/>
       <c r="L39" s="19"/>
       <c r="M39" s="19"/>
-      <c r="N39" s="19"/>
-      <c r="O39" s="21"/>
-    </row>
-    <row r="40" spans="1:16" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N39" s="21"/>
+    </row>
+    <row r="40" spans="1:15" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="12" t="s">
         <v>38</v>
       </c>
@@ -3309,9 +3197,8 @@
       <c r="L40" s="12"/>
       <c r="M40" s="12"/>
       <c r="N40" s="12"/>
-      <c r="O40" s="12"/>
-    </row>
-    <row r="41" spans="1:16" s="18" customFormat="1" ht="22.6" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:15" s="18" customFormat="1" ht="22.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="37" t="s">
         <v>36</v>
       </c>
@@ -3328,14 +3215,13 @@
       <c r="L41" s="37"/>
       <c r="M41" s="37"/>
       <c r="N41" s="37"/>
-      <c r="O41" s="37"/>
-    </row>
-    <row r="42" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="14" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="36" t="s">
         <v>50</v>
       </c>
@@ -3352,33 +3238,32 @@
       <c r="L43" s="36"/>
       <c r="M43" s="36"/>
       <c r="N43" s="36"/>
-      <c r="O43" s="36"/>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="5"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="5"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
@@ -3386,8 +3271,8 @@
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A43:O43"/>
-    <mergeCell ref="A41:O41"/>
+    <mergeCell ref="A43:N43"/>
+    <mergeCell ref="A41:N41"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.79" right="0.79" top="0.98" bottom="0.98" header="0" footer="0"/>

--- a/Tabulados/pea-entidad.xlsx
+++ b/Tabulados/pea-entidad.xlsx
@@ -1,25 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\UEF\Actualizaciones pagina\Tabulados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\susan\OneDrive\Documentos\IIEG\Actualizaciones pagina\Tabulados\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0841F55-746B-4E1C-A79E-D620A57CCCD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21573" windowHeight="9401"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PEA" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>Aguascalientes</t>
   </si>
@@ -214,23 +226,31 @@
 IV Trim</t>
   </si>
   <si>
-    <t>Rank IV trim 2022</t>
+    <t>2022
+I Trim</t>
+  </si>
+  <si>
+    <t>2023
+I Trim</t>
+  </si>
+  <si>
+    <t>Rank I trim 2023</t>
   </si>
   <si>
     <t>% Partic Nal
-IV Trim 2022</t>
-  </si>
-  <si>
-    <t>% Var IV trim 2022 / IV trim 2021</t>
-  </si>
-  <si>
-    <t>IV trimestre 2012 - IV trimestre 2022</t>
+I Trim 2023</t>
+  </si>
+  <si>
+    <t>% Var I trim 2023 / I trim 2022</t>
+  </si>
+  <si>
+    <t>IV trimestre 2012 - I trimestre 2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
@@ -938,7 +958,7 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -951,26 +971,26 @@
     </xf>
     <xf numFmtId="3" fontId="22" fillId="36" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="22" fillId="36" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="23" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="23" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="22" fillId="39" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="22" fillId="39" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="23" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="23" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="22" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="22" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="45" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="45" applyFont="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="29" fillId="34" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="29" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="29" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="24" fillId="37" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -982,12 +1002,6 @@
     </xf>
     <xf numFmtId="10" fontId="22" fillId="38" borderId="0" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="23" fillId="35" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="22" fillId="39" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="37" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1017,38 +1031,56 @@
     <xf numFmtId="164" fontId="22" fillId="36" borderId="4" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="34" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="23" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="23" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="22" fillId="39" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="22" fillId="39" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="23" fillId="35" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="22" fillId="39" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="60">
     <cellStyle name="20% - Énfasis1" xfId="1" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis1 2" xfId="48"/>
+    <cellStyle name="20% - Énfasis1 2" xfId="48" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="20% - Énfasis2" xfId="2" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis2 2" xfId="50"/>
+    <cellStyle name="20% - Énfasis2 2" xfId="50" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="20% - Énfasis3" xfId="3" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis3 2" xfId="52"/>
+    <cellStyle name="20% - Énfasis3 2" xfId="52" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
     <cellStyle name="20% - Énfasis4" xfId="4" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis4 2" xfId="54"/>
+    <cellStyle name="20% - Énfasis4 2" xfId="54" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
     <cellStyle name="20% - Énfasis5" xfId="5" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis5 2" xfId="56"/>
+    <cellStyle name="20% - Énfasis5 2" xfId="56" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
     <cellStyle name="20% - Énfasis6" xfId="6" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis6 2" xfId="58"/>
+    <cellStyle name="20% - Énfasis6 2" xfId="58" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
     <cellStyle name="40% - Énfasis1" xfId="7" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis1 2" xfId="49"/>
+    <cellStyle name="40% - Énfasis1 2" xfId="49" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
     <cellStyle name="40% - Énfasis2" xfId="8" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis2 2" xfId="51"/>
+    <cellStyle name="40% - Énfasis2 2" xfId="51" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
     <cellStyle name="40% - Énfasis3" xfId="9" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis3 2" xfId="53"/>
+    <cellStyle name="40% - Énfasis3 2" xfId="53" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
     <cellStyle name="40% - Énfasis4" xfId="10" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis4 2" xfId="55"/>
+    <cellStyle name="40% - Énfasis4 2" xfId="55" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
     <cellStyle name="40% - Énfasis5" xfId="11" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis5 2" xfId="57"/>
+    <cellStyle name="40% - Énfasis5 2" xfId="57" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
     <cellStyle name="40% - Énfasis6" xfId="12" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis6 2" xfId="59"/>
+    <cellStyle name="40% - Énfasis6 2" xfId="59" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
     <cellStyle name="60% - Énfasis1" xfId="13" builtinId="32" customBuiltin="1"/>
     <cellStyle name="60% - Énfasis2" xfId="14" builtinId="36" customBuiltin="1"/>
     <cellStyle name="60% - Énfasis3" xfId="15" builtinId="40" customBuiltin="1"/>
@@ -1071,11 +1103,11 @@
     <cellStyle name="Incorrecto" xfId="31" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="32" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="33"/>
-    <cellStyle name="Normal 3" xfId="45"/>
-    <cellStyle name="Normal_INDICA8" xfId="34"/>
+    <cellStyle name="Normal 2" xfId="33" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
+    <cellStyle name="Normal 3" xfId="45" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
+    <cellStyle name="Normal_INDICA8" xfId="34" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
     <cellStyle name="Notas" xfId="35" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Notas 2" xfId="47"/>
+    <cellStyle name="Notas 2" xfId="47" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
     <cellStyle name="Porcentaje" xfId="36" builtinId="5"/>
     <cellStyle name="Salida" xfId="37" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Texto de advertencia" xfId="38" builtinId="11" customBuiltin="1"/>
@@ -1083,7 +1115,7 @@
     <cellStyle name="Título" xfId="40" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Título 2" xfId="42" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Título 3" xfId="43" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Título 4" xfId="46"/>
+    <cellStyle name="Título 4" xfId="46" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
     <cellStyle name="Total" xfId="44" builtinId="25" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1175,6 +1207,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1210,6 +1259,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1385,25 +1451,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O48"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Q48"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="R20" sqref="R20"/>
+      <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="13.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.125" style="3" customWidth="1"/>
-    <col min="2" max="11" width="8.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.875" style="3" customWidth="1"/>
-    <col min="13" max="13" width="10" style="3" customWidth="1"/>
-    <col min="14" max="14" width="11.375" style="3" customWidth="1"/>
-    <col min="15" max="15" width="15.125" style="3" customWidth="1"/>
-    <col min="16" max="16384" width="11.375" style="3"/>
+    <col min="1" max="1" width="24.109375" style="3" customWidth="1"/>
+    <col min="2" max="14" width="9.77734375" style="3" customWidth="1"/>
+    <col min="15" max="15" width="10" style="3" customWidth="1"/>
+    <col min="16" max="16" width="11.33203125" style="3" customWidth="1"/>
+    <col min="17" max="17" width="15.88671875" style="3" customWidth="1"/>
+    <col min="18" max="16384" width="11.33203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>30</v>
       </c>
@@ -1419,8 +1484,10 @@
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>31</v>
       </c>
@@ -1436,10 +1503,12 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1453,8 +1522,10 @@
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1468,56 +1539,64 @@
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
-    </row>
-    <row r="5" spans="1:15" ht="31.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="28" t="s">
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+    </row>
+    <row r="5" spans="1:17" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="27" t="s">
+      <c r="E5" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="27" t="s">
+      <c r="F5" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="G5" s="27" t="s">
+      <c r="G5" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="H5" s="27" t="s">
+      <c r="H5" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="I5" s="27" t="s">
+      <c r="I5" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="J5" s="27" t="s">
+      <c r="J5" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="K5" s="27" t="s">
+      <c r="K5" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="L5" s="20" t="s">
+      <c r="L5" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="M5" s="26" t="s">
+      <c r="M5" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="N5" s="27" t="s">
+      <c r="N5" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="O5" s="20" t="s">
+      <c r="O5" s="25" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="29" t="s">
+      <c r="P5" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q5" s="20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="27" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="10">
@@ -1553,21 +1632,27 @@
       <c r="L6" s="8">
         <v>663401</v>
       </c>
-      <c r="M6" s="24">
-        <f>_xlfn.RANK.EQ(L6,$L$6:$L$37)</f>
+      <c r="M6" s="40">
+        <v>647529</v>
+      </c>
+      <c r="N6" s="36">
+        <v>666772</v>
+      </c>
+      <c r="O6" s="37">
+        <f>_xlfn.RANK.EQ(N6,$N$6:$N$37)</f>
         <v>27</v>
       </c>
-      <c r="N6" s="22">
-        <f>L6/$L$38</f>
-        <v>1.1029943808223849E-2</v>
-      </c>
-      <c r="O6" s="33">
-        <f>L6/K6-1</f>
-        <v>5.8113795696577153E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="29" t="s">
+      <c r="P6" s="22">
+        <f>N6/$N$38</f>
+        <v>1.1096350119392289E-2</v>
+      </c>
+      <c r="Q6" s="31">
+        <f>N6/M6-1</f>
+        <v>2.9717587938146384E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="27" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="10">
@@ -1603,21 +1688,27 @@
       <c r="L7" s="8">
         <v>1848093</v>
       </c>
-      <c r="M7" s="24">
-        <f t="shared" ref="M7:M37" si="0">_xlfn.RANK.EQ(L7,$L$6:$L$37)</f>
-        <v>12</v>
-      </c>
-      <c r="N7" s="22">
-        <f t="shared" ref="N7:N36" si="1">L7/$L$38</f>
-        <v>3.0727059414097715E-2</v>
-      </c>
-      <c r="O7" s="33">
-        <f t="shared" ref="O7:O38" si="2">L7/K7-1</f>
-        <v>1.1297175076937949E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="29" t="s">
+      <c r="M7" s="40">
+        <v>1804722</v>
+      </c>
+      <c r="N7" s="36">
+        <v>1823719</v>
+      </c>
+      <c r="O7" s="37">
+        <f t="shared" ref="O7:O37" si="0">_xlfn.RANK.EQ(N7,$N$6:$N$37)</f>
+        <v>11</v>
+      </c>
+      <c r="P7" s="22">
+        <f>N7/$N$38</f>
+        <v>3.0350141492726128E-2</v>
+      </c>
+      <c r="Q7" s="31">
+        <f t="shared" ref="Q7:Q38" si="1">N7/M7-1</f>
+        <v>1.0526274960908077E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="27" t="s">
         <v>2</v>
       </c>
       <c r="B8" s="10">
@@ -1653,21 +1744,27 @@
       <c r="L8" s="8">
         <v>444018</v>
       </c>
-      <c r="M8" s="24">
+      <c r="M8" s="40">
+        <v>433220</v>
+      </c>
+      <c r="N8" s="36">
+        <v>447241</v>
+      </c>
+      <c r="O8" s="37">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="N8" s="22">
+      <c r="P8" s="22">
+        <f t="shared" ref="P7:P37" si="2">N8/$N$38</f>
+        <v>7.4429381014006687E-3</v>
+      </c>
+      <c r="Q8" s="31">
         <f t="shared" si="1"/>
-        <v>7.3824030862780395E-3</v>
-      </c>
-      <c r="O8" s="33">
-        <f t="shared" si="2"/>
-        <v>3.561532648548793E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="29" t="s">
+        <v>3.2364618438668558E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="27" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="10">
@@ -1703,21 +1800,27 @@
       <c r="L9" s="8">
         <v>435183</v>
       </c>
-      <c r="M9" s="24">
+      <c r="M9" s="40">
+        <v>436070</v>
+      </c>
+      <c r="N9" s="36">
+        <v>439175</v>
+      </c>
+      <c r="O9" s="37">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="N9" s="22">
+      <c r="P9" s="22">
+        <f t="shared" si="2"/>
+        <v>7.3087045702040707E-3</v>
+      </c>
+      <c r="Q9" s="31">
         <f t="shared" si="1"/>
-        <v>7.235509196239197E-3</v>
-      </c>
-      <c r="O9" s="33">
-        <f t="shared" si="2"/>
-        <v>2.8968072897221919E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="29" t="s">
+        <v>7.1204164469007569E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="27" t="s">
         <v>27</v>
       </c>
       <c r="B10" s="10">
@@ -1753,721 +1856,811 @@
       <c r="L10" s="8">
         <v>1540535</v>
       </c>
-      <c r="M10" s="24">
+      <c r="M10" s="40">
+        <v>1488638</v>
+      </c>
+      <c r="N10" s="36">
+        <v>1517226</v>
+      </c>
+      <c r="O10" s="37">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="P10" s="22">
+        <f t="shared" si="2"/>
+        <v>2.5249516935691788E-2</v>
+      </c>
+      <c r="Q10" s="31">
+        <f t="shared" si="1"/>
+        <v>1.920413156187073E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="10">
+        <v>344603</v>
+      </c>
+      <c r="C11" s="10">
+        <v>357271</v>
+      </c>
+      <c r="D11" s="10">
+        <v>356667</v>
+      </c>
+      <c r="E11" s="8">
+        <v>342152</v>
+      </c>
+      <c r="F11" s="8">
+        <v>345942</v>
+      </c>
+      <c r="G11" s="8">
+        <v>358301</v>
+      </c>
+      <c r="H11" s="8">
+        <v>375731</v>
+      </c>
+      <c r="I11" s="8">
+        <v>371417</v>
+      </c>
+      <c r="J11" s="8">
+        <v>349998</v>
+      </c>
+      <c r="K11" s="8">
+        <v>401993</v>
+      </c>
+      <c r="L11" s="8">
+        <v>385344</v>
+      </c>
+      <c r="M11" s="40">
+        <v>390874</v>
+      </c>
+      <c r="N11" s="36">
+        <v>391376</v>
+      </c>
+      <c r="O11" s="37">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="P11" s="22">
+        <f t="shared" si="2"/>
+        <v>6.5132385947929373E-3</v>
+      </c>
+      <c r="Q11" s="31">
+        <f t="shared" si="1"/>
+        <v>1.2843013349570498E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="10">
+        <v>1897400</v>
+      </c>
+      <c r="C12" s="10">
+        <v>1956349</v>
+      </c>
+      <c r="D12" s="10">
+        <v>1865624</v>
+      </c>
+      <c r="E12" s="8">
+        <v>1953171</v>
+      </c>
+      <c r="F12" s="8">
+        <v>1902994</v>
+      </c>
+      <c r="G12" s="8">
+        <v>1845018</v>
+      </c>
+      <c r="H12" s="8">
+        <v>1918593</v>
+      </c>
+      <c r="I12" s="8">
+        <v>2135375</v>
+      </c>
+      <c r="J12" s="8">
+        <v>2098192</v>
+      </c>
+      <c r="K12" s="8">
+        <v>2232786</v>
+      </c>
+      <c r="L12" s="8">
+        <v>2211107</v>
+      </c>
+      <c r="M12" s="40">
+        <v>2158172</v>
+      </c>
+      <c r="N12" s="36">
+        <v>2199469</v>
+      </c>
+      <c r="O12" s="37">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="P12" s="22">
+        <f t="shared" si="2"/>
+        <v>3.6603333824380205E-2</v>
+      </c>
+      <c r="Q12" s="31">
+        <f t="shared" si="1"/>
+        <v>1.9135175509644275E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="10">
+        <v>1517276</v>
+      </c>
+      <c r="C13" s="10">
+        <v>1532475</v>
+      </c>
+      <c r="D13" s="10">
+        <v>1593911</v>
+      </c>
+      <c r="E13" s="8">
+        <v>1562905</v>
+      </c>
+      <c r="F13" s="8">
+        <v>1607428</v>
+      </c>
+      <c r="G13" s="8">
+        <v>1607450</v>
+      </c>
+      <c r="H13" s="8">
+        <v>1711268</v>
+      </c>
+      <c r="I13" s="8">
+        <v>1726136</v>
+      </c>
+      <c r="J13" s="8">
+        <v>1710384</v>
+      </c>
+      <c r="K13" s="8">
+        <v>1777289</v>
+      </c>
+      <c r="L13" s="8">
+        <v>1855152</v>
+      </c>
+      <c r="M13" s="40">
+        <v>1735066</v>
+      </c>
+      <c r="N13" s="36">
+        <v>1794237</v>
+      </c>
+      <c r="O13" s="37">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="P13" s="22">
+        <f t="shared" si="2"/>
+        <v>2.9859505121942825E-2</v>
+      </c>
+      <c r="Q13" s="31">
+        <f t="shared" si="1"/>
+        <v>3.4103025475687998E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="10">
+        <v>4470040</v>
+      </c>
+      <c r="C14" s="10">
+        <v>4429488</v>
+      </c>
+      <c r="D14" s="10">
+        <v>4314435</v>
+      </c>
+      <c r="E14" s="8">
+        <v>4519920</v>
+      </c>
+      <c r="F14" s="8">
+        <v>4498050</v>
+      </c>
+      <c r="G14" s="8">
+        <v>4512505</v>
+      </c>
+      <c r="H14" s="8">
+        <v>4650115</v>
+      </c>
+      <c r="I14" s="8">
+        <v>4749279</v>
+      </c>
+      <c r="J14" s="8">
+        <v>4166769</v>
+      </c>
+      <c r="K14" s="8">
+        <v>4744648</v>
+      </c>
+      <c r="L14" s="8">
+        <v>4921131</v>
+      </c>
+      <c r="M14" s="40">
+        <v>4658108</v>
+      </c>
+      <c r="N14" s="36">
+        <v>4876283</v>
+      </c>
+      <c r="O14" s="37">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="P14" s="22">
+        <f t="shared" si="2"/>
+        <v>8.1150593380106828E-2</v>
+      </c>
+      <c r="Q14" s="31">
+        <f t="shared" si="1"/>
+        <v>4.6837686030465564E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="10">
+        <v>718467</v>
+      </c>
+      <c r="C15" s="10">
+        <v>732490</v>
+      </c>
+      <c r="D15" s="10">
+        <v>744530</v>
+      </c>
+      <c r="E15" s="8">
+        <v>763905</v>
+      </c>
+      <c r="F15" s="8">
+        <v>769864</v>
+      </c>
+      <c r="G15" s="8">
+        <v>766631</v>
+      </c>
+      <c r="H15" s="8">
+        <v>794651</v>
+      </c>
+      <c r="I15" s="8">
+        <v>805680</v>
+      </c>
+      <c r="J15" s="8">
+        <v>800825</v>
+      </c>
+      <c r="K15" s="8">
+        <v>836016</v>
+      </c>
+      <c r="L15" s="8">
+        <v>824826</v>
+      </c>
+      <c r="M15" s="40">
+        <v>821631</v>
+      </c>
+      <c r="N15" s="36">
+        <v>830027</v>
+      </c>
+      <c r="O15" s="37">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="P15" s="22">
+        <f t="shared" si="2"/>
+        <v>1.3813222811618999E-2</v>
+      </c>
+      <c r="Q15" s="31">
+        <f t="shared" si="1"/>
+        <v>1.0218699148401234E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="10">
+        <v>2473548</v>
+      </c>
+      <c r="C16" s="10">
+        <v>2517481</v>
+      </c>
+      <c r="D16" s="10">
+        <v>2457663</v>
+      </c>
+      <c r="E16" s="8">
+        <v>2559857</v>
+      </c>
+      <c r="F16" s="8">
+        <v>2619228</v>
+      </c>
+      <c r="G16" s="8">
+        <v>2683718</v>
+      </c>
+      <c r="H16" s="8">
+        <v>2714443</v>
+      </c>
+      <c r="I16" s="8">
+        <v>2754807</v>
+      </c>
+      <c r="J16" s="8">
+        <v>2736268</v>
+      </c>
+      <c r="K16" s="8">
+        <v>2799197</v>
+      </c>
+      <c r="L16" s="8">
+        <v>2842643</v>
+      </c>
+      <c r="M16" s="40">
+        <v>2806638</v>
+      </c>
+      <c r="N16" s="36">
+        <v>2937399</v>
+      </c>
+      <c r="O16" s="37">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="P16" s="22">
+        <f t="shared" si="2"/>
+        <v>4.888388796223115E-2</v>
+      </c>
+      <c r="Q16" s="31">
+        <f t="shared" si="1"/>
+        <v>4.6589905787636221E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="10">
+        <v>1391164</v>
+      </c>
+      <c r="C17" s="10">
+        <v>1413436</v>
+      </c>
+      <c r="D17" s="10">
+        <v>1438315</v>
+      </c>
+      <c r="E17" s="8">
+        <v>1408328</v>
+      </c>
+      <c r="F17" s="8">
+        <v>1372793</v>
+      </c>
+      <c r="G17" s="8">
+        <v>1443519</v>
+      </c>
+      <c r="H17" s="8">
+        <v>1508207</v>
+      </c>
+      <c r="I17" s="8">
+        <v>1495036</v>
+      </c>
+      <c r="J17" s="8">
+        <v>1522019</v>
+      </c>
+      <c r="K17" s="8">
+        <v>1506516</v>
+      </c>
+      <c r="L17" s="8">
+        <v>1599844</v>
+      </c>
+      <c r="M17" s="40">
+        <v>1374567</v>
+      </c>
+      <c r="N17" s="36">
+        <v>1585867</v>
+      </c>
+      <c r="O17" s="37">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="P17" s="22">
+        <f t="shared" si="2"/>
+        <v>2.6391833302523638E-2</v>
+      </c>
+      <c r="Q17" s="31">
+        <f t="shared" si="1"/>
+        <v>0.15372113545574706</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="10">
+        <v>1174639</v>
+      </c>
+      <c r="C18" s="10">
+        <v>1205244</v>
+      </c>
+      <c r="D18" s="10">
+        <v>1220081</v>
+      </c>
+      <c r="E18" s="8">
+        <v>1301737</v>
+      </c>
+      <c r="F18" s="8">
+        <v>1240055</v>
+      </c>
+      <c r="G18" s="8">
+        <v>1254004</v>
+      </c>
+      <c r="H18" s="8">
+        <v>1328241</v>
+      </c>
+      <c r="I18" s="8">
+        <v>1338231</v>
+      </c>
+      <c r="J18" s="8">
+        <v>1286995</v>
+      </c>
+      <c r="K18" s="8">
+        <v>1405819</v>
+      </c>
+      <c r="L18" s="8">
+        <v>1483290</v>
+      </c>
+      <c r="M18" s="40">
+        <v>1372274</v>
+      </c>
+      <c r="N18" s="36">
+        <v>1524662</v>
+      </c>
+      <c r="O18" s="37">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="N10" s="22">
+      <c r="P18" s="22">
+        <f t="shared" si="2"/>
+        <v>2.5373266072559863E-2</v>
+      </c>
+      <c r="Q18" s="31">
         <f t="shared" si="1"/>
-        <v>2.5613489404752374E-2</v>
-      </c>
-      <c r="O10" s="33">
+        <v>0.11104779366219875</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="11">
+        <v>3454205</v>
+      </c>
+      <c r="C19" s="11">
+        <v>3525624</v>
+      </c>
+      <c r="D19" s="11">
+        <v>3517378</v>
+      </c>
+      <c r="E19" s="9">
+        <v>3664438</v>
+      </c>
+      <c r="F19" s="9">
+        <v>3651350</v>
+      </c>
+      <c r="G19" s="9">
+        <v>3715113</v>
+      </c>
+      <c r="H19" s="9">
+        <v>3782844</v>
+      </c>
+      <c r="I19" s="9">
+        <v>3902364</v>
+      </c>
+      <c r="J19" s="9">
+        <v>3801923</v>
+      </c>
+      <c r="K19" s="9">
+        <v>4050154</v>
+      </c>
+      <c r="L19" s="9">
+        <v>4164627</v>
+      </c>
+      <c r="M19" s="41">
+        <v>4039130</v>
+      </c>
+      <c r="N19" s="38">
+        <v>4198136</v>
+      </c>
+      <c r="O19" s="39">
+        <f>_xlfn.RANK.EQ(N19,$N$6:$N$37)</f>
+        <v>3</v>
+      </c>
+      <c r="P19" s="23">
+        <f>N19/$N$38</f>
+        <v>6.9864941696449565E-2</v>
+      </c>
+      <c r="Q19" s="32">
+        <f>N19/M19-1</f>
+        <v>3.9366398209515374E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="10">
+        <v>7099226</v>
+      </c>
+      <c r="C20" s="10">
+        <v>7295121</v>
+      </c>
+      <c r="D20" s="10">
+        <v>7265129</v>
+      </c>
+      <c r="E20" s="8">
+        <v>7347375</v>
+      </c>
+      <c r="F20" s="8">
+        <v>7191761</v>
+      </c>
+      <c r="G20" s="8">
+        <v>7423582</v>
+      </c>
+      <c r="H20" s="8">
+        <v>7522476</v>
+      </c>
+      <c r="I20" s="8">
+        <v>7721709</v>
+      </c>
+      <c r="J20" s="8">
+        <v>7328990</v>
+      </c>
+      <c r="K20" s="8">
+        <v>7981849</v>
+      </c>
+      <c r="L20" s="8">
+        <v>8217291</v>
+      </c>
+      <c r="M20" s="40">
+        <v>7958120</v>
+      </c>
+      <c r="N20" s="36">
+        <v>8100027</v>
+      </c>
+      <c r="O20" s="37">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="P20" s="22">
         <f t="shared" si="2"/>
-        <v>3.1467583327363213E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="10">
-        <v>344603</v>
-      </c>
-      <c r="C11" s="10">
-        <v>357271</v>
-      </c>
-      <c r="D11" s="10">
-        <v>356667</v>
-      </c>
-      <c r="E11" s="8">
-        <v>342152</v>
-      </c>
-      <c r="F11" s="8">
-        <v>345942</v>
-      </c>
-      <c r="G11" s="8">
-        <v>358301</v>
-      </c>
-      <c r="H11" s="8">
-        <v>375731</v>
-      </c>
-      <c r="I11" s="8">
-        <v>371417</v>
-      </c>
-      <c r="J11" s="8">
-        <v>349998</v>
-      </c>
-      <c r="K11" s="8">
-        <v>401993</v>
-      </c>
-      <c r="L11" s="8">
-        <v>385344</v>
-      </c>
-      <c r="M11" s="24">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="N11" s="22">
+        <v>0.13479980498360872</v>
+      </c>
+      <c r="Q20" s="31">
         <f t="shared" si="1"/>
-        <v>6.4068680433647393E-3</v>
-      </c>
-      <c r="O11" s="33">
-        <f t="shared" si="2"/>
-        <v>-4.1416144062210059E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="10">
-        <v>1897400</v>
-      </c>
-      <c r="C12" s="10">
-        <v>1956349</v>
-      </c>
-      <c r="D12" s="10">
-        <v>1865624</v>
-      </c>
-      <c r="E12" s="8">
-        <v>1953171</v>
-      </c>
-      <c r="F12" s="8">
-        <v>1902994</v>
-      </c>
-      <c r="G12" s="8">
-        <v>1845018</v>
-      </c>
-      <c r="H12" s="8">
-        <v>1918593</v>
-      </c>
-      <c r="I12" s="8">
-        <v>2135375</v>
-      </c>
-      <c r="J12" s="8">
-        <v>2098192</v>
-      </c>
-      <c r="K12" s="8">
-        <v>2232786</v>
-      </c>
-      <c r="L12" s="8">
-        <v>2211107</v>
-      </c>
-      <c r="M12" s="24">
+        <v>1.783172407553546E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="10">
+        <v>1885496</v>
+      </c>
+      <c r="C21" s="10">
+        <v>1937004</v>
+      </c>
+      <c r="D21" s="10">
+        <v>1944386</v>
+      </c>
+      <c r="E21" s="8">
+        <v>1900063</v>
+      </c>
+      <c r="F21" s="8">
+        <v>1941072</v>
+      </c>
+      <c r="G21" s="8">
+        <v>1933242</v>
+      </c>
+      <c r="H21" s="8">
+        <v>2007279</v>
+      </c>
+      <c r="I21" s="8">
+        <v>2100537</v>
+      </c>
+      <c r="J21" s="8">
+        <v>1973085</v>
+      </c>
+      <c r="K21" s="8">
+        <v>2165988</v>
+      </c>
+      <c r="L21" s="8">
+        <v>2246319</v>
+      </c>
+      <c r="M21" s="40">
+        <v>2203754</v>
+      </c>
+      <c r="N21" s="36">
+        <v>2189342</v>
+      </c>
+      <c r="O21" s="37">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="N12" s="22">
+      <c r="P21" s="22">
+        <f t="shared" si="2"/>
+        <v>3.6434801346023157E-2</v>
+      </c>
+      <c r="Q21" s="31">
         <f t="shared" si="1"/>
-        <v>3.6762660840080751E-2</v>
-      </c>
-      <c r="O12" s="33">
+        <v>-6.5397498994896885E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="10">
+        <v>803846</v>
+      </c>
+      <c r="C22" s="10">
+        <v>826041</v>
+      </c>
+      <c r="D22" s="10">
+        <v>810715</v>
+      </c>
+      <c r="E22" s="8">
+        <v>775028</v>
+      </c>
+      <c r="F22" s="8">
+        <v>803262</v>
+      </c>
+      <c r="G22" s="8">
+        <v>831775</v>
+      </c>
+      <c r="H22" s="8">
+        <v>825026</v>
+      </c>
+      <c r="I22" s="8">
+        <v>851860</v>
+      </c>
+      <c r="J22" s="8">
+        <v>855666</v>
+      </c>
+      <c r="K22" s="8">
+        <v>850676</v>
+      </c>
+      <c r="L22" s="8">
+        <v>883075</v>
+      </c>
+      <c r="M22" s="40">
+        <v>849097</v>
+      </c>
+      <c r="N22" s="36">
+        <v>890646</v>
+      </c>
+      <c r="O22" s="37">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="P22" s="22">
         <f t="shared" si="2"/>
-        <v>-9.7093944515954655E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="10">
-        <v>1517276</v>
-      </c>
-      <c r="C13" s="10">
-        <v>1532475</v>
-      </c>
-      <c r="D13" s="10">
-        <v>1593911</v>
-      </c>
-      <c r="E13" s="8">
-        <v>1562905</v>
-      </c>
-      <c r="F13" s="8">
-        <v>1607428</v>
-      </c>
-      <c r="G13" s="8">
-        <v>1607450</v>
-      </c>
-      <c r="H13" s="8">
-        <v>1711268</v>
-      </c>
-      <c r="I13" s="8">
-        <v>1726136</v>
-      </c>
-      <c r="J13" s="8">
-        <v>1710384</v>
-      </c>
-      <c r="K13" s="8">
-        <v>1777289</v>
-      </c>
-      <c r="L13" s="8">
-        <v>1855152</v>
-      </c>
-      <c r="M13" s="24">
+        <v>1.4822037890667671E-2</v>
+      </c>
+      <c r="Q22" s="31">
+        <f t="shared" si="1"/>
+        <v>4.8933160757840488E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="10">
+        <v>540494</v>
+      </c>
+      <c r="C23" s="10">
+        <v>554195</v>
+      </c>
+      <c r="D23" s="10">
+        <v>555305</v>
+      </c>
+      <c r="E23" s="8">
+        <v>555056</v>
+      </c>
+      <c r="F23" s="8">
+        <v>557501</v>
+      </c>
+      <c r="G23" s="8">
+        <v>576743</v>
+      </c>
+      <c r="H23" s="8">
+        <v>585546</v>
+      </c>
+      <c r="I23" s="8">
+        <v>584501</v>
+      </c>
+      <c r="J23" s="8">
+        <v>633648</v>
+      </c>
+      <c r="K23" s="8">
+        <v>609847</v>
+      </c>
+      <c r="L23" s="8">
+        <v>622716</v>
+      </c>
+      <c r="M23" s="40">
+        <v>613208</v>
+      </c>
+      <c r="N23" s="36">
+        <v>621866</v>
+      </c>
+      <c r="O23" s="37">
         <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="N13" s="22">
+        <v>29</v>
+      </c>
+      <c r="P23" s="22">
+        <f t="shared" si="2"/>
+        <v>1.0349029148413558E-2</v>
+      </c>
+      <c r="Q23" s="31">
         <f t="shared" si="1"/>
-        <v>3.084442488888936E-2</v>
-      </c>
-      <c r="O13" s="33">
-        <f t="shared" si="2"/>
-        <v>4.380998250706547E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="10">
-        <v>4470040</v>
-      </c>
-      <c r="C14" s="10">
-        <v>4429488</v>
-      </c>
-      <c r="D14" s="10">
-        <v>4314435</v>
-      </c>
-      <c r="E14" s="8">
-        <v>4519920</v>
-      </c>
-      <c r="F14" s="8">
-        <v>4498050</v>
-      </c>
-      <c r="G14" s="8">
-        <v>4512505</v>
-      </c>
-      <c r="H14" s="8">
-        <v>4650115</v>
-      </c>
-      <c r="I14" s="8">
-        <v>4749279</v>
-      </c>
-      <c r="J14" s="8">
-        <v>4166769</v>
-      </c>
-      <c r="K14" s="8">
-        <v>4744648</v>
-      </c>
-      <c r="L14" s="8">
-        <v>4921131</v>
-      </c>
-      <c r="M14" s="24">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="N14" s="22">
-        <f t="shared" si="1"/>
-        <v>8.1820495300592613E-2</v>
-      </c>
-      <c r="O14" s="33">
-        <f t="shared" si="2"/>
-        <v>3.7196226147861777E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" s="10">
-        <v>718467</v>
-      </c>
-      <c r="C15" s="10">
-        <v>732490</v>
-      </c>
-      <c r="D15" s="10">
-        <v>744530</v>
-      </c>
-      <c r="E15" s="8">
-        <v>763905</v>
-      </c>
-      <c r="F15" s="8">
-        <v>769864</v>
-      </c>
-      <c r="G15" s="8">
-        <v>766631</v>
-      </c>
-      <c r="H15" s="8">
-        <v>794651</v>
-      </c>
-      <c r="I15" s="8">
-        <v>805680</v>
-      </c>
-      <c r="J15" s="8">
-        <v>800825</v>
-      </c>
-      <c r="K15" s="8">
-        <v>836016</v>
-      </c>
-      <c r="L15" s="8">
-        <v>824826</v>
-      </c>
-      <c r="M15" s="24">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="N15" s="22">
-        <f t="shared" si="1"/>
-        <v>1.3713853960970884E-2</v>
-      </c>
-      <c r="O15" s="33">
-        <f t="shared" si="2"/>
-        <v>-1.3384911293563784E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" s="10">
-        <v>2473548</v>
-      </c>
-      <c r="C16" s="10">
-        <v>2517481</v>
-      </c>
-      <c r="D16" s="10">
-        <v>2457663</v>
-      </c>
-      <c r="E16" s="8">
-        <v>2559857</v>
-      </c>
-      <c r="F16" s="8">
-        <v>2619228</v>
-      </c>
-      <c r="G16" s="8">
-        <v>2683718</v>
-      </c>
-      <c r="H16" s="8">
-        <v>2714443</v>
-      </c>
-      <c r="I16" s="8">
-        <v>2754807</v>
-      </c>
-      <c r="J16" s="8">
-        <v>2736268</v>
-      </c>
-      <c r="K16" s="8">
-        <v>2799197</v>
-      </c>
-      <c r="L16" s="8">
-        <v>2842643</v>
-      </c>
-      <c r="M16" s="24">
+        <v>1.411918957352154E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="10">
+        <v>2308619</v>
+      </c>
+      <c r="C24" s="10">
+        <v>2298389</v>
+      </c>
+      <c r="D24" s="10">
+        <v>2302251</v>
+      </c>
+      <c r="E24" s="8">
+        <v>2406438</v>
+      </c>
+      <c r="F24" s="8">
+        <v>2519854</v>
+      </c>
+      <c r="G24" s="8">
+        <v>2540229</v>
+      </c>
+      <c r="H24" s="8">
+        <v>2587987</v>
+      </c>
+      <c r="I24" s="8">
+        <v>2746625</v>
+      </c>
+      <c r="J24" s="8">
+        <v>2763440</v>
+      </c>
+      <c r="K24" s="8">
+        <v>2892673</v>
+      </c>
+      <c r="L24" s="8">
+        <v>2919303</v>
+      </c>
+      <c r="M24" s="40">
+        <v>2856917</v>
+      </c>
+      <c r="N24" s="36">
+        <v>2901131</v>
+      </c>
+      <c r="O24" s="37">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="N16" s="22">
+      <c r="P24" s="22">
+        <f t="shared" si="2"/>
+        <v>4.8280319686823489E-2</v>
+      </c>
+      <c r="Q24" s="31">
         <f t="shared" si="1"/>
-        <v>4.7262805688928523E-2</v>
-      </c>
-      <c r="O16" s="33">
-        <f t="shared" si="2"/>
-        <v>1.552087973801064E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" s="10">
-        <v>1391164</v>
-      </c>
-      <c r="C17" s="10">
-        <v>1413436</v>
-      </c>
-      <c r="D17" s="10">
-        <v>1438315</v>
-      </c>
-      <c r="E17" s="8">
-        <v>1408328</v>
-      </c>
-      <c r="F17" s="8">
-        <v>1372793</v>
-      </c>
-      <c r="G17" s="8">
-        <v>1443519</v>
-      </c>
-      <c r="H17" s="8">
-        <v>1508207</v>
-      </c>
-      <c r="I17" s="8">
-        <v>1495036</v>
-      </c>
-      <c r="J17" s="8">
-        <v>1522019</v>
-      </c>
-      <c r="K17" s="8">
-        <v>1506516</v>
-      </c>
-      <c r="L17" s="8">
-        <v>1599844</v>
-      </c>
-      <c r="M17" s="24">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="N17" s="22">
-        <f t="shared" si="1"/>
-        <v>2.6599582186225341E-2</v>
-      </c>
-      <c r="O17" s="33">
-        <f t="shared" si="2"/>
-        <v>6.1949557787637222E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" s="10">
-        <v>1174639</v>
-      </c>
-      <c r="C18" s="10">
-        <v>1205244</v>
-      </c>
-      <c r="D18" s="10">
-        <v>1220081</v>
-      </c>
-      <c r="E18" s="8">
-        <v>1301737</v>
-      </c>
-      <c r="F18" s="8">
-        <v>1240055</v>
-      </c>
-      <c r="G18" s="8">
-        <v>1254004</v>
-      </c>
-      <c r="H18" s="8">
-        <v>1328241</v>
-      </c>
-      <c r="I18" s="8">
-        <v>1338231</v>
-      </c>
-      <c r="J18" s="8">
-        <v>1286995</v>
-      </c>
-      <c r="K18" s="8">
-        <v>1405819</v>
-      </c>
-      <c r="L18" s="8">
-        <v>1483290</v>
-      </c>
-      <c r="M18" s="24">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="N18" s="22">
-        <f t="shared" si="1"/>
-        <v>2.466171343018831E-2</v>
-      </c>
-      <c r="O18" s="33">
-        <f t="shared" si="2"/>
-        <v>5.5107378688152631E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" s="11">
-        <v>3454205</v>
-      </c>
-      <c r="C19" s="11">
-        <v>3525624</v>
-      </c>
-      <c r="D19" s="11">
-        <v>3517378</v>
-      </c>
-      <c r="E19" s="9">
-        <v>3664438</v>
-      </c>
-      <c r="F19" s="9">
-        <v>3651350</v>
-      </c>
-      <c r="G19" s="9">
-        <v>3715113</v>
-      </c>
-      <c r="H19" s="9">
-        <v>3782844</v>
-      </c>
-      <c r="I19" s="9">
-        <v>3902364</v>
-      </c>
-      <c r="J19" s="9">
-        <v>3801923</v>
-      </c>
-      <c r="K19" s="9">
-        <v>4050154</v>
-      </c>
-      <c r="L19" s="9">
-        <v>4164627</v>
-      </c>
-      <c r="M19" s="25">
-        <f>_xlfn.RANK.EQ(L19,$L$6:$L$37)</f>
-        <v>3</v>
-      </c>
-      <c r="N19" s="23">
-        <f>L19/$L$38</f>
-        <v>6.9242587503202238E-2</v>
-      </c>
-      <c r="O19" s="34">
-        <f t="shared" si="2"/>
-        <v>2.8263863546917012E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20" s="10">
-        <v>7099226</v>
-      </c>
-      <c r="C20" s="10">
-        <v>7295121</v>
-      </c>
-      <c r="D20" s="10">
-        <v>7265129</v>
-      </c>
-      <c r="E20" s="8">
-        <v>7347375</v>
-      </c>
-      <c r="F20" s="8">
-        <v>7191761</v>
-      </c>
-      <c r="G20" s="8">
-        <v>7423582</v>
-      </c>
-      <c r="H20" s="8">
-        <v>7522476</v>
-      </c>
-      <c r="I20" s="8">
-        <v>7721709</v>
-      </c>
-      <c r="J20" s="8">
-        <v>7328990</v>
-      </c>
-      <c r="K20" s="8">
-        <v>7981849</v>
-      </c>
-      <c r="L20" s="8">
-        <v>8217291</v>
-      </c>
-      <c r="M20" s="24">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="N20" s="22">
-        <f t="shared" si="1"/>
-        <v>0.13662363786883586</v>
-      </c>
-      <c r="O20" s="33">
-        <f t="shared" si="2"/>
-        <v>2.9497175403844444E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" s="10">
-        <v>1885496</v>
-      </c>
-      <c r="C21" s="10">
-        <v>1937004</v>
-      </c>
-      <c r="D21" s="10">
-        <v>1944386</v>
-      </c>
-      <c r="E21" s="8">
-        <v>1900063</v>
-      </c>
-      <c r="F21" s="8">
-        <v>1941072</v>
-      </c>
-      <c r="G21" s="8">
-        <v>1933242</v>
-      </c>
-      <c r="H21" s="8">
-        <v>2007279</v>
-      </c>
-      <c r="I21" s="8">
-        <v>2100537</v>
-      </c>
-      <c r="J21" s="8">
-        <v>1973085</v>
-      </c>
-      <c r="K21" s="8">
-        <v>2165988</v>
-      </c>
-      <c r="L21" s="8">
-        <v>2246319</v>
-      </c>
-      <c r="M21" s="24">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="N21" s="22">
-        <f t="shared" si="1"/>
-        <v>3.7348108226164252E-2</v>
-      </c>
-      <c r="O21" s="33">
-        <f t="shared" si="2"/>
-        <v>3.7087463088438133E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22" s="10">
-        <v>803846</v>
-      </c>
-      <c r="C22" s="10">
-        <v>826041</v>
-      </c>
-      <c r="D22" s="10">
-        <v>810715</v>
-      </c>
-      <c r="E22" s="8">
-        <v>775028</v>
-      </c>
-      <c r="F22" s="8">
-        <v>803262</v>
-      </c>
-      <c r="G22" s="8">
-        <v>831775</v>
-      </c>
-      <c r="H22" s="8">
-        <v>825026</v>
-      </c>
-      <c r="I22" s="8">
-        <v>851860</v>
-      </c>
-      <c r="J22" s="8">
-        <v>855666</v>
-      </c>
-      <c r="K22" s="8">
-        <v>850676</v>
-      </c>
-      <c r="L22" s="8">
-        <v>883075</v>
-      </c>
-      <c r="M22" s="24">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="N22" s="22">
-        <f t="shared" si="1"/>
-        <v>1.4682322800911177E-2</v>
-      </c>
-      <c r="O22" s="33">
-        <f t="shared" si="2"/>
-        <v>3.808618087262361E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="B23" s="10">
-        <v>540494</v>
-      </c>
-      <c r="C23" s="10">
-        <v>554195</v>
-      </c>
-      <c r="D23" s="10">
-        <v>555305</v>
-      </c>
-      <c r="E23" s="8">
-        <v>555056</v>
-      </c>
-      <c r="F23" s="8">
-        <v>557501</v>
-      </c>
-      <c r="G23" s="8">
-        <v>576743</v>
-      </c>
-      <c r="H23" s="8">
-        <v>585546</v>
-      </c>
-      <c r="I23" s="8">
-        <v>584501</v>
-      </c>
-      <c r="J23" s="8">
-        <v>633648</v>
-      </c>
-      <c r="K23" s="8">
-        <v>609847</v>
-      </c>
-      <c r="L23" s="8">
-        <v>622716</v>
-      </c>
-      <c r="M23" s="24">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="N23" s="22">
-        <f t="shared" si="1"/>
-        <v>1.0353500354207972E-2</v>
-      </c>
-      <c r="O23" s="33">
-        <f t="shared" si="2"/>
-        <v>2.1102014111736178E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="B24" s="10">
-        <v>2308619</v>
-      </c>
-      <c r="C24" s="10">
-        <v>2298389</v>
-      </c>
-      <c r="D24" s="10">
-        <v>2302251</v>
-      </c>
-      <c r="E24" s="8">
-        <v>2406438</v>
-      </c>
-      <c r="F24" s="8">
-        <v>2519854</v>
-      </c>
-      <c r="G24" s="8">
-        <v>2540229</v>
-      </c>
-      <c r="H24" s="8">
-        <v>2587987</v>
-      </c>
-      <c r="I24" s="8">
-        <v>2746625</v>
-      </c>
-      <c r="J24" s="8">
-        <v>2763440</v>
-      </c>
-      <c r="K24" s="8">
-        <v>2892673</v>
-      </c>
-      <c r="L24" s="8">
-        <v>2919303</v>
-      </c>
-      <c r="M24" s="24">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="N24" s="22">
-        <f t="shared" si="1"/>
-        <v>4.8537382441659435E-2</v>
-      </c>
-      <c r="O24" s="33">
-        <f t="shared" si="2"/>
-        <v>9.2060181015967135E-3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="29" t="s">
+        <v>1.5476123387553775E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="27" t="s">
         <v>16</v>
       </c>
       <c r="B25" s="10">
@@ -2503,21 +2696,27 @@
       <c r="L25" s="8">
         <v>1930924</v>
       </c>
-      <c r="M25" s="24">
+      <c r="M25" s="40">
+        <v>1884444</v>
+      </c>
+      <c r="N25" s="36">
+        <v>1916376</v>
+      </c>
+      <c r="O25" s="37">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="N25" s="22">
+      <c r="P25" s="22">
+        <f t="shared" si="2"/>
+        <v>3.1892129628119534E-2</v>
+      </c>
+      <c r="Q25" s="31">
         <f t="shared" si="1"/>
-        <v>3.210423743399668E-2</v>
-      </c>
-      <c r="O25" s="33">
-        <f t="shared" si="2"/>
-        <v>4.1290884813919293E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="29" t="s">
+        <v>1.6945051166285641E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="27" t="s">
         <v>17</v>
       </c>
       <c r="B26" s="10">
@@ -2553,21 +2752,27 @@
       <c r="L26" s="8">
         <v>3016552</v>
       </c>
-      <c r="M26" s="24">
+      <c r="M26" s="40">
+        <v>3022868</v>
+      </c>
+      <c r="N26" s="36">
+        <v>3077202</v>
+      </c>
+      <c r="O26" s="37">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="N26" s="22">
+      <c r="P26" s="22">
+        <f t="shared" si="2"/>
+        <v>5.1210474915104699E-2</v>
+      </c>
+      <c r="Q26" s="31">
         <f t="shared" si="1"/>
-        <v>5.0154279319122627E-2</v>
-      </c>
-      <c r="O26" s="33">
-        <f t="shared" si="2"/>
-        <v>-9.2989313815452501E-3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="29" t="s">
+        <v>1.7974321075217237E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="27" t="s">
         <v>18</v>
       </c>
       <c r="B27" s="10">
@@ -2603,21 +2808,27 @@
       <c r="L27" s="8">
         <v>1111103</v>
       </c>
-      <c r="M27" s="24">
+      <c r="M27" s="40">
+        <v>1053243</v>
+      </c>
+      <c r="N27" s="36">
+        <v>1131809</v>
+      </c>
+      <c r="O27" s="37">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="N27" s="22">
+      <c r="P27" s="22">
+        <f t="shared" si="2"/>
+        <v>1.8835447397730059E-2</v>
+      </c>
+      <c r="Q27" s="31">
         <f t="shared" si="1"/>
-        <v>1.8473598404507897E-2</v>
-      </c>
-      <c r="O27" s="33">
-        <f t="shared" si="2"/>
-        <v>4.7681594666842742E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="29" t="s">
+        <v>7.4594371859105557E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="27" t="s">
         <v>19</v>
       </c>
       <c r="B28" s="10">
@@ -2653,21 +2864,27 @@
       <c r="L28" s="8">
         <v>987173</v>
       </c>
-      <c r="M28" s="24">
+      <c r="M28" s="40">
+        <v>939947</v>
+      </c>
+      <c r="N28" s="36">
+        <v>996823</v>
+      </c>
+      <c r="O28" s="37">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="N28" s="22">
+      <c r="P28" s="22">
+        <f t="shared" si="2"/>
+        <v>1.6589024456730307E-2</v>
+      </c>
+      <c r="Q28" s="31">
         <f t="shared" si="1"/>
-        <v>1.6413093617579356E-2</v>
-      </c>
-      <c r="O28" s="33">
-        <f t="shared" si="2"/>
-        <v>5.3145173077066676E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="29" t="s">
+        <v>6.0509794701190556E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="27" t="s">
         <v>34</v>
       </c>
       <c r="B29" s="10">
@@ -2703,21 +2920,27 @@
       <c r="L29" s="8">
         <v>1306723</v>
       </c>
-      <c r="M29" s="24">
+      <c r="M29" s="40">
+        <v>1289621</v>
+      </c>
+      <c r="N29" s="36">
+        <v>1306502</v>
+      </c>
+      <c r="O29" s="37">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="N29" s="22">
+      <c r="P29" s="22">
+        <f t="shared" si="2"/>
+        <v>2.1742670093654597E-2</v>
+      </c>
+      <c r="Q29" s="31">
         <f t="shared" si="1"/>
-        <v>2.1726046935283023E-2</v>
-      </c>
-      <c r="O29" s="33">
-        <f t="shared" si="2"/>
-        <v>-6.6206386951206397E-3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="29" t="s">
+        <v>1.3089892301691775E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="27" t="s">
         <v>20</v>
       </c>
       <c r="B30" s="10">
@@ -2753,21 +2976,27 @@
       <c r="L30" s="8">
         <v>1466293</v>
       </c>
-      <c r="M30" s="24">
+      <c r="M30" s="40">
+        <v>1373253</v>
+      </c>
+      <c r="N30" s="36">
+        <v>1484243</v>
+      </c>
+      <c r="O30" s="37">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="N30" s="22">
+      <c r="P30" s="22">
+        <f t="shared" si="2"/>
+        <v>2.4700617287854273E-2</v>
+      </c>
+      <c r="Q30" s="31">
         <f t="shared" si="1"/>
-        <v>2.437911519034788E-2</v>
-      </c>
-      <c r="O30" s="33">
-        <f t="shared" si="2"/>
-        <v>6.2366415642791662E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="29" t="s">
+        <v>8.0822688900006101E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="27" t="s">
         <v>21</v>
       </c>
       <c r="B31" s="10">
@@ -2803,21 +3032,27 @@
       <c r="L31" s="8">
         <v>1445570</v>
       </c>
-      <c r="M31" s="24">
+      <c r="M31" s="40">
+        <v>1418883</v>
+      </c>
+      <c r="N31" s="36">
+        <v>1464753</v>
+      </c>
+      <c r="O31" s="37">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="N31" s="22">
+      <c r="P31" s="22">
+        <f t="shared" si="2"/>
+        <v>2.4376266739500479E-2</v>
+      </c>
+      <c r="Q31" s="31">
         <f t="shared" si="1"/>
-        <v>2.4034567133384109E-2</v>
-      </c>
-      <c r="O31" s="33">
-        <f t="shared" si="2"/>
-        <v>-4.1663853713580501E-3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="29" t="s">
+        <v>3.2328246937908256E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="27" t="s">
         <v>22</v>
       </c>
       <c r="B32" s="10">
@@ -2853,21 +3088,27 @@
       <c r="L32" s="8">
         <v>1089415</v>
       </c>
-      <c r="M32" s="24">
+      <c r="M32" s="40">
+        <v>1024360</v>
+      </c>
+      <c r="N32" s="36">
+        <v>1092772</v>
+      </c>
+      <c r="O32" s="37">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="N32" s="22">
+      <c r="P32" s="22">
+        <f t="shared" si="2"/>
+        <v>1.8185797712964177E-2</v>
+      </c>
+      <c r="Q32" s="31">
         <f t="shared" si="1"/>
-        <v>1.8113005910205419E-2</v>
-      </c>
-      <c r="O32" s="33">
-        <f t="shared" si="2"/>
-        <v>8.3997182083944466E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="29" t="s">
+        <v>6.6785114608145513E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="27" t="s">
         <v>23</v>
       </c>
       <c r="B33" s="10">
@@ -2903,21 +3144,27 @@
       <c r="L33" s="8">
         <v>1672565</v>
       </c>
-      <c r="M33" s="24">
+      <c r="M33" s="40">
+        <v>1640403</v>
+      </c>
+      <c r="N33" s="36">
+        <v>1668314</v>
+      </c>
+      <c r="O33" s="37">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="N33" s="22">
+      <c r="P33" s="22">
+        <f t="shared" si="2"/>
+        <v>2.7763907682211951E-2</v>
+      </c>
+      <c r="Q33" s="31">
         <f t="shared" si="1"/>
-        <v>2.7808667707166439E-2</v>
-      </c>
-      <c r="O33" s="33">
-        <f t="shared" si="2"/>
-        <v>-9.1686107336191869E-3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="29" t="s">
+        <v>1.7014721382489606E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="27" t="s">
         <v>24</v>
       </c>
       <c r="B34" s="10">
@@ -2953,21 +3200,27 @@
       <c r="L34" s="8">
         <v>648539</v>
       </c>
-      <c r="M34" s="24">
+      <c r="M34" s="40">
+        <v>620531</v>
+      </c>
+      <c r="N34" s="36">
+        <v>650681</v>
+      </c>
+      <c r="O34" s="37">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="N34" s="22">
-        <f>L34/$L$38</f>
-        <v>1.0782842846847815E-2</v>
-      </c>
-      <c r="O34" s="33">
+      <c r="P34" s="22">
         <f t="shared" si="2"/>
-        <v>4.1894994224537685E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="29" t="s">
+        <v>1.0828565374725234E-2</v>
+      </c>
+      <c r="Q34" s="31">
+        <f t="shared" si="1"/>
+        <v>4.8587419484280359E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="27" t="s">
         <v>29</v>
       </c>
       <c r="B35" s="10">
@@ -3003,21 +3256,27 @@
       <c r="L35" s="8">
         <v>3428792</v>
       </c>
-      <c r="M35" s="24">
+      <c r="M35" s="40">
+        <v>3296444</v>
+      </c>
+      <c r="N35" s="36">
+        <v>3479497</v>
+      </c>
+      <c r="O35" s="37">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="N35" s="22">
+      <c r="P35" s="22">
+        <f t="shared" si="2"/>
+        <v>5.7905426369696256E-2</v>
+      </c>
+      <c r="Q35" s="31">
         <f t="shared" si="1"/>
-        <v>5.7008329939339061E-2</v>
-      </c>
-      <c r="O35" s="33">
-        <f t="shared" si="2"/>
-        <v>9.8505424778505546E-3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="29" t="s">
+        <v>5.5530444321213901E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="27" t="s">
         <v>25</v>
       </c>
       <c r="B36" s="10">
@@ -3053,21 +3312,27 @@
       <c r="L36" s="8">
         <v>1241444</v>
       </c>
-      <c r="M36" s="24">
+      <c r="M36" s="40">
+        <v>1196624</v>
+      </c>
+      <c r="N36" s="36">
+        <v>1217552</v>
+      </c>
+      <c r="O36" s="37">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="N36" s="22">
+      <c r="P36" s="22">
+        <f t="shared" si="2"/>
+        <v>2.0262373465841876E-2</v>
+      </c>
+      <c r="Q36" s="31">
         <f t="shared" si="1"/>
-        <v>2.0640694784989245E-2</v>
-      </c>
-      <c r="O36" s="33">
-        <f t="shared" si="2"/>
-        <v>4.2217811940669314E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="29" t="s">
+        <v>1.7489202957654104E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="27" t="s">
         <v>26</v>
       </c>
       <c r="B37" s="10">
@@ -3103,24 +3368,30 @@
       <c r="L37" s="8">
         <v>692465</v>
       </c>
-      <c r="M37" s="24">
+      <c r="M37" s="40">
+        <v>676958</v>
+      </c>
+      <c r="N37" s="36">
+        <v>668183</v>
+      </c>
+      <c r="O37" s="37">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="N37" s="22">
-        <f>L37/$L$38</f>
-        <v>1.1513172333417839E-2</v>
-      </c>
-      <c r="O37" s="33">
+      <c r="P37" s="22">
         <f t="shared" si="2"/>
-        <v>-3.3860539614417595E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" s="2" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="31" t="s">
+        <v>1.1119831834309025E-2</v>
+      </c>
+      <c r="Q37" s="31">
+        <f t="shared" si="1"/>
+        <v>-1.2962399439847117E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" s="2" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="B38" s="7">
+      <c r="B38" s="6">
         <v>51317999</v>
       </c>
       <c r="C38" s="7">
@@ -3153,16 +3424,23 @@
       <c r="L38" s="7">
         <v>60145456</v>
       </c>
-      <c r="M38" s="6"/>
-      <c r="N38" s="32">
-        <v>1</v>
-      </c>
-      <c r="O38" s="35">
-        <f t="shared" si="2"/>
-        <v>2.3546984007108085E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" s="16" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M38" s="6">
+        <v>58085314</v>
+      </c>
+      <c r="N38" s="7">
+        <v>60089308</v>
+      </c>
+      <c r="O38" s="7"/>
+      <c r="P38" s="30">
+        <f>SUM(P6:P37)</f>
+        <v>0.99999999999999978</v>
+      </c>
+      <c r="Q38" s="33">
+        <f>N38/M38-1</f>
+        <v>3.4500872285893047E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" s="16" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="15" t="s">
         <v>37</v>
       </c>
@@ -3178,9 +3456,11 @@
       <c r="K39" s="19"/>
       <c r="L39" s="19"/>
       <c r="M39" s="19"/>
-      <c r="N39" s="21"/>
-    </row>
-    <row r="40" spans="1:15" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N39" s="19"/>
+      <c r="O39" s="19"/>
+      <c r="P39" s="21"/>
+    </row>
+    <row r="40" spans="1:17" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
         <v>38</v>
       </c>
@@ -3197,73 +3477,79 @@
       <c r="L40" s="12"/>
       <c r="M40" s="12"/>
       <c r="N40" s="12"/>
-    </row>
-    <row r="41" spans="1:15" s="18" customFormat="1" ht="22.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="37" t="s">
+      <c r="O40" s="12"/>
+      <c r="P40" s="12"/>
+    </row>
+    <row r="41" spans="1:17" s="18" customFormat="1" ht="22.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="B41" s="37"/>
-      <c r="C41" s="37"/>
-      <c r="D41" s="37"/>
-      <c r="E41" s="37"/>
-      <c r="F41" s="37"/>
-      <c r="G41" s="37"/>
-      <c r="H41" s="37"/>
-      <c r="I41" s="37"/>
-      <c r="J41" s="37"/>
-      <c r="K41" s="37"/>
-      <c r="L41" s="37"/>
-      <c r="M41" s="37"/>
-      <c r="N41" s="37"/>
-    </row>
-    <row r="42" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="35"/>
+      <c r="C41" s="35"/>
+      <c r="D41" s="35"/>
+      <c r="E41" s="35"/>
+      <c r="F41" s="35"/>
+      <c r="G41" s="35"/>
+      <c r="H41" s="35"/>
+      <c r="I41" s="35"/>
+      <c r="J41" s="35"/>
+      <c r="K41" s="35"/>
+      <c r="L41" s="35"/>
+      <c r="M41" s="35"/>
+      <c r="N41" s="35"/>
+      <c r="O41" s="35"/>
+      <c r="P41" s="35"/>
+    </row>
+    <row r="42" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="14" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A43" s="36" t="s">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A43" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="B43" s="36"/>
-      <c r="C43" s="36"/>
-      <c r="D43" s="36"/>
-      <c r="E43" s="36"/>
-      <c r="F43" s="36"/>
-      <c r="G43" s="36"/>
-      <c r="H43" s="36"/>
-      <c r="I43" s="36"/>
-      <c r="J43" s="36"/>
-      <c r="K43" s="36"/>
-      <c r="L43" s="36"/>
-      <c r="M43" s="36"/>
-      <c r="N43" s="36"/>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B43" s="34"/>
+      <c r="C43" s="34"/>
+      <c r="D43" s="34"/>
+      <c r="E43" s="34"/>
+      <c r="F43" s="34"/>
+      <c r="G43" s="34"/>
+      <c r="H43" s="34"/>
+      <c r="I43" s="34"/>
+      <c r="J43" s="34"/>
+      <c r="K43" s="34"/>
+      <c r="L43" s="34"/>
+      <c r="M43" s="34"/>
+      <c r="N43" s="34"/>
+      <c r="O43" s="34"/>
+      <c r="P43" s="34"/>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="5"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" s="5"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
@@ -3271,8 +3557,8 @@
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A43:N43"/>
-    <mergeCell ref="A41:N41"/>
+    <mergeCell ref="A43:P43"/>
+    <mergeCell ref="A41:P41"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.79" right="0.79" top="0.98" bottom="0.98" header="0" footer="0"/>

--- a/Tabulados/pea-entidad.xlsx
+++ b/Tabulados/pea-entidad.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\susan\OneDrive\Documentos\IIEG\Actualizaciones pagina\Tabulados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0841F55-746B-4E1C-A79E-D620A57CCCD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F52BF6C-4B0B-4E91-86A8-DEB02E3BF347}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -226,25 +226,25 @@
 IV Trim</t>
   </si>
   <si>
+    <t>IV trimestre 2012 - II trimestre 2023</t>
+  </si>
+  <si>
     <t>2022
-I Trim</t>
+II Trim</t>
   </si>
   <si>
     <t>2023
-I Trim</t>
-  </si>
-  <si>
-    <t>Rank I trim 2023</t>
+II Trim</t>
+  </si>
+  <si>
+    <t>Rank II trim 2023</t>
   </si>
   <si>
     <t>% Partic Nal
-I Trim 2023</t>
-  </si>
-  <si>
-    <t>% Var I trim 2023 / I trim 2022</t>
-  </si>
-  <si>
-    <t>IV trimestre 2012 - I trimestre 2023</t>
+II Trim 2023</t>
+  </si>
+  <si>
+    <t>% Var II trim 2023 / II trim 2022</t>
   </si>
 </sst>
 </file>
@@ -958,7 +958,7 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1031,22 +1031,10 @@
     <xf numFmtId="164" fontId="22" fillId="36" borderId="4" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="34" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="23" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="23" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="23" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="22" fillId="39" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="22" fillId="39" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="22" fillId="39" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="23" fillId="35" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1054,6 +1042,12 @@
     </xf>
     <xf numFmtId="3" fontId="22" fillId="39" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="34" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="60">
@@ -1132,9 +1126,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1172,9 +1166,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1207,26 +1201,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1259,26 +1236,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1455,7 +1415,7 @@
   <dimension ref="A1:Q48"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="R15" sqref="R15"/>
+      <selection activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -1508,7 +1468,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1580,19 +1540,19 @@
         <v>51</v>
       </c>
       <c r="M5" s="24" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N5" s="25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O5" s="25" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P5" s="25" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Q5" s="20" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:17" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -1632,23 +1592,23 @@
       <c r="L6" s="8">
         <v>663401</v>
       </c>
-      <c r="M6" s="40">
-        <v>647529</v>
-      </c>
-      <c r="N6" s="36">
-        <v>666772</v>
-      </c>
-      <c r="O6" s="37">
+      <c r="M6" s="36">
+        <v>650364</v>
+      </c>
+      <c r="N6" s="8">
+        <v>658669</v>
+      </c>
+      <c r="O6" s="34">
         <f>_xlfn.RANK.EQ(N6,$N$6:$N$37)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P6" s="22">
         <f>N6/$N$38</f>
-        <v>1.1096350119392289E-2</v>
+        <v>1.0938359815141489E-2</v>
       </c>
       <c r="Q6" s="31">
         <f>N6/M6-1</f>
-        <v>2.9717587938146384E-2</v>
+        <v>1.2769772004600499E-2</v>
       </c>
     </row>
     <row r="7" spans="1:17" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -1688,23 +1648,23 @@
       <c r="L7" s="8">
         <v>1848093</v>
       </c>
-      <c r="M7" s="40">
-        <v>1804722</v>
-      </c>
-      <c r="N7" s="36">
-        <v>1823719</v>
-      </c>
-      <c r="O7" s="37">
+      <c r="M7" s="36">
+        <v>1852949</v>
+      </c>
+      <c r="N7" s="8">
+        <v>1846385</v>
+      </c>
+      <c r="O7" s="34">
         <f t="shared" ref="O7:O37" si="0">_xlfn.RANK.EQ(N7,$N$6:$N$37)</f>
         <v>11</v>
       </c>
       <c r="P7" s="22">
         <f>N7/$N$38</f>
-        <v>3.0350141492726128E-2</v>
+        <v>3.0662477643975984E-2</v>
       </c>
       <c r="Q7" s="31">
-        <f t="shared" ref="Q7:Q38" si="1">N7/M7-1</f>
-        <v>1.0526274960908077E-2</v>
+        <f t="shared" ref="Q7:Q37" si="1">N7/M7-1</f>
+        <v>-3.5424612334176153E-3</v>
       </c>
     </row>
     <row r="8" spans="1:17" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -1744,23 +1704,23 @@
       <c r="L8" s="8">
         <v>444018</v>
       </c>
-      <c r="M8" s="40">
-        <v>433220</v>
-      </c>
-      <c r="N8" s="36">
-        <v>447241</v>
-      </c>
-      <c r="O8" s="37">
+      <c r="M8" s="36">
+        <v>442159</v>
+      </c>
+      <c r="N8" s="8">
+        <v>468916</v>
+      </c>
+      <c r="O8" s="34">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="P8" s="22">
-        <f t="shared" ref="P7:P37" si="2">N8/$N$38</f>
-        <v>7.4429381014006687E-3</v>
+        <f t="shared" ref="P8:P37" si="2">N8/$N$38</f>
+        <v>7.7871767626484416E-3</v>
       </c>
       <c r="Q8" s="31">
         <f t="shared" si="1"/>
-        <v>3.2364618438668558E-2</v>
+        <v>6.0514430329361213E-2</v>
       </c>
     </row>
     <row r="9" spans="1:17" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -1800,23 +1760,23 @@
       <c r="L9" s="8">
         <v>435183</v>
       </c>
-      <c r="M9" s="40">
-        <v>436070</v>
-      </c>
-      <c r="N9" s="36">
-        <v>439175</v>
-      </c>
-      <c r="O9" s="37">
+      <c r="M9" s="36">
+        <v>442962</v>
+      </c>
+      <c r="N9" s="8">
+        <v>440693</v>
+      </c>
+      <c r="O9" s="34">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="P9" s="22">
         <f t="shared" si="2"/>
-        <v>7.3087045702040707E-3</v>
+        <v>7.3184840974968423E-3</v>
       </c>
       <c r="Q9" s="31">
         <f t="shared" si="1"/>
-        <v>7.1204164469007569E-3</v>
+        <v>-5.1223355502277856E-3</v>
       </c>
     </row>
     <row r="10" spans="1:17" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -1856,23 +1816,23 @@
       <c r="L10" s="8">
         <v>1540535</v>
       </c>
-      <c r="M10" s="40">
-        <v>1488638</v>
-      </c>
-      <c r="N10" s="36">
-        <v>1517226</v>
-      </c>
-      <c r="O10" s="37">
+      <c r="M10" s="36">
+        <v>1515811</v>
+      </c>
+      <c r="N10" s="8">
+        <v>1558041</v>
+      </c>
+      <c r="O10" s="34">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P10" s="22">
         <f t="shared" si="2"/>
-        <v>2.5249516935691788E-2</v>
+        <v>2.5874017244993858E-2</v>
       </c>
       <c r="Q10" s="31">
         <f t="shared" si="1"/>
-        <v>1.920413156187073E-2</v>
+        <v>2.78596737983825E-2</v>
       </c>
     </row>
     <row r="11" spans="1:17" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -1912,23 +1872,23 @@
       <c r="L11" s="8">
         <v>385344</v>
       </c>
-      <c r="M11" s="40">
-        <v>390874</v>
-      </c>
-      <c r="N11" s="36">
-        <v>391376</v>
-      </c>
-      <c r="O11" s="37">
+      <c r="M11" s="36">
+        <v>395237</v>
+      </c>
+      <c r="N11" s="8">
+        <v>378600</v>
+      </c>
+      <c r="O11" s="34">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="P11" s="22">
         <f t="shared" si="2"/>
-        <v>6.5132385947929373E-3</v>
+        <v>6.2873203779327215E-3</v>
       </c>
       <c r="Q11" s="31">
         <f t="shared" si="1"/>
-        <v>1.2843013349570498E-3</v>
+        <v>-4.2093731103110321E-2</v>
       </c>
     </row>
     <row r="12" spans="1:17" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -1968,23 +1928,23 @@
       <c r="L12" s="8">
         <v>2211107</v>
       </c>
-      <c r="M12" s="40">
-        <v>2158172</v>
-      </c>
-      <c r="N12" s="36">
-        <v>2199469</v>
-      </c>
-      <c r="O12" s="37">
+      <c r="M12" s="36">
+        <v>2199559</v>
+      </c>
+      <c r="N12" s="8">
+        <v>2186029</v>
+      </c>
+      <c r="O12" s="34">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P12" s="22">
         <f t="shared" si="2"/>
-        <v>3.6603333824380205E-2</v>
+        <v>3.6302864972139165E-2</v>
       </c>
       <c r="Q12" s="31">
         <f t="shared" si="1"/>
-        <v>1.9135175509644275E-2</v>
+        <v>-6.1512330426235495E-3</v>
       </c>
     </row>
     <row r="13" spans="1:17" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -2024,23 +1984,23 @@
       <c r="L13" s="8">
         <v>1855152</v>
       </c>
-      <c r="M13" s="40">
-        <v>1735066</v>
-      </c>
-      <c r="N13" s="36">
-        <v>1794237</v>
-      </c>
-      <c r="O13" s="37">
+      <c r="M13" s="36">
+        <v>1804415</v>
+      </c>
+      <c r="N13" s="8">
+        <v>1852357</v>
+      </c>
+      <c r="O13" s="34">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="P13" s="22">
         <f t="shared" si="2"/>
-        <v>2.9859505121942825E-2</v>
+        <v>3.0761653231131329E-2</v>
       </c>
       <c r="Q13" s="31">
         <f t="shared" si="1"/>
-        <v>3.4103025475687998E-2</v>
+        <v>2.6569275914908763E-2</v>
       </c>
     </row>
     <row r="14" spans="1:17" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -2080,23 +2040,23 @@
       <c r="L14" s="8">
         <v>4921131</v>
       </c>
-      <c r="M14" s="40">
-        <v>4658108</v>
-      </c>
-      <c r="N14" s="36">
-        <v>4876283</v>
-      </c>
-      <c r="O14" s="37">
+      <c r="M14" s="36">
+        <v>4793126</v>
+      </c>
+      <c r="N14" s="8">
+        <v>4924263</v>
+      </c>
+      <c r="O14" s="34">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="P14" s="22">
         <f t="shared" si="2"/>
-        <v>8.1150593380106828E-2</v>
+        <v>8.1776067369783711E-2</v>
       </c>
       <c r="Q14" s="31">
         <f t="shared" si="1"/>
-        <v>4.6837686030465564E-2</v>
+        <v>2.7359389258700961E-2</v>
       </c>
     </row>
     <row r="15" spans="1:17" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -2136,23 +2096,23 @@
       <c r="L15" s="8">
         <v>824826</v>
       </c>
-      <c r="M15" s="40">
-        <v>821631</v>
-      </c>
-      <c r="N15" s="36">
-        <v>830027</v>
-      </c>
-      <c r="O15" s="37">
+      <c r="M15" s="36">
+        <v>835615</v>
+      </c>
+      <c r="N15" s="8">
+        <v>847630</v>
+      </c>
+      <c r="O15" s="34">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="P15" s="22">
         <f t="shared" si="2"/>
-        <v>1.3813222811618999E-2</v>
+        <v>1.4076390311534898E-2</v>
       </c>
       <c r="Q15" s="31">
         <f t="shared" si="1"/>
-        <v>1.0218699148401234E-2</v>
+        <v>1.4378631307480072E-2</v>
       </c>
     </row>
     <row r="16" spans="1:17" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -2192,23 +2152,23 @@
       <c r="L16" s="8">
         <v>2842643</v>
       </c>
-      <c r="M16" s="40">
-        <v>2806638</v>
-      </c>
-      <c r="N16" s="36">
-        <v>2937399</v>
-      </c>
-      <c r="O16" s="37">
+      <c r="M16" s="36">
+        <v>2828639</v>
+      </c>
+      <c r="N16" s="8">
+        <v>2855201</v>
+      </c>
+      <c r="O16" s="34">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P16" s="22">
         <f t="shared" si="2"/>
-        <v>4.888388796223115E-2</v>
+        <v>4.7415645616465621E-2</v>
       </c>
       <c r="Q16" s="31">
         <f t="shared" si="1"/>
-        <v>4.6589905787636221E-2</v>
+        <v>9.3903817348202079E-3</v>
       </c>
     </row>
     <row r="17" spans="1:17" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -2248,23 +2208,23 @@
       <c r="L17" s="8">
         <v>1599844</v>
       </c>
-      <c r="M17" s="40">
-        <v>1374567</v>
-      </c>
-      <c r="N17" s="36">
-        <v>1585867</v>
-      </c>
-      <c r="O17" s="37">
+      <c r="M17" s="36">
+        <v>1519990</v>
+      </c>
+      <c r="N17" s="8">
+        <v>1611640</v>
+      </c>
+      <c r="O17" s="34">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="P17" s="22">
         <f t="shared" si="2"/>
-        <v>2.6391833302523638E-2</v>
+        <v>2.6764123121741919E-2</v>
       </c>
       <c r="Q17" s="31">
         <f t="shared" si="1"/>
-        <v>0.15372113545574706</v>
+        <v>6.0296449318745449E-2</v>
       </c>
     </row>
     <row r="18" spans="1:17" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -2304,23 +2264,23 @@
       <c r="L18" s="8">
         <v>1483290</v>
       </c>
-      <c r="M18" s="40">
-        <v>1372274</v>
-      </c>
-      <c r="N18" s="36">
-        <v>1524662</v>
-      </c>
-      <c r="O18" s="37">
+      <c r="M18" s="36">
+        <v>1423737</v>
+      </c>
+      <c r="N18" s="8">
+        <v>1494828</v>
+      </c>
+      <c r="O18" s="34">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="P18" s="22">
         <f t="shared" si="2"/>
-        <v>2.5373266072559863E-2</v>
+        <v>2.4824253951147422E-2</v>
       </c>
       <c r="Q18" s="31">
         <f t="shared" si="1"/>
-        <v>0.11104779366219875</v>
+        <v>4.9932677172820572E-2</v>
       </c>
     </row>
     <row r="19" spans="1:17" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -2360,23 +2320,23 @@
       <c r="L19" s="9">
         <v>4164627</v>
       </c>
-      <c r="M19" s="41">
-        <v>4039130</v>
-      </c>
-      <c r="N19" s="38">
-        <v>4198136</v>
-      </c>
-      <c r="O19" s="39">
+      <c r="M19" s="37">
+        <v>4068763</v>
+      </c>
+      <c r="N19" s="9">
+        <v>4180510</v>
+      </c>
+      <c r="O19" s="35">
         <f>_xlfn.RANK.EQ(N19,$N$6:$N$37)</f>
         <v>3</v>
       </c>
       <c r="P19" s="23">
         <f>N19/$N$38</f>
-        <v>6.9864941696449565E-2</v>
+        <v>6.9424737752645321E-2</v>
       </c>
       <c r="Q19" s="32">
         <f>N19/M19-1</f>
-        <v>3.9366398209515374E-2</v>
+        <v>2.7464612709071634E-2</v>
       </c>
     </row>
     <row r="20" spans="1:17" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -2416,23 +2376,23 @@
       <c r="L20" s="8">
         <v>8217291</v>
       </c>
-      <c r="M20" s="40">
-        <v>7958120</v>
-      </c>
-      <c r="N20" s="36">
-        <v>8100027</v>
-      </c>
-      <c r="O20" s="37">
+      <c r="M20" s="36">
+        <v>8112846</v>
+      </c>
+      <c r="N20" s="8">
+        <v>8110112</v>
+      </c>
+      <c r="O20" s="34">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="P20" s="22">
         <f t="shared" si="2"/>
-        <v>0.13479980498360872</v>
+        <v>0.13468270587669492</v>
       </c>
       <c r="Q20" s="31">
         <f t="shared" si="1"/>
-        <v>1.783172407553546E-2</v>
+        <v>-3.3699641284945514E-4</v>
       </c>
     </row>
     <row r="21" spans="1:17" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -2472,23 +2432,23 @@
       <c r="L21" s="8">
         <v>2246319</v>
       </c>
-      <c r="M21" s="40">
-        <v>2203754</v>
-      </c>
-      <c r="N21" s="36">
-        <v>2189342</v>
-      </c>
-      <c r="O21" s="37">
+      <c r="M21" s="36">
+        <v>2236441</v>
+      </c>
+      <c r="N21" s="8">
+        <v>2220568</v>
+      </c>
+      <c r="O21" s="34">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="P21" s="22">
         <f t="shared" si="2"/>
-        <v>3.6434801346023157E-2</v>
+        <v>3.6876445950832823E-2</v>
       </c>
       <c r="Q21" s="31">
         <f t="shared" si="1"/>
-        <v>-6.5397498994896885E-3</v>
+        <v>-7.0974374016573583E-3</v>
       </c>
     </row>
     <row r="22" spans="1:17" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -2528,23 +2488,23 @@
       <c r="L22" s="8">
         <v>883075</v>
       </c>
-      <c r="M22" s="40">
-        <v>849097</v>
-      </c>
-      <c r="N22" s="36">
-        <v>890646</v>
-      </c>
-      <c r="O22" s="37">
+      <c r="M22" s="36">
+        <v>841772</v>
+      </c>
+      <c r="N22" s="8">
+        <v>886686</v>
+      </c>
+      <c r="O22" s="34">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="P22" s="22">
         <f t="shared" si="2"/>
-        <v>1.4822037890667671E-2</v>
+        <v>1.4724984037579643E-2</v>
       </c>
       <c r="Q22" s="31">
         <f t="shared" si="1"/>
-        <v>4.8933160757840488E-2</v>
+        <v>5.3356490831246495E-2</v>
       </c>
     </row>
     <row r="23" spans="1:17" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -2584,23 +2544,23 @@
       <c r="L23" s="8">
         <v>622716</v>
       </c>
-      <c r="M23" s="40">
-        <v>613208</v>
-      </c>
-      <c r="N23" s="36">
-        <v>621866</v>
-      </c>
-      <c r="O23" s="37">
+      <c r="M23" s="36">
+        <v>618626</v>
+      </c>
+      <c r="N23" s="8">
+        <v>628886</v>
+      </c>
+      <c r="O23" s="34">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="P23" s="22">
         <f t="shared" si="2"/>
-        <v>1.0349029148413558E-2</v>
+        <v>1.0443760600096665E-2</v>
       </c>
       <c r="Q23" s="31">
         <f t="shared" si="1"/>
-        <v>1.411918957352154E-2</v>
+        <v>1.658514191126792E-2</v>
       </c>
     </row>
     <row r="24" spans="1:17" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -2640,23 +2600,23 @@
       <c r="L24" s="8">
         <v>2919303</v>
       </c>
-      <c r="M24" s="40">
-        <v>2856917</v>
-      </c>
-      <c r="N24" s="36">
-        <v>2901131</v>
-      </c>
-      <c r="O24" s="37">
+      <c r="M24" s="36">
+        <v>2890727</v>
+      </c>
+      <c r="N24" s="8">
+        <v>2896509</v>
+      </c>
+      <c r="O24" s="34">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P24" s="22">
         <f t="shared" si="2"/>
-        <v>4.8280319686823489E-2</v>
+        <v>4.810163777222802E-2</v>
       </c>
       <c r="Q24" s="31">
         <f t="shared" si="1"/>
-        <v>1.5476123387553775E-2</v>
+        <v>2.0001888798215628E-3</v>
       </c>
     </row>
     <row r="25" spans="1:17" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -2696,23 +2656,23 @@
       <c r="L25" s="8">
         <v>1930924</v>
       </c>
-      <c r="M25" s="40">
-        <v>1884444</v>
-      </c>
-      <c r="N25" s="36">
-        <v>1916376</v>
-      </c>
-      <c r="O25" s="37">
+      <c r="M25" s="36">
+        <v>1907900</v>
+      </c>
+      <c r="N25" s="8">
+        <v>1836475</v>
+      </c>
+      <c r="O25" s="34">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="P25" s="22">
         <f t="shared" si="2"/>
-        <v>3.1892129628119534E-2</v>
+        <v>3.0497904625102996E-2</v>
       </c>
       <c r="Q25" s="31">
         <f t="shared" si="1"/>
-        <v>1.6945051166285641E-2</v>
+        <v>-3.7436448451176663E-2</v>
       </c>
     </row>
     <row r="26" spans="1:17" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -2752,23 +2712,23 @@
       <c r="L26" s="8">
         <v>3016552</v>
       </c>
-      <c r="M26" s="40">
-        <v>3022868</v>
-      </c>
-      <c r="N26" s="36">
-        <v>3077202</v>
-      </c>
-      <c r="O26" s="37">
+      <c r="M26" s="36">
+        <v>3090458</v>
+      </c>
+      <c r="N26" s="8">
+        <v>3070602</v>
+      </c>
+      <c r="O26" s="34">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="P26" s="22">
         <f t="shared" si="2"/>
-        <v>5.1210474915104699E-2</v>
+        <v>5.0992758920023688E-2</v>
       </c>
       <c r="Q26" s="31">
         <f t="shared" si="1"/>
-        <v>1.7974321075217237E-2</v>
+        <v>-6.4249376629612609E-3</v>
       </c>
     </row>
     <row r="27" spans="1:17" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -2808,23 +2768,23 @@
       <c r="L27" s="8">
         <v>1111103</v>
       </c>
-      <c r="M27" s="40">
-        <v>1053243</v>
-      </c>
-      <c r="N27" s="36">
-        <v>1131809</v>
-      </c>
-      <c r="O27" s="37">
+      <c r="M27" s="36">
+        <v>1029663</v>
+      </c>
+      <c r="N27" s="8">
+        <v>1144455</v>
+      </c>
+      <c r="O27" s="34">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="P27" s="22">
         <f t="shared" si="2"/>
-        <v>1.8835447397730059E-2</v>
+        <v>1.9005692665417306E-2</v>
       </c>
       <c r="Q27" s="31">
         <f t="shared" si="1"/>
-        <v>7.4594371859105557E-2</v>
+        <v>0.11148501985601111</v>
       </c>
     </row>
     <row r="28" spans="1:17" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -2864,23 +2824,23 @@
       <c r="L28" s="8">
         <v>987173</v>
       </c>
-      <c r="M28" s="40">
-        <v>939947</v>
-      </c>
-      <c r="N28" s="36">
-        <v>996823</v>
-      </c>
-      <c r="O28" s="37">
+      <c r="M28" s="36">
+        <v>960681</v>
+      </c>
+      <c r="N28" s="8">
+        <v>994829</v>
+      </c>
+      <c r="O28" s="34">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="P28" s="22">
         <f t="shared" si="2"/>
-        <v>1.6589024456730307E-2</v>
+        <v>1.6520889181876469E-2</v>
       </c>
       <c r="Q28" s="31">
         <f t="shared" si="1"/>
-        <v>6.0509794701190556E-2</v>
+        <v>3.5545618160450765E-2</v>
       </c>
     </row>
     <row r="29" spans="1:17" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -2920,23 +2880,23 @@
       <c r="L29" s="8">
         <v>1306723</v>
       </c>
-      <c r="M29" s="40">
-        <v>1289621</v>
-      </c>
-      <c r="N29" s="36">
-        <v>1306502</v>
-      </c>
-      <c r="O29" s="37">
+      <c r="M29" s="36">
+        <v>1285079</v>
+      </c>
+      <c r="N29" s="8">
+        <v>1318723</v>
+      </c>
+      <c r="O29" s="34">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="P29" s="22">
         <f t="shared" si="2"/>
-        <v>2.1742670093654597E-2</v>
+        <v>2.1899719996694589E-2</v>
       </c>
       <c r="Q29" s="31">
         <f t="shared" si="1"/>
-        <v>1.3089892301691775E-2</v>
+        <v>2.6180491627362912E-2</v>
       </c>
     </row>
     <row r="30" spans="1:17" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -2976,23 +2936,23 @@
       <c r="L30" s="8">
         <v>1466293</v>
       </c>
-      <c r="M30" s="40">
-        <v>1373253</v>
-      </c>
-      <c r="N30" s="36">
-        <v>1484243</v>
-      </c>
-      <c r="O30" s="37">
+      <c r="M30" s="36">
+        <v>1430286</v>
+      </c>
+      <c r="N30" s="8">
+        <v>1472153</v>
+      </c>
+      <c r="O30" s="34">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="P30" s="22">
         <f t="shared" si="2"/>
-        <v>2.4700617287854273E-2</v>
+        <v>2.4447695605744293E-2</v>
       </c>
       <c r="Q30" s="31">
         <f t="shared" si="1"/>
-        <v>8.0822688900006101E-2</v>
+        <v>2.9271768024017542E-2</v>
       </c>
     </row>
     <row r="31" spans="1:17" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -3032,23 +2992,23 @@
       <c r="L31" s="8">
         <v>1445570</v>
       </c>
-      <c r="M31" s="40">
-        <v>1418883</v>
-      </c>
-      <c r="N31" s="36">
-        <v>1464753</v>
-      </c>
-      <c r="O31" s="37">
+      <c r="M31" s="36">
+        <v>1459021</v>
+      </c>
+      <c r="N31" s="8">
+        <v>1509288</v>
+      </c>
+      <c r="O31" s="34">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="P31" s="22">
         <f t="shared" si="2"/>
-        <v>2.4376266739500479E-2</v>
+        <v>2.5064387740542315E-2</v>
       </c>
       <c r="Q31" s="31">
         <f t="shared" si="1"/>
-        <v>3.2328246937908256E-2</v>
+        <v>3.4452554144182912E-2</v>
       </c>
     </row>
     <row r="32" spans="1:17" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -3088,23 +3048,23 @@
       <c r="L32" s="8">
         <v>1089415</v>
       </c>
-      <c r="M32" s="40">
-        <v>1024360</v>
-      </c>
-      <c r="N32" s="36">
-        <v>1092772</v>
-      </c>
-      <c r="O32" s="37">
+      <c r="M32" s="36">
+        <v>1029537</v>
+      </c>
+      <c r="N32" s="8">
+        <v>1074438</v>
+      </c>
+      <c r="O32" s="34">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="P32" s="22">
         <f t="shared" si="2"/>
-        <v>1.8185797712964177E-2</v>
+        <v>1.7842936957805804E-2</v>
       </c>
       <c r="Q32" s="31">
         <f t="shared" si="1"/>
-        <v>6.6785114608145513E-2</v>
+        <v>4.3612808476043208E-2</v>
       </c>
     </row>
     <row r="33" spans="1:17" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -3144,23 +3104,23 @@
       <c r="L33" s="8">
         <v>1672565</v>
       </c>
-      <c r="M33" s="40">
-        <v>1640403</v>
-      </c>
-      <c r="N33" s="36">
-        <v>1668314</v>
-      </c>
-      <c r="O33" s="37">
+      <c r="M33" s="36">
+        <v>1675906</v>
+      </c>
+      <c r="N33" s="8">
+        <v>1702013</v>
+      </c>
+      <c r="O33" s="34">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="P33" s="22">
         <f t="shared" si="2"/>
-        <v>2.7763907682211951E-2</v>
+        <v>2.8264926091934508E-2</v>
       </c>
       <c r="Q33" s="31">
         <f t="shared" si="1"/>
-        <v>1.7014721382489606E-2</v>
+        <v>1.5577842671367081E-2</v>
       </c>
     </row>
     <row r="34" spans="1:17" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -3200,23 +3160,23 @@
       <c r="L34" s="8">
         <v>648539</v>
       </c>
-      <c r="M34" s="40">
-        <v>620531</v>
-      </c>
-      <c r="N34" s="36">
-        <v>650681</v>
-      </c>
-      <c r="O34" s="37">
+      <c r="M34" s="36">
+        <v>630978</v>
+      </c>
+      <c r="N34" s="8">
+        <v>670784</v>
+      </c>
+      <c r="O34" s="34">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P34" s="22">
         <f t="shared" si="2"/>
-        <v>1.0828565374725234E-2</v>
+        <v>1.1139550745882784E-2</v>
       </c>
       <c r="Q34" s="31">
         <f t="shared" si="1"/>
-        <v>4.8587419484280359E-2</v>
+        <v>6.3086193179476835E-2</v>
       </c>
     </row>
     <row r="35" spans="1:17" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -3256,23 +3216,23 @@
       <c r="L35" s="8">
         <v>3428792</v>
       </c>
-      <c r="M35" s="40">
-        <v>3296444</v>
-      </c>
-      <c r="N35" s="36">
-        <v>3479497</v>
-      </c>
-      <c r="O35" s="37">
+      <c r="M35" s="36">
+        <v>3439114</v>
+      </c>
+      <c r="N35" s="8">
+        <v>3451872</v>
+      </c>
+      <c r="O35" s="34">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="P35" s="22">
         <f t="shared" si="2"/>
-        <v>5.7905426369696256E-2</v>
+        <v>5.7324419354504434E-2</v>
       </c>
       <c r="Q35" s="31">
         <f t="shared" si="1"/>
-        <v>5.5530444321213901E-2</v>
+        <v>3.70967638758124E-3</v>
       </c>
     </row>
     <row r="36" spans="1:17" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -3312,23 +3272,23 @@
       <c r="L36" s="8">
         <v>1241444</v>
       </c>
-      <c r="M36" s="40">
-        <v>1196624</v>
-      </c>
-      <c r="N36" s="36">
-        <v>1217552</v>
-      </c>
-      <c r="O36" s="37">
+      <c r="M36" s="36">
+        <v>1224460</v>
+      </c>
+      <c r="N36" s="8">
+        <v>1225510</v>
+      </c>
+      <c r="O36" s="34">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="P36" s="22">
         <f t="shared" si="2"/>
-        <v>2.0262373465841876E-2</v>
+        <v>2.0351753820286131E-2</v>
       </c>
       <c r="Q36" s="31">
         <f t="shared" si="1"/>
-        <v>1.7489202957654104E-2</v>
+        <v>8.5752086634105495E-4</v>
       </c>
     </row>
     <row r="37" spans="1:17" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -3368,23 +3328,23 @@
       <c r="L37" s="8">
         <v>692465</v>
       </c>
-      <c r="M37" s="40">
-        <v>676958</v>
-      </c>
-      <c r="N37" s="36">
-        <v>668183</v>
-      </c>
-      <c r="O37" s="37">
+      <c r="M37" s="36">
+        <v>701598</v>
+      </c>
+      <c r="N37" s="8">
+        <v>698767</v>
+      </c>
+      <c r="O37" s="34">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="P37" s="22">
         <f t="shared" si="2"/>
-        <v>1.1119831834309025E-2</v>
+        <v>1.1604257787973887E-2</v>
       </c>
       <c r="Q37" s="31">
         <f t="shared" si="1"/>
-        <v>-1.2962399439847117E-2</v>
+        <v>-4.0350742162891251E-3</v>
       </c>
     </row>
     <row r="38" spans="1:17" s="2" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -3425,19 +3385,19 @@
         <v>60145456</v>
       </c>
       <c r="M38" s="6">
-        <v>58085314</v>
+        <v>59338419</v>
       </c>
       <c r="N38" s="7">
-        <v>60089308</v>
+        <v>60216432</v>
       </c>
       <c r="O38" s="7"/>
       <c r="P38" s="30">
         <f>SUM(P6:P37)</f>
-        <v>0.99999999999999978</v>
+        <v>1</v>
       </c>
       <c r="Q38" s="33">
         <f>N38/M38-1</f>
-        <v>3.4500872285893047E-2</v>
+        <v>1.4796703633104924E-2</v>
       </c>
     </row>
     <row r="39" spans="1:17" s="16" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -3481,24 +3441,24 @@
       <c r="P40" s="12"/>
     </row>
     <row r="41" spans="1:17" s="18" customFormat="1" ht="22.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="35" t="s">
+      <c r="A41" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="B41" s="35"/>
-      <c r="C41" s="35"/>
-      <c r="D41" s="35"/>
-      <c r="E41" s="35"/>
-      <c r="F41" s="35"/>
-      <c r="G41" s="35"/>
-      <c r="H41" s="35"/>
-      <c r="I41" s="35"/>
-      <c r="J41" s="35"/>
-      <c r="K41" s="35"/>
-      <c r="L41" s="35"/>
-      <c r="M41" s="35"/>
-      <c r="N41" s="35"/>
-      <c r="O41" s="35"/>
-      <c r="P41" s="35"/>
+      <c r="B41" s="39"/>
+      <c r="C41" s="39"/>
+      <c r="D41" s="39"/>
+      <c r="E41" s="39"/>
+      <c r="F41" s="39"/>
+      <c r="G41" s="39"/>
+      <c r="H41" s="39"/>
+      <c r="I41" s="39"/>
+      <c r="J41" s="39"/>
+      <c r="K41" s="39"/>
+      <c r="L41" s="39"/>
+      <c r="M41" s="39"/>
+      <c r="N41" s="39"/>
+      <c r="O41" s="39"/>
+      <c r="P41" s="39"/>
     </row>
     <row r="42" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="14" t="s">
@@ -3506,24 +3466,24 @@
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A43" s="34" t="s">
+      <c r="A43" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="B43" s="34"/>
-      <c r="C43" s="34"/>
-      <c r="D43" s="34"/>
-      <c r="E43" s="34"/>
-      <c r="F43" s="34"/>
-      <c r="G43" s="34"/>
-      <c r="H43" s="34"/>
-      <c r="I43" s="34"/>
-      <c r="J43" s="34"/>
-      <c r="K43" s="34"/>
-      <c r="L43" s="34"/>
-      <c r="M43" s="34"/>
-      <c r="N43" s="34"/>
-      <c r="O43" s="34"/>
-      <c r="P43" s="34"/>
+      <c r="B43" s="38"/>
+      <c r="C43" s="38"/>
+      <c r="D43" s="38"/>
+      <c r="E43" s="38"/>
+      <c r="F43" s="38"/>
+      <c r="G43" s="38"/>
+      <c r="H43" s="38"/>
+      <c r="I43" s="38"/>
+      <c r="J43" s="38"/>
+      <c r="K43" s="38"/>
+      <c r="L43" s="38"/>
+      <c r="M43" s="38"/>
+      <c r="N43" s="38"/>
+      <c r="O43" s="38"/>
+      <c r="P43" s="38"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="5"/>

--- a/Tabulados/pea-entidad.xlsx
+++ b/Tabulados/pea-entidad.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\susan\OneDrive\Documentos\IIEG\Actualizaciones pagina\Tabulados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F52BF6C-4B0B-4E91-86A8-DEB02E3BF347}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{584D26C7-26DD-4FAC-B8D3-96EC180C5BB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -226,25 +226,25 @@
 IV Trim</t>
   </si>
   <si>
-    <t>IV trimestre 2012 - II trimestre 2023</t>
-  </si>
-  <si>
     <t>2022
-II Trim</t>
+III Trim</t>
   </si>
   <si>
     <t>2023
-II Trim</t>
-  </si>
-  <si>
-    <t>Rank II trim 2023</t>
+III Trim</t>
+  </si>
+  <si>
+    <t>Rank III trim 2023</t>
   </si>
   <si>
     <t>% Partic Nal
-II Trim 2023</t>
-  </si>
-  <si>
-    <t>% Var II trim 2023 / II trim 2022</t>
+III Trim 2023</t>
+  </si>
+  <si>
+    <t>% Var III trim 2023 / III trim 2022</t>
+  </si>
+  <si>
+    <t>IV trimestre 2012 - III trimestre 2023</t>
   </si>
 </sst>
 </file>
@@ -1415,7 +1415,7 @@
   <dimension ref="A1:Q48"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="S14" sqref="S14"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -1468,7 +1468,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1540,19 +1540,19 @@
         <v>51</v>
       </c>
       <c r="M5" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="N5" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="N5" s="25" t="s">
+      <c r="O5" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="O5" s="25" t="s">
+      <c r="P5" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="P5" s="25" t="s">
+      <c r="Q5" s="20" t="s">
         <v>56</v>
-      </c>
-      <c r="Q5" s="20" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:17" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -1593,22 +1593,22 @@
         <v>663401</v>
       </c>
       <c r="M6" s="36">
-        <v>650364</v>
+        <v>665746</v>
       </c>
       <c r="N6" s="8">
-        <v>658669</v>
+        <v>687862</v>
       </c>
       <c r="O6" s="34">
         <f>_xlfn.RANK.EQ(N6,$N$6:$N$37)</f>
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P6" s="22">
         <f>N6/$N$38</f>
-        <v>1.0938359815141489E-2</v>
+        <v>1.1277781781902047E-2</v>
       </c>
       <c r="Q6" s="31">
         <f>N6/M6-1</f>
-        <v>1.2769772004600499E-2</v>
+        <v>3.3219876649653202E-2</v>
       </c>
     </row>
     <row r="7" spans="1:17" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -1649,22 +1649,22 @@
         <v>1848093</v>
       </c>
       <c r="M7" s="36">
-        <v>1852949</v>
+        <v>1830056</v>
       </c>
       <c r="N7" s="8">
-        <v>1846385</v>
+        <v>1857281</v>
       </c>
       <c r="O7" s="34">
         <f t="shared" ref="O7:O37" si="0">_xlfn.RANK.EQ(N7,$N$6:$N$37)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P7" s="22">
         <f>N7/$N$38</f>
-        <v>3.0662477643975984E-2</v>
+        <v>3.0450889605288294E-2</v>
       </c>
       <c r="Q7" s="31">
         <f t="shared" ref="Q7:Q37" si="1">N7/M7-1</f>
-        <v>-3.5424612334176153E-3</v>
+        <v>1.4876593940294613E-2</v>
       </c>
     </row>
     <row r="8" spans="1:17" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -1705,10 +1705,10 @@
         <v>444018</v>
       </c>
       <c r="M8" s="36">
-        <v>442159</v>
+        <v>440461</v>
       </c>
       <c r="N8" s="8">
-        <v>468916</v>
+        <v>475463</v>
       </c>
       <c r="O8" s="34">
         <f t="shared" si="0"/>
@@ -1716,11 +1716,11 @@
       </c>
       <c r="P8" s="22">
         <f t="shared" ref="P8:P37" si="2">N8/$N$38</f>
-        <v>7.7871767626484416E-3</v>
+        <v>7.795412392846957E-3</v>
       </c>
       <c r="Q8" s="31">
         <f t="shared" si="1"/>
-        <v>6.0514430329361213E-2</v>
+        <v>7.9466740528673308E-2</v>
       </c>
     </row>
     <row r="9" spans="1:17" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -1761,10 +1761,10 @@
         <v>435183</v>
       </c>
       <c r="M9" s="36">
-        <v>442962</v>
+        <v>445659</v>
       </c>
       <c r="N9" s="8">
-        <v>440693</v>
+        <v>443151</v>
       </c>
       <c r="O9" s="34">
         <f t="shared" si="0"/>
@@ -1772,11 +1772,11 @@
       </c>
       <c r="P9" s="22">
         <f t="shared" si="2"/>
-        <v>7.3184840974968423E-3</v>
+        <v>7.2656437983660595E-3</v>
       </c>
       <c r="Q9" s="31">
         <f t="shared" si="1"/>
-        <v>-5.1223355502277856E-3</v>
+        <v>-5.6276211183887703E-3</v>
       </c>
     </row>
     <row r="10" spans="1:17" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -1817,22 +1817,22 @@
         <v>1540535</v>
       </c>
       <c r="M10" s="36">
-        <v>1515811</v>
+        <v>1514885</v>
       </c>
       <c r="N10" s="8">
-        <v>1558041</v>
+        <v>1526864</v>
       </c>
       <c r="O10" s="34">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="P10" s="22">
         <f t="shared" si="2"/>
-        <v>2.5874017244993858E-2</v>
+        <v>2.5033566329644735E-2</v>
       </c>
       <c r="Q10" s="31">
         <f t="shared" si="1"/>
-        <v>2.78596737983825E-2</v>
+        <v>7.9075309346914313E-3</v>
       </c>
     </row>
     <row r="11" spans="1:17" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -1873,10 +1873,10 @@
         <v>385344</v>
       </c>
       <c r="M11" s="36">
-        <v>395237</v>
+        <v>393280</v>
       </c>
       <c r="N11" s="8">
-        <v>378600</v>
+        <v>388998</v>
       </c>
       <c r="O11" s="34">
         <f t="shared" si="0"/>
@@ -1884,11 +1884,11 @@
       </c>
       <c r="P11" s="22">
         <f t="shared" si="2"/>
-        <v>6.2873203779327215E-3</v>
+        <v>6.3777829820463013E-3</v>
       </c>
       <c r="Q11" s="31">
         <f t="shared" si="1"/>
-        <v>-4.2093731103110321E-2</v>
+        <v>-1.0887917005695691E-2</v>
       </c>
     </row>
     <row r="12" spans="1:17" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -1929,10 +1929,10 @@
         <v>2211107</v>
       </c>
       <c r="M12" s="36">
-        <v>2199559</v>
+        <v>2228741</v>
       </c>
       <c r="N12" s="8">
-        <v>2186029</v>
+        <v>2221988</v>
       </c>
       <c r="O12" s="34">
         <f t="shared" si="0"/>
@@ -1940,11 +1940,11 @@
       </c>
       <c r="P12" s="22">
         <f t="shared" si="2"/>
-        <v>3.6302864972139165E-2</v>
+        <v>3.6430411602915942E-2</v>
       </c>
       <c r="Q12" s="31">
         <f t="shared" si="1"/>
-        <v>-6.1512330426235495E-3</v>
+        <v>-3.0299617586789784E-3</v>
       </c>
     </row>
     <row r="13" spans="1:17" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -1985,22 +1985,22 @@
         <v>1855152</v>
       </c>
       <c r="M13" s="36">
-        <v>1804415</v>
+        <v>1820218</v>
       </c>
       <c r="N13" s="8">
-        <v>1852357</v>
+        <v>1864066</v>
       </c>
       <c r="O13" s="34">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P13" s="22">
         <f t="shared" si="2"/>
-        <v>3.0761653231131329E-2</v>
+        <v>3.0562132484514368E-2</v>
       </c>
       <c r="Q13" s="31">
         <f t="shared" si="1"/>
-        <v>2.6569275914908763E-2</v>
+        <v>2.4089422256015514E-2</v>
       </c>
     </row>
     <row r="14" spans="1:17" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -2041,10 +2041,10 @@
         <v>4921131</v>
       </c>
       <c r="M14" s="36">
-        <v>4793126</v>
+        <v>4798534</v>
       </c>
       <c r="N14" s="8">
-        <v>4924263</v>
+        <v>4912263</v>
       </c>
       <c r="O14" s="34">
         <f t="shared" si="0"/>
@@ -2052,11 +2052,11 @@
       </c>
       <c r="P14" s="22">
         <f t="shared" si="2"/>
-        <v>8.1776067369783711E-2</v>
+        <v>8.0538582112853307E-2</v>
       </c>
       <c r="Q14" s="31">
         <f t="shared" si="1"/>
-        <v>2.7359389258700961E-2</v>
+        <v>2.3700780279977129E-2</v>
       </c>
     </row>
     <row r="15" spans="1:17" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -2097,10 +2097,10 @@
         <v>824826</v>
       </c>
       <c r="M15" s="36">
-        <v>835615</v>
+        <v>855086</v>
       </c>
       <c r="N15" s="8">
-        <v>847630</v>
+        <v>845276</v>
       </c>
       <c r="O15" s="34">
         <f t="shared" si="0"/>
@@ -2108,11 +2108,11 @@
       </c>
       <c r="P15" s="22">
         <f t="shared" si="2"/>
-        <v>1.4076390311534898E-2</v>
+        <v>1.385864937077355E-2</v>
       </c>
       <c r="Q15" s="31">
         <f t="shared" si="1"/>
-        <v>1.4378631307480072E-2</v>
+        <v>-1.1472530248419432E-2</v>
       </c>
     </row>
     <row r="16" spans="1:17" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -2153,10 +2153,10 @@
         <v>2842643</v>
       </c>
       <c r="M16" s="36">
-        <v>2828639</v>
+        <v>2848237</v>
       </c>
       <c r="N16" s="8">
-        <v>2855201</v>
+        <v>2902454</v>
       </c>
       <c r="O16" s="34">
         <f t="shared" si="0"/>
@@ -2164,11 +2164,11 @@
       </c>
       <c r="P16" s="22">
         <f t="shared" si="2"/>
-        <v>4.7415645616465621E-2</v>
+        <v>4.7586932908066919E-2</v>
       </c>
       <c r="Q16" s="31">
         <f t="shared" si="1"/>
-        <v>9.3903817348202079E-3</v>
+        <v>1.9035283931779556E-2</v>
       </c>
     </row>
     <row r="17" spans="1:17" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -2209,10 +2209,10 @@
         <v>1599844</v>
       </c>
       <c r="M17" s="36">
-        <v>1519990</v>
+        <v>1557236</v>
       </c>
       <c r="N17" s="8">
-        <v>1611640</v>
+        <v>1666265</v>
       </c>
       <c r="O17" s="34">
         <f t="shared" si="0"/>
@@ -2220,11 +2220,11 @@
       </c>
       <c r="P17" s="22">
         <f t="shared" si="2"/>
-        <v>2.6764123121741919E-2</v>
+        <v>2.7319103338781639E-2</v>
       </c>
       <c r="Q17" s="31">
         <f t="shared" si="1"/>
-        <v>6.0296449318745449E-2</v>
+        <v>7.0014435833746447E-2</v>
       </c>
     </row>
     <row r="18" spans="1:17" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -2265,22 +2265,22 @@
         <v>1483290</v>
       </c>
       <c r="M18" s="36">
-        <v>1423737</v>
+        <v>1466506</v>
       </c>
       <c r="N18" s="8">
-        <v>1494828</v>
+        <v>1530191</v>
       </c>
       <c r="O18" s="34">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="P18" s="22">
         <f t="shared" si="2"/>
-        <v>2.4824253951147422E-2</v>
+        <v>2.5088113869686762E-2</v>
       </c>
       <c r="Q18" s="31">
         <f t="shared" si="1"/>
-        <v>4.9932677172820572E-2</v>
+        <v>4.3426348068129172E-2</v>
       </c>
     </row>
     <row r="19" spans="1:17" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -2321,10 +2321,10 @@
         <v>4164627</v>
       </c>
       <c r="M19" s="37">
-        <v>4068763</v>
+        <v>4140158</v>
       </c>
       <c r="N19" s="9">
-        <v>4180510</v>
+        <v>4118554</v>
       </c>
       <c r="O19" s="35">
         <f>_xlfn.RANK.EQ(N19,$N$6:$N$37)</f>
@@ -2332,11 +2332,11 @@
       </c>
       <c r="P19" s="23">
         <f>N19/$N$38</f>
-        <v>6.9424737752645321E-2</v>
+        <v>6.7525395019611203E-2</v>
       </c>
       <c r="Q19" s="32">
         <f>N19/M19-1</f>
-        <v>2.7464612709071634E-2</v>
+        <v>-5.2181583408169585E-3</v>
       </c>
     </row>
     <row r="20" spans="1:17" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -2377,10 +2377,10 @@
         <v>8217291</v>
       </c>
       <c r="M20" s="36">
-        <v>8112846</v>
+        <v>8184570</v>
       </c>
       <c r="N20" s="8">
-        <v>8110112</v>
+        <v>8339298</v>
       </c>
       <c r="O20" s="34">
         <f t="shared" si="0"/>
@@ -2388,11 +2388,11 @@
       </c>
       <c r="P20" s="22">
         <f t="shared" si="2"/>
-        <v>0.13468270587669492</v>
+        <v>0.13672623732413214</v>
       </c>
       <c r="Q20" s="31">
         <f t="shared" si="1"/>
-        <v>-3.3699641284945514E-4</v>
+        <v>1.890484167158446E-2</v>
       </c>
     </row>
     <row r="21" spans="1:17" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -2433,10 +2433,10 @@
         <v>2246319</v>
       </c>
       <c r="M21" s="36">
-        <v>2236441</v>
+        <v>2251196</v>
       </c>
       <c r="N21" s="8">
-        <v>2220568</v>
+        <v>2275618</v>
       </c>
       <c r="O21" s="34">
         <f t="shared" si="0"/>
@@ -2444,11 +2444,11 @@
       </c>
       <c r="P21" s="22">
         <f t="shared" si="2"/>
-        <v>3.6876445950832823E-2</v>
+        <v>3.7309697618080916E-2</v>
       </c>
       <c r="Q21" s="31">
         <f t="shared" si="1"/>
-        <v>-7.0974374016573583E-3</v>
+        <v>1.0848455665344092E-2</v>
       </c>
     </row>
     <row r="22" spans="1:17" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -2489,10 +2489,10 @@
         <v>883075</v>
       </c>
       <c r="M22" s="36">
-        <v>841772</v>
+        <v>869977</v>
       </c>
       <c r="N22" s="8">
-        <v>886686</v>
+        <v>884112</v>
       </c>
       <c r="O22" s="34">
         <f t="shared" si="0"/>
@@ -2500,11 +2500,11 @@
       </c>
       <c r="P22" s="22">
         <f t="shared" si="2"/>
-        <v>1.4724984037579643E-2</v>
+        <v>1.4495381641609776E-2</v>
       </c>
       <c r="Q22" s="31">
         <f t="shared" si="1"/>
-        <v>5.3356490831246495E-2</v>
+        <v>1.6247555969870486E-2</v>
       </c>
     </row>
     <row r="23" spans="1:17" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -2545,10 +2545,10 @@
         <v>622716</v>
       </c>
       <c r="M23" s="36">
-        <v>618626</v>
+        <v>621582</v>
       </c>
       <c r="N23" s="8">
-        <v>628886</v>
+        <v>634709</v>
       </c>
       <c r="O23" s="34">
         <f t="shared" si="0"/>
@@ -2556,11 +2556,11 @@
       </c>
       <c r="P23" s="22">
         <f t="shared" si="2"/>
-        <v>1.0443760600096665E-2</v>
+        <v>1.0406316378880164E-2</v>
       </c>
       <c r="Q23" s="31">
         <f t="shared" si="1"/>
-        <v>1.658514191126792E-2</v>
+        <v>2.1118693913272812E-2</v>
       </c>
     </row>
     <row r="24" spans="1:17" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -2601,10 +2601,10 @@
         <v>2919303</v>
       </c>
       <c r="M24" s="36">
-        <v>2890727</v>
+        <v>2889879</v>
       </c>
       <c r="N24" s="8">
-        <v>2896509</v>
+        <v>2961497</v>
       </c>
       <c r="O24" s="34">
         <f t="shared" si="0"/>
@@ -2612,11 +2612,11 @@
       </c>
       <c r="P24" s="22">
         <f t="shared" si="2"/>
-        <v>4.810163777222802E-2</v>
+        <v>4.8554967295413282E-2</v>
       </c>
       <c r="Q24" s="31">
         <f t="shared" si="1"/>
-        <v>2.0001888798215628E-3</v>
+        <v>2.4782352479117531E-2</v>
       </c>
     </row>
     <row r="25" spans="1:17" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -2657,22 +2657,22 @@
         <v>1930924</v>
       </c>
       <c r="M25" s="36">
-        <v>1907900</v>
+        <v>1920622</v>
       </c>
       <c r="N25" s="8">
-        <v>1836475</v>
+        <v>1981520</v>
       </c>
       <c r="O25" s="34">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="P25" s="22">
         <f t="shared" si="2"/>
-        <v>3.0497904625102996E-2</v>
+        <v>3.2487839358002833E-2</v>
       </c>
       <c r="Q25" s="31">
         <f t="shared" si="1"/>
-        <v>-3.7436448451176663E-2</v>
+        <v>3.1707436445068238E-2</v>
       </c>
     </row>
     <row r="26" spans="1:17" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -2713,10 +2713,10 @@
         <v>3016552</v>
       </c>
       <c r="M26" s="36">
-        <v>3090458</v>
+        <v>2995755</v>
       </c>
       <c r="N26" s="8">
-        <v>3070602</v>
+        <v>3128309</v>
       </c>
       <c r="O26" s="34">
         <f t="shared" si="0"/>
@@ -2724,11 +2724,11 @@
       </c>
       <c r="P26" s="22">
         <f t="shared" si="2"/>
-        <v>5.0992758920023688E-2</v>
+        <v>5.12899189784582E-2</v>
       </c>
       <c r="Q26" s="31">
         <f t="shared" si="1"/>
-        <v>-6.4249376629612609E-3</v>
+        <v>4.4247276563003313E-2</v>
       </c>
     </row>
     <row r="27" spans="1:17" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -2769,10 +2769,10 @@
         <v>1111103</v>
       </c>
       <c r="M27" s="36">
-        <v>1029663</v>
+        <v>1066235</v>
       </c>
       <c r="N27" s="8">
-        <v>1144455</v>
+        <v>1183766</v>
       </c>
       <c r="O27" s="34">
         <f t="shared" si="0"/>
@@ -2780,11 +2780,11 @@
       </c>
       <c r="P27" s="22">
         <f t="shared" si="2"/>
-        <v>1.9005692665417306E-2</v>
+        <v>1.9408332817970841E-2</v>
       </c>
       <c r="Q27" s="31">
         <f t="shared" si="1"/>
-        <v>0.11148501985601111</v>
+        <v>0.11022992117122388</v>
       </c>
     </row>
     <row r="28" spans="1:17" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -2825,10 +2825,10 @@
         <v>987173</v>
       </c>
       <c r="M28" s="36">
-        <v>960681</v>
+        <v>962278</v>
       </c>
       <c r="N28" s="8">
-        <v>994829</v>
+        <v>979797</v>
       </c>
       <c r="O28" s="34">
         <f t="shared" si="0"/>
@@ -2836,11 +2836,11 @@
       </c>
       <c r="P28" s="22">
         <f t="shared" si="2"/>
-        <v>1.6520889181876469E-2</v>
+        <v>1.6064176763016826E-2</v>
       </c>
       <c r="Q28" s="31">
         <f t="shared" si="1"/>
-        <v>3.5545618160450765E-2</v>
+        <v>1.8205757587724136E-2</v>
       </c>
     </row>
     <row r="29" spans="1:17" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -2881,10 +2881,10 @@
         <v>1306723</v>
       </c>
       <c r="M29" s="36">
-        <v>1285079</v>
+        <v>1282616</v>
       </c>
       <c r="N29" s="8">
-        <v>1318723</v>
+        <v>1354977</v>
       </c>
       <c r="O29" s="34">
         <f t="shared" si="0"/>
@@ -2892,11 +2892,11 @@
       </c>
       <c r="P29" s="22">
         <f t="shared" si="2"/>
-        <v>2.1899719996694589E-2</v>
+        <v>2.2215407924113108E-2</v>
       </c>
       <c r="Q29" s="31">
         <f t="shared" si="1"/>
-        <v>2.6180491627362912E-2</v>
+        <v>5.6416729558963929E-2</v>
       </c>
     </row>
     <row r="30" spans="1:17" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -2937,22 +2937,22 @@
         <v>1466293</v>
       </c>
       <c r="M30" s="36">
-        <v>1430286</v>
+        <v>1414126</v>
       </c>
       <c r="N30" s="8">
-        <v>1472153</v>
+        <v>1493727</v>
       </c>
       <c r="O30" s="34">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P30" s="22">
         <f t="shared" si="2"/>
-        <v>2.4447695605744293E-2</v>
+        <v>2.4490271519193092E-2</v>
       </c>
       <c r="Q30" s="31">
         <f t="shared" si="1"/>
-        <v>2.9271768024017542E-2</v>
+        <v>5.6289892131252905E-2</v>
       </c>
     </row>
     <row r="31" spans="1:17" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -2993,22 +2993,22 @@
         <v>1445570</v>
       </c>
       <c r="M31" s="36">
-        <v>1459021</v>
+        <v>1434526</v>
       </c>
       <c r="N31" s="8">
-        <v>1509288</v>
+        <v>1463755</v>
       </c>
       <c r="O31" s="34">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="P31" s="22">
         <f t="shared" si="2"/>
-        <v>2.5064387740542315E-2</v>
+        <v>2.3998868191829222E-2</v>
       </c>
       <c r="Q31" s="31">
         <f t="shared" si="1"/>
-        <v>3.4452554144182912E-2</v>
+        <v>2.0375371377026275E-2</v>
       </c>
     </row>
     <row r="32" spans="1:17" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -3049,10 +3049,10 @@
         <v>1089415</v>
       </c>
       <c r="M32" s="36">
-        <v>1029537</v>
+        <v>1048530</v>
       </c>
       <c r="N32" s="8">
-        <v>1074438</v>
+        <v>1116188</v>
       </c>
       <c r="O32" s="34">
         <f t="shared" si="0"/>
@@ -3060,11 +3060,11 @@
       </c>
       <c r="P32" s="22">
         <f t="shared" si="2"/>
-        <v>1.7842936957805804E-2</v>
+        <v>1.830036357812713E-2</v>
       </c>
       <c r="Q32" s="31">
         <f t="shared" si="1"/>
-        <v>4.3612808476043208E-2</v>
+        <v>6.4526527614851226E-2</v>
       </c>
     </row>
     <row r="33" spans="1:17" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -3105,10 +3105,10 @@
         <v>1672565</v>
       </c>
       <c r="M33" s="36">
-        <v>1675906</v>
+        <v>1657909</v>
       </c>
       <c r="N33" s="8">
-        <v>1702013</v>
+        <v>1684163</v>
       </c>
       <c r="O33" s="34">
         <f t="shared" si="0"/>
@@ -3116,11 +3116,11 @@
       </c>
       <c r="P33" s="22">
         <f t="shared" si="2"/>
-        <v>2.8264926091934508E-2</v>
+        <v>2.7612548445986984E-2</v>
       </c>
       <c r="Q33" s="31">
         <f t="shared" si="1"/>
-        <v>1.5577842671367081E-2</v>
+        <v>1.583560979522991E-2</v>
       </c>
     </row>
     <row r="34" spans="1:17" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -3161,22 +3161,22 @@
         <v>648539</v>
       </c>
       <c r="M34" s="36">
-        <v>630978</v>
+        <v>640198</v>
       </c>
       <c r="N34" s="8">
-        <v>670784</v>
+        <v>669151</v>
       </c>
       <c r="O34" s="34">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P34" s="22">
         <f t="shared" si="2"/>
-        <v>1.1139550745882784E-2</v>
+        <v>1.0971007203685532E-2</v>
       </c>
       <c r="Q34" s="31">
         <f t="shared" si="1"/>
-        <v>6.3086193179476835E-2</v>
+        <v>4.5225070993661243E-2</v>
       </c>
     </row>
     <row r="35" spans="1:17" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -3217,10 +3217,10 @@
         <v>3428792</v>
       </c>
       <c r="M35" s="36">
-        <v>3439114</v>
+        <v>3312195</v>
       </c>
       <c r="N35" s="8">
-        <v>3451872</v>
+        <v>3475269</v>
       </c>
       <c r="O35" s="34">
         <f t="shared" si="0"/>
@@ -3228,11 +3228,11 @@
       </c>
       <c r="P35" s="22">
         <f t="shared" si="2"/>
-        <v>5.7324419354504434E-2</v>
+        <v>5.6978471576288478E-2</v>
       </c>
       <c r="Q35" s="31">
         <f t="shared" si="1"/>
-        <v>3.70967638758124E-3</v>
+        <v>4.9234420074905083E-2</v>
       </c>
     </row>
     <row r="36" spans="1:17" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -3273,10 +3273,10 @@
         <v>1241444</v>
       </c>
       <c r="M36" s="36">
-        <v>1224460</v>
+        <v>1224639</v>
       </c>
       <c r="N36" s="8">
-        <v>1225510</v>
+        <v>1215297</v>
       </c>
       <c r="O36" s="34">
         <f t="shared" si="0"/>
@@ -3284,11 +3284,11 @@
       </c>
       <c r="P36" s="22">
         <f t="shared" si="2"/>
-        <v>2.0351753820286131E-2</v>
+        <v>1.99252965946661E-2</v>
       </c>
       <c r="Q36" s="31">
         <f t="shared" si="1"/>
-        <v>8.5752086634105495E-4</v>
+        <v>-7.6283704830566457E-3</v>
       </c>
     </row>
     <row r="37" spans="1:17" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -3329,10 +3329,10 @@
         <v>692465</v>
       </c>
       <c r="M37" s="36">
-        <v>701598</v>
+        <v>698835</v>
       </c>
       <c r="N37" s="8">
-        <v>698767</v>
+        <v>710839</v>
       </c>
       <c r="O37" s="34">
         <f t="shared" si="0"/>
@@ -3340,11 +3340,11 @@
       </c>
       <c r="P37" s="22">
         <f t="shared" si="2"/>
-        <v>1.1604257787973887E-2</v>
+        <v>1.1654499193247294E-2</v>
       </c>
       <c r="Q37" s="31">
         <f t="shared" si="1"/>
-        <v>-4.0350742162891251E-3</v>
+        <v>1.7177159129122099E-2</v>
       </c>
     </row>
     <row r="38" spans="1:17" s="2" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -3385,10 +3385,10 @@
         <v>60145456</v>
       </c>
       <c r="M38" s="6">
-        <v>59338419</v>
+        <v>59480471</v>
       </c>
       <c r="N38" s="7">
-        <v>60216432</v>
+        <v>60992668</v>
       </c>
       <c r="O38" s="7"/>
       <c r="P38" s="30">
@@ -3397,7 +3397,7 @@
       </c>
       <c r="Q38" s="33">
         <f>N38/M38-1</f>
-        <v>1.4796703633104924E-2</v>
+        <v>2.5423420066730706E-2</v>
       </c>
     </row>
     <row r="39" spans="1:17" s="16" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
